--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1190B5DF-5586-4F47-A19E-0176FE0BC705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684B0284-8BDE-45D7-B02A-366CB2FB8608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Flowers, Cards, etc.</t>
+    Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
     <comment ref="A9" authorId="3" shapeId="0" xr:uid="{9C20091A-D362-4496-83DA-FA539560097B}">
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Type</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Credit Card</t>
   </si>
   <si>
-    <t>Grocery</t>
-  </si>
-  <si>
     <t>Lottery</t>
   </si>
   <si>
@@ -310,6 +307,12 @@
   </si>
   <si>
     <t>Time Frame (Years):</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
+  </si>
+  <si>
+    <t>Non-Contributable</t>
   </si>
 </sst>
 </file>
@@ -326,7 +329,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -468,8 +471,14 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +515,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -790,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -818,7 +845,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -879,17 +905,22 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="21" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,7 +1195,7 @@
     <text>Gasoline</text>
   </threadedComment>
   <threadedComment ref="A7" dT="2025-06-16T03:21:52.39" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
-    <text>Flowers, Cards, etc.</text>
+    <text>Flowers, Cards, Bike, etc.</text>
   </threadedComment>
   <threadedComment ref="A9" dT="2025-06-16T03:21:19.01" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9C20091A-D362-4496-83DA-FA539560097B}">
     <text>Monthly, Annual, Upgrade</text>
@@ -1203,11 +1234,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1240,13 +1271,13 @@
     <col min="26" max="26" width="14.6640625" style="1" customWidth="1"/>
     <col min="27" max="27" width="14.88671875" style="1" customWidth="1"/>
     <col min="28" max="28" width="14.77734375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.21875" style="1" customWidth="1"/>
     <col min="30" max="30" width="15.5546875" style="1" customWidth="1"/>
     <col min="31" max="31" width="15.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5546875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="34.88671875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16.21875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="16.77734375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="16.109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="33.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="20.33203125" style="1" customWidth="1"/>
     <col min="36" max="36" width="15.109375" style="1" customWidth="1"/>
     <col min="37" max="37" width="15.44140625" style="1" customWidth="1"/>
     <col min="38" max="38" width="14.33203125" style="1" customWidth="1"/>
@@ -1255,7 +1286,7 @@
     <col min="41" max="41" width="15.5546875" style="1" customWidth="1"/>
     <col min="42" max="42" width="15" style="1" customWidth="1"/>
     <col min="43" max="43" width="14.109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="15.33203125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="16.6640625" style="1" customWidth="1"/>
     <col min="45" max="45" width="14.44140625" style="1" customWidth="1"/>
     <col min="46" max="46" width="14.33203125" style="1" customWidth="1"/>
     <col min="47" max="47" width="15.33203125" style="1" customWidth="1"/>
@@ -1266,9 +1297,9 @@
     <col min="53" max="54" width="15.109375" style="1" customWidth="1"/>
     <col min="55" max="55" width="14.33203125" style="1" customWidth="1"/>
     <col min="56" max="56" width="14.44140625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="12.88671875" style="1" customWidth="1"/>
+    <col min="57" max="57" width="16.109375" style="1" customWidth="1"/>
     <col min="58" max="58" width="19.44140625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="19.6640625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="23.88671875" style="1" customWidth="1"/>
     <col min="60" max="60" width="24.33203125" style="1" customWidth="1"/>
     <col min="61" max="61" width="24.5546875" style="1" customWidth="1"/>
     <col min="62" max="16384" width="10.88671875" style="1"/>
@@ -1497,15 +1528,15 @@
       <c r="BE1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BF1" s="65" t="s">
-        <v>40</v>
+      <c r="BF1" s="64" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="80"/>
+      <c r="A2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1519,29 +1550,31 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="8">
-        <f>SUM(B2:N2)</f>
+        <f t="shared" ref="O2:O16" si="4">SUM(B2:N2)</f>
         <v>0</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="80"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
-      <c r="X2" s="30"/>
+      <c r="X2" s="29"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="8">
-        <f>SUM(P2:AB2)</f>
+        <f t="shared" ref="AC2:AC16" si="5">SUM(P2:AB2)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="AF2" s="94">
+        <v>132</v>
+      </c>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
@@ -1553,8 +1586,8 @@
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="8">
-        <f>SUM(AD2:AP2)</f>
-        <v>0</v>
+        <f t="shared" ref="AQ2:AQ16" si="6">SUM(AD2:AP2)</f>
+        <v>132</v>
       </c>
       <c r="AR2" s="7"/>
       <c r="AS2" s="6"/>
@@ -1570,16 +1603,16 @@
       <c r="BC2" s="6"/>
       <c r="BD2" s="6"/>
       <c r="BE2" s="8">
-        <f>SUM(AR2:BD2)</f>
+        <f t="shared" ref="BE2:BE16" si="7">SUM(AR2:BD2)</f>
         <v>0</v>
       </c>
       <c r="BF2" s="8">
-        <f>O2+AC2+AQ2+BE2</f>
-        <v>0</v>
+        <f t="shared" ref="BF2:BF16" si="8">O2+AC2+AQ2+BE2</f>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="5"/>
@@ -1596,7 +1629,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="8">
-        <f>SUM(B3:N3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P3" s="7"/>
@@ -1607,19 +1640,18 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="88"/>
+      <c r="X3" s="25"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="8">
-        <f>SUM(P3:AB3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD3" s="7"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -1628,14 +1660,14 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
-      <c r="AP3" s="55"/>
+      <c r="AP3" s="54"/>
       <c r="AQ3" s="8">
-        <f>SUM(AD3:AP3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR3" s="7"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
       <c r="AU3" s="6"/>
       <c r="AV3" s="6"/>
       <c r="AW3" s="6"/>
@@ -1647,118 +1679,97 @@
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
       <c r="BE3" s="8">
-        <f>SUM(AR3:BD3)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BF3" s="8">
-        <f>O3+AC3+AQ3+BE3</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>51</v>
+      <c r="A4" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="45">
-        <v>1002.87</v>
-      </c>
+      <c r="E4" s="44"/>
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6">
-        <v>1002.87</v>
-      </c>
+      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6">
-        <v>1002.87</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="8">
-        <f>SUM(B4:N4)</f>
-        <v>3008.61</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="6">
-        <v>1002.87</v>
-      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="6">
-        <v>1002.87</v>
-      </c>
-      <c r="X4" s="88"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="25"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="6">
-        <v>1002.87</v>
-      </c>
+      <c r="AB4" s="6"/>
       <c r="AC4" s="8">
-        <f>SUM(P4:AB4)</f>
-        <v>3008.61</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="6">
-        <v>1002.87</v>
-      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="6">
-        <v>1002.87</v>
-      </c>
+      <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
-      <c r="AP4" s="55">
-        <v>1002.87</v>
+      <c r="AP4" s="89">
+        <v>1270.03</v>
       </c>
       <c r="AQ4" s="8">
-        <f>SUM(AD4:AP4)</f>
-        <v>3008.61</v>
+        <f t="shared" si="6"/>
+        <v>1270.03</v>
       </c>
       <c r="AR4" s="7"/>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="6">
-        <v>1002.87</v>
-      </c>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="6"/>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
       <c r="AY4" s="6"/>
-      <c r="AZ4" s="6">
-        <v>1002.87</v>
-      </c>
+      <c r="AZ4" s="6"/>
       <c r="BA4" s="6"/>
       <c r="BB4" s="6"/>
       <c r="BC4" s="6"/>
-      <c r="BD4" s="6">
-        <v>932.32</v>
+      <c r="BD4" s="90">
+        <v>1070.03</v>
       </c>
       <c r="BE4" s="8">
         <f>SUM(AR4:BD4)</f>
-        <v>2938.06</v>
+        <v>1070.03</v>
       </c>
       <c r="BF4" s="8">
-        <f>O4+AC4+AQ4+BE4</f>
-        <v>11963.89</v>
+        <f t="shared" si="8"/>
+        <v>2340.06</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>45</v>
+      <c r="A5" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1774,7 +1785,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="8">
-        <f>SUM(B5:N5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5" s="7"/>
@@ -1785,13 +1796,13 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="26"/>
+      <c r="X5" s="25"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="8">
-        <f>SUM(P5:AB5)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD5" s="7"/>
@@ -1806,14 +1817,14 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
       <c r="AO5" s="6"/>
-      <c r="AP5" s="55"/>
+      <c r="AP5" s="54"/>
       <c r="AQ5" s="8">
-        <f>SUM(AD5:AP5)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR5" s="7"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
       <c r="AU5" s="6"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
@@ -1825,17 +1836,17 @@
       <c r="BC5" s="6"/>
       <c r="BD5" s="6"/>
       <c r="BE5" s="8">
-        <f>SUM(AR5:BD5)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BF5" s="8">
-        <f>O5+AC5+AQ5+BE5</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
-        <v>41</v>
+    <row r="6" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1851,7 +1862,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="8">
-        <f>SUM(B6:N6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P6" s="7"/>
@@ -1862,13 +1873,13 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="26"/>
+      <c r="X6" s="25"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="8">
-        <f>SUM(P6:AB6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD6" s="7"/>
@@ -1883,14 +1894,14 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
-      <c r="AP6" s="55"/>
+      <c r="AP6" s="54"/>
       <c r="AQ6" s="8">
-        <f>SUM(AD6:AP6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR6" s="7"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
       <c r="AU6" s="6"/>
       <c r="AV6" s="6"/>
       <c r="AW6" s="6"/>
@@ -1902,19 +1913,19 @@
       <c r="BC6" s="6"/>
       <c r="BD6" s="6"/>
       <c r="BE6" s="8">
-        <f>SUM(AR6:BD6)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BF6" s="8">
-        <f>O6+AC6+AQ6+BE6</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1928,7 +1939,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="8">
-        <f>SUM(B7:N7)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7" s="7"/>
@@ -1939,13 +1950,13 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="26"/>
+      <c r="X7" s="25"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="8">
-        <f>SUM(P7:AB7)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD7" s="7"/>
@@ -1960,14 +1971,14 @@
       <c r="AM7" s="6"/>
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
-      <c r="AP7" s="55"/>
+      <c r="AP7" s="54"/>
       <c r="AQ7" s="8">
-        <f>SUM(AD7:AP7)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR7" s="7"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
       <c r="AU7" s="6"/>
       <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
@@ -1979,195 +1990,151 @@
       <c r="BC7" s="6"/>
       <c r="BD7" s="6"/>
       <c r="BE7" s="8">
-        <f>SUM(AR7:BD7)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BF7" s="8">
-        <f>O7+AC7+AQ7+BE7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="80">
-        <v>292</v>
-      </c>
+    <row r="8" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>292</v>
-      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
-        <v>292</v>
-      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="8">
-        <f>SUM(B8:N8)</f>
-        <v>876</v>
-      </c>
-      <c r="P8" s="7">
-        <v>292</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="7"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6">
-        <v>292</v>
-      </c>
+      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="26">
-        <v>292</v>
-      </c>
+      <c r="X8" s="25"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="8">
-        <f>SUM(P8:AB8)</f>
-        <v>876</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>292</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
-      <c r="AH8" s="6">
-        <v>292</v>
-      </c>
+      <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
-      <c r="AM8" s="6">
-        <v>292</v>
-      </c>
+      <c r="AM8" s="6"/>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="6"/>
       <c r="AQ8" s="8">
-        <f>SUM(AD8:AP8)</f>
-        <v>876</v>
-      </c>
-      <c r="AR8" s="7">
-        <v>292</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="7"/>
       <c r="AS8" s="6"/>
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
-      <c r="AV8" s="6">
-        <v>292</v>
-      </c>
+      <c r="AV8" s="6"/>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6"/>
       <c r="AY8" s="6"/>
       <c r="AZ8" s="6"/>
-      <c r="BA8" s="6">
-        <v>292</v>
-      </c>
+      <c r="BA8" s="6"/>
       <c r="BB8" s="6"/>
       <c r="BC8" s="6"/>
       <c r="BD8" s="6"/>
       <c r="BE8" s="8">
-        <f>SUM(AR8:BD8)</f>
-        <v>876</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="BF8" s="8">
-        <f>O8+AC8+AQ8+BE8</f>
-        <v>3504</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="5">
-        <v>49.99</v>
-      </c>
-      <c r="C9" s="7">
-        <v>25</v>
-      </c>
+    <row r="9" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6">
-        <v>25</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6">
-        <v>25</v>
-      </c>
+      <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="8">
-        <f>SUM(B9:N9)</f>
-        <v>124.99000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="6">
-        <v>25</v>
-      </c>
+      <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="6">
-        <v>25</v>
-      </c>
+      <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="6">
-        <v>25</v>
-      </c>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="8">
-        <f>SUM(P9:AB9)</f>
-        <v>75</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>25</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
-      <c r="AH9" s="6">
-        <v>25</v>
-      </c>
+      <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="6">
-        <v>25</v>
-      </c>
+      <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
       <c r="AN9" s="6"/>
       <c r="AO9" s="6"/>
-      <c r="AP9" s="55">
+      <c r="AP9" s="54">
         <v>25</v>
       </c>
       <c r="AQ9" s="8">
-        <f>SUM(AD9:AP9)</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="AR9" s="7"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
       <c r="AU9" s="6">
         <v>25</v>
       </c>
@@ -2183,187 +2150,133 @@
       <c r="BC9" s="6">
         <v>25</v>
       </c>
-      <c r="BD9" s="81"/>
+      <c r="BD9" s="79"/>
       <c r="BE9" s="8">
-        <f>SUM(AR9:BD9)</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="BF9" s="8">
-        <f>O9+AC9+AQ9+BE9</f>
-        <v>374.99</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:58" s="17" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
-        <v>50</v>
+    <row r="10" spans="1:58" s="17" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10">
-        <v>40</v>
-      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10">
-        <v>40</v>
-      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="6">
-        <v>40</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="8">
-        <f>SUM(B10:N10)</f>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="10">
-        <v>40</v>
-      </c>
+      <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="10">
-        <v>40</v>
-      </c>
-      <c r="X10" s="28"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="27"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
-      <c r="AB10" s="6">
-        <v>40</v>
-      </c>
+      <c r="AB10" s="6"/>
       <c r="AC10" s="8">
-        <f>SUM(P10:AB10)</f>
-        <v>120</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD10" s="9"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-      <c r="AG10" s="10">
-        <v>40</v>
-      </c>
+      <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
-      <c r="AL10" s="10">
-        <v>40</v>
-      </c>
+      <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
-      <c r="AP10" s="55">
-        <v>40</v>
-      </c>
+      <c r="AP10" s="54"/>
       <c r="AQ10" s="8">
-        <f>SUM(AD10:AP10)</f>
-        <v>120</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AR10" s="9"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="85"/>
-      <c r="AU10" s="10">
-        <v>40</v>
-      </c>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
       <c r="AW10" s="10"/>
       <c r="AX10" s="10"/>
       <c r="AY10" s="10"/>
-      <c r="AZ10" s="10">
-        <v>40</v>
-      </c>
+      <c r="AZ10" s="10"/>
       <c r="BA10" s="10"/>
       <c r="BB10" s="10"/>
       <c r="BC10" s="10"/>
-      <c r="BD10" s="6">
-        <v>40</v>
-      </c>
+      <c r="BD10" s="6"/>
       <c r="BE10" s="8">
-        <f>SUM(AR10:BD10)</f>
-        <v>120</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="BF10" s="8">
-        <f>O10+AC10+AQ10+BE10</f>
-        <v>480</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52" t="s">
-        <v>48</v>
+    <row r="11" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="11">
-        <v>10</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11">
-        <v>9.99</v>
-      </c>
-      <c r="G11" s="11">
-        <v>10</v>
-      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11">
-        <v>19.989999999999998</v>
-      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11">
-        <v>10</v>
-      </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="11">
-        <v>10</v>
-      </c>
+      <c r="N11" s="11"/>
       <c r="O11" s="12">
-        <f>SUM(B11:N11)</f>
-        <v>79.98</v>
-      </c>
-      <c r="P11" s="80">
-        <v>9.99</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>10</v>
-      </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="11">
-        <v>10</v>
-      </c>
-      <c r="T11" s="11">
-        <v>9.99</v>
-      </c>
-      <c r="U11" s="11">
-        <v>10</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="11">
-        <v>10</v>
-      </c>
-      <c r="X11" s="89">
-        <v>9.99</v>
-      </c>
+      <c r="W11" s="11"/>
+      <c r="X11" s="85"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
-      <c r="AA11" s="11">
-        <v>10</v>
-      </c>
+      <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="12">
-        <f>SUM(P11:AB11)</f>
-        <v>79.97</v>
-      </c>
-      <c r="AD11" s="80">
-        <v>19.989999999999998</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>10</v>
       </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11">
@@ -2371,19 +2284,17 @@
       </c>
       <c r="AG11" s="11"/>
       <c r="AH11" s="11">
-        <v>19.989999999999998</v>
+        <v>10</v>
       </c>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11">
-        <v>19.989999999999998</v>
+        <v>10</v>
       </c>
       <c r="AK11" s="11"/>
       <c r="AL11" s="11">
         <v>10</v>
       </c>
-      <c r="AM11" s="80">
-        <v>9.99</v>
-      </c>
+      <c r="AM11" s="5"/>
       <c r="AN11" s="11">
         <v>10</v>
       </c>
@@ -2392,12 +2303,10 @@
         <v>10</v>
       </c>
       <c r="AQ11" s="12">
-        <f>SUM(AD11:AP11)</f>
-        <v>109.96</v>
-      </c>
-      <c r="AR11" s="80">
-        <v>9.99</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="AR11" s="5"/>
       <c r="AS11" s="11">
         <v>10</v>
       </c>
@@ -2407,7 +2316,7 @@
       </c>
       <c r="AV11" s="11"/>
       <c r="AW11" s="11">
-        <v>19.989999999999998</v>
+        <v>10</v>
       </c>
       <c r="AX11" s="11"/>
       <c r="AY11" s="11">
@@ -2415,7 +2324,7 @@
       </c>
       <c r="AZ11" s="11"/>
       <c r="BA11" s="11">
-        <v>19.989999999999998</v>
+        <v>10</v>
       </c>
       <c r="BB11" s="11"/>
       <c r="BC11" s="11">
@@ -2423,17 +2332,17 @@
       </c>
       <c r="BD11" s="11"/>
       <c r="BE11" s="12">
-        <f>SUM(AR11:BD11)</f>
-        <v>89.97</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
       <c r="BF11" s="12">
-        <f>O11+AC11+AQ11+BE11</f>
-        <v>359.88</v>
+        <f t="shared" si="8"/>
+        <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="s">
-        <v>49</v>
+    <row r="12" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="51" t="s">
+        <v>48</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="11"/>
@@ -2449,10 +2358,10 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="12">
-        <f>SUM(B12:N12)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="80"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -2460,16 +2369,16 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-      <c r="X12" s="89"/>
+      <c r="X12" s="85"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="12">
-        <f>SUM(P12:AB12)</f>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="80"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
       <c r="AG12" s="11"/>
@@ -2478,15 +2387,15 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
-      <c r="AM12" s="80"/>
+      <c r="AM12" s="5"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="12">
-        <f>SUM(AD12:AP12)</f>
-        <v>0</v>
-      </c>
-      <c r="AR12" s="80"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="5"/>
       <c r="AS12" s="11"/>
       <c r="AT12" s="11"/>
       <c r="AU12" s="11"/>
@@ -2500,65 +2409,53 @@
       <c r="BC12" s="11"/>
       <c r="BD12" s="11"/>
       <c r="BE12" s="12">
-        <f>SUM(AR12:BD12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BF12" s="12">
-        <f>O12+AC12+AQ12+BE12</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="80">
-        <v>9.99</v>
-      </c>
+    <row r="13" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="12">
-        <f>SUM(B13:N13)</f>
-        <v>29.97</v>
-      </c>
-      <c r="P13" s="80">
-        <v>9.99</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-      <c r="X13" s="89">
-        <v>9.99</v>
-      </c>
+      <c r="X13" s="85"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="12">
-        <f>SUM(P13:AB13)</f>
-        <v>29.97</v>
-      </c>
-      <c r="AD13" s="80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5">
         <v>9.99</v>
       </c>
       <c r="AE13" s="11"/>
@@ -2571,17 +2468,17 @@
       <c r="AJ13" s="11"/>
       <c r="AK13" s="11"/>
       <c r="AL13" s="11"/>
-      <c r="AM13" s="80">
+      <c r="AM13" s="5">
         <v>9.99</v>
       </c>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="12">
-        <f>SUM(AD13:AP13)</f>
+        <f t="shared" si="6"/>
         <v>29.97</v>
       </c>
-      <c r="AR13" s="80">
+      <c r="AR13" s="5">
         <v>9.99</v>
       </c>
       <c r="AS13" s="11"/>
@@ -2601,326 +2498,243 @@
       <c r="BC13" s="11"/>
       <c r="BD13" s="11"/>
       <c r="BE13" s="12">
-        <f>SUM(AR13:BD13)</f>
+        <f t="shared" si="7"/>
         <v>29.97</v>
       </c>
       <c r="BF13" s="12">
-        <f>O13+AC13+AQ13+BE13</f>
-        <v>119.88</v>
+        <f t="shared" si="8"/>
+        <v>59.94</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="5">
-        <v>160</v>
-      </c>
+    <row r="14" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11">
-        <v>60</v>
-      </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11">
-        <v>60</v>
-      </c>
+      <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12">
-        <f>SUM(B14:N14)</f>
-        <v>280</v>
-      </c>
-      <c r="P14" s="5">
-        <v>60</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="11">
-        <v>60</v>
-      </c>
+      <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-      <c r="X14" s="89">
-        <v>60</v>
-      </c>
+      <c r="X14" s="85"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="12">
-        <f>SUM(P14:AB14)</f>
-        <v>180</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>60</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5"/>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
-      <c r="AH14" s="11">
-        <v>60</v>
-      </c>
+      <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="11"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
-      <c r="AM14" s="5">
-        <v>60</v>
-      </c>
+      <c r="AM14" s="5"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="13"/>
       <c r="AQ14" s="12">
-        <f>SUM(AD14:AP14)</f>
-        <v>180</v>
-      </c>
-      <c r="AR14" s="5">
-        <v>60</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="5"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
       <c r="AU14" s="11"/>
-      <c r="AV14" s="11">
-        <v>60</v>
-      </c>
+      <c r="AV14" s="11"/>
       <c r="AW14" s="11"/>
       <c r="AX14" s="11"/>
       <c r="AY14" s="11"/>
       <c r="AZ14" s="11"/>
-      <c r="BA14" s="11">
-        <v>60</v>
-      </c>
+      <c r="BA14" s="11"/>
       <c r="BB14" s="11"/>
       <c r="BC14" s="11"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="12">
-        <f>SUM(AR14:BD14)</f>
-        <v>180</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="BF14" s="12">
-        <f>O14+AC14+AQ14+BE14</f>
-        <v>820</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="s">
+    <row r="15" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>800</v>
-      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="11">
-        <f>E15</f>
-        <v>800</v>
-      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="11">
-        <f>E15</f>
-        <v>800</v>
-      </c>
+      <c r="N15" s="11"/>
       <c r="O15" s="12">
-        <f>SUM(B15:N15)</f>
-        <v>2400</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="11">
-        <f>E15</f>
-        <v>800</v>
-      </c>
+      <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="11">
-        <f>E15</f>
-        <v>800</v>
-      </c>
-      <c r="X15" s="89"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="85"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
-      <c r="AB15" s="11">
-        <f>E15</f>
-        <v>800</v>
-      </c>
+      <c r="AB15" s="11"/>
       <c r="AC15" s="12">
-        <f>SUM(P15:AB15)</f>
-        <v>2400</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
-      <c r="AG15" s="11">
-        <f>E15</f>
-        <v>800</v>
-      </c>
+      <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
-      <c r="AL15" s="11">
-        <f>E15</f>
-        <v>800</v>
-      </c>
+      <c r="AL15" s="11"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
-      <c r="AP15" s="56">
-        <f>E15</f>
-        <v>800</v>
-      </c>
+      <c r="AP15" s="55"/>
       <c r="AQ15" s="12">
-        <f>SUM(AD15:AP15)</f>
-        <v>2400</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AR15" s="5"/>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
-      <c r="AU15" s="11">
-        <f>E15</f>
-        <v>800</v>
-      </c>
+      <c r="AU15" s="11"/>
       <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
       <c r="AX15" s="11"/>
       <c r="AY15" s="11"/>
-      <c r="AZ15" s="11">
-        <f>E15</f>
-        <v>800</v>
-      </c>
+      <c r="AZ15" s="11"/>
       <c r="BA15" s="11"/>
       <c r="BB15" s="11"/>
       <c r="BC15" s="11"/>
-      <c r="BD15" s="80">
-        <f>E15</f>
-        <v>800</v>
-      </c>
+      <c r="BD15" s="5"/>
       <c r="BE15" s="12">
-        <f>SUM(AR15:BD15)</f>
-        <v>2400</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="BF15" s="12">
-        <f>O15+AC15+AQ15+BE15</f>
-        <v>9600</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="11">
-        <v>50</v>
-      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="11">
-        <v>50</v>
-      </c>
+      <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="11">
-        <v>50</v>
-      </c>
+      <c r="N16" s="11"/>
       <c r="O16" s="12">
-        <f>SUM(B16:N16)</f>
-        <v>150</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="11">
-        <v>50</v>
-      </c>
+      <c r="R16" s="53"/>
+      <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11">
-        <v>50</v>
-      </c>
-      <c r="X16" s="89"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="85"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
-      <c r="AB16" s="11">
-        <v>50</v>
-      </c>
+      <c r="AB16" s="11"/>
       <c r="AC16" s="12">
-        <f>SUM(P16:AB16)</f>
-        <v>150</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AD16" s="5"/>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
-      <c r="AG16" s="11">
-        <v>50</v>
-      </c>
+      <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
-      <c r="AL16" s="11">
-        <v>50</v>
-      </c>
+      <c r="AL16" s="11"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
-      <c r="AP16" s="11">
-        <v>50</v>
-      </c>
+      <c r="AP16" s="11"/>
       <c r="AQ16" s="12">
-        <f>SUM(AD16:AP16)</f>
-        <v>150</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AR16" s="5"/>
       <c r="AS16" s="11"/>
       <c r="AT16" s="11"/>
-      <c r="AU16" s="11">
-        <v>50</v>
-      </c>
+      <c r="AU16" s="11"/>
       <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
       <c r="AX16" s="11"/>
       <c r="AY16" s="11"/>
-      <c r="AZ16" s="11">
-        <v>50</v>
-      </c>
+      <c r="AZ16" s="11"/>
       <c r="BA16" s="11"/>
       <c r="BB16" s="11"/>
       <c r="BC16" s="11"/>
-      <c r="BD16" s="11">
-        <v>50</v>
-      </c>
+      <c r="BD16" s="11"/>
       <c r="BE16" s="12">
-        <f>SUM(AR16:BD16)</f>
-        <v>150</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="BF16" s="12">
-        <f>O16+AC16+AQ16+BE16</f>
-        <v>600</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:61" s="17" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2929,960 +2743,766 @@
       </c>
       <c r="B17" s="15">
         <f>SUM(B2:B16)</f>
-        <v>511.98</v>
-      </c>
-      <c r="C17" s="33">
-        <f>SUM(C2:C16)+B17</f>
-        <v>546.98</v>
-      </c>
-      <c r="D17" s="33">
-        <f>SUM(D2:D16)+C17</f>
-        <v>546.98</v>
-      </c>
-      <c r="E17" s="33">
-        <f>SUM(E2:E16)+D17</f>
-        <v>2449.85</v>
-      </c>
-      <c r="F17" s="33">
-        <f>SUM(F2:F16)+E17</f>
-        <v>2821.83</v>
-      </c>
-      <c r="G17" s="33">
-        <f>SUM(G2:G16)+F17</f>
-        <v>2856.83</v>
-      </c>
-      <c r="H17" s="33">
-        <f>SUM(H2:H16)+G17</f>
-        <v>2856.83</v>
-      </c>
-      <c r="I17" s="33">
-        <f>SUM(I2:I16)+H17</f>
-        <v>4749.7</v>
-      </c>
-      <c r="J17" s="33">
-        <f>SUM(J2:J16)+I17</f>
-        <v>5131.68</v>
-      </c>
-      <c r="K17" s="33">
-        <f>SUM(K2:K16)+J17</f>
-        <v>5156.68</v>
-      </c>
-      <c r="L17" s="33">
-        <f>SUM(L2:L16)+K17</f>
-        <v>5166.68</v>
-      </c>
-      <c r="M17" s="33">
-        <f>SUM(M2:M16)+L17</f>
-        <v>5166.68</v>
-      </c>
-      <c r="N17" s="33">
-        <f>SUM(N2:N16)+M17</f>
-        <v>7069.55</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="32">
+        <f>SUM(C2:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
+        <f t="shared" ref="D17:N17" si="9">SUM(D2:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O17" s="16">
         <f>SUM(O2:O16)</f>
-        <v>7069.55</v>
-      </c>
-      <c r="P17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32">
         <f>SUM(P2:P16)</f>
-        <v>371.98</v>
-      </c>
-      <c r="Q17" s="33">
-        <f>SUM(Q2:Q16)+P17</f>
-        <v>406.98</v>
-      </c>
-      <c r="R17" s="33">
-        <f>SUM(R2:R16)+Q17</f>
-        <v>406.98</v>
-      </c>
-      <c r="S17" s="33">
-        <f>SUM(S2:S16)+R17</f>
-        <v>2309.85</v>
-      </c>
-      <c r="T17" s="33">
-        <f>SUM(T2:T16)+S17</f>
-        <v>2681.83</v>
-      </c>
-      <c r="U17" s="33">
-        <f>SUM(U2:U16)+T17</f>
-        <v>2716.83</v>
-      </c>
-      <c r="V17" s="33">
-        <f>SUM(V2:V16)+U17</f>
-        <v>2716.83</v>
-      </c>
-      <c r="W17" s="33">
-        <f>SUM(W2:W16)+V17</f>
-        <v>4619.7</v>
-      </c>
-      <c r="X17" s="33">
-        <f>SUM(X2:X16)+W17</f>
-        <v>4991.68</v>
-      </c>
-      <c r="Y17" s="33">
-        <f>SUM(Y2:Y16)+X17</f>
-        <v>5016.68</v>
-      </c>
-      <c r="Z17" s="33">
-        <f>SUM(Z2:Z16)+Y17</f>
-        <v>5016.68</v>
-      </c>
-      <c r="AA17" s="33">
-        <f>SUM(AA2:AA16)+Z17</f>
-        <v>5026.68</v>
-      </c>
-      <c r="AB17" s="34">
-        <f>SUM(AB2:AB16)+AA17</f>
-        <v>6919.55</v>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="32">
+        <f t="shared" ref="Q17:AB17" si="10">SUM(Q2:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="33">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AC17" s="16">
         <f>SUM(AC2:AC16)</f>
-        <v>6919.55</v>
-      </c>
-      <c r="AD17" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="32">
         <f>SUM(AD2:AD16)</f>
-        <v>406.98</v>
-      </c>
-      <c r="AE17" s="33">
-        <f>SUM(AE2:AE16)+AD17</f>
-        <v>406.98</v>
-      </c>
-      <c r="AF17" s="33">
-        <f>SUM(AF2:AF16)+AE17</f>
-        <v>416.98</v>
-      </c>
-      <c r="AG17" s="33">
-        <f>SUM(AG2:AG16)+AF17</f>
-        <v>2309.85</v>
-      </c>
-      <c r="AH17" s="33">
-        <f>SUM(AH2:AH16)+AG17</f>
-        <v>2716.83</v>
-      </c>
-      <c r="AI17" s="33">
-        <f>SUM(AI2:AI16)+AH17</f>
-        <v>2716.83</v>
-      </c>
-      <c r="AJ17" s="33">
-        <f>SUM(AJ2:AJ16)+AI17</f>
-        <v>2736.8199999999997</v>
-      </c>
-      <c r="AK17" s="33">
-        <f>SUM(AK2:AK16)+AJ17</f>
-        <v>2736.8199999999997</v>
-      </c>
-      <c r="AL17" s="33">
-        <f>SUM(AL2:AL16)+AK17</f>
-        <v>4664.6899999999996</v>
-      </c>
-      <c r="AM17" s="33">
-        <f>SUM(AM2:AM16)+AL17</f>
-        <v>5036.67</v>
-      </c>
-      <c r="AN17" s="33">
-        <f>SUM(AN2:AN16)+AM17</f>
-        <v>5046.67</v>
-      </c>
-      <c r="AO17" s="33">
-        <f>SUM(AO2:AO16)+AN17</f>
-        <v>5046.67</v>
-      </c>
-      <c r="AP17" s="34">
-        <f>SUM(AP2:AP16)+AO17</f>
-        <v>6974.54</v>
+        <v>19.990000000000002</v>
+      </c>
+      <c r="AE17" s="32">
+        <f t="shared" ref="AE17:AP17" si="11">SUM(AE2:AE16)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="32">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+      <c r="AG17" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="32">
+        <f t="shared" si="11"/>
+        <v>19.990000000000002</v>
+      </c>
+      <c r="AI17" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="32">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AK17" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="32">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AM17" s="32">
+        <f t="shared" si="11"/>
+        <v>9.99</v>
+      </c>
+      <c r="AN17" s="32">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AO17" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="33">
+        <f t="shared" si="11"/>
+        <v>1305.03</v>
       </c>
       <c r="AQ17" s="16">
         <f>SUM(AQ2:AQ16)</f>
-        <v>6974.5400000000009</v>
-      </c>
-      <c r="AR17" s="33">
+        <v>1527</v>
+      </c>
+      <c r="AR17" s="32">
         <f>SUM(AR2:AR16)</f>
-        <v>371.98</v>
-      </c>
-      <c r="AS17" s="33">
-        <f>SUM(AS2:AS16)+AR17</f>
-        <v>381.98</v>
-      </c>
-      <c r="AT17" s="33">
-        <f>SUM(AT2:AT16)+AS17</f>
-        <v>381.98</v>
-      </c>
-      <c r="AU17" s="33">
-        <f>SUM(AU2:AU16)+AT17</f>
-        <v>2309.85</v>
-      </c>
-      <c r="AV17" s="33">
-        <f>SUM(AV2:AV16)+AU17</f>
-        <v>2671.84</v>
-      </c>
-      <c r="AW17" s="33">
-        <f>SUM(AW2:AW16)+AV17</f>
-        <v>2691.83</v>
-      </c>
-      <c r="AX17" s="33">
-        <f>SUM(AX2:AX16)+AW17</f>
-        <v>2691.83</v>
-      </c>
-      <c r="AY17" s="33">
-        <f>SUM(AY2:AY16)+AX17</f>
-        <v>2726.83</v>
-      </c>
-      <c r="AZ17" s="33">
-        <f>SUM(AZ2:AZ16)+AY17</f>
-        <v>4619.7</v>
-      </c>
-      <c r="BA17" s="33">
-        <f>SUM(BA2:BA16)+AZ17</f>
-        <v>4991.6899999999996</v>
-      </c>
-      <c r="BB17" s="33">
-        <f>SUM(BB2:BB16)+BA17</f>
-        <v>5001.6799999999994</v>
-      </c>
-      <c r="BC17" s="33">
-        <f>SUM(BC2:BC16)+BB17</f>
-        <v>5036.6799999999994</v>
-      </c>
-      <c r="BD17" s="34">
-        <f>SUM(BD2:BD16)+BC17</f>
-        <v>6859</v>
+        <v>9.99</v>
+      </c>
+      <c r="AS17" s="32">
+        <f t="shared" ref="AS17:BD17" si="12">SUM(AS2:AS16)</f>
+        <v>10</v>
+      </c>
+      <c r="AT17" s="32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="32">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="AV17" s="32">
+        <f t="shared" si="12"/>
+        <v>9.99</v>
+      </c>
+      <c r="AW17" s="32">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AX17" s="32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="32">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="AZ17" s="32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="32">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BB17" s="32">
+        <f t="shared" si="12"/>
+        <v>9.99</v>
+      </c>
+      <c r="BC17" s="32">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="BD17" s="33">
+        <f t="shared" si="12"/>
+        <v>1070.03</v>
       </c>
       <c r="BE17" s="16">
         <f>SUM(BE2:BE16)</f>
-        <v>6859</v>
+        <v>1235</v>
       </c>
       <c r="BF17" s="16">
         <f>SUM(BF2:BF16)</f>
-        <v>27822.639999999999</v>
+        <v>2762</v>
       </c>
     </row>
-    <row r="18" spans="1:61" s="17" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="82" t="s">
+    <row r="18" spans="1:61" s="17" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="87">
+        <f t="shared" ref="O18:O23" si="13">SUM(B18:N18)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="87">
+        <f t="shared" ref="AC18:AC23" si="14">SUM(P18:AB18)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="91">
         <v>95</v>
       </c>
-      <c r="C18" s="19">
-        <f>B18</f>
+      <c r="AE18" s="92">
         <v>95</v>
       </c>
-      <c r="D18" s="19">
-        <f>C18</f>
+      <c r="AF18" s="93">
         <v>95</v>
       </c>
-      <c r="E18" s="19">
-        <f>D18</f>
+      <c r="AG18" s="93">
         <v>95</v>
       </c>
-      <c r="F18" s="19">
-        <f>E18</f>
+      <c r="AH18" s="93">
         <v>95</v>
       </c>
-      <c r="G18" s="19">
-        <f>F18</f>
+      <c r="AI18" s="93">
         <v>95</v>
       </c>
-      <c r="H18" s="19">
-        <f>G18</f>
+      <c r="AJ18" s="19">
         <v>95</v>
       </c>
-      <c r="I18" s="19">
-        <f>H18</f>
+      <c r="AK18" s="19">
         <v>95</v>
       </c>
-      <c r="J18" s="19">
-        <f>I18</f>
+      <c r="AL18" s="19">
         <v>95</v>
       </c>
-      <c r="K18" s="19">
-        <f>J18</f>
+      <c r="AM18" s="19">
         <v>95</v>
       </c>
-      <c r="L18" s="19">
-        <f>K18</f>
+      <c r="AN18" s="19">
         <v>95</v>
       </c>
-      <c r="M18" s="19">
-        <f>L18</f>
+      <c r="AO18" s="19">
         <v>95</v>
       </c>
-      <c r="N18" s="20">
-        <f>M18</f>
+      <c r="AP18" s="20">
         <v>95</v>
       </c>
-      <c r="O18" s="21">
-        <f>SUM(B18:N18)</f>
-        <v>1235</v>
-      </c>
-      <c r="P18" s="18">
-        <f>B18</f>
-        <v>95</v>
-      </c>
-      <c r="Q18" s="19">
-        <f>C18</f>
-        <v>95</v>
-      </c>
-      <c r="R18" s="19">
-        <f>D18</f>
-        <v>95</v>
-      </c>
-      <c r="S18" s="19">
-        <f>E18</f>
-        <v>95</v>
-      </c>
-      <c r="T18" s="19">
-        <f>F18</f>
-        <v>95</v>
-      </c>
-      <c r="U18" s="19">
-        <f>G18</f>
-        <v>95</v>
-      </c>
-      <c r="V18" s="19">
-        <f>H18</f>
-        <v>95</v>
-      </c>
-      <c r="W18" s="19">
-        <f>I18</f>
-        <v>95</v>
-      </c>
-      <c r="X18" s="19">
-        <f>J18</f>
-        <v>95</v>
-      </c>
-      <c r="Y18" s="19">
-        <f>K18</f>
-        <v>95</v>
-      </c>
-      <c r="Z18" s="19">
-        <f>L18</f>
-        <v>95</v>
-      </c>
-      <c r="AA18" s="19">
-        <f>M18</f>
-        <v>95</v>
-      </c>
-      <c r="AB18" s="20">
-        <f>N18</f>
-        <v>95</v>
-      </c>
-      <c r="AC18" s="21">
-        <f>SUM(P18:AB18)</f>
-        <v>1235</v>
-      </c>
-      <c r="AD18" s="18">
-        <f>B18</f>
-        <v>95</v>
-      </c>
-      <c r="AE18" s="19">
-        <f>C18</f>
-        <v>95</v>
-      </c>
-      <c r="AF18" s="19">
-        <f>D18</f>
-        <v>95</v>
-      </c>
-      <c r="AG18" s="19">
-        <f>E18</f>
-        <v>95</v>
-      </c>
-      <c r="AH18" s="19">
-        <f>F18</f>
-        <v>95</v>
-      </c>
-      <c r="AI18" s="19">
-        <f>G18</f>
-        <v>95</v>
-      </c>
-      <c r="AJ18" s="19">
-        <f>H18</f>
-        <v>95</v>
-      </c>
-      <c r="AK18" s="19">
-        <f>I18</f>
-        <v>95</v>
-      </c>
-      <c r="AL18" s="19">
-        <f>J18</f>
-        <v>95</v>
-      </c>
-      <c r="AM18" s="19">
-        <f>K18</f>
-        <v>95</v>
-      </c>
-      <c r="AN18" s="19">
-        <f>L18</f>
-        <v>95</v>
-      </c>
-      <c r="AO18" s="19">
-        <f>M18</f>
-        <v>95</v>
-      </c>
-      <c r="AP18" s="20">
-        <f>N18</f>
-        <v>95</v>
-      </c>
-      <c r="AQ18" s="21">
+      <c r="AQ18" s="87">
         <f>SUM(AD18:AP18)</f>
         <v>1235</v>
       </c>
-      <c r="AR18" s="22">
-        <f>C18</f>
+      <c r="AR18" s="21">
         <v>95</v>
       </c>
       <c r="AS18" s="19">
-        <f>D18</f>
         <v>95</v>
       </c>
       <c r="AT18" s="19">
-        <f>E18</f>
         <v>95</v>
       </c>
       <c r="AU18" s="19">
-        <f>F18</f>
         <v>95</v>
       </c>
       <c r="AV18" s="19">
-        <f>G18</f>
         <v>95</v>
       </c>
       <c r="AW18" s="19">
-        <f>H18</f>
         <v>95</v>
       </c>
       <c r="AX18" s="19">
-        <f>I18</f>
         <v>95</v>
       </c>
       <c r="AY18" s="19">
-        <f>J18</f>
         <v>95</v>
       </c>
       <c r="AZ18" s="19">
-        <f>K18</f>
         <v>95</v>
       </c>
       <c r="BA18" s="19">
-        <f>L18</f>
         <v>95</v>
       </c>
       <c r="BB18" s="19">
-        <f>M18</f>
         <v>95</v>
       </c>
       <c r="BC18" s="19">
-        <f>N18</f>
         <v>95</v>
       </c>
       <c r="BD18" s="20">
-        <f>BC18</f>
         <v>95</v>
       </c>
-      <c r="BE18" s="21">
-        <f>SUM(AR18:BD18)</f>
+      <c r="BE18" s="87">
+        <f t="shared" ref="BE18:BE23" si="15">SUM(AR18:BD18)</f>
         <v>1235</v>
       </c>
-      <c r="BF18" s="21">
-        <f>O18+AC18+AQ18+BE18</f>
-        <v>4940</v>
-      </c>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="36"/>
+      <c r="BF18" s="87">
+        <f t="shared" ref="BF18:BF23" si="16">O18+AC18+AQ18+BE18</f>
+        <v>2470</v>
+      </c>
+      <c r="BH18" s="35"/>
+      <c r="BI18" s="35"/>
     </row>
-    <row r="19" spans="1:61" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:61" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="21">
-        <f>SUM(B19:N19)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="21">
-        <f>SUM(P19:AB19)</f>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="21">
+      <c r="B19" s="21"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="87">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="87">
         <f>SUM(AD19:AP19)</f>
         <v>0</v>
       </c>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="24"/>
-      <c r="AV19" s="24"/>
-      <c r="AW19" s="24"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="25"/>
-      <c r="BE19" s="21">
-        <f>SUM(AR19:BD19)</f>
-        <v>0</v>
-      </c>
-      <c r="BF19" s="21">
-        <f>O19+AC19+AQ19+BE19</f>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="87">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="87">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="21">
-        <f>SUM(B20:N20)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="21">
-        <f>SUM(P20:AB20)</f>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="21">
+    <row r="20" spans="1:61" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="87">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="87">
         <f>SUM(AD20:AP20)</f>
         <v>0</v>
       </c>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="28"/>
-      <c r="AT20" s="28"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="28"/>
-      <c r="AY20" s="28"/>
-      <c r="AZ20" s="28"/>
-      <c r="BA20" s="28"/>
-      <c r="BB20" s="28"/>
-      <c r="BC20" s="28"/>
-      <c r="BD20" s="28"/>
-      <c r="BE20" s="21">
-        <f>SUM(AR20:BD20)</f>
-        <v>0</v>
-      </c>
-      <c r="BF20" s="21">
-        <f>O20+AC20+AQ20+BE20</f>
-        <v>0</v>
-      </c>
-      <c r="BG20" s="37"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="27"/>
+      <c r="BE20" s="87">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BF20" s="87">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BG20" s="36"/>
     </row>
-    <row r="21" spans="1:61" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:61" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="28">
-        <v>1600</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="66">
-        <f>C21</f>
-        <v>1600</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28">
-        <f>E21</f>
-        <v>1600</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28">
-        <f>G21</f>
-        <v>1600</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28">
-        <f>I21</f>
-        <v>1600</v>
-      </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28">
-        <f>K21</f>
-        <v>1600</v>
-      </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="21">
-        <f>SUM(B21:N21)</f>
-        <v>9600</v>
-      </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="28">
-        <f>C21</f>
-        <v>1600</v>
-      </c>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28">
-        <f>E21</f>
-        <v>1600</v>
-      </c>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28">
-        <f>S21</f>
-        <v>1600</v>
-      </c>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28">
-        <f>U21</f>
-        <v>1600</v>
-      </c>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28">
-        <f>W21</f>
-        <v>1600</v>
-      </c>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28">
-        <f>Y21</f>
-        <v>1600</v>
-      </c>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="21">
-        <f>SUM(P21:AB21)</f>
-        <v>9600</v>
-      </c>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="28">
-        <f>C21</f>
-        <v>1600</v>
-      </c>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28">
-        <f>AE21</f>
-        <v>1600</v>
-      </c>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28">
-        <f>AG21</f>
-        <v>1600</v>
-      </c>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28">
-        <f>AI21</f>
-        <v>1600</v>
-      </c>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28">
-        <f>AK21</f>
-        <v>1600</v>
-      </c>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28">
-        <f>AM21</f>
-        <v>1600</v>
-      </c>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="21">
+      <c r="B21" s="28"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="87">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="87">
         <f>SUM(AE21:AP21)</f>
-        <v>9600</v>
-      </c>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="28">
-        <f>C21</f>
-        <v>1600</v>
-      </c>
-      <c r="AT21" s="28"/>
-      <c r="AU21" s="28">
-        <f>AS21</f>
-        <v>1600</v>
-      </c>
-      <c r="AV21" s="28"/>
-      <c r="AW21" s="28">
-        <f>AU21</f>
-        <v>1600</v>
-      </c>
-      <c r="AX21" s="28"/>
-      <c r="AY21" s="28">
-        <f>AW21</f>
-        <v>1600</v>
-      </c>
-      <c r="AZ21" s="28"/>
-      <c r="BA21" s="28">
-        <f>AY21</f>
-        <v>1600</v>
-      </c>
-      <c r="BB21" s="28"/>
-      <c r="BC21" s="28">
-        <f>BA21</f>
-        <v>1600</v>
-      </c>
-      <c r="BD21" s="30"/>
-      <c r="BE21" s="21">
-        <f>SUM(AR21:BD21)</f>
-        <v>9600</v>
-      </c>
-      <c r="BF21" s="21">
-        <f>O21+AC21+AQ21+BE21</f>
-        <v>38400</v>
-      </c>
-      <c r="BH21" s="47"/>
-      <c r="BI21" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="29"/>
+      <c r="BE21" s="87">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="87">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="46"/>
     </row>
-    <row r="22" spans="1:61" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:61" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="29">
         <v>292</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28">
-        <f>B22</f>
+      <c r="AC22" s="87">
+        <f t="shared" si="14"/>
         <v>292</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28">
-        <f>B22</f>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27">
         <v>292</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="30">
-        <f>B22</f>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27">
         <v>292</v>
       </c>
-      <c r="O22" s="21">
-        <f>SUM(B22:N22)</f>
-        <v>1168</v>
-      </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28">
-        <f>B22</f>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="87">
+        <f>SUM(AD22:AP22)</f>
+        <v>584</v>
+      </c>
+      <c r="AR22" s="28">
         <v>292</v>
       </c>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28">
-        <f>B22</f>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27">
         <v>292</v>
       </c>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="30">
-        <f>B22</f>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="27"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="27">
         <v>292</v>
       </c>
-      <c r="AC22" s="21">
-        <f>SUM(P22:AB22)</f>
+      <c r="BB22" s="27"/>
+      <c r="BC22" s="27"/>
+      <c r="BD22" s="29"/>
+      <c r="BE22" s="87">
+        <f t="shared" si="15"/>
         <v>876</v>
       </c>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28">
-        <f>B22</f>
-        <v>292</v>
-      </c>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28">
-        <f>B22</f>
-        <v>292</v>
-      </c>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="30">
-        <f>B22</f>
-        <v>292</v>
-      </c>
-      <c r="AQ22" s="21">
-        <f>SUM(AD22:AP22)</f>
-        <v>876</v>
-      </c>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="28"/>
-      <c r="AT22" s="28"/>
-      <c r="AU22" s="28"/>
-      <c r="AV22" s="28">
-        <f>B22</f>
-        <v>292</v>
-      </c>
-      <c r="AW22" s="28"/>
-      <c r="AX22" s="28"/>
-      <c r="AY22" s="28"/>
-      <c r="AZ22" s="28">
-        <f>B22</f>
-        <v>292</v>
-      </c>
-      <c r="BA22" s="28"/>
-      <c r="BB22" s="28"/>
-      <c r="BC22" s="28"/>
-      <c r="BD22" s="30"/>
-      <c r="BE22" s="21">
-        <f>SUM(AR22:BD22)</f>
-        <v>584</v>
-      </c>
-      <c r="BF22" s="21">
-        <f>O22+AC22+AQ22+BE22</f>
-        <v>3504</v>
+      <c r="BF22" s="87">
+        <f t="shared" si="16"/>
+        <v>1752</v>
+      </c>
+      <c r="BG22" s="88" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:61" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="21">
-        <f>SUM(B23:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="21">
-        <f>SUM(P23:AB23)</f>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28">
+      <c r="B23" s="28"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="87">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="65">
         <v>292</v>
       </c>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="21">
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="87">
         <f>SUM(AD23:AP23)</f>
         <v>292</v>
       </c>
-      <c r="AR23" s="29"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="28"/>
-      <c r="AY23" s="28"/>
-      <c r="AZ23" s="28"/>
-      <c r="BA23" s="28"/>
-      <c r="BB23" s="28"/>
-      <c r="BC23" s="28"/>
-      <c r="BD23" s="30"/>
-      <c r="BE23" s="21">
-        <f>SUM(AR23:BD23)</f>
-        <v>0</v>
-      </c>
-      <c r="BF23" s="21">
-        <f>O23+AC23+AQ23+BE23</f>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="29"/>
+      <c r="BE23" s="87">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BF23" s="87">
+        <f t="shared" si="16"/>
         <v>292</v>
       </c>
     </row>
@@ -3890,769 +3510,769 @@
       <c r="A24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="33">
-        <f t="shared" ref="B24" si="4">SUM(B18:B23)</f>
-        <v>387</v>
-      </c>
-      <c r="C24" s="33">
-        <f>SUM(C18:C23)+B24</f>
-        <v>2082</v>
-      </c>
-      <c r="D24" s="64">
-        <f t="shared" ref="D24:N24" si="5">SUM(D18:D23)+C24</f>
-        <v>2177</v>
-      </c>
-      <c r="E24" s="33">
-        <f t="shared" si="5"/>
-        <v>3872</v>
-      </c>
-      <c r="F24" s="33">
-        <f t="shared" si="5"/>
-        <v>4259</v>
-      </c>
-      <c r="G24" s="33">
-        <f t="shared" si="5"/>
-        <v>5954</v>
-      </c>
-      <c r="H24" s="33">
-        <f t="shared" si="5"/>
-        <v>6049</v>
-      </c>
-      <c r="I24" s="33">
-        <f t="shared" si="5"/>
-        <v>7744</v>
-      </c>
-      <c r="J24" s="33">
-        <f t="shared" si="5"/>
-        <v>8131</v>
-      </c>
-      <c r="K24" s="33">
-        <f t="shared" si="5"/>
-        <v>9826</v>
-      </c>
-      <c r="L24" s="33">
-        <f t="shared" si="5"/>
-        <v>9921</v>
-      </c>
-      <c r="M24" s="33">
-        <f t="shared" si="5"/>
-        <v>11616</v>
-      </c>
-      <c r="N24" s="34">
-        <f t="shared" si="5"/>
-        <v>12003</v>
+      <c r="B24" s="32">
+        <f>SUM(B18:B21)+B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="32">
+        <f>SUM(C18:C21)+C23+B24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="63">
+        <f t="shared" ref="D24:N24" si="17">SUM(D18:D21)+D23+C24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="O24" s="16">
-        <f>SUM(O18:O23)</f>
-        <v>12003</v>
-      </c>
-      <c r="P24" s="33">
-        <f>SUM(P18:P23)+O25</f>
-        <v>5028.45</v>
-      </c>
-      <c r="Q24" s="33">
-        <f>SUM(Q18:Q23)+P24</f>
-        <v>6723.45</v>
-      </c>
-      <c r="R24" s="33">
-        <f t="shared" ref="R24:AB24" si="6">SUM(R18:R23)+Q24</f>
-        <v>6818.45</v>
-      </c>
-      <c r="S24" s="33">
-        <f>SUM(S18:S23)+R24</f>
-        <v>8513.4500000000007</v>
-      </c>
-      <c r="T24" s="33">
-        <f>SUM(T18:T23)+S24</f>
-        <v>8900.4500000000007</v>
-      </c>
-      <c r="U24" s="33">
-        <f t="shared" si="6"/>
-        <v>10595.45</v>
-      </c>
-      <c r="V24" s="33">
-        <f t="shared" si="6"/>
-        <v>10690.45</v>
-      </c>
-      <c r="W24" s="33">
-        <f t="shared" si="6"/>
-        <v>12385.45</v>
-      </c>
-      <c r="X24" s="33">
-        <f t="shared" si="6"/>
-        <v>12772.45</v>
-      </c>
-      <c r="Y24" s="33">
-        <f t="shared" si="6"/>
-        <v>14467.45</v>
-      </c>
-      <c r="Z24" s="33">
-        <f t="shared" si="6"/>
-        <v>14562.45</v>
-      </c>
-      <c r="AA24" s="33">
-        <f t="shared" si="6"/>
-        <v>16257.45</v>
-      </c>
-      <c r="AB24" s="34">
-        <f t="shared" si="6"/>
-        <v>16644.45</v>
+        <f>SUM(O18:O21)+O23</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="32">
+        <f>SUM(P18:P21)+P23+O25</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="32">
+        <f t="shared" ref="Q24:AB24" si="18">SUM(Q18:Q21)+Q23+P25</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="33">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="AC24" s="16">
-        <f>SUM(AC18:AC23)</f>
-        <v>11711</v>
-      </c>
-      <c r="AD24" s="33">
-        <f>SUM(AD18:AD23)+AB25</f>
-        <v>9819.9000000000015</v>
-      </c>
-      <c r="AE24" s="33">
-        <f>SUM(AE18:AE23)+AD24</f>
-        <v>11514.900000000001</v>
-      </c>
-      <c r="AF24" s="33">
-        <f t="shared" ref="AF24:AP24" si="7">SUM(AF18:AF23)+AE24</f>
-        <v>11609.900000000001</v>
-      </c>
-      <c r="AG24" s="33">
-        <f>SUM(AG18:AG23)+AF24</f>
-        <v>13596.900000000001</v>
-      </c>
-      <c r="AH24" s="33">
-        <f t="shared" si="7"/>
-        <v>13983.900000000001</v>
-      </c>
-      <c r="AI24" s="33">
-        <f t="shared" si="7"/>
-        <v>15678.900000000001</v>
-      </c>
-      <c r="AJ24" s="33">
-        <f t="shared" si="7"/>
-        <v>15773.900000000001</v>
-      </c>
-      <c r="AK24" s="33">
-        <f t="shared" si="7"/>
-        <v>17468.900000000001</v>
-      </c>
-      <c r="AL24" s="33">
-        <f t="shared" si="7"/>
-        <v>17855.900000000001</v>
-      </c>
-      <c r="AM24" s="33">
-        <f t="shared" si="7"/>
-        <v>19550.900000000001</v>
-      </c>
-      <c r="AN24" s="33">
-        <f t="shared" si="7"/>
-        <v>19645.900000000001</v>
-      </c>
-      <c r="AO24" s="33">
-        <f t="shared" si="7"/>
-        <v>21340.9</v>
-      </c>
-      <c r="AP24" s="34">
-        <f t="shared" si="7"/>
-        <v>21727.9</v>
+        <f>SUM(AC18:AC21)+AC23</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="32">
+        <f>SUM(AD18:AD21)+AD23+AC25</f>
+        <v>95</v>
+      </c>
+      <c r="AE24" s="32">
+        <f>SUM(AE18:AE21)+AE23+AD25</f>
+        <v>170.01</v>
+      </c>
+      <c r="AF24" s="32">
+        <f t="shared" ref="AF24:AP24" si="19">SUM(AF18:AF21)+AF23+AE25</f>
+        <v>265.01</v>
+      </c>
+      <c r="AG24" s="32">
+        <f t="shared" si="19"/>
+        <v>218.01</v>
+      </c>
+      <c r="AH24" s="32">
+        <f t="shared" si="19"/>
+        <v>605.01</v>
+      </c>
+      <c r="AI24" s="32">
+        <f t="shared" si="19"/>
+        <v>680.02</v>
+      </c>
+      <c r="AJ24" s="32">
+        <f t="shared" si="19"/>
+        <v>775.02</v>
+      </c>
+      <c r="AK24" s="32">
+        <f t="shared" si="19"/>
+        <v>860.02</v>
+      </c>
+      <c r="AL24" s="32">
+        <f t="shared" si="19"/>
+        <v>955.02</v>
+      </c>
+      <c r="AM24" s="32">
+        <f t="shared" si="19"/>
+        <v>1040.02</v>
+      </c>
+      <c r="AN24" s="32">
+        <f t="shared" si="19"/>
+        <v>1125.03</v>
+      </c>
+      <c r="AO24" s="32">
+        <f t="shared" si="19"/>
+        <v>1210.03</v>
+      </c>
+      <c r="AP24" s="33">
+        <f t="shared" si="19"/>
+        <v>1305.03</v>
       </c>
       <c r="AQ24" s="16">
-        <f>SUM(AQ18:AQ23)</f>
-        <v>12003</v>
-      </c>
-      <c r="AR24" s="33">
-        <f>SUM(AR18:AR23)+AP25</f>
-        <v>14848.36</v>
-      </c>
-      <c r="AS24" s="33">
-        <f>SUM(AS18:AS23)+AR24</f>
-        <v>16543.36</v>
-      </c>
-      <c r="AT24" s="33">
-        <f t="shared" ref="AT24:BD24" si="8">SUM(AT18:AT23)+AS24</f>
-        <v>16638.36</v>
-      </c>
-      <c r="AU24" s="33">
-        <f t="shared" si="8"/>
-        <v>18333.36</v>
-      </c>
-      <c r="AV24" s="33">
-        <f t="shared" si="8"/>
-        <v>18720.36</v>
-      </c>
-      <c r="AW24" s="33">
-        <f t="shared" si="8"/>
-        <v>20415.36</v>
-      </c>
-      <c r="AX24" s="33">
-        <f t="shared" si="8"/>
-        <v>20510.36</v>
-      </c>
-      <c r="AY24" s="33">
-        <f t="shared" si="8"/>
-        <v>22205.360000000001</v>
-      </c>
-      <c r="AZ24" s="33">
-        <f t="shared" si="8"/>
-        <v>22592.36</v>
-      </c>
-      <c r="BA24" s="33">
-        <f t="shared" si="8"/>
-        <v>24287.360000000001</v>
-      </c>
-      <c r="BB24" s="33">
-        <f t="shared" si="8"/>
-        <v>24382.36</v>
-      </c>
-      <c r="BC24" s="33">
-        <f t="shared" si="8"/>
-        <v>26077.360000000001</v>
-      </c>
-      <c r="BD24" s="34">
-        <f t="shared" si="8"/>
-        <v>26172.36</v>
+        <f>SUM(AQ18:AQ21)+AQ23</f>
+        <v>1527</v>
+      </c>
+      <c r="AR24" s="32">
+        <f>SUM(AR18:AR21)+AR23+AQ25</f>
+        <v>95</v>
+      </c>
+      <c r="AS24" s="32">
+        <f t="shared" ref="AS24:BD24" si="20">SUM(AS18:AS21)+AS23+AR25</f>
+        <v>180.01</v>
+      </c>
+      <c r="AT24" s="32">
+        <f t="shared" si="20"/>
+        <v>265.01</v>
+      </c>
+      <c r="AU24" s="32">
+        <f t="shared" si="20"/>
+        <v>360.01</v>
+      </c>
+      <c r="AV24" s="32">
+        <f t="shared" si="20"/>
+        <v>420.01</v>
+      </c>
+      <c r="AW24" s="32">
+        <f t="shared" si="20"/>
+        <v>505.02</v>
+      </c>
+      <c r="AX24" s="32">
+        <f t="shared" si="20"/>
+        <v>590.02</v>
+      </c>
+      <c r="AY24" s="32">
+        <f t="shared" si="20"/>
+        <v>685.02</v>
+      </c>
+      <c r="AZ24" s="32">
+        <f t="shared" si="20"/>
+        <v>745.02</v>
+      </c>
+      <c r="BA24" s="32">
+        <f t="shared" si="20"/>
+        <v>840.02</v>
+      </c>
+      <c r="BB24" s="32">
+        <f t="shared" si="20"/>
+        <v>925.02</v>
+      </c>
+      <c r="BC24" s="32">
+        <f t="shared" si="20"/>
+        <v>1010.03</v>
+      </c>
+      <c r="BD24" s="33">
+        <f t="shared" si="20"/>
+        <v>1070.03</v>
       </c>
       <c r="BE24" s="16">
-        <f>SUM(BE18:BE23)</f>
-        <v>11419</v>
+        <f>SUM(BE18:BE21)+BE23</f>
+        <v>1235</v>
       </c>
       <c r="BF24" s="16">
-        <f t="shared" ref="AQ24:BF24" si="9">SUM(BF18:BF23)</f>
-        <v>47136</v>
+        <f>SUM(BF18:BF21)+BF23</f>
+        <v>2762</v>
       </c>
     </row>
     <row r="25" spans="1:61" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32">
         <f>B24-B17</f>
-        <v>-124.98000000000002</v>
-      </c>
-      <c r="C25" s="33">
+        <v>0</v>
+      </c>
+      <c r="C25" s="32">
         <f>C24-C17</f>
-        <v>1535.02</v>
-      </c>
-      <c r="D25" s="33">
-        <f t="shared" ref="D25:O25" si="10">D24-D17</f>
-        <v>1630.02</v>
-      </c>
-      <c r="E25" s="61">
-        <f t="shared" si="10"/>
-        <v>1422.15</v>
-      </c>
-      <c r="F25" s="33">
-        <f t="shared" si="10"/>
-        <v>1437.17</v>
-      </c>
-      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+      <c r="D25" s="32">
+        <f t="shared" ref="D25:O25" si="21">D24-D17</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="60">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="32">
         <f>G24-G17</f>
-        <v>3097.17</v>
-      </c>
-      <c r="H25" s="33">
-        <f t="shared" si="10"/>
-        <v>3192.17</v>
-      </c>
-      <c r="I25" s="61">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="60">
         <f>I24-I17</f>
-        <v>2994.3</v>
-      </c>
-      <c r="J25" s="33">
-        <f t="shared" si="10"/>
-        <v>2999.3199999999997</v>
-      </c>
-      <c r="K25" s="33">
-        <f t="shared" si="10"/>
-        <v>4669.32</v>
-      </c>
-      <c r="L25" s="33">
-        <f t="shared" si="10"/>
-        <v>4754.32</v>
-      </c>
-      <c r="M25" s="33">
-        <f t="shared" si="10"/>
-        <v>6449.32</v>
-      </c>
-      <c r="N25" s="67">
-        <f t="shared" si="10"/>
-        <v>4933.45</v>
-      </c>
-      <c r="O25" s="35">
-        <f t="shared" si="10"/>
-        <v>4933.45</v>
-      </c>
-      <c r="P25" s="33">
+        <v>0</v>
+      </c>
+      <c r="J25" s="32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="32">
         <f>P24-P17</f>
-        <v>4656.4699999999993</v>
-      </c>
-      <c r="Q25" s="33">
-        <f t="shared" ref="Q25:AC25" si="11">Q24-Q17</f>
-        <v>6316.4699999999993</v>
-      </c>
-      <c r="R25" s="33">
-        <f t="shared" si="11"/>
-        <v>6411.4699999999993</v>
-      </c>
-      <c r="S25" s="61">
-        <f t="shared" si="11"/>
-        <v>6203.6</v>
-      </c>
-      <c r="T25" s="33">
-        <f t="shared" si="11"/>
-        <v>6218.6200000000008</v>
-      </c>
-      <c r="U25" s="33">
-        <f t="shared" si="11"/>
-        <v>7878.6200000000008</v>
-      </c>
-      <c r="V25" s="33">
-        <f t="shared" si="11"/>
-        <v>7973.6200000000008</v>
-      </c>
-      <c r="W25" s="61">
-        <f t="shared" si="11"/>
-        <v>7765.7500000000009</v>
-      </c>
-      <c r="X25" s="33">
-        <f t="shared" si="11"/>
-        <v>7780.77</v>
-      </c>
-      <c r="Y25" s="33">
-        <f t="shared" si="11"/>
-        <v>9450.77</v>
-      </c>
-      <c r="Z25" s="33">
-        <f t="shared" si="11"/>
-        <v>9545.77</v>
-      </c>
-      <c r="AA25" s="33">
-        <f t="shared" si="11"/>
-        <v>11230.77</v>
-      </c>
-      <c r="AB25" s="67">
-        <f t="shared" si="11"/>
-        <v>9724.9000000000015</v>
-      </c>
-      <c r="AC25" s="35">
-        <f t="shared" si="11"/>
-        <v>4791.45</v>
-      </c>
-      <c r="AD25" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="32">
+        <f t="shared" ref="Q25:AC25" si="22">Q24-Q17</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="34">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="32">
         <f>AD24-AD17</f>
-        <v>9412.9200000000019</v>
-      </c>
-      <c r="AE25" s="33">
-        <f t="shared" ref="AE25:AQ25" si="12">AE24-AE17</f>
-        <v>11107.920000000002</v>
-      </c>
-      <c r="AF25" s="33">
-        <f t="shared" si="12"/>
-        <v>11192.920000000002</v>
-      </c>
-      <c r="AG25" s="61">
-        <f t="shared" si="12"/>
-        <v>11287.050000000001</v>
-      </c>
-      <c r="AH25" s="33">
-        <f t="shared" si="12"/>
-        <v>11267.070000000002</v>
-      </c>
-      <c r="AI25" s="33">
-        <f t="shared" si="12"/>
-        <v>12962.070000000002</v>
-      </c>
-      <c r="AJ25" s="33">
-        <f t="shared" si="12"/>
-        <v>13037.080000000002</v>
-      </c>
-      <c r="AK25" s="33">
-        <f t="shared" si="12"/>
-        <v>14732.080000000002</v>
-      </c>
-      <c r="AL25" s="61">
-        <f t="shared" si="12"/>
-        <v>13191.210000000003</v>
-      </c>
-      <c r="AM25" s="33">
-        <f t="shared" si="12"/>
-        <v>14514.230000000001</v>
-      </c>
-      <c r="AN25" s="33">
-        <f t="shared" si="12"/>
-        <v>14599.230000000001</v>
-      </c>
-      <c r="AO25" s="33">
+        <v>75.009999999999991</v>
+      </c>
+      <c r="AE25" s="32">
+        <f t="shared" ref="AE25:AQ25" si="23">AE24-AE17</f>
+        <v>170.01</v>
+      </c>
+      <c r="AF25" s="32">
+        <f t="shared" si="23"/>
+        <v>123.00999999999999</v>
+      </c>
+      <c r="AG25" s="60">
+        <f t="shared" si="23"/>
+        <v>218.01</v>
+      </c>
+      <c r="AH25" s="32">
+        <f t="shared" si="23"/>
+        <v>585.02</v>
+      </c>
+      <c r="AI25" s="32">
+        <f t="shared" si="23"/>
+        <v>680.02</v>
+      </c>
+      <c r="AJ25" s="32">
+        <f t="shared" si="23"/>
+        <v>765.02</v>
+      </c>
+      <c r="AK25" s="32">
+        <f t="shared" si="23"/>
+        <v>860.02</v>
+      </c>
+      <c r="AL25" s="60">
+        <f t="shared" si="23"/>
+        <v>945.02</v>
+      </c>
+      <c r="AM25" s="32">
+        <f t="shared" si="23"/>
+        <v>1030.03</v>
+      </c>
+      <c r="AN25" s="32">
+        <f t="shared" si="23"/>
+        <v>1115.03</v>
+      </c>
+      <c r="AO25" s="32">
         <f>AO24-AO17</f>
-        <v>16294.230000000001</v>
-      </c>
-      <c r="AP25" s="68">
+        <v>1210.03</v>
+      </c>
+      <c r="AP25" s="67">
         <f>AP24-AP17</f>
-        <v>14753.36</v>
-      </c>
-      <c r="AQ25" s="35">
-        <f t="shared" si="12"/>
-        <v>5028.4599999999991</v>
-      </c>
-      <c r="AR25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="34">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AR25" s="32">
         <f>AR24-AR17</f>
-        <v>14476.380000000001</v>
-      </c>
-      <c r="AS25" s="33">
-        <f t="shared" ref="AS25:BF25" si="13">AS24-AS17</f>
-        <v>16161.380000000001</v>
-      </c>
-      <c r="AT25" s="33">
-        <f t="shared" si="13"/>
-        <v>16256.380000000001</v>
-      </c>
-      <c r="AU25" s="61">
-        <f t="shared" si="13"/>
-        <v>16023.51</v>
-      </c>
-      <c r="AV25" s="33">
-        <f t="shared" si="13"/>
-        <v>16048.52</v>
-      </c>
-      <c r="AW25" s="33">
-        <f t="shared" si="13"/>
-        <v>17723.53</v>
-      </c>
-      <c r="AX25" s="33">
-        <f t="shared" si="13"/>
-        <v>17818.53</v>
-      </c>
-      <c r="AY25" s="33">
-        <f t="shared" si="13"/>
-        <v>19478.53</v>
-      </c>
-      <c r="AZ25" s="61">
-        <f t="shared" si="13"/>
-        <v>17972.66</v>
-      </c>
-      <c r="BA25" s="33">
-        <f t="shared" si="13"/>
-        <v>19295.670000000002</v>
-      </c>
-      <c r="BB25" s="33">
-        <f t="shared" si="13"/>
-        <v>19380.68</v>
-      </c>
-      <c r="BC25" s="33">
-        <f t="shared" si="13"/>
-        <v>21040.68</v>
-      </c>
-      <c r="BD25" s="67">
-        <f t="shared" si="13"/>
-        <v>19313.36</v>
-      </c>
-      <c r="BE25" s="62">
+        <v>85.01</v>
+      </c>
+      <c r="AS25" s="32">
+        <f t="shared" ref="AS25:BF25" si="24">AS24-AS17</f>
+        <v>170.01</v>
+      </c>
+      <c r="AT25" s="32">
+        <f t="shared" si="24"/>
+        <v>265.01</v>
+      </c>
+      <c r="AU25" s="60">
+        <f t="shared" si="24"/>
+        <v>325.01</v>
+      </c>
+      <c r="AV25" s="32">
+        <f t="shared" si="24"/>
+        <v>410.02</v>
+      </c>
+      <c r="AW25" s="32">
+        <f t="shared" si="24"/>
+        <v>495.02</v>
+      </c>
+      <c r="AX25" s="32">
+        <f t="shared" si="24"/>
+        <v>590.02</v>
+      </c>
+      <c r="AY25" s="32">
+        <f t="shared" si="24"/>
+        <v>650.02</v>
+      </c>
+      <c r="AZ25" s="60">
+        <f t="shared" si="24"/>
+        <v>745.02</v>
+      </c>
+      <c r="BA25" s="32">
+        <f t="shared" si="24"/>
+        <v>830.02</v>
+      </c>
+      <c r="BB25" s="32">
+        <f t="shared" si="24"/>
+        <v>915.03</v>
+      </c>
+      <c r="BC25" s="32">
+        <f t="shared" si="24"/>
+        <v>975.03</v>
+      </c>
+      <c r="BD25" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BE25" s="61">
         <f>BE24-BE17</f>
-        <v>4560</v>
-      </c>
-      <c r="BF25" s="63">
-        <f t="shared" si="13"/>
-        <v>19313.36</v>
+        <v>0</v>
+      </c>
+      <c r="BF25" s="62">
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="J27" s="40"/>
-      <c r="BF27" s="37"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="J27" s="39"/>
+      <c r="BF27" s="36"/>
     </row>
     <row r="28" spans="1:61" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="45"/>
-      <c r="AH28" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF28" s="46"/>
+      <c r="J28" s="44"/>
+      <c r="AH28" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF28" s="45"/>
     </row>
     <row r="29" spans="1:61" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="74">
+      <c r="B29" s="47"/>
+      <c r="C29" s="73">
         <v>111336</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="74">
         <v>9675.81</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="58">
         <v>-105776</v>
       </c>
-      <c r="F29" s="69">
+      <c r="F29" s="68">
         <f>C29+E29</f>
         <v>5560</v>
       </c>
-      <c r="G29" s="74">
+      <c r="G29" s="73">
         <v>8560</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="73">
         <v>1650.47</v>
       </c>
-      <c r="BF29" s="90"/>
+      <c r="BF29" s="86"/>
     </row>
     <row r="30" spans="1:61" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="50"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="49"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:61" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="43" t="s">
+      <c r="J31" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="44" t="s">
+      <c r="K31" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="72"/>
-      <c r="O31" s="72"/>
+      <c r="M31" s="71"/>
+      <c r="O31" s="71"/>
     </row>
     <row r="32" spans="1:61" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="58">
+      <c r="A32" s="36"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="57">
         <v>2600</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="57">
         <v>1600</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="57">
         <v>500</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="57">
         <v>1400</v>
       </c>
-      <c r="G32" s="58">
+      <c r="G32" s="57">
         <v>300</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H32" s="57">
         <v>700</v>
       </c>
-      <c r="I32" s="58">
+      <c r="I32" s="57">
         <v>700</v>
       </c>
-      <c r="J32" s="58">
+      <c r="J32" s="57">
         <v>1200</v>
       </c>
-      <c r="K32" s="58">
+      <c r="K32" s="57">
         <v>1000</v>
       </c>
-      <c r="M32" s="73"/>
-      <c r="O32" s="73"/>
+      <c r="M32" s="72"/>
+      <c r="O32" s="72"/>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="74">
+      <c r="A33" s="36"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="73">
         <v>2751.76</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="73">
         <v>1676.75</v>
       </c>
-      <c r="E33" s="74">
+      <c r="E33" s="73">
         <v>529.07000000000005</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="73">
         <v>1492.95</v>
       </c>
-      <c r="G33" s="74">
+      <c r="G33" s="73">
         <v>331.55</v>
       </c>
-      <c r="H33" s="74">
+      <c r="H33" s="73">
         <v>653.16</v>
       </c>
-      <c r="I33" s="74">
+      <c r="I33" s="73">
         <v>694.25</v>
       </c>
-      <c r="J33" s="74">
+      <c r="J33" s="73">
         <v>154.22999999999999</v>
       </c>
-      <c r="K33" s="74">
+      <c r="K33" s="73">
         <v>1121.55</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="76">
-        <f t="shared" ref="C34:K34" si="14">C32-C33</f>
+      <c r="A34" s="37"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="75">
+        <f t="shared" ref="C34:K34" si="25">C32-C33</f>
         <v>-151.76000000000022</v>
       </c>
-      <c r="D34" s="76">
-        <f t="shared" si="14"/>
+      <c r="D34" s="75">
+        <f t="shared" si="25"/>
         <v>-76.75</v>
       </c>
-      <c r="E34" s="76">
-        <f t="shared" si="14"/>
+      <c r="E34" s="75">
+        <f t="shared" si="25"/>
         <v>-29.07000000000005</v>
       </c>
-      <c r="F34" s="76">
-        <f t="shared" si="14"/>
+      <c r="F34" s="75">
+        <f t="shared" si="25"/>
         <v>-92.950000000000045</v>
       </c>
-      <c r="G34" s="76">
-        <f t="shared" si="14"/>
+      <c r="G34" s="75">
+        <f t="shared" si="25"/>
         <v>-31.550000000000011</v>
       </c>
-      <c r="H34" s="77">
-        <f t="shared" si="14"/>
+      <c r="H34" s="76">
+        <f t="shared" si="25"/>
         <v>46.840000000000032</v>
       </c>
-      <c r="I34" s="77">
-        <f t="shared" si="14"/>
+      <c r="I34" s="76">
+        <f t="shared" si="25"/>
         <v>5.75</v>
       </c>
-      <c r="J34" s="77">
-        <f t="shared" si="14"/>
+      <c r="J34" s="76">
+        <f t="shared" si="25"/>
         <v>1045.77</v>
       </c>
-      <c r="K34" s="76">
-        <f t="shared" si="14"/>
+      <c r="K34" s="75">
+        <f t="shared" si="25"/>
         <v>-121.54999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+      <c r="A35" s="36"/>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="52" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="74">
+      <c r="A37" s="37"/>
+      <c r="B37" s="73">
         <f>SUM(C33:K33)</f>
         <v>9405.2699999999986</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="73">
         <f>SUM(C29:H29)</f>
         <v>31006.28</v>
       </c>
-      <c r="F37" s="70">
+      <c r="F37" s="69">
         <v>915</v>
       </c>
-      <c r="G37" s="83">
+      <c r="G37" s="77">
         <v>1263.1199999999999</v>
       </c>
-      <c r="H37" s="78">
+      <c r="H37" s="77">
         <v>2818</v>
       </c>
-      <c r="I37" s="79">
+      <c r="I37" s="78">
         <v>222.66</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F38" s="38"/>
+      <c r="F38" s="37"/>
     </row>
     <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="I39" s="38"/>
+      <c r="C39" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="84">
+      <c r="B40" s="81">
         <f>SUM(B37:C37)+SUM(F37:I37)</f>
         <v>45630.329999999994</v>
       </c>
-      <c r="C40" s="86">
+      <c r="C40" s="83">
         <f>B40/BF4</f>
-        <v>3.8140044751330877</v>
-      </c>
-      <c r="I40" s="51"/>
+        <v>19.499641034845258</v>
+      </c>
+      <c r="I40" s="50"/>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I43" s="51"/>
+      <c r="I43" s="50"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I46" s="51"/>
+      <c r="I46" s="50"/>
     </row>
     <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="52" ht="15.6" x14ac:dyDescent="0.3"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684B0284-8BDE-45D7-B02A-366CB2FB8608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E15C2C-0CA4-438D-AD93-DB4D19723351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,7 +329,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -471,12 +471,6 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -523,13 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEE0000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -917,10 +911,8 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="21" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,11 +1226,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
+      <selection pane="bottomRight" activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1275,8 +1267,8 @@
     <col min="30" max="30" width="15.5546875" style="1" customWidth="1"/>
     <col min="31" max="31" width="15.6640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="16.77734375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="33.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="22.44140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="36.109375" style="1" customWidth="1"/>
     <col min="35" max="35" width="20.33203125" style="1" customWidth="1"/>
     <col min="36" max="36" width="15.109375" style="1" customWidth="1"/>
     <col min="37" max="37" width="15.44140625" style="1" customWidth="1"/>
@@ -1572,10 +1564,12 @@
       </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="94">
-        <v>132</v>
-      </c>
-      <c r="AG2" s="6"/>
+      <c r="AF2" s="91">
+        <v>122.47</v>
+      </c>
+      <c r="AG2" s="92">
+        <v>424.07</v>
+      </c>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
@@ -1587,7 +1581,7 @@
       <c r="AP2" s="6"/>
       <c r="AQ2" s="8">
         <f t="shared" ref="AQ2:AQ16" si="6">SUM(AD2:AP2)</f>
-        <v>132</v>
+        <v>546.54</v>
       </c>
       <c r="AR2" s="7"/>
       <c r="AS2" s="6"/>
@@ -1608,7 +1602,7 @@
       </c>
       <c r="BF2" s="8">
         <f t="shared" ref="BF2:BF16" si="8">O2+AC2+AQ2+BE2</f>
-        <v>132</v>
+        <v>546.54</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -1737,11 +1731,11 @@
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
       <c r="AP4" s="89">
-        <v>1270.03</v>
+        <v>1262.03</v>
       </c>
       <c r="AQ4" s="8">
         <f t="shared" si="6"/>
-        <v>1270.03</v>
+        <v>1262.03</v>
       </c>
       <c r="AR4" s="7"/>
       <c r="AS4" s="56"/>
@@ -1764,7 +1758,7 @@
       </c>
       <c r="BF4" s="8">
         <f t="shared" si="8"/>
-        <v>2340.06</v>
+        <v>2332.06</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -2863,11 +2857,11 @@
       </c>
       <c r="AF17" s="32">
         <f t="shared" si="11"/>
-        <v>142</v>
+        <v>132.47</v>
       </c>
       <c r="AG17" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>424.07</v>
       </c>
       <c r="AH17" s="32">
         <f t="shared" si="11"/>
@@ -2903,11 +2897,11 @@
       </c>
       <c r="AP17" s="33">
         <f t="shared" si="11"/>
-        <v>1305.03</v>
+        <v>1297.03</v>
       </c>
       <c r="AQ17" s="16">
         <f>SUM(AQ2:AQ16)</f>
-        <v>1527</v>
+        <v>1933.54</v>
       </c>
       <c r="AR17" s="32">
         <f>SUM(AR2:AR16)</f>
@@ -2967,7 +2961,7 @@
       </c>
       <c r="BF17" s="16">
         <f>SUM(BF2:BF16)</f>
-        <v>2762</v>
+        <v>3168.54</v>
       </c>
     </row>
     <row r="18" spans="1:61" s="17" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3008,22 +3002,22 @@
         <f t="shared" ref="AC18:AC23" si="14">SUM(P18:AB18)</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="91">
+      <c r="AD18" s="18">
         <v>95</v>
       </c>
-      <c r="AE18" s="92">
+      <c r="AE18" s="19">
         <v>95</v>
       </c>
-      <c r="AF18" s="93">
+      <c r="AF18" s="19">
         <v>95</v>
       </c>
-      <c r="AG18" s="93">
+      <c r="AG18" s="19">
         <v>95</v>
       </c>
-      <c r="AH18" s="93">
+      <c r="AH18" s="19">
         <v>95</v>
       </c>
-      <c r="AI18" s="93">
+      <c r="AI18" s="19">
         <v>95</v>
       </c>
       <c r="AJ18" s="19">
@@ -3468,10 +3462,10 @@
       <c r="AD23" s="28"/>
       <c r="AE23" s="27"/>
       <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="65">
+      <c r="AG23" s="27">
         <v>292</v>
       </c>
+      <c r="AH23" s="27"/>
       <c r="AI23" s="27"/>
       <c r="AJ23" s="27"/>
       <c r="AK23" s="27"/>
@@ -3636,43 +3630,43 @@
       </c>
       <c r="AG24" s="32">
         <f t="shared" si="19"/>
-        <v>218.01</v>
+        <v>519.54</v>
       </c>
       <c r="AH24" s="32">
         <f t="shared" si="19"/>
-        <v>605.01</v>
+        <v>190.46999999999997</v>
       </c>
       <c r="AI24" s="32">
         <f t="shared" si="19"/>
-        <v>680.02</v>
+        <v>265.47999999999996</v>
       </c>
       <c r="AJ24" s="32">
         <f t="shared" si="19"/>
-        <v>775.02</v>
+        <v>360.47999999999996</v>
       </c>
       <c r="AK24" s="32">
         <f t="shared" si="19"/>
-        <v>860.02</v>
+        <v>445.47999999999996</v>
       </c>
       <c r="AL24" s="32">
         <f t="shared" si="19"/>
-        <v>955.02</v>
+        <v>540.48</v>
       </c>
       <c r="AM24" s="32">
         <f t="shared" si="19"/>
-        <v>1040.02</v>
+        <v>625.48</v>
       </c>
       <c r="AN24" s="32">
         <f t="shared" si="19"/>
-        <v>1125.03</v>
+        <v>710.49</v>
       </c>
       <c r="AO24" s="32">
         <f t="shared" si="19"/>
-        <v>1210.03</v>
+        <v>795.49</v>
       </c>
       <c r="AP24" s="33">
         <f t="shared" si="19"/>
-        <v>1305.03</v>
+        <v>890.49</v>
       </c>
       <c r="AQ24" s="16">
         <f>SUM(AQ18:AQ21)+AQ23</f>
@@ -3680,55 +3674,55 @@
       </c>
       <c r="AR24" s="32">
         <f>SUM(AR18:AR21)+AR23+AQ25</f>
-        <v>95</v>
+        <v>-311.53999999999996</v>
       </c>
       <c r="AS24" s="32">
         <f t="shared" ref="AS24:BD24" si="20">SUM(AS18:AS21)+AS23+AR25</f>
-        <v>180.01</v>
+        <v>-226.52999999999997</v>
       </c>
       <c r="AT24" s="32">
         <f t="shared" si="20"/>
-        <v>265.01</v>
+        <v>-141.52999999999997</v>
       </c>
       <c r="AU24" s="32">
         <f t="shared" si="20"/>
-        <v>360.01</v>
+        <v>-46.529999999999973</v>
       </c>
       <c r="AV24" s="32">
         <f t="shared" si="20"/>
-        <v>420.01</v>
+        <v>13.470000000000027</v>
       </c>
       <c r="AW24" s="32">
         <f t="shared" si="20"/>
-        <v>505.02</v>
+        <v>98.480000000000032</v>
       </c>
       <c r="AX24" s="32">
         <f t="shared" si="20"/>
-        <v>590.02</v>
+        <v>183.48000000000002</v>
       </c>
       <c r="AY24" s="32">
         <f t="shared" si="20"/>
-        <v>685.02</v>
+        <v>278.48</v>
       </c>
       <c r="AZ24" s="32">
         <f t="shared" si="20"/>
-        <v>745.02</v>
+        <v>338.48</v>
       </c>
       <c r="BA24" s="32">
         <f t="shared" si="20"/>
-        <v>840.02</v>
+        <v>433.48</v>
       </c>
       <c r="BB24" s="32">
         <f t="shared" si="20"/>
-        <v>925.02</v>
+        <v>518.48</v>
       </c>
       <c r="BC24" s="32">
         <f t="shared" si="20"/>
-        <v>1010.03</v>
+        <v>603.49</v>
       </c>
       <c r="BD24" s="33">
         <f t="shared" si="20"/>
-        <v>1070.03</v>
+        <v>663.49</v>
       </c>
       <c r="BE24" s="16">
         <f>SUM(BE18:BE21)+BE23</f>
@@ -3863,103 +3857,103 @@
       </c>
       <c r="AF25" s="32">
         <f t="shared" si="23"/>
-        <v>123.00999999999999</v>
+        <v>132.54</v>
       </c>
       <c r="AG25" s="60">
         <f t="shared" si="23"/>
-        <v>218.01</v>
+        <v>95.46999999999997</v>
       </c>
       <c r="AH25" s="32">
         <f t="shared" si="23"/>
-        <v>585.02</v>
+        <v>170.47999999999996</v>
       </c>
       <c r="AI25" s="32">
         <f t="shared" si="23"/>
-        <v>680.02</v>
+        <v>265.47999999999996</v>
       </c>
       <c r="AJ25" s="32">
         <f t="shared" si="23"/>
-        <v>765.02</v>
+        <v>350.47999999999996</v>
       </c>
       <c r="AK25" s="32">
         <f t="shared" si="23"/>
-        <v>860.02</v>
+        <v>445.47999999999996</v>
       </c>
       <c r="AL25" s="60">
         <f t="shared" si="23"/>
-        <v>945.02</v>
+        <v>530.48</v>
       </c>
       <c r="AM25" s="32">
         <f t="shared" si="23"/>
-        <v>1030.03</v>
+        <v>615.49</v>
       </c>
       <c r="AN25" s="32">
         <f t="shared" si="23"/>
-        <v>1115.03</v>
+        <v>700.49</v>
       </c>
       <c r="AO25" s="32">
         <f>AO24-AO17</f>
-        <v>1210.03</v>
+        <v>795.49</v>
       </c>
       <c r="AP25" s="67">
         <f>AP24-AP17</f>
-        <v>0</v>
+        <v>-406.53999999999996</v>
       </c>
       <c r="AQ25" s="34">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-406.53999999999996</v>
       </c>
       <c r="AR25" s="32">
         <f>AR24-AR17</f>
-        <v>85.01</v>
+        <v>-321.52999999999997</v>
       </c>
       <c r="AS25" s="32">
         <f t="shared" ref="AS25:BF25" si="24">AS24-AS17</f>
-        <v>170.01</v>
+        <v>-236.52999999999997</v>
       </c>
       <c r="AT25" s="32">
         <f t="shared" si="24"/>
-        <v>265.01</v>
+        <v>-141.52999999999997</v>
       </c>
       <c r="AU25" s="60">
         <f t="shared" si="24"/>
-        <v>325.01</v>
+        <v>-81.529999999999973</v>
       </c>
       <c r="AV25" s="32">
         <f t="shared" si="24"/>
-        <v>410.02</v>
+        <v>3.4800000000000271</v>
       </c>
       <c r="AW25" s="32">
         <f t="shared" si="24"/>
-        <v>495.02</v>
+        <v>88.480000000000032</v>
       </c>
       <c r="AX25" s="32">
         <f t="shared" si="24"/>
-        <v>590.02</v>
+        <v>183.48000000000002</v>
       </c>
       <c r="AY25" s="32">
         <f t="shared" si="24"/>
-        <v>650.02</v>
+        <v>243.48000000000002</v>
       </c>
       <c r="AZ25" s="60">
         <f t="shared" si="24"/>
-        <v>745.02</v>
+        <v>338.48</v>
       </c>
       <c r="BA25" s="32">
         <f t="shared" si="24"/>
-        <v>830.02</v>
+        <v>423.48</v>
       </c>
       <c r="BB25" s="32">
         <f t="shared" si="24"/>
-        <v>915.03</v>
+        <v>508.49</v>
       </c>
       <c r="BC25" s="32">
         <f t="shared" si="24"/>
-        <v>975.03</v>
+        <v>568.49</v>
       </c>
       <c r="BD25" s="66">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-406.53999999999996</v>
       </c>
       <c r="BE25" s="61">
         <f>BE24-BE17</f>
@@ -3967,7 +3961,7 @@
       </c>
       <c r="BF25" s="62">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-406.53999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4252,7 +4246,7 @@
       </c>
       <c r="C40" s="83">
         <f>B40/BF4</f>
-        <v>19.499641034845258</v>
+        <v>19.566533451111891</v>
       </c>
       <c r="I40" s="50"/>
     </row>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E15C2C-0CA4-438D-AD93-DB4D19723351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F855D2-67F8-4DE3-AD1A-4D17D9EB1AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Budget 2025'!$A:$A,'Budget 2025'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1227,10 +1227,10 @@
   <dimension ref="A1:BI58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG11" sqref="AG11"/>
+      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1567,13 +1567,12 @@
       <c r="AF2" s="91">
         <v>122.47</v>
       </c>
-      <c r="AG2" s="92">
-        <v>424.07</v>
-      </c>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
+      <c r="AK2" s="92">
+        <v>434.06</v>
+      </c>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
@@ -1581,7 +1580,7 @@
       <c r="AP2" s="6"/>
       <c r="AQ2" s="8">
         <f t="shared" ref="AQ2:AQ16" si="6">SUM(AD2:AP2)</f>
-        <v>546.54</v>
+        <v>556.53</v>
       </c>
       <c r="AR2" s="7"/>
       <c r="AS2" s="6"/>
@@ -1602,7 +1601,7 @@
       </c>
       <c r="BF2" s="8">
         <f t="shared" ref="BF2:BF16" si="8">O2+AC2+AQ2+BE2</f>
-        <v>546.54</v>
+        <v>556.53</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -1731,11 +1730,11 @@
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
       <c r="AP4" s="89">
-        <v>1262.03</v>
+        <v>845.5</v>
       </c>
       <c r="AQ4" s="8">
         <f t="shared" si="6"/>
-        <v>1262.03</v>
+        <v>845.5</v>
       </c>
       <c r="AR4" s="7"/>
       <c r="AS4" s="56"/>
@@ -1758,7 +1757,7 @@
       </c>
       <c r="BF4" s="8">
         <f t="shared" si="8"/>
-        <v>2332.06</v>
+        <v>1915.53</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -2861,7 +2860,7 @@
       </c>
       <c r="AG17" s="32">
         <f t="shared" si="11"/>
-        <v>424.07</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="32">
         <f t="shared" si="11"/>
@@ -2876,8 +2875,8 @@
         <v>10</v>
       </c>
       <c r="AK17" s="32">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>SUM(AK2:AK16)</f>
+        <v>434.06</v>
       </c>
       <c r="AL17" s="32">
         <f t="shared" si="11"/>
@@ -2897,11 +2896,11 @@
       </c>
       <c r="AP17" s="33">
         <f t="shared" si="11"/>
-        <v>1297.03</v>
+        <v>880.5</v>
       </c>
       <c r="AQ17" s="16">
         <f>SUM(AQ2:AQ16)</f>
-        <v>1933.54</v>
+        <v>1527</v>
       </c>
       <c r="AR17" s="32">
         <f>SUM(AR2:AR16)</f>
@@ -2961,7 +2960,7 @@
       </c>
       <c r="BF17" s="16">
         <f>SUM(BF2:BF16)</f>
-        <v>3168.54</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="18" spans="1:61" s="17" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3462,10 +3461,10 @@
       <c r="AD23" s="28"/>
       <c r="AE23" s="27"/>
       <c r="AF23" s="27"/>
-      <c r="AG23" s="27">
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27">
         <v>292</v>
       </c>
-      <c r="AH23" s="27"/>
       <c r="AI23" s="27"/>
       <c r="AJ23" s="27"/>
       <c r="AK23" s="27"/>
@@ -3630,43 +3629,43 @@
       </c>
       <c r="AG24" s="32">
         <f t="shared" si="19"/>
-        <v>519.54</v>
+        <v>227.54</v>
       </c>
       <c r="AH24" s="32">
         <f t="shared" si="19"/>
-        <v>190.46999999999997</v>
+        <v>614.54</v>
       </c>
       <c r="AI24" s="32">
         <f t="shared" si="19"/>
-        <v>265.47999999999996</v>
+        <v>689.55</v>
       </c>
       <c r="AJ24" s="32">
         <f t="shared" si="19"/>
-        <v>360.47999999999996</v>
+        <v>784.55</v>
       </c>
       <c r="AK24" s="32">
         <f t="shared" si="19"/>
-        <v>445.47999999999996</v>
+        <v>869.55</v>
       </c>
       <c r="AL24" s="32">
         <f t="shared" si="19"/>
-        <v>540.48</v>
+        <v>530.49</v>
       </c>
       <c r="AM24" s="32">
         <f t="shared" si="19"/>
-        <v>625.48</v>
+        <v>615.49</v>
       </c>
       <c r="AN24" s="32">
         <f t="shared" si="19"/>
-        <v>710.49</v>
+        <v>700.5</v>
       </c>
       <c r="AO24" s="32">
         <f t="shared" si="19"/>
-        <v>795.49</v>
+        <v>785.5</v>
       </c>
       <c r="AP24" s="33">
         <f t="shared" si="19"/>
-        <v>890.49</v>
+        <v>880.5</v>
       </c>
       <c r="AQ24" s="16">
         <f>SUM(AQ18:AQ21)+AQ23</f>
@@ -3674,55 +3673,55 @@
       </c>
       <c r="AR24" s="32">
         <f>SUM(AR18:AR21)+AR23+AQ25</f>
-        <v>-311.53999999999996</v>
+        <v>95</v>
       </c>
       <c r="AS24" s="32">
         <f t="shared" ref="AS24:BD24" si="20">SUM(AS18:AS21)+AS23+AR25</f>
-        <v>-226.52999999999997</v>
+        <v>180.01</v>
       </c>
       <c r="AT24" s="32">
         <f t="shared" si="20"/>
-        <v>-141.52999999999997</v>
+        <v>265.01</v>
       </c>
       <c r="AU24" s="32">
         <f t="shared" si="20"/>
-        <v>-46.529999999999973</v>
+        <v>360.01</v>
       </c>
       <c r="AV24" s="32">
         <f t="shared" si="20"/>
-        <v>13.470000000000027</v>
+        <v>420.01</v>
       </c>
       <c r="AW24" s="32">
         <f t="shared" si="20"/>
-        <v>98.480000000000032</v>
+        <v>505.02</v>
       </c>
       <c r="AX24" s="32">
         <f t="shared" si="20"/>
-        <v>183.48000000000002</v>
+        <v>590.02</v>
       </c>
       <c r="AY24" s="32">
         <f t="shared" si="20"/>
-        <v>278.48</v>
+        <v>685.02</v>
       </c>
       <c r="AZ24" s="32">
         <f t="shared" si="20"/>
-        <v>338.48</v>
+        <v>745.02</v>
       </c>
       <c r="BA24" s="32">
         <f t="shared" si="20"/>
-        <v>433.48</v>
+        <v>840.02</v>
       </c>
       <c r="BB24" s="32">
         <f t="shared" si="20"/>
-        <v>518.48</v>
+        <v>925.02</v>
       </c>
       <c r="BC24" s="32">
         <f t="shared" si="20"/>
-        <v>603.49</v>
+        <v>1010.03</v>
       </c>
       <c r="BD24" s="33">
         <f t="shared" si="20"/>
-        <v>663.49</v>
+        <v>1070.03</v>
       </c>
       <c r="BE24" s="16">
         <f>SUM(BE18:BE21)+BE23</f>
@@ -3861,99 +3860,99 @@
       </c>
       <c r="AG25" s="60">
         <f t="shared" si="23"/>
-        <v>95.46999999999997</v>
+        <v>227.54</v>
       </c>
       <c r="AH25" s="32">
         <f t="shared" si="23"/>
-        <v>170.47999999999996</v>
+        <v>594.54999999999995</v>
       </c>
       <c r="AI25" s="32">
         <f t="shared" si="23"/>
-        <v>265.47999999999996</v>
+        <v>689.55</v>
       </c>
       <c r="AJ25" s="32">
         <f t="shared" si="23"/>
-        <v>350.47999999999996</v>
+        <v>774.55</v>
       </c>
       <c r="AK25" s="32">
         <f t="shared" si="23"/>
-        <v>445.47999999999996</v>
+        <v>435.48999999999995</v>
       </c>
       <c r="AL25" s="60">
         <f t="shared" si="23"/>
-        <v>530.48</v>
+        <v>520.49</v>
       </c>
       <c r="AM25" s="32">
         <f t="shared" si="23"/>
-        <v>615.49</v>
+        <v>605.5</v>
       </c>
       <c r="AN25" s="32">
         <f t="shared" si="23"/>
-        <v>700.49</v>
+        <v>690.5</v>
       </c>
       <c r="AO25" s="32">
         <f>AO24-AO17</f>
-        <v>795.49</v>
+        <v>785.5</v>
       </c>
       <c r="AP25" s="67">
         <f>AP24-AP17</f>
-        <v>-406.53999999999996</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="34">
         <f t="shared" si="23"/>
-        <v>-406.53999999999996</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="32">
         <f>AR24-AR17</f>
-        <v>-321.52999999999997</v>
+        <v>85.01</v>
       </c>
       <c r="AS25" s="32">
         <f t="shared" ref="AS25:BF25" si="24">AS24-AS17</f>
-        <v>-236.52999999999997</v>
+        <v>170.01</v>
       </c>
       <c r="AT25" s="32">
         <f t="shared" si="24"/>
-        <v>-141.52999999999997</v>
+        <v>265.01</v>
       </c>
       <c r="AU25" s="60">
         <f t="shared" si="24"/>
-        <v>-81.529999999999973</v>
+        <v>325.01</v>
       </c>
       <c r="AV25" s="32">
         <f t="shared" si="24"/>
-        <v>3.4800000000000271</v>
+        <v>410.02</v>
       </c>
       <c r="AW25" s="32">
         <f t="shared" si="24"/>
-        <v>88.480000000000032</v>
+        <v>495.02</v>
       </c>
       <c r="AX25" s="32">
         <f t="shared" si="24"/>
-        <v>183.48000000000002</v>
+        <v>590.02</v>
       </c>
       <c r="AY25" s="32">
         <f t="shared" si="24"/>
-        <v>243.48000000000002</v>
+        <v>650.02</v>
       </c>
       <c r="AZ25" s="60">
         <f t="shared" si="24"/>
-        <v>338.48</v>
+        <v>745.02</v>
       </c>
       <c r="BA25" s="32">
         <f t="shared" si="24"/>
-        <v>423.48</v>
+        <v>830.02</v>
       </c>
       <c r="BB25" s="32">
         <f t="shared" si="24"/>
-        <v>508.49</v>
+        <v>915.03</v>
       </c>
       <c r="BC25" s="32">
         <f t="shared" si="24"/>
-        <v>568.49</v>
+        <v>975.03</v>
       </c>
       <c r="BD25" s="66">
         <f t="shared" si="24"/>
-        <v>-406.53999999999996</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="61">
         <f>BE24-BE17</f>
@@ -3961,7 +3960,7 @@
       </c>
       <c r="BF25" s="62">
         <f t="shared" si="24"/>
-        <v>-406.53999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4246,7 +4245,7 @@
       </c>
       <c r="C40" s="83">
         <f>B40/BF4</f>
-        <v>19.566533451111891</v>
+        <v>23.821255736010396</v>
       </c>
       <c r="I40" s="50"/>
     </row>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F855D2-67F8-4DE3-AD1A-4D17D9EB1AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4DA2A-498F-47DB-81D1-2B33AAD65644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,18 +43,22 @@
   <authors>
     <author>tc={B4A1F298-CDB5-487E-B215-EECE064A3E83}</author>
     <author>tc={6FB87BB2-DD21-4DA3-919B-FF30B0F4AD57}</author>
-    <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
     <author>tc={9C20091A-D362-4496-83DA-FA539560097B}</author>
     <author>tc={58FC39C5-4C7C-4647-AE55-1E45D447D506}</author>
     <author>tc={F52179FC-D113-4128-8AEC-F00E58C6202A}</author>
     <author>tc={06B25615-ACD3-4324-8355-FA20D083F987}</author>
     <author>tc={3AE6F7DC-4535-43DA-BFFD-7C585CC37669}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
+    <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
     <author>tc={C80F882F-58A5-4C62-98CE-F86F6971772E}</author>
+    <author>tc={EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}</author>
+    <author>tc={4B88355D-9209-4405-B7B7-6AE6D134BD4A}</author>
+    <author>tc={95FD1110-5369-4C97-A741-45307BBFA4F0}</author>
+    <author>tc={C1FE81CD-4B33-401A-B80F-F36E74842B02}</author>
     <author>tc={2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{B4A1F298-CDB5-487E-B215-EECE064A3E83}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{B4A1F298-CDB5-487E-B215-EECE064A3E83}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,15 +74,7 @@
     Gasoline</t>
       </text>
     </comment>
-    <comment ref="A7" authorId="2" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Flowers, Cards, Bike, etc.</t>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="3" shapeId="0" xr:uid="{9C20091A-D362-4496-83DA-FA539560097B}">
+    <comment ref="A7" authorId="2" shapeId="0" xr:uid="{9C20091A-D362-4496-83DA-FA539560097B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,7 +82,7 @@
     Monthly, Annual, Upgrade</t>
       </text>
     </comment>
-    <comment ref="A10" authorId="4" shapeId="0" xr:uid="{58FC39C5-4C7C-4647-AE55-1E45D447D506}">
+    <comment ref="A8" authorId="3" shapeId="0" xr:uid="{58FC39C5-4C7C-4647-AE55-1E45D447D506}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,7 +90,7 @@
     Car, Renter’s, Plates, Tags, Emissions, Registration</t>
       </text>
     </comment>
-    <comment ref="A11" authorId="5" shapeId="0" xr:uid="{F52179FC-D113-4128-8AEC-F00E58C6202A}">
+    <comment ref="A9" authorId="4" shapeId="0" xr:uid="{F52179FC-D113-4128-8AEC-F00E58C6202A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -102,7 +98,7 @@
     Microsoft, Laundry</t>
       </text>
     </comment>
-    <comment ref="A12" authorId="6" shapeId="0" xr:uid="{06B25615-ACD3-4324-8355-FA20D083F987}">
+    <comment ref="A10" authorId="5" shapeId="0" xr:uid="{06B25615-ACD3-4324-8355-FA20D083F987}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -110,7 +106,7 @@
     DUI</t>
       </text>
     </comment>
-    <comment ref="A14" authorId="7" shapeId="0" xr:uid="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
+    <comment ref="A12" authorId="6" shapeId="0" xr:uid="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -118,12 +114,20 @@
     Phone, Service, Fees</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="A14" authorId="7" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Downtown?</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
     <comment ref="A16" authorId="9" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
@@ -134,7 +138,39 @@
     Monthly</t>
       </text>
     </comment>
-    <comment ref="B39" authorId="10" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="N25" authorId="10" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consolidate</t>
+      </text>
+    </comment>
+    <comment ref="AB25" authorId="11" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consolidate</t>
+      </text>
+    </comment>
+    <comment ref="AP25" authorId="12" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consolidate</t>
+      </text>
+    </comment>
+    <comment ref="BD25" authorId="13" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consolidate</t>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="14" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -151,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Type</t>
   </si>
@@ -288,9 +324,6 @@
     <t>Digital Entertainment</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
     <t>Microsoft</t>
   </si>
   <si>
@@ -313,6 +346,12 @@
   </si>
   <si>
     <t>Non-Contributable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping </t>
+  </si>
+  <si>
+    <t>Online Shopping</t>
   </si>
 </sst>
 </file>
@@ -329,7 +368,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -471,6 +510,12 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -811,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -902,7 +947,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -911,8 +955,12 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,35 +1228,47 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A5" dT="2025-06-09T02:13:53.81" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{B4A1F298-CDB5-487E-B215-EECE064A3E83}">
+  <threadedComment ref="A4" dT="2025-06-09T02:13:53.81" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{B4A1F298-CDB5-487E-B215-EECE064A3E83}">
     <text>Spotify, Netflix, YouTube</text>
   </threadedComment>
   <threadedComment ref="A6" dT="2025-06-16T03:18:23.88" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{6FB87BB2-DD21-4DA3-919B-FF30B0F4AD57}">
     <text>Gasoline</text>
   </threadedComment>
-  <threadedComment ref="A7" dT="2025-06-16T03:21:52.39" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
-    <text>Flowers, Cards, Bike, etc.</text>
-  </threadedComment>
-  <threadedComment ref="A9" dT="2025-06-16T03:21:19.01" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9C20091A-D362-4496-83DA-FA539560097B}">
+  <threadedComment ref="A7" dT="2025-06-16T03:21:19.01" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9C20091A-D362-4496-83DA-FA539560097B}">
     <text>Monthly, Annual, Upgrade</text>
   </threadedComment>
-  <threadedComment ref="A10" dT="2025-06-15T00:54:57.92" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{58FC39C5-4C7C-4647-AE55-1E45D447D506}">
+  <threadedComment ref="A8" dT="2025-06-15T00:54:57.92" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{58FC39C5-4C7C-4647-AE55-1E45D447D506}">
     <text>Car, Renter’s, Plates, Tags, Emissions, Registration</text>
   </threadedComment>
-  <threadedComment ref="A11" dT="2025-06-09T02:13:33.50" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{F52179FC-D113-4128-8AEC-F00E58C6202A}">
+  <threadedComment ref="A9" dT="2025-06-09T02:13:33.50" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{F52179FC-D113-4128-8AEC-F00E58C6202A}">
     <text>Microsoft, Laundry</text>
   </threadedComment>
-  <threadedComment ref="A12" dT="2025-06-15T00:55:42.02" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{06B25615-ACD3-4324-8355-FA20D083F987}">
+  <threadedComment ref="A10" dT="2025-06-15T00:55:42.02" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{06B25615-ACD3-4324-8355-FA20D083F987}">
     <text>DUI</text>
   </threadedComment>
-  <threadedComment ref="A14" dT="2025-06-16T03:21:00.61" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
+  <threadedComment ref="A12" dT="2025-06-16T03:21:00.61" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
     <text>Phone, Service, Fees</text>
   </threadedComment>
-  <threadedComment ref="A15" dT="2025-06-16T03:18:48.60" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+  <threadedComment ref="A14" dT="2025-06-16T03:18:48.60" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
     <text>Downtown?</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2025-06-16T03:21:52.39" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <text>Flowers, Cards, Bike, etc.</text>
   </threadedComment>
   <threadedComment ref="A16" dT="2025-06-30T05:26:03.85" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
     <text>Monthly</text>
+  </threadedComment>
+  <threadedComment ref="N25" dT="2025-07-06T00:21:20.99" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <text>Consolidate</text>
+  </threadedComment>
+  <threadedComment ref="AB25" dT="2025-07-06T00:21:33.66" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <text>Consolidate</text>
+  </threadedComment>
+  <threadedComment ref="AP25" dT="2025-07-06T00:21:47.31" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+    <text>Consolidate</text>
+  </threadedComment>
+  <threadedComment ref="BD25" dT="2025-07-06T00:22:00.36" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <text>Consolidate</text>
   </threadedComment>
   <threadedComment ref="B39" dT="2025-06-16T02:20:26.57" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
     <text>Duration</text>
@@ -1227,10 +1287,10 @@
   <dimension ref="A1:BI58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1526,7 +1586,7 @@
     </row>
     <row r="2" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1542,7 +1602,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O16" si="4">SUM(B2:N2)</f>
+        <f>SUM(B2:N2)</f>
         <v>0</v>
       </c>
       <c r="P2" s="7"/>
@@ -1559,32 +1619,28 @@
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="8">
-        <f t="shared" ref="AC2:AC16" si="5">SUM(P2:AB2)</f>
+        <f>SUM(P2:AB2)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="91">
-        <v>122.47</v>
-      </c>
+      <c r="AF2" s="6"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
-      <c r="AK2" s="92">
-        <v>434.06</v>
-      </c>
+      <c r="AK2" s="6"/>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
+      <c r="AP2" s="54"/>
       <c r="AQ2" s="8">
-        <f t="shared" ref="AQ2:AQ16" si="6">SUM(AD2:AP2)</f>
-        <v>556.53</v>
+        <f>SUM(AD2:AP2)</f>
+        <v>0</v>
       </c>
       <c r="AR2" s="7"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
       <c r="AU2" s="6"/>
       <c r="AV2" s="6"/>
       <c r="AW2" s="6"/>
@@ -1596,22 +1652,22 @@
       <c r="BC2" s="6"/>
       <c r="BD2" s="6"/>
       <c r="BE2" s="8">
-        <f t="shared" ref="BE2:BE16" si="7">SUM(AR2:BD2)</f>
+        <f>SUM(AR2:BD2)</f>
         <v>0</v>
       </c>
       <c r="BF2" s="8">
-        <f t="shared" ref="BF2:BF16" si="8">O2+AC2+AQ2+BE2</f>
-        <v>556.53</v>
+        <f>O2+AC2+AQ2+BE2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="7"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1622,7 +1678,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B3:N3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="7"/>
@@ -1639,7 +1695,7 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(P3:AB3)</f>
         <v>0</v>
       </c>
       <c r="AD3" s="7"/>
@@ -1653,10 +1709,12 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
-      <c r="AP3" s="54"/>
+      <c r="AP3" s="88">
+        <v>845.5</v>
+      </c>
       <c r="AQ3" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>SUM(AD3:AP3)</f>
+        <v>845.5</v>
       </c>
       <c r="AR3" s="7"/>
       <c r="AS3" s="56"/>
@@ -1670,24 +1728,26 @@
       <c r="BA3" s="6"/>
       <c r="BB3" s="6"/>
       <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
+      <c r="BD3" s="89">
+        <v>1070.03</v>
+      </c>
       <c r="BE3" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(AR3:BD3)</f>
+        <v>1070.03</v>
       </c>
       <c r="BF3" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>O3+AC3+AQ3+BE3</f>
+        <v>1915.53</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="44"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1698,7 +1758,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B4:N4)</f>
         <v>0</v>
       </c>
       <c r="P4" s="7"/>
@@ -1715,12 +1775,13 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(P4:AB4)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
+      <c r="AG4" s="90"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
@@ -1729,12 +1790,10 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
-      <c r="AP4" s="89">
-        <v>845.5</v>
-      </c>
+      <c r="AP4" s="54"/>
       <c r="AQ4" s="8">
-        <f t="shared" si="6"/>
-        <v>845.5</v>
+        <f>SUM(AD4:AP4)</f>
+        <v>0</v>
       </c>
       <c r="AR4" s="7"/>
       <c r="AS4" s="56"/>
@@ -1748,23 +1807,21 @@
       <c r="BA4" s="6"/>
       <c r="BB4" s="6"/>
       <c r="BC4" s="6"/>
-      <c r="BD4" s="90">
-        <v>1070.03</v>
-      </c>
+      <c r="BD4" s="6"/>
       <c r="BE4" s="8">
         <f>SUM(AR4:BD4)</f>
-        <v>1070.03</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="8">
-        <f t="shared" si="8"/>
-        <v>1915.53</v>
+        <f>O4+AC4+AQ4+BE4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="B5" s="90"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1778,12 +1835,12 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B5:N5)</f>
         <v>0</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="90"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
@@ -1795,7 +1852,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(P5:AB5)</f>
         <v>0</v>
       </c>
       <c r="AD5" s="7"/>
@@ -1810,14 +1867,14 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
       <c r="AO5" s="6"/>
-      <c r="AP5" s="54"/>
+      <c r="AP5" s="6"/>
       <c r="AQ5" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(AD5:AP5)</f>
         <v>0</v>
       </c>
       <c r="AR5" s="7"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
       <c r="AU5" s="6"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
@@ -1829,11 +1886,11 @@
       <c r="BC5" s="6"/>
       <c r="BD5" s="6"/>
       <c r="BE5" s="8">
-        <f t="shared" si="7"/>
+        <f>SUM(AR5:BD5)</f>
         <v>0</v>
       </c>
       <c r="BF5" s="8">
-        <f t="shared" si="8"/>
+        <f>O5+AC5+AQ5+BE5</f>
         <v>0</v>
       </c>
     </row>
@@ -1855,7 +1912,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B6:N6)</f>
         <v>0</v>
       </c>
       <c r="P6" s="7"/>
@@ -1872,7 +1929,7 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(P6:AB6)</f>
         <v>0</v>
       </c>
       <c r="AD6" s="7"/>
@@ -1889,7 +1946,7 @@
       <c r="AO6" s="6"/>
       <c r="AP6" s="54"/>
       <c r="AQ6" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(AD6:AP6)</f>
         <v>0</v>
       </c>
       <c r="AR6" s="7"/>
@@ -1906,17 +1963,17 @@
       <c r="BC6" s="6"/>
       <c r="BD6" s="6"/>
       <c r="BE6" s="8">
-        <f t="shared" si="7"/>
+        <f>SUM(AR6:BD6)</f>
         <v>0</v>
       </c>
       <c r="BF6" s="8">
-        <f t="shared" si="8"/>
+        <f>O6+AC6+AQ6+BE6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -1932,7 +1989,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B7:N7)</f>
         <v>0</v>
       </c>
       <c r="P7" s="7"/>
@@ -1949,7 +2006,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(P7:AB7)</f>
         <v>0</v>
       </c>
       <c r="AD7" s="7"/>
@@ -1964,36 +2021,44 @@
       <c r="AM7" s="6"/>
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
-      <c r="AP7" s="54"/>
+      <c r="AP7" s="54">
+        <v>25</v>
+      </c>
       <c r="AQ7" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>SUM(AD7:AP7)</f>
+        <v>25</v>
       </c>
       <c r="AR7" s="7"/>
       <c r="AS7" s="56"/>
       <c r="AT7" s="56"/>
-      <c r="AU7" s="6"/>
+      <c r="AU7" s="6">
+        <v>25</v>
+      </c>
       <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
+      <c r="AY7" s="6">
+        <v>25</v>
+      </c>
       <c r="AZ7" s="6"/>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
+      <c r="BC7" s="6">
+        <v>25</v>
+      </c>
+      <c r="BD7" s="79"/>
       <c r="BE7" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(AR7:BD7)</f>
+        <v>75</v>
       </c>
       <c r="BF7" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>O7+AC7+AQ7+BE7</f>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
@@ -2009,7 +2074,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B8:N8)</f>
         <v>0</v>
       </c>
       <c r="P8" s="7"/>
@@ -2020,13 +2085,13 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="25"/>
+      <c r="X8" s="92"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(P8:AB8)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="7"/>
@@ -2041,14 +2106,14 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
+      <c r="AP8" s="54"/>
       <c r="AQ8" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(AD8:AP8)</f>
         <v>0</v>
       </c>
       <c r="AR8" s="7"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
       <c r="AU8" s="6"/>
       <c r="AV8" s="6"/>
       <c r="AW8" s="6"/>
@@ -2060,17 +2125,17 @@
       <c r="BC8" s="6"/>
       <c r="BD8" s="6"/>
       <c r="BE8" s="8">
-        <f t="shared" si="7"/>
+        <f>SUM(AR8:BD8)</f>
         <v>0</v>
       </c>
       <c r="BF8" s="8">
-        <f t="shared" si="8"/>
+        <f>O8+AC8+AQ8+BE8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
@@ -2086,76 +2151,94 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B9:N9)</f>
         <v>0</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="R9" s="79"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="25"/>
+      <c r="X9" s="92"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7"/>
+        <f>SUM(P9:AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>10</v>
+      </c>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="AF9" s="6">
+        <v>10</v>
+      </c>
       <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
+      <c r="AH9" s="6">
+        <v>10</v>
+      </c>
       <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
+      <c r="AJ9" s="6">
+        <v>10</v>
+      </c>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
+      <c r="AL9" s="6">
+        <v>10</v>
+      </c>
       <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AN9" s="6">
+        <v>10</v>
+      </c>
       <c r="AO9" s="6"/>
-      <c r="AP9" s="54">
-        <v>25</v>
+      <c r="AP9" s="6">
+        <v>10</v>
       </c>
       <c r="AQ9" s="8">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>SUM(AD9:AP9)</f>
+        <v>70</v>
       </c>
       <c r="AR9" s="7"/>
-      <c r="AS9" s="56"/>
-      <c r="AT9" s="56"/>
+      <c r="AS9" s="6">
+        <v>10</v>
+      </c>
+      <c r="AT9" s="6"/>
       <c r="AU9" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
+      <c r="AW9" s="6">
+        <v>10</v>
+      </c>
       <c r="AX9" s="6"/>
       <c r="AY9" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AZ9" s="6"/>
-      <c r="BA9" s="6"/>
+      <c r="BA9" s="6">
+        <v>10</v>
+      </c>
       <c r="BB9" s="6"/>
       <c r="BC9" s="6">
-        <v>25</v>
-      </c>
-      <c r="BD9" s="79"/>
+        <v>10</v>
+      </c>
+      <c r="BD9" s="6"/>
       <c r="BE9" s="8">
-        <f t="shared" si="7"/>
-        <v>75</v>
+        <f>SUM(AR9:BD9)</f>
+        <v>60</v>
       </c>
       <c r="BF9" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
+        <f>O9+AC9+AQ9+BE9</f>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:58" s="17" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="9"/>
@@ -2171,7 +2254,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="6"/>
       <c r="O10" s="8">
-        <f t="shared" si="4"/>
+        <f>SUM(B10:N10)</f>
         <v>0</v>
       </c>
       <c r="P10" s="9"/>
@@ -2188,7 +2271,7 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="8">
-        <f t="shared" si="5"/>
+        <f>SUM(P10:AB10)</f>
         <v>0</v>
       </c>
       <c r="AD10" s="9"/>
@@ -2203,14 +2286,14 @@
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
       <c r="AO10" s="10"/>
-      <c r="AP10" s="54"/>
+      <c r="AP10" s="6"/>
       <c r="AQ10" s="8">
-        <f t="shared" si="6"/>
+        <f>SUM(AD10:AP10)</f>
         <v>0</v>
       </c>
       <c r="AR10" s="9"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
       <c r="AW10" s="10"/>
@@ -2222,17 +2305,17 @@
       <c r="BC10" s="10"/>
       <c r="BD10" s="6"/>
       <c r="BE10" s="8">
-        <f t="shared" si="7"/>
+        <f>SUM(AR10:BD10)</f>
         <v>0</v>
       </c>
       <c r="BF10" s="8">
-        <f t="shared" si="8"/>
+        <f>O10+AC10+AQ10+BE10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="11"/>
@@ -2248,94 +2331,80 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="12">
-        <f t="shared" si="4"/>
+        <f>SUM(B11:N11)</f>
         <v>0</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="53"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="85"/>
+      <c r="X11" s="84"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="12">
-        <f t="shared" si="5"/>
+        <f>SUM(P11:AB11)</f>
         <v>0</v>
       </c>
       <c r="AD11" s="5">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="AE11" s="11"/>
-      <c r="AF11" s="11">
-        <v>10</v>
-      </c>
+      <c r="AF11" s="11"/>
       <c r="AG11" s="11"/>
       <c r="AH11" s="11">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="AI11" s="11"/>
-      <c r="AJ11" s="11">
-        <v>10</v>
-      </c>
+      <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
-      <c r="AL11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="11">
-        <v>10</v>
-      </c>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="5">
+        <v>9.99</v>
+      </c>
+      <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
-      <c r="AP11" s="11">
-        <v>10</v>
-      </c>
+      <c r="AP11" s="11"/>
       <c r="AQ11" s="12">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="11">
-        <v>10</v>
-      </c>
+        <f>SUM(AD11:AP11)</f>
+        <v>29.97</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>9.99</v>
+      </c>
+      <c r="AS11" s="11"/>
       <c r="AT11" s="11"/>
-      <c r="AU11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11">
-        <v>10</v>
-      </c>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="AW11" s="11"/>
       <c r="AX11" s="11"/>
-      <c r="AY11" s="11">
-        <v>10</v>
-      </c>
+      <c r="AY11" s="11"/>
       <c r="AZ11" s="11"/>
-      <c r="BA11" s="11">
-        <v>10</v>
-      </c>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11">
-        <v>10</v>
-      </c>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="BC11" s="11"/>
       <c r="BD11" s="11"/>
       <c r="BE11" s="12">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f>SUM(AR11:BD11)</f>
+        <v>29.97</v>
       </c>
       <c r="BF11" s="12">
-        <f t="shared" si="8"/>
-        <v>130</v>
+        <f>O11+AC11+AQ11+BE11</f>
+        <v>59.94</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51" t="s">
-        <v>48</v>
+      <c r="A12" s="59" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="11"/>
@@ -2351,7 +2420,7 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="12">
-        <f t="shared" si="4"/>
+        <f>SUM(B12:N12)</f>
         <v>0</v>
       </c>
       <c r="P12" s="5"/>
@@ -2362,13 +2431,13 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-      <c r="X12" s="85"/>
+      <c r="X12" s="84"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="12">
-        <f t="shared" si="5"/>
+        <f>SUM(P12:AB12)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="5"/>
@@ -2383,14 +2452,14 @@
       <c r="AM12" s="5"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
+      <c r="AP12" s="13"/>
       <c r="AQ12" s="12">
-        <f t="shared" si="6"/>
+        <f>SUM(AD12:AP12)</f>
         <v>0</v>
       </c>
       <c r="AR12" s="5"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
@@ -2402,17 +2471,17 @@
       <c r="BC12" s="11"/>
       <c r="BD12" s="11"/>
       <c r="BE12" s="12">
-        <f t="shared" si="7"/>
+        <f>SUM(AR12:BD12)</f>
         <v>0</v>
       </c>
       <c r="BF12" s="12">
-        <f t="shared" si="8"/>
+        <f>O12+AC12+AQ12+BE12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="11"/>
@@ -2428,10 +2497,10 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="5"/>
+        <f>SUM(B13:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="90"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -2439,69 +2508,61 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-      <c r="X13" s="85"/>
+      <c r="X13" s="84"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>9.99</v>
-      </c>
+        <f>SUM(P13:AB13)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="90"/>
       <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="AF13" s="93">
+        <v>122.47</v>
+      </c>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
+      <c r="AK13" s="94">
+        <v>434.06</v>
+      </c>
       <c r="AL13" s="11"/>
-      <c r="AM13" s="5">
-        <v>9.99</v>
-      </c>
+      <c r="AM13" s="90"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="12">
-        <f t="shared" si="6"/>
-        <v>29.97</v>
-      </c>
-      <c r="AR13" s="5">
-        <v>9.99</v>
-      </c>
+        <f>SUM(AD13:AP13)</f>
+        <v>556.53</v>
+      </c>
+      <c r="AR13" s="90"/>
       <c r="AS13" s="11"/>
       <c r="AT13" s="11"/>
       <c r="AU13" s="11"/>
-      <c r="AV13" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="AV13" s="11"/>
       <c r="AW13" s="11"/>
       <c r="AX13" s="11"/>
       <c r="AY13" s="11"/>
       <c r="AZ13" s="11"/>
       <c r="BA13" s="11"/>
-      <c r="BB13" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="BB13" s="11"/>
       <c r="BC13" s="11"/>
       <c r="BD13" s="11"/>
       <c r="BE13" s="12">
-        <f t="shared" si="7"/>
-        <v>29.97</v>
+        <f>SUM(AR13:BD13)</f>
+        <v>0</v>
       </c>
       <c r="BF13" s="12">
-        <f t="shared" si="8"/>
-        <v>59.94</v>
+        <f>O13+AC13+AQ13+BE13</f>
+        <v>556.53</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="59" t="s">
-        <v>42</v>
+      <c r="A14" s="51" t="s">
+        <v>6</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="11"/>
@@ -2517,7 +2578,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12">
-        <f t="shared" si="4"/>
+        <f>SUM(B14:N14)</f>
         <v>0</v>
       </c>
       <c r="P14" s="5"/>
@@ -2528,13 +2589,13 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-      <c r="X14" s="85"/>
+      <c r="X14" s="84"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="12">
-        <f t="shared" si="5"/>
+        <f>SUM(P14:AB14)</f>
         <v>0</v>
       </c>
       <c r="AD14" s="5"/>
@@ -2549,9 +2610,9 @@
       <c r="AM14" s="5"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
-      <c r="AP14" s="13"/>
+      <c r="AP14" s="55"/>
       <c r="AQ14" s="12">
-        <f t="shared" si="6"/>
+        <f>SUM(AD14:AP14)</f>
         <v>0</v>
       </c>
       <c r="AR14" s="5"/>
@@ -2568,17 +2629,17 @@
       <c r="BC14" s="11"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="12">
-        <f t="shared" si="7"/>
+        <f>SUM(AR14:BD14)</f>
         <v>0</v>
       </c>
       <c r="BF14" s="12">
-        <f t="shared" si="8"/>
+        <f>O14+AC14+AQ14+BE14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="51" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="11"/>
@@ -2594,10 +2655,10 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="5"/>
+        <f>SUM(B15:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="90"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
@@ -2605,16 +2666,16 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
-      <c r="X15" s="85"/>
+      <c r="X15" s="84"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="5"/>
+        <f>SUM(P15:AB15)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="90"/>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
@@ -2623,15 +2684,15 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
       <c r="AL15" s="11"/>
-      <c r="AM15" s="5"/>
+      <c r="AM15" s="90"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
-      <c r="AP15" s="55"/>
+      <c r="AP15" s="95"/>
       <c r="AQ15" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AR15" s="5"/>
+        <f>SUM(AD15:AP15)</f>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="90"/>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
       <c r="AU15" s="11"/>
@@ -2643,13 +2704,13 @@
       <c r="BA15" s="11"/>
       <c r="BB15" s="11"/>
       <c r="BC15" s="11"/>
-      <c r="BD15" s="5"/>
+      <c r="BD15" s="90"/>
       <c r="BE15" s="12">
-        <f t="shared" si="7"/>
+        <f>SUM(AR15:BD15)</f>
         <v>0</v>
       </c>
       <c r="BF15" s="12">
-        <f t="shared" si="8"/>
+        <f>O15+AC15+AQ15+BE15</f>
         <v>0</v>
       </c>
     </row>
@@ -2671,7 +2732,7 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12">
-        <f t="shared" si="4"/>
+        <f>SUM(B16:N16)</f>
         <v>0</v>
       </c>
       <c r="P16" s="5"/>
@@ -2682,13 +2743,13 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="85"/>
+      <c r="X16" s="84"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="12">
-        <f t="shared" si="5"/>
+        <f>SUM(P16:AB16)</f>
         <v>0</v>
       </c>
       <c r="AD16" s="5"/>
@@ -2705,7 +2766,7 @@
       <c r="AO16" s="11"/>
       <c r="AP16" s="11"/>
       <c r="AQ16" s="12">
-        <f t="shared" si="6"/>
+        <f>SUM(AD16:AP16)</f>
         <v>0</v>
       </c>
       <c r="AR16" s="5"/>
@@ -2722,11 +2783,11 @@
       <c r="BC16" s="11"/>
       <c r="BD16" s="11"/>
       <c r="BE16" s="12">
-        <f t="shared" si="7"/>
+        <f>SUM(AR16:BD16)</f>
         <v>0</v>
       </c>
       <c r="BF16" s="12">
-        <f t="shared" si="8"/>
+        <f>O16+AC16+AQ16+BE16</f>
         <v>0</v>
       </c>
     </row>
@@ -2743,47 +2804,47 @@
         <v>0</v>
       </c>
       <c r="D17" s="32">
-        <f t="shared" ref="D17:N17" si="9">SUM(D2:D16)</f>
+        <f t="shared" ref="D17:N17" si="4">SUM(D2:D16)</f>
         <v>0</v>
       </c>
       <c r="E17" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G17" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I17" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J17" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17" s="16">
@@ -2795,51 +2856,51 @@
         <v>0</v>
       </c>
       <c r="Q17" s="32">
-        <f t="shared" ref="Q17:AB17" si="10">SUM(Q2:Q16)</f>
+        <f t="shared" ref="Q17:AB17" si="5">SUM(Q2:Q16)</f>
         <v>0</v>
       </c>
       <c r="R17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA17" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB17" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC17" s="16">
@@ -2851,27 +2912,27 @@
         <v>19.990000000000002</v>
       </c>
       <c r="AE17" s="32">
-        <f t="shared" ref="AE17:AP17" si="11">SUM(AE2:AE16)</f>
+        <f t="shared" ref="AE17:AP17" si="6">SUM(AE2:AE16)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>132.47</v>
       </c>
       <c r="AG17" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH17" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>19.990000000000002</v>
       </c>
       <c r="AI17" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AK17" s="32">
@@ -2879,23 +2940,23 @@
         <v>434.06</v>
       </c>
       <c r="AL17" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AM17" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>9.99</v>
       </c>
       <c r="AN17" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AO17" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP17" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>880.5</v>
       </c>
       <c r="AQ17" s="16">
@@ -2907,51 +2968,51 @@
         <v>9.99</v>
       </c>
       <c r="AS17" s="32">
-        <f t="shared" ref="AS17:BD17" si="12">SUM(AS2:AS16)</f>
+        <f t="shared" ref="AS17:BD17" si="7">SUM(AS2:AS16)</f>
         <v>10</v>
       </c>
       <c r="AT17" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU17" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AV17" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9.99</v>
       </c>
       <c r="AW17" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AX17" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AY17" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AZ17" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BA17" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="BB17" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>9.99</v>
       </c>
       <c r="BC17" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="BD17" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>1070.03</v>
       </c>
       <c r="BE17" s="16">
@@ -2980,8 +3041,8 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="87">
-        <f t="shared" ref="O18:O23" si="13">SUM(B18:N18)</f>
+      <c r="O18" s="86">
+        <f t="shared" ref="O18:O23" si="8">SUM(B18:N18)</f>
         <v>0</v>
       </c>
       <c r="P18" s="18"/>
@@ -2997,8 +3058,8 @@
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="87">
-        <f t="shared" ref="AC18:AC23" si="14">SUM(P18:AB18)</f>
+      <c r="AC18" s="86">
+        <f t="shared" ref="AC18:AC23" si="9">SUM(P18:AB18)</f>
         <v>0</v>
       </c>
       <c r="AD18" s="18">
@@ -3040,7 +3101,7 @@
       <c r="AP18" s="20">
         <v>95</v>
       </c>
-      <c r="AQ18" s="87">
+      <c r="AQ18" s="86">
         <f>SUM(AD18:AP18)</f>
         <v>1235</v>
       </c>
@@ -3083,12 +3144,12 @@
       <c r="BD18" s="20">
         <v>95</v>
       </c>
-      <c r="BE18" s="87">
-        <f t="shared" ref="BE18:BE23" si="15">SUM(AR18:BD18)</f>
+      <c r="BE18" s="86">
+        <f t="shared" ref="BE18:BE23" si="10">SUM(AR18:BD18)</f>
         <v>1235</v>
       </c>
-      <c r="BF18" s="87">
-        <f t="shared" ref="BF18:BF23" si="16">O18+AC18+AQ18+BE18</f>
+      <c r="BF18" s="86">
+        <f t="shared" ref="BF18:BF23" si="11">O18+AC18+AQ18+BE18</f>
         <v>2470</v>
       </c>
       <c r="BH18" s="35"/>
@@ -3111,8 +3172,8 @@
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="87">
-        <f t="shared" si="13"/>
+      <c r="O19" s="86">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P19" s="21"/>
@@ -3128,8 +3189,8 @@
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="24"/>
-      <c r="AC19" s="87">
-        <f t="shared" si="14"/>
+      <c r="AC19" s="86">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD19" s="21"/>
@@ -3145,7 +3206,7 @@
       <c r="AN19" s="23"/>
       <c r="AO19" s="23"/>
       <c r="AP19" s="24"/>
-      <c r="AQ19" s="87">
+      <c r="AQ19" s="86">
         <f>SUM(AD19:AP19)</f>
         <v>0</v>
       </c>
@@ -3162,12 +3223,12 @@
       <c r="BB19" s="23"/>
       <c r="BC19" s="23"/>
       <c r="BD19" s="24"/>
-      <c r="BE19" s="87">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF19" s="87">
-        <f t="shared" si="16"/>
+      <c r="BE19" s="86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="86">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3188,8 +3249,8 @@
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
-      <c r="O20" s="87">
-        <f t="shared" si="13"/>
+      <c r="O20" s="86">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P20" s="27"/>
@@ -3205,8 +3266,8 @@
       <c r="Z20" s="27"/>
       <c r="AA20" s="27"/>
       <c r="AB20" s="27"/>
-      <c r="AC20" s="87">
-        <f t="shared" si="14"/>
+      <c r="AC20" s="86">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD20" s="27"/>
@@ -3222,7 +3283,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="27"/>
       <c r="AP20" s="27"/>
-      <c r="AQ20" s="87">
+      <c r="AQ20" s="86">
         <f>SUM(AD20:AP20)</f>
         <v>0</v>
       </c>
@@ -3239,12 +3300,12 @@
       <c r="BB20" s="27"/>
       <c r="BC20" s="27"/>
       <c r="BD20" s="27"/>
-      <c r="BE20" s="87">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF20" s="87">
-        <f t="shared" si="16"/>
+      <c r="BE20" s="86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BF20" s="86">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BG20" s="36"/>
@@ -3266,8 +3327,8 @@
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="87">
-        <f t="shared" si="13"/>
+      <c r="O21" s="86">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P21" s="28"/>
@@ -3283,8 +3344,8 @@
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
       <c r="AB21" s="29"/>
-      <c r="AC21" s="87">
-        <f t="shared" si="14"/>
+      <c r="AC21" s="86">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD21" s="28"/>
@@ -3300,7 +3361,7 @@
       <c r="AN21" s="27"/>
       <c r="AO21" s="27"/>
       <c r="AP21" s="29"/>
-      <c r="AQ21" s="87">
+      <c r="AQ21" s="86">
         <f>SUM(AE21:AP21)</f>
         <v>0</v>
       </c>
@@ -3317,12 +3378,12 @@
       <c r="BB21" s="27"/>
       <c r="BC21" s="27"/>
       <c r="BD21" s="29"/>
-      <c r="BE21" s="87">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF21" s="87">
-        <f t="shared" si="16"/>
+      <c r="BE21" s="86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="86">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BH21" s="46"/>
@@ -3345,8 +3406,8 @@
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="87">
-        <f t="shared" si="13"/>
+      <c r="O22" s="86">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P22" s="27"/>
@@ -3364,8 +3425,8 @@
       <c r="AB22" s="29">
         <v>292</v>
       </c>
-      <c r="AC22" s="87">
-        <f t="shared" si="14"/>
+      <c r="AC22" s="86">
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="AD22" s="28"/>
@@ -3385,7 +3446,7 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="27"/>
       <c r="AP22" s="29"/>
-      <c r="AQ22" s="87">
+      <c r="AQ22" s="86">
         <f>SUM(AD22:AP22)</f>
         <v>584</v>
       </c>
@@ -3408,16 +3469,16 @@
       <c r="BB22" s="27"/>
       <c r="BC22" s="27"/>
       <c r="BD22" s="29"/>
-      <c r="BE22" s="87">
-        <f t="shared" si="15"/>
+      <c r="BE22" s="86">
+        <f t="shared" si="10"/>
         <v>876</v>
       </c>
-      <c r="BF22" s="87">
-        <f t="shared" si="16"/>
+      <c r="BF22" s="86">
+        <f t="shared" si="11"/>
         <v>1752</v>
       </c>
-      <c r="BG22" s="88" t="s">
-        <v>53</v>
+      <c r="BG22" s="87" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:61" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3437,8 +3498,8 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="29"/>
-      <c r="O23" s="87">
-        <f t="shared" si="13"/>
+      <c r="O23" s="86">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P23" s="28"/>
@@ -3454,8 +3515,8 @@
       <c r="Z23" s="27"/>
       <c r="AA23" s="27"/>
       <c r="AB23" s="29"/>
-      <c r="AC23" s="87">
-        <f t="shared" si="14"/>
+      <c r="AC23" s="86">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD23" s="28"/>
@@ -3473,7 +3534,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="27"/>
       <c r="AP23" s="29"/>
-      <c r="AQ23" s="87">
+      <c r="AQ23" s="86">
         <f>SUM(AD23:AP23)</f>
         <v>292</v>
       </c>
@@ -3490,12 +3551,12 @@
       <c r="BB23" s="27"/>
       <c r="BC23" s="27"/>
       <c r="BD23" s="29"/>
-      <c r="BE23" s="87">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF23" s="87">
-        <f t="shared" si="16"/>
+      <c r="BE23" s="86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BF23" s="86">
+        <f t="shared" si="11"/>
         <v>292</v>
       </c>
     </row>
@@ -3512,47 +3573,47 @@
         <v>0</v>
       </c>
       <c r="D24" s="63">
-        <f t="shared" ref="D24:N24" si="17">SUM(D18:D21)+D23+C24</f>
+        <f t="shared" ref="D24:N24" si="12">SUM(D18:D21)+D23+C24</f>
         <v>0</v>
       </c>
       <c r="E24" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F24" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G24" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H24" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I24" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J24" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K24" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L24" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M24" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N24" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O24" s="16">
@@ -3564,51 +3625,51 @@
         <v>0</v>
       </c>
       <c r="Q24" s="32">
-        <f t="shared" ref="Q24:AB24" si="18">SUM(Q18:Q21)+Q23+P25</f>
+        <f t="shared" ref="Q24:AB24" si="13">SUM(Q18:Q21)+Q23+P25</f>
         <v>0</v>
       </c>
       <c r="R24" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S24" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T24" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U24" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V24" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W24" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X24" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y24" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z24" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA24" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB24" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC24" s="16">
@@ -3624,47 +3685,47 @@
         <v>170.01</v>
       </c>
       <c r="AF24" s="32">
-        <f t="shared" ref="AF24:AP24" si="19">SUM(AF18:AF21)+AF23+AE25</f>
+        <f t="shared" ref="AF24:AP24" si="14">SUM(AF18:AF21)+AF23+AE25</f>
         <v>265.01</v>
       </c>
       <c r="AG24" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>227.54</v>
       </c>
       <c r="AH24" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>614.54</v>
       </c>
       <c r="AI24" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>689.55</v>
       </c>
       <c r="AJ24" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>784.55</v>
       </c>
       <c r="AK24" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>869.55</v>
       </c>
       <c r="AL24" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>530.49</v>
       </c>
       <c r="AM24" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>615.49</v>
       </c>
       <c r="AN24" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>700.5</v>
       </c>
       <c r="AO24" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>785.5</v>
       </c>
       <c r="AP24" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>880.5</v>
       </c>
       <c r="AQ24" s="16">
@@ -3676,51 +3737,51 @@
         <v>95</v>
       </c>
       <c r="AS24" s="32">
-        <f t="shared" ref="AS24:BD24" si="20">SUM(AS18:AS21)+AS23+AR25</f>
+        <f t="shared" ref="AS24:BD24" si="15">SUM(AS18:AS21)+AS23+AR25</f>
         <v>180.01</v>
       </c>
       <c r="AT24" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>265.01</v>
       </c>
       <c r="AU24" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>360.01</v>
       </c>
       <c r="AV24" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>420.01</v>
       </c>
       <c r="AW24" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>505.02</v>
       </c>
       <c r="AX24" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>590.02</v>
       </c>
       <c r="AY24" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>685.02</v>
       </c>
       <c r="AZ24" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>745.02</v>
       </c>
       <c r="BA24" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>840.02</v>
       </c>
       <c r="BB24" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>925.02</v>
       </c>
       <c r="BC24" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>1010.03</v>
       </c>
       <c r="BD24" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>1070.03</v>
       </c>
       <c r="BE24" s="16">
@@ -3743,15 +3804,15 @@
         <v>0</v>
       </c>
       <c r="D25" s="32">
-        <f t="shared" ref="D25:O25" si="21">D24-D17</f>
+        <f t="shared" ref="D25:O25" si="16">D24-D17</f>
         <v>0</v>
       </c>
       <c r="E25" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F25" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G25" s="32">
@@ -3759,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I25" s="60">
@@ -3767,27 +3828,27 @@
         <v>0</v>
       </c>
       <c r="J25" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K25" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L25" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M25" s="32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N25" s="66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O25" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P25" s="32">
@@ -3795,55 +3856,55 @@
         <v>0</v>
       </c>
       <c r="Q25" s="32">
-        <f t="shared" ref="Q25:AC25" si="22">Q24-Q17</f>
+        <f t="shared" ref="Q25:AC25" si="17">Q24-Q17</f>
         <v>0</v>
       </c>
       <c r="R25" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S25" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T25" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U25" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V25" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W25" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X25" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y25" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z25" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA25" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB25" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC25" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD25" s="32">
@@ -3851,43 +3912,43 @@
         <v>75.009999999999991</v>
       </c>
       <c r="AE25" s="32">
-        <f t="shared" ref="AE25:AQ25" si="23">AE24-AE17</f>
+        <f t="shared" ref="AE25:AQ25" si="18">AE24-AE17</f>
         <v>170.01</v>
       </c>
       <c r="AF25" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>132.54</v>
       </c>
       <c r="AG25" s="60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>227.54</v>
       </c>
       <c r="AH25" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>594.54999999999995</v>
       </c>
       <c r="AI25" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>689.55</v>
       </c>
       <c r="AJ25" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>774.55</v>
       </c>
       <c r="AK25" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>435.48999999999995</v>
       </c>
       <c r="AL25" s="60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>520.49</v>
       </c>
       <c r="AM25" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>605.5</v>
       </c>
       <c r="AN25" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>690.5</v>
       </c>
       <c r="AO25" s="32">
@@ -3899,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AR25" s="32">
@@ -3907,51 +3968,51 @@
         <v>85.01</v>
       </c>
       <c r="AS25" s="32">
-        <f t="shared" ref="AS25:BF25" si="24">AS24-AS17</f>
+        <f t="shared" ref="AS25:BF25" si="19">AS24-AS17</f>
         <v>170.01</v>
       </c>
       <c r="AT25" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>265.01</v>
       </c>
       <c r="AU25" s="60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>325.01</v>
       </c>
       <c r="AV25" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>410.02</v>
       </c>
       <c r="AW25" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>495.02</v>
       </c>
       <c r="AX25" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>590.02</v>
       </c>
       <c r="AY25" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>650.02</v>
       </c>
       <c r="AZ25" s="60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>745.02</v>
       </c>
       <c r="BA25" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>830.02</v>
       </c>
       <c r="BB25" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>915.03</v>
       </c>
       <c r="BC25" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>975.03</v>
       </c>
       <c r="BD25" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE25" s="61">
@@ -3959,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -4025,7 +4086,7 @@
       <c r="H29" s="73">
         <v>1650.47</v>
       </c>
-      <c r="BF29" s="86"/>
+      <c r="BF29" s="85"/>
     </row>
     <row r="30" spans="1:61" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
@@ -4139,39 +4200,39 @@
       <c r="A34" s="37"/>
       <c r="B34" s="47"/>
       <c r="C34" s="75">
-        <f t="shared" ref="C34:K34" si="25">C32-C33</f>
+        <f t="shared" ref="C34:K34" si="20">C32-C33</f>
         <v>-151.76000000000022</v>
       </c>
       <c r="D34" s="75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>-76.75</v>
       </c>
       <c r="E34" s="75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>-29.07000000000005</v>
       </c>
       <c r="F34" s="75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>-92.950000000000045</v>
       </c>
       <c r="G34" s="75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>-31.550000000000011</v>
       </c>
       <c r="H34" s="76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>46.840000000000032</v>
       </c>
       <c r="I34" s="76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>5.75</v>
       </c>
       <c r="J34" s="76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>1045.77</v>
       </c>
       <c r="K34" s="75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>-121.54999999999995</v>
       </c>
     </row>
@@ -4231,8 +4292,8 @@
       <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="84" t="s">
-        <v>51</v>
+      <c r="C39" s="83" t="s">
+        <v>50</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -4243,9 +4304,9 @@
         <f>SUM(B37:C37)+SUM(F37:I37)</f>
         <v>45630.329999999994</v>
       </c>
-      <c r="C40" s="83">
+      <c r="C40" s="82" t="e">
         <f>B40/BF4</f>
-        <v>23.821255736010396</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I40" s="50"/>
     </row>
@@ -4274,8 +4335,8 @@
     <row r="56" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="58" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:BF16">
-    <sortCondition ref="A4:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BF16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.48680555555555599" bottom="0.48680555555555599" header="0.196527777777778" footer="0.196527777777778"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -886,52 +886,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,7 +940,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,7 +955,7 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,7 +967,7 @@
     <xf numFmtId="40" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +988,7 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1051,7 +1051,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,67 +1072,67 @@
     <xf numFmtId="8" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:BI58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="BD3" sqref="BD3"/>
@@ -4257,7 +4257,7 @@
         <v>227.54</v>
       </c>
       <c r="AH26" s="90">
-        <f t="shared" ref="AH26:BM26" si="22">AH25-AH17</f>
+        <f t="shared" ref="AH26:BF26" si="22">AH25-AH17</f>
         <v>594.54999999999995</v>
       </c>
       <c r="AI26" s="90">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{55AE4EBB-BE6B-4BAD-A29E-FEEE542D2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9469F54F-CF6E-4E22-BD7D-5A8F12604946}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{55AE4EBB-BE6B-4BAD-A29E-FEEE542D2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05964335-A2FC-4623-995B-BD3D6DCFCED5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,12 +42,17 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B4A1F298-CDB5-487E-B215-EECE064A3E83}</author>
+    <author>tc={A2FB70E1-4DBA-433A-A267-B78212C1977F}</author>
     <author>tc={6FB87BB2-DD21-4DA3-919B-FF30B0F4AD57}</author>
     <author>tc={9C20091A-D362-4496-83DA-FA539560097B}</author>
     <author>tc={58FC39C5-4C7C-4647-AE55-1E45D447D506}</author>
     <author>tc={F52179FC-D113-4128-8AEC-F00E58C6202A}</author>
     <author>tc={06B25615-ACD3-4324-8355-FA20D083F987}</author>
     <author>tc={3AE6F7DC-4535-43DA-BFFD-7C585CC37669}</author>
+    <author>tc={E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}</author>
+    <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
+    <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
+    <author>tc={F7780402-B8B0-44EE-9069-B18543FE466A}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
     <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
     <author>tc={C80F882F-58A5-4C62-98CE-F86F6971772E}</author>
@@ -66,7 +71,15 @@
     Spotify, Netflix, YouTube</t>
       </text>
     </comment>
-    <comment ref="A6" authorId="1" shapeId="0" xr:uid="{6FB87BB2-DD21-4DA3-919B-FF30B0F4AD57}">
+    <comment ref="A6" authorId="1" shapeId="0" xr:uid="{A2FB70E1-4DBA-433A-A267-B78212C1977F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Panda Express, Flowers, Candy, Gift Cards, Stuffed Animals, Art, Subscriptions, Memberships, Fuel, Car, Rent, Money</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="2" shapeId="0" xr:uid="{6FB87BB2-DD21-4DA3-919B-FF30B0F4AD57}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +87,7 @@
     Gasoline</t>
       </text>
     </comment>
-    <comment ref="A7" authorId="2" shapeId="0" xr:uid="{9C20091A-D362-4496-83DA-FA539560097B}">
+    <comment ref="A8" authorId="3" shapeId="0" xr:uid="{9C20091A-D362-4496-83DA-FA539560097B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,7 +95,7 @@
     Monthly, Annual, Upgrade</t>
       </text>
     </comment>
-    <comment ref="A8" authorId="3" shapeId="0" xr:uid="{58FC39C5-4C7C-4647-AE55-1E45D447D506}">
+    <comment ref="A9" authorId="4" shapeId="0" xr:uid="{58FC39C5-4C7C-4647-AE55-1E45D447D506}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,7 +103,7 @@
     Car, Renter’s, Plates, Tags, Emissions, Registration</t>
       </text>
     </comment>
-    <comment ref="A9" authorId="4" shapeId="0" xr:uid="{F52179FC-D113-4128-8AEC-F00E58C6202A}">
+    <comment ref="A10" authorId="5" shapeId="0" xr:uid="{F52179FC-D113-4128-8AEC-F00E58C6202A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +111,7 @@
     Microsoft, Laundry</t>
       </text>
     </comment>
-    <comment ref="A10" authorId="5" shapeId="0" xr:uid="{06B25615-ACD3-4324-8355-FA20D083F987}">
+    <comment ref="A11" authorId="6" shapeId="0" xr:uid="{06B25615-ACD3-4324-8355-FA20D083F987}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -106,7 +119,7 @@
     DUI</t>
       </text>
     </comment>
-    <comment ref="A12" authorId="6" shapeId="0" xr:uid="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
+    <comment ref="A13" authorId="7" shapeId="0" xr:uid="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,7 +127,39 @@
     Phone, Service, Fees</t>
       </text>
     </comment>
-    <comment ref="A14" authorId="7" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="AK13" authorId="8" shapeId="0" xr:uid="{E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Verizon</t>
+      </text>
+    </comment>
+    <comment ref="AF14" authorId="9" shapeId="0" xr:uid="{349F2372-D8F3-4A55-988B-DE936EBDEF80}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ball, Goggles</t>
+      </text>
+    </comment>
+    <comment ref="AG14" authorId="10" shapeId="0" xr:uid="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Boots</t>
+      </text>
+    </comment>
+    <comment ref="AL14" authorId="11" shapeId="0" xr:uid="{F7780402-B8B0-44EE-9069-B18543FE466A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Rest of Wishlist</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="12" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -122,7 +167,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="13" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -130,7 +175,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="9" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="14" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -138,7 +183,7 @@
     Monthly</t>
       </text>
     </comment>
-    <comment ref="N26" authorId="10" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="N27" authorId="15" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,7 +191,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB26" authorId="11" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="16" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -154,7 +199,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AP26" authorId="12" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+    <comment ref="AP27" authorId="17" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -162,7 +207,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD26" authorId="13" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="18" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -170,7 +215,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B40" authorId="14" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B41" authorId="19" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -187,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Type</t>
   </si>
@@ -374,7 +419,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -515,6 +560,12 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -549,12 +600,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -577,6 +622,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -881,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -970,12 +1021,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1006,7 +1051,7 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1096,9 +1141,6 @@
     <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1135,37 +1177,52 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1438,52 +1495,67 @@
   <threadedComment ref="A4" dT="2025-06-09T02:13:53.81" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{B4A1F298-CDB5-487E-B215-EECE064A3E83}">
     <text>Spotify, Netflix, YouTube</text>
   </threadedComment>
-  <threadedComment ref="A6" dT="2025-06-16T03:18:23.88" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{6FB87BB2-DD21-4DA3-919B-FF30B0F4AD57}">
+  <threadedComment ref="A6" dT="2025-07-08T06:13:52.72" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A2FB70E1-4DBA-433A-A267-B78212C1977F}">
+    <text>Panda Express, Flowers, Candy, Gift Cards, Stuffed Animals, Art, Subscriptions, Memberships, Fuel, Car, Rent, Money</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2025-06-16T03:18:23.88" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{6FB87BB2-DD21-4DA3-919B-FF30B0F4AD57}">
     <text>Gasoline</text>
   </threadedComment>
-  <threadedComment ref="A7" dT="2025-06-16T03:21:19.01" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9C20091A-D362-4496-83DA-FA539560097B}">
+  <threadedComment ref="A8" dT="2025-06-16T03:21:19.01" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9C20091A-D362-4496-83DA-FA539560097B}">
     <text>Monthly, Annual, Upgrade</text>
   </threadedComment>
-  <threadedComment ref="A8" dT="2025-06-15T00:54:57.92" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{58FC39C5-4C7C-4647-AE55-1E45D447D506}">
+  <threadedComment ref="A9" dT="2025-06-15T00:54:57.92" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{58FC39C5-4C7C-4647-AE55-1E45D447D506}">
     <text>Car, Renter’s, Plates, Tags, Emissions, Registration</text>
   </threadedComment>
-  <threadedComment ref="A9" dT="2025-06-09T02:13:33.50" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{F52179FC-D113-4128-8AEC-F00E58C6202A}">
+  <threadedComment ref="A10" dT="2025-06-09T02:13:33.50" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{F52179FC-D113-4128-8AEC-F00E58C6202A}">
     <text>Microsoft, Laundry</text>
   </threadedComment>
-  <threadedComment ref="A10" dT="2025-06-15T00:55:42.02" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{06B25615-ACD3-4324-8355-FA20D083F987}">
+  <threadedComment ref="A11" dT="2025-06-15T00:55:42.02" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{06B25615-ACD3-4324-8355-FA20D083F987}">
     <text>DUI</text>
   </threadedComment>
-  <threadedComment ref="A12" dT="2025-06-16T03:21:00.61" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
+  <threadedComment ref="A13" dT="2025-06-16T03:21:00.61" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
     <text>Phone, Service, Fees</text>
   </threadedComment>
-  <threadedComment ref="A14" dT="2025-06-16T03:18:48.60" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+  <threadedComment ref="AK13" dT="2025-07-08T02:59:53.67" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}">
+    <text>Verizon</text>
+  </threadedComment>
+  <threadedComment ref="AF14" dT="2025-07-08T03:00:27.44" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{349F2372-D8F3-4A55-988B-DE936EBDEF80}">
+    <text>Ball, Goggles</text>
+  </threadedComment>
+  <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
+    <text>Boots</text>
+  </threadedComment>
+  <threadedComment ref="AL14" dT="2025-07-08T03:00:47.71" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{F7780402-B8B0-44EE-9069-B18543FE466A}">
+    <text>Rest of Wishlist</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2025-06-16T03:18:48.60" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
     <text>Downtown?</text>
   </threadedComment>
-  <threadedComment ref="A15" dT="2025-06-16T03:21:52.39" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+  <threadedComment ref="A16" dT="2025-06-16T03:21:52.39" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
     <text>Flowers, Cards, Bike, etc.</text>
   </threadedComment>
-  <threadedComment ref="A16" dT="2025-06-30T05:26:03.85" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+  <threadedComment ref="A17" dT="2025-06-30T05:26:03.85" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
     <text>Monthly</text>
   </threadedComment>
-  <threadedComment ref="N26" dT="2025-07-06T00:21:20.99" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+  <threadedComment ref="N27" dT="2025-07-06T00:21:20.99" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
     <text>Consolidate</text>
   </threadedComment>
-  <threadedComment ref="AB26" dT="2025-07-06T00:21:33.66" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+  <threadedComment ref="AB27" dT="2025-07-06T00:21:33.66" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
     <text>Consolidate</text>
   </threadedComment>
-  <threadedComment ref="AP26" dT="2025-07-06T00:21:47.31" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+  <threadedComment ref="AP27" dT="2025-07-06T00:21:47.31" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
     <text>Consolidate</text>
   </threadedComment>
-  <threadedComment ref="BD26" dT="2025-07-06T00:22:00.36" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+  <threadedComment ref="BD27" dT="2025-07-06T00:22:00.36" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
     <text>Consolidate</text>
   </threadedComment>
-  <threadedComment ref="B40" dT="2025-06-16T02:20:26.57" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+  <threadedComment ref="B41" dT="2025-06-16T02:20:26.57" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
     <text>Duration</text>
   </threadedComment>
-  <threadedComment ref="B40" dT="2025-06-16T02:20:43.63" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9981D998-8F31-4AB5-B8EE-02F0B2DDC047}" parentId="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+  <threadedComment ref="B41" dT="2025-06-16T02:20:43.63" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9981D998-8F31-4AB5-B8EE-02F0B2DDC047}" parentId="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
     <text xml:space="preserve">2.652 years @ Min Wage </text>
   </threadedComment>
-  <threadedComment ref="B40" dT="2025-06-16T02:22:16.72" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{72A254E2-297A-4006-8536-0570A9167D66}" parentId="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+  <threadedComment ref="B41" dT="2025-06-16T02:22:16.72" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{72A254E2-297A-4006-8536-0570A9167D66}" parentId="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
     <text>.78715 years @ 66K</text>
   </threadedComment>
 </ThreadedComments>
@@ -1491,13 +1563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI58"/>
+  <dimension ref="A1:BI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BD3" sqref="BD3"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1507,13 +1579,13 @@
     <col min="3" max="3" width="26.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="25.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="3" customWidth="1"/>
     <col min="13" max="13" width="16" style="3" customWidth="1"/>
     <col min="14" max="14" width="15.44140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="14.21875" style="3" customWidth="1"/>
@@ -1535,7 +1607,7 @@
     <col min="31" max="31" width="15.6640625" style="3" customWidth="1"/>
     <col min="32" max="32" width="16.77734375" style="3" customWidth="1"/>
     <col min="33" max="33" width="22.44140625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="33" style="3" customWidth="1"/>
+    <col min="34" max="34" width="35.44140625" style="3" customWidth="1"/>
     <col min="35" max="35" width="20.33203125" style="3" customWidth="1"/>
     <col min="36" max="36" width="15.109375" style="3" customWidth="1"/>
     <col min="37" max="37" width="15.44140625" style="3" customWidth="1"/>
@@ -1558,7 +1630,7 @@
     <col min="56" max="56" width="14.44140625" style="3" customWidth="1"/>
     <col min="57" max="57" width="16.109375" style="3" customWidth="1"/>
     <col min="58" max="58" width="19.44140625" style="3" customWidth="1"/>
-    <col min="59" max="59" width="22.77734375" style="3" customWidth="1"/>
+    <col min="59" max="59" width="26.109375" style="3" customWidth="1"/>
     <col min="60" max="60" width="24.33203125" style="3" customWidth="1"/>
     <col min="61" max="61" width="24.5546875" style="3" customWidth="1"/>
     <col min="62" max="16384" width="10.88671875" style="3"/>
@@ -1690,11 +1762,11 @@
         <v>41110</v>
       </c>
       <c r="AG1" s="17">
-        <f t="shared" si="2"/>
+        <f>AF1+7</f>
         <v>41117</v>
       </c>
       <c r="AH1" s="17">
-        <f t="shared" si="2"/>
+        <f>AG1+7</f>
         <v>41124</v>
       </c>
       <c r="AI1" s="17">
@@ -1810,7 +1882,7 @@
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
       <c r="O2" s="23">
-        <f t="shared" ref="O2:O16" si="4">SUM(B2:N2)</f>
+        <f t="shared" ref="O2:O17" si="4">SUM(B2:N2)</f>
         <v>0</v>
       </c>
       <c r="P2" s="22"/>
@@ -1821,13 +1893,13 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
-      <c r="X2" s="35"/>
+      <c r="X2" s="33"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21"/>
       <c r="AC2" s="23">
-        <f t="shared" ref="AC2:AC16" si="5">SUM(P2:AB2)</f>
+        <f t="shared" ref="AC2:AC17" si="5">SUM(P2:AB2)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="22"/>
@@ -1844,7 +1916,7 @@
       <c r="AO2" s="21"/>
       <c r="AP2" s="26"/>
       <c r="AQ2" s="23">
-        <f t="shared" ref="AQ2:AQ16" si="6">SUM(AD2:AP2)</f>
+        <f t="shared" ref="AQ2:AQ17" si="6">SUM(AD2:AP2)</f>
         <v>0</v>
       </c>
       <c r="AR2" s="22"/>
@@ -1861,11 +1933,11 @@
       <c r="BC2" s="21"/>
       <c r="BD2" s="21"/>
       <c r="BE2" s="23">
-        <f t="shared" ref="BE2:BE16" si="7">SUM(AR2:BD2)</f>
+        <f t="shared" ref="BE2:BE17" si="7">SUM(AR2:BD2)</f>
         <v>0</v>
       </c>
       <c r="BF2" s="23">
-        <f t="shared" ref="BF2:BF16" si="8">O2+AC2+AQ2+BE2</f>
+        <f t="shared" ref="BF2:BF17" si="8">O2+AC2+AQ2+BE2</f>
         <v>0</v>
       </c>
       <c r="BG2" s="25"/>
@@ -1886,10 +1958,12 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="N3" s="95">
+        <v>7342.03</v>
+      </c>
       <c r="O3" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7342.03</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="21"/>
@@ -1899,14 +1973,16 @@
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
-      <c r="X3" s="95"/>
+      <c r="X3" s="92"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
+      <c r="AB3" s="96">
+        <v>7342.03</v>
+      </c>
       <c r="AC3" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7342.03</v>
       </c>
       <c r="AD3" s="22"/>
       <c r="AE3" s="21"/>
@@ -1920,12 +1996,12 @@
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
       <c r="AO3" s="21"/>
-      <c r="AP3" s="30">
-        <v>4429.5</v>
+      <c r="AP3" s="95">
+        <v>6099.5</v>
       </c>
       <c r="AQ3" s="23">
         <f t="shared" si="6"/>
-        <v>4429.5</v>
+        <v>6099.5</v>
       </c>
       <c r="AR3" s="22"/>
       <c r="AS3" s="27"/>
@@ -1939,7 +2015,7 @@
       <c r="BA3" s="21"/>
       <c r="BB3" s="21"/>
       <c r="BC3" s="21"/>
-      <c r="BD3" s="31">
+      <c r="BD3" s="96">
         <v>7342.03</v>
       </c>
       <c r="BE3" s="23">
@@ -1948,7 +2024,7 @@
       </c>
       <c r="BF3" s="23">
         <f t="shared" si="8"/>
-        <v>11771.529999999999</v>
+        <v>28125.589999999997</v>
       </c>
       <c r="BG3" s="25"/>
     </row>
@@ -1981,7 +2057,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
-      <c r="X4" s="94"/>
+      <c r="X4" s="91"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
@@ -2048,7 +2124,7 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="23">
-        <f t="shared" si="4"/>
+        <f>SUM(B5:N5)</f>
         <v>0</v>
       </c>
       <c r="P5" s="22"/>
@@ -2059,13 +2135,13 @@
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
-      <c r="X5" s="94"/>
+      <c r="X5" s="91"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
       <c r="AB5" s="21"/>
       <c r="AC5" s="23">
-        <f t="shared" si="5"/>
+        <f>SUM(P5:AB5)</f>
         <v>0</v>
       </c>
       <c r="AD5" s="22"/>
@@ -2082,7 +2158,7 @@
       <c r="AO5" s="21"/>
       <c r="AP5" s="21"/>
       <c r="AQ5" s="23">
-        <f t="shared" si="6"/>
+        <f>SUM(AD5:AP5)</f>
         <v>0</v>
       </c>
       <c r="AR5" s="22"/>
@@ -2099,7 +2175,7 @@
       <c r="BC5" s="21"/>
       <c r="BD5" s="21"/>
       <c r="BE5" s="23">
-        <f t="shared" si="7"/>
+        <f>SUM(AR5:BD5)</f>
         <v>0</v>
       </c>
       <c r="BF5" s="23">
@@ -2110,13 +2186,13 @@
     </row>
     <row r="6" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -2126,24 +2202,24 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="23">
-        <f t="shared" si="4"/>
+        <f>SUM(B6:N6)</f>
         <v>0</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+      <c r="R6" s="20"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="94"/>
+      <c r="X6" s="91"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
       <c r="AC6" s="23">
-        <f t="shared" si="5"/>
+        <f>SUM(P6:AB6)</f>
         <v>0</v>
       </c>
       <c r="AD6" s="22"/>
@@ -2158,14 +2234,14 @@
       <c r="AM6" s="21"/>
       <c r="AN6" s="21"/>
       <c r="AO6" s="21"/>
-      <c r="AP6" s="26"/>
+      <c r="AP6" s="21"/>
       <c r="AQ6" s="23">
-        <f t="shared" si="6"/>
+        <f>SUM(AD6:AP6)</f>
         <v>0</v>
       </c>
       <c r="AR6" s="22"/>
-      <c r="AS6" s="27"/>
-      <c r="AT6" s="27"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
       <c r="AU6" s="21"/>
       <c r="AV6" s="21"/>
       <c r="AW6" s="21"/>
@@ -2177,7 +2253,7 @@
       <c r="BC6" s="21"/>
       <c r="BD6" s="21"/>
       <c r="BE6" s="23">
-        <f t="shared" si="7"/>
+        <f>SUM(AR6:BD6)</f>
         <v>0</v>
       </c>
       <c r="BF6" s="23">
@@ -2188,10 +2264,10 @@
     </row>
     <row r="7" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22"/>
+        <v>40</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -2215,7 +2291,7 @@
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
-      <c r="X7" s="94"/>
+      <c r="X7" s="91"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
@@ -2236,127 +2312,143 @@
       <c r="AM7" s="21"/>
       <c r="AN7" s="21"/>
       <c r="AO7" s="21"/>
-      <c r="AP7" s="26">
-        <v>25</v>
-      </c>
+      <c r="AP7" s="26"/>
       <c r="AQ7" s="23">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="22"/>
       <c r="AS7" s="27"/>
       <c r="AT7" s="27"/>
-      <c r="AU7" s="21">
-        <v>25</v>
-      </c>
+      <c r="AU7" s="21"/>
       <c r="AV7" s="21"/>
       <c r="AW7" s="21"/>
       <c r="AX7" s="21"/>
-      <c r="AY7" s="21">
-        <v>25</v>
-      </c>
+      <c r="AY7" s="21"/>
       <c r="AZ7" s="21"/>
       <c r="BA7" s="21"/>
       <c r="BB7" s="21"/>
-      <c r="BC7" s="21">
-        <v>25</v>
-      </c>
-      <c r="BD7" s="32"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
       <c r="BE7" s="23">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="23">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="25"/>
     </row>
     <row r="8" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="21">
+        <v>25</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <v>25</v>
+      </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="M8" s="21">
+        <v>25</v>
+      </c>
+      <c r="N8" s="30"/>
       <c r="O8" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P8" s="22"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="21">
+        <v>25</v>
+      </c>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="94"/>
+      <c r="W8" s="21">
+        <v>25</v>
+      </c>
+      <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
+      <c r="AA8" s="21">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="30"/>
       <c r="AC8" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="22"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="21">
+        <v>25</v>
+      </c>
       <c r="AH8" s="21"/>
       <c r="AI8" s="21"/>
       <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
+      <c r="AK8" s="21">
+        <v>25</v>
+      </c>
       <c r="AL8" s="21"/>
       <c r="AM8" s="21"/>
       <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="26"/>
+      <c r="AO8" s="21">
+        <v>25</v>
+      </c>
+      <c r="AP8" s="30"/>
       <c r="AQ8" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AR8" s="22"/>
       <c r="AS8" s="27"/>
       <c r="AT8" s="27"/>
-      <c r="AU8" s="21"/>
+      <c r="AU8" s="21">
+        <v>25</v>
+      </c>
       <c r="AV8" s="21"/>
       <c r="AW8" s="21"/>
       <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
+      <c r="AY8" s="21">
+        <v>25</v>
+      </c>
       <c r="AZ8" s="21"/>
       <c r="BA8" s="21"/>
       <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
+      <c r="BC8" s="21">
+        <v>25</v>
+      </c>
+      <c r="BD8" s="30"/>
       <c r="BE8" s="23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BF8" s="23">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BG8" s="25"/>
     </row>
     <row r="9" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -2372,14 +2464,14 @@
         <v>0</v>
       </c>
       <c r="P9" s="22"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="32"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="52"/>
+      <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
@@ -2388,1232 +2480,1320 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="22">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21">
-        <v>10</v>
-      </c>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
       <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
-        <v>10</v>
-      </c>
+      <c r="AH9" s="21"/>
       <c r="AI9" s="21"/>
-      <c r="AJ9" s="21">
-        <v>10</v>
-      </c>
+      <c r="AJ9" s="21"/>
       <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
-        <v>10</v>
-      </c>
+      <c r="AL9" s="21"/>
       <c r="AM9" s="21"/>
-      <c r="AN9" s="21">
-        <v>10</v>
-      </c>
+      <c r="AN9" s="21"/>
       <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
-        <v>10</v>
-      </c>
+      <c r="AP9" s="21"/>
       <c r="AQ9" s="23">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="22"/>
-      <c r="AS9" s="21">
-        <v>10</v>
-      </c>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="21">
-        <v>10</v>
-      </c>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="21"/>
       <c r="AV9" s="21"/>
-      <c r="AW9" s="21">
-        <v>10</v>
-      </c>
+      <c r="AW9" s="21"/>
       <c r="AX9" s="21"/>
-      <c r="AY9" s="21">
-        <v>10</v>
-      </c>
+      <c r="AY9" s="21"/>
       <c r="AZ9" s="21"/>
-      <c r="BA9" s="21">
-        <v>10</v>
-      </c>
+      <c r="BA9" s="21"/>
       <c r="BB9" s="21"/>
-      <c r="BC9" s="21">
-        <v>10</v>
-      </c>
+      <c r="BC9" s="21"/>
       <c r="BD9" s="21"/>
       <c r="BE9" s="23">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="23">
         <f t="shared" si="8"/>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="25"/>
     </row>
     <row r="10" spans="1:59" s="4" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21">
+        <v>10</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21">
+        <v>10</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21">
+        <v>10</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21">
+        <v>10</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21">
+        <v>10</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21">
+        <v>10</v>
+      </c>
       <c r="N10" s="21"/>
       <c r="O10" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="21">
+        <v>10</v>
+      </c>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21">
+        <v>10</v>
+      </c>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21">
+        <v>10</v>
+      </c>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21">
+        <v>10</v>
+      </c>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21">
+        <v>10</v>
+      </c>
       <c r="AB10" s="21"/>
       <c r="AC10" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="21">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21">
+        <v>10</v>
+      </c>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21">
+        <v>10</v>
+      </c>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21">
+        <v>10</v>
+      </c>
       <c r="AP10" s="21"/>
       <c r="AQ10" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="34"/>
-      <c r="BB10" s="34"/>
-      <c r="BC10" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="21">
+        <v>10</v>
+      </c>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21">
+        <v>10</v>
+      </c>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21">
+        <v>10</v>
+      </c>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21">
+        <v>10</v>
+      </c>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21">
+        <v>10</v>
+      </c>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21">
+        <v>10</v>
+      </c>
       <c r="BD10" s="21"/>
       <c r="BE10" s="23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BF10" s="23">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BG10" s="36"/>
+        <v>240</v>
+      </c>
+      <c r="BG10" s="34"/>
     </row>
-    <row r="11" spans="1:59" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39">
+    <row r="11" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="39">
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="20">
-        <v>9.99</v>
-      </c>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38">
-        <v>9.99</v>
-      </c>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="20">
-        <v>9.99</v>
-      </c>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="39">
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="23">
         <f t="shared" si="6"/>
-        <v>29.97</v>
-      </c>
-      <c r="AR11" s="20">
-        <v>9.99</v>
-      </c>
-      <c r="AS11" s="38"/>
-      <c r="AT11" s="38"/>
-      <c r="AU11" s="38"/>
-      <c r="AV11" s="38">
-        <v>9.99</v>
-      </c>
-      <c r="AW11" s="38"/>
-      <c r="AX11" s="38"/>
-      <c r="AY11" s="38"/>
-      <c r="AZ11" s="38"/>
-      <c r="BA11" s="38"/>
-      <c r="BB11" s="38">
-        <v>9.99</v>
-      </c>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="39">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="32"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="32"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="23">
         <f t="shared" si="7"/>
-        <v>29.97</v>
-      </c>
-      <c r="BF11" s="39">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="23">
         <f t="shared" si="8"/>
-        <v>59.94</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="25"/>
     </row>
     <row r="12" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39">
+      <c r="A12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="20">
+        <v>9.99</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="39">
+        <v>29.97</v>
+      </c>
+      <c r="P12" s="20">
+        <v>9.99</v>
+      </c>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="37">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="39">
+        <v>29.97</v>
+      </c>
+      <c r="AD12" s="20">
+        <v>9.99</v>
+      </c>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="39">
+        <v>29.97</v>
+      </c>
+      <c r="AR12" s="20">
+        <v>9.99</v>
+      </c>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="36"/>
+      <c r="BE12" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BF12" s="39">
+        <v>29.97</v>
+      </c>
+      <c r="BF12" s="37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>119.88</v>
       </c>
       <c r="BG12" s="25"/>
     </row>
     <row r="13" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>52</v>
+      <c r="A13" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P13" s="20"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="39">
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD13" s="20"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="42">
-        <v>122.47</v>
-      </c>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="42">
-        <v>434.06</v>
-      </c>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="94">
+        <v>915</v>
+      </c>
+      <c r="AL13" s="36"/>
       <c r="AM13" s="20"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="39">
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="37">
         <f t="shared" si="6"/>
-        <v>556.53</v>
+        <v>915</v>
       </c>
       <c r="AR13" s="20"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="38"/>
-      <c r="BB13" s="38"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="39">
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="36"/>
+      <c r="BA13" s="36"/>
+      <c r="BB13" s="36"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BF13" s="39">
+      <c r="BF13" s="37">
         <f t="shared" si="8"/>
-        <v>556.53</v>
+        <v>915</v>
       </c>
       <c r="BG13" s="25"/>
     </row>
     <row r="14" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>6</v>
+      <c r="A14" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P14" s="20"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="39">
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD14" s="20"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="93">
+        <v>63</v>
+      </c>
+      <c r="AG14" s="40">
+        <v>122.47</v>
+      </c>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="40">
+        <v>434.06</v>
+      </c>
       <c r="AM14" s="20"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="39">
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>619.53</v>
       </c>
       <c r="AR14" s="20"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="38"/>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="38"/>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="20"/>
-      <c r="BE14" s="39">
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="36"/>
+      <c r="AZ14" s="36"/>
+      <c r="BA14" s="36"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="36"/>
+      <c r="BD14" s="36"/>
+      <c r="BE14" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BF14" s="39">
+      <c r="BF14" s="37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>619.53</v>
       </c>
       <c r="BG14" s="25"/>
     </row>
-    <row r="15" spans="1:59" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
-        <v>53</v>
+    <row r="15" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="20"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="39">
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD15" s="20"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
       <c r="AM15" s="20"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="39">
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR15" s="20"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="38"/>
-      <c r="AX15" s="38"/>
-      <c r="AY15" s="38"/>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="38"/>
-      <c r="BB15" s="38"/>
-      <c r="BC15" s="38"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="36"/>
+      <c r="BA15" s="36"/>
+      <c r="BB15" s="36"/>
+      <c r="BC15" s="36"/>
       <c r="BD15" s="20"/>
-      <c r="BE15" s="39">
+      <c r="BE15" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BF15" s="39">
+      <c r="BF15" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG15" s="25"/>
     </row>
-    <row r="16" spans="1:59" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
-        <v>5</v>
+    <row r="16" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="20"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="39">
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD16" s="20"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
       <c r="AM16" s="20"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="39">
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR16" s="20"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-      <c r="AX16" s="38"/>
-      <c r="AY16" s="38"/>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="38"/>
-      <c r="BB16" s="38"/>
-      <c r="BC16" s="38"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="39">
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="36"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BF16" s="39">
+      <c r="BF16" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG16" s="25"/>
     </row>
-    <row r="17" spans="1:61" s="4" customFormat="1" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:61" s="4" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="36"/>
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="36"/>
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="34"/>
+    </row>
+    <row r="18" spans="1:61" s="4" customFormat="1" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="85">
-        <f>SUM(B2:B16)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="86">
-        <f>SUM(C2:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="86">
-        <f t="shared" ref="D17:N17" si="9">SUM(D2:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="46">
-        <f>SUM(O2:O16)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="86">
-        <f>SUM(P2:P16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="86">
-        <f t="shared" ref="Q17:AB17" si="10">SUM(Q2:Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="87">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="46">
-        <f>SUM(AC2:AC16)</f>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="86">
-        <f>SUM(AD2:AD16)</f>
-        <v>19.990000000000002</v>
-      </c>
-      <c r="AE17" s="86">
-        <f t="shared" ref="AE17:AP17" si="11">SUM(AE2:AE16)</f>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="86">
-        <f t="shared" si="11"/>
-        <v>132.47</v>
-      </c>
-      <c r="AG17" s="86">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="86">
-        <f t="shared" si="11"/>
-        <v>19.990000000000002</v>
-      </c>
-      <c r="AI17" s="86">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="86">
-        <f t="shared" si="11"/>
+      <c r="B18" s="82">
+        <f>SUM(B2:B17)</f>
+        <v>9.99</v>
+      </c>
+      <c r="C18" s="83">
+        <f>SUM(C2:C17)</f>
         <v>10</v>
       </c>
-      <c r="AK17" s="86">
-        <f>SUM(AK2:AK16)</f>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="86">
-        <f t="shared" si="11"/>
-        <v>444.06</v>
-      </c>
-      <c r="AM17" s="86">
-        <f t="shared" si="11"/>
+      <c r="D18" s="83">
+        <f>SUM(D2:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="83">
+        <f>SUM(E2:E17)</f>
+        <v>35</v>
+      </c>
+      <c r="F18" s="83">
+        <f>SUM(F2:F17)</f>
         <v>9.99</v>
       </c>
-      <c r="AN17" s="86">
-        <f t="shared" si="11"/>
+      <c r="G18" s="83">
+        <f>SUM(G2:G17)</f>
         <v>10</v>
       </c>
-      <c r="AO17" s="86">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AP17" s="87">
-        <f t="shared" si="11"/>
-        <v>4464.5</v>
-      </c>
-      <c r="AQ17" s="46">
-        <f>SUM(AQ2:AQ16)</f>
-        <v>5111</v>
-      </c>
-      <c r="AR17" s="86">
-        <f>SUM(AR2:AR16)</f>
+      <c r="H18" s="83">
+        <f>SUM(H2:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="83">
+        <f>SUM(I2:I17)</f>
+        <v>35</v>
+      </c>
+      <c r="J18" s="83">
+        <f>SUM(J2:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="83">
+        <f>SUM(K2:K17)</f>
+        <v>10</v>
+      </c>
+      <c r="L18" s="83">
+        <f>SUM(L2:L17)</f>
         <v>9.99</v>
       </c>
-      <c r="AS17" s="86">
-        <f t="shared" ref="AS17:BD17" si="12">SUM(AS2:AS16)</f>
+      <c r="M18" s="83">
+        <f>SUM(M2:M17)</f>
+        <v>35</v>
+      </c>
+      <c r="N18" s="83">
+        <f>SUM(N2:N17)</f>
+        <v>7342.03</v>
+      </c>
+      <c r="O18" s="44">
+        <f>SUM(O2:O17)</f>
+        <v>7507</v>
+      </c>
+      <c r="P18" s="83">
+        <f>SUM(P2:P17)</f>
+        <v>9.99</v>
+      </c>
+      <c r="Q18" s="83">
+        <f>SUM(Q2:Q17)</f>
         <v>10</v>
       </c>
-      <c r="AT17" s="86">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="86">
-        <f t="shared" si="12"/>
+      <c r="R18" s="83">
+        <f>SUM(R2:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="83">
+        <f>SUM(S2:S17)</f>
         <v>35</v>
       </c>
-      <c r="AV17" s="86">
-        <f t="shared" si="12"/>
+      <c r="T18" s="83">
+        <f>SUM(T2:T17)</f>
         <v>9.99</v>
       </c>
-      <c r="AW17" s="86">
-        <f t="shared" si="12"/>
+      <c r="U18" s="83">
+        <f>SUM(U2:U17)</f>
         <v>10</v>
       </c>
-      <c r="AX17" s="86">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AY17" s="86">
-        <f t="shared" si="12"/>
+      <c r="V18" s="83">
+        <f>SUM(V2:V17)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="83">
+        <f>SUM(W2:W17)</f>
         <v>35</v>
       </c>
-      <c r="AZ17" s="86">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BA17" s="86">
-        <f t="shared" si="12"/>
+      <c r="X18" s="83">
+        <f>SUM(X2:X17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="83">
+        <f>SUM(Y2:Y17)</f>
         <v>10</v>
       </c>
-      <c r="BB17" s="86">
-        <f t="shared" si="12"/>
+      <c r="Z18" s="83">
+        <f>SUM(Z2:Z17)</f>
         <v>9.99</v>
       </c>
-      <c r="BC17" s="86">
-        <f t="shared" si="12"/>
+      <c r="AA18" s="83">
+        <f>SUM(AA2:AA17)</f>
         <v>35</v>
       </c>
-      <c r="BD17" s="87">
-        <f t="shared" si="12"/>
+      <c r="AB18" s="84">
+        <f>SUM(AB2:AB17)</f>
         <v>7342.03</v>
       </c>
-      <c r="BE17" s="46">
-        <f>SUM(BE2:BE16)</f>
+      <c r="AC18" s="44">
+        <f>SUM(AC2:AC17)</f>
         <v>7507</v>
       </c>
-      <c r="BF17" s="46">
-        <f>SUM(BF2:BF16)</f>
-        <v>12618</v>
-      </c>
-      <c r="BG17" s="36"/>
-    </row>
-    <row r="18" spans="1:61" s="4" customFormat="1" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51">
-        <f t="shared" ref="O18:O24" si="13">SUM(B18:N18)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="51">
-        <f t="shared" ref="AC18:AC24" si="14">SUM(P18:AB18)</f>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="48">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="51">
-        <f>SUM(AD18:AP18)</f>
-        <v>0</v>
-      </c>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="49"/>
-      <c r="AX18" s="49"/>
-      <c r="AY18" s="49"/>
-      <c r="AZ18" s="49"/>
-      <c r="BA18" s="49"/>
-      <c r="BB18" s="49"/>
-      <c r="BC18" s="49"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="51">
-        <f t="shared" ref="BE18:BE24" si="15">SUM(AR18:BD18)</f>
-        <v>0</v>
-      </c>
-      <c r="BF18" s="51">
-        <f t="shared" ref="BF18:BF24" si="16">O18+AC18+AQ18+BE18</f>
-        <v>0</v>
-      </c>
-      <c r="BG18" s="36"/>
+      <c r="AD18" s="83">
+        <f>SUM(AD2:AD17)</f>
+        <v>9.99</v>
+      </c>
+      <c r="AE18" s="83">
+        <f>SUM(AE2:AE17)</f>
+        <v>10</v>
+      </c>
+      <c r="AF18" s="83">
+        <f>SUM(AF2:AF17)</f>
+        <v>63</v>
+      </c>
+      <c r="AG18" s="83">
+        <f>SUM(AG2:AG17)</f>
+        <v>157.47</v>
+      </c>
+      <c r="AH18" s="83">
+        <f>SUM(AH2:AH17)</f>
+        <v>9.99</v>
+      </c>
+      <c r="AI18" s="83">
+        <f>SUM(AI2:AI17)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ18" s="83">
+        <f>SUM(AJ2:AJ17)</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="83">
+        <f>SUM(AK2:AK17)</f>
+        <v>950</v>
+      </c>
+      <c r="AL18" s="83">
+        <f>SUM(AL2:AL17)</f>
+        <v>434.06</v>
+      </c>
+      <c r="AM18" s="83">
+        <f>SUM(AM2:AM17)</f>
+        <v>10</v>
+      </c>
+      <c r="AN18" s="83">
+        <f>SUM(AN2:AN17)</f>
+        <v>9.99</v>
+      </c>
+      <c r="AO18" s="83">
+        <f>SUM(AO2:AO17)</f>
+        <v>35</v>
+      </c>
+      <c r="AP18" s="84">
+        <f>SUM(AP2:AP17)</f>
+        <v>6099.5</v>
+      </c>
+      <c r="AQ18" s="44">
+        <f>SUM(AQ2:AQ17)</f>
+        <v>7799</v>
+      </c>
+      <c r="AR18" s="83">
+        <f>SUM(AR2:AR17)</f>
+        <v>9.99</v>
+      </c>
+      <c r="AS18" s="83">
+        <f>SUM(AS2:AS17)</f>
+        <v>10</v>
+      </c>
+      <c r="AT18" s="83">
+        <f>SUM(AT2:AT17)</f>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="83">
+        <f>SUM(AU2:AU17)</f>
+        <v>35</v>
+      </c>
+      <c r="AV18" s="83">
+        <f>SUM(AV2:AV17)</f>
+        <v>9.99</v>
+      </c>
+      <c r="AW18" s="83">
+        <f>SUM(AW2:AW17)</f>
+        <v>10</v>
+      </c>
+      <c r="AX18" s="83">
+        <f>SUM(AX2:AX17)</f>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="83">
+        <f>SUM(AY2:AY17)</f>
+        <v>35</v>
+      </c>
+      <c r="AZ18" s="83">
+        <f>SUM(AZ2:AZ17)</f>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="83">
+        <f>SUM(BA2:BA17)</f>
+        <v>10</v>
+      </c>
+      <c r="BB18" s="83">
+        <f>SUM(BB2:BB17)</f>
+        <v>9.99</v>
+      </c>
+      <c r="BC18" s="83">
+        <f>SUM(BC2:BC17)</f>
+        <v>35</v>
+      </c>
+      <c r="BD18" s="84">
+        <f>SUM(BD2:BD17)</f>
+        <v>7342.03</v>
+      </c>
+      <c r="BE18" s="44">
+        <f>SUM(BE2:BE17)</f>
+        <v>7507</v>
+      </c>
+      <c r="BF18" s="44">
+        <f>SUM(BF2:BF17)</f>
+        <v>30319.999999999996</v>
+      </c>
+      <c r="BG18" s="34"/>
       <c r="BH18" s="5"/>
       <c r="BI18" s="5"/>
     </row>
-    <row r="19" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="51">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="51">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="52">
-        <v>95</v>
-      </c>
-      <c r="AE19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AF19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AG19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AH19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AI19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AJ19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AK19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AL19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AM19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AN19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AO19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AP19" s="55">
-        <v>95</v>
-      </c>
-      <c r="AQ19" s="51">
-        <f>SUM(AD19:AP19)</f>
-        <v>1235</v>
-      </c>
-      <c r="AR19" s="29">
-        <v>95</v>
-      </c>
-      <c r="AS19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AT19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AU19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AV19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AW19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AX19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AY19" s="54">
-        <v>95</v>
-      </c>
-      <c r="AZ19" s="54">
-        <v>95</v>
-      </c>
-      <c r="BA19" s="54">
-        <v>95</v>
-      </c>
-      <c r="BB19" s="54">
-        <v>95</v>
-      </c>
-      <c r="BC19" s="54">
-        <v>95</v>
-      </c>
-      <c r="BD19" s="55">
-        <v>95</v>
-      </c>
-      <c r="BE19" s="51">
-        <f t="shared" si="15"/>
-        <v>1235</v>
-      </c>
-      <c r="BF19" s="51">
-        <f t="shared" si="16"/>
-        <v>2470</v>
+    <row r="19" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="49">
+        <f t="shared" ref="O19:O25" si="9">SUM(B19:N19)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="49">
+        <f t="shared" ref="AC19:AC25" si="10">SUM(P19:AB19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="49">
+        <f t="shared" ref="AQ19:AQ25" si="11">SUM(AD19:AP19)</f>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="47"/>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="48"/>
+      <c r="BE19" s="49">
+        <f t="shared" ref="BE19:BE25" si="12">SUM(AR19:BD19)</f>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="49">
+        <f t="shared" ref="BF19:BF25" si="13">O19+AC19+AQ19+BE19</f>
+        <v>0</v>
       </c>
       <c r="BG19" s="25"/>
     </row>
     <row r="20" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="51">
+      <c r="A20" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="50">
+        <v>95</v>
+      </c>
+      <c r="C20" s="52">
+        <v>95</v>
+      </c>
+      <c r="D20" s="52">
+        <v>95</v>
+      </c>
+      <c r="E20" s="52">
+        <v>95</v>
+      </c>
+      <c r="F20" s="52">
+        <v>95</v>
+      </c>
+      <c r="G20" s="52">
+        <v>95</v>
+      </c>
+      <c r="H20" s="52">
+        <v>95</v>
+      </c>
+      <c r="I20" s="52">
+        <v>95</v>
+      </c>
+      <c r="J20" s="52">
+        <v>95</v>
+      </c>
+      <c r="K20" s="52">
+        <v>95</v>
+      </c>
+      <c r="L20" s="52">
+        <v>95</v>
+      </c>
+      <c r="M20" s="52">
+        <v>95</v>
+      </c>
+      <c r="N20" s="53">
+        <v>95</v>
+      </c>
+      <c r="O20" s="49">
+        <f t="shared" si="9"/>
+        <v>1235</v>
+      </c>
+      <c r="P20" s="50">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="52">
+        <v>95</v>
+      </c>
+      <c r="R20" s="52">
+        <v>95</v>
+      </c>
+      <c r="S20" s="52">
+        <v>95</v>
+      </c>
+      <c r="T20" s="52">
+        <v>95</v>
+      </c>
+      <c r="U20" s="52">
+        <v>95</v>
+      </c>
+      <c r="V20" s="52">
+        <v>95</v>
+      </c>
+      <c r="W20" s="52">
+        <v>95</v>
+      </c>
+      <c r="X20" s="52">
+        <v>95</v>
+      </c>
+      <c r="Y20" s="52">
+        <v>95</v>
+      </c>
+      <c r="Z20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AA20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AB20" s="53">
+        <v>95</v>
+      </c>
+      <c r="AC20" s="49">
+        <f t="shared" si="10"/>
+        <v>1235</v>
+      </c>
+      <c r="AD20" s="50">
+        <v>95</v>
+      </c>
+      <c r="AE20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AF20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AG20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AH20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AI20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AJ20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AK20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AL20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AM20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AN20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AO20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AP20" s="53">
+        <v>95</v>
+      </c>
+      <c r="AQ20" s="49">
+        <f t="shared" si="11"/>
+        <v>1235</v>
+      </c>
+      <c r="AR20" s="29">
+        <v>95</v>
+      </c>
+      <c r="AS20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AT20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AU20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AV20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AW20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AX20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AY20" s="52">
+        <v>95</v>
+      </c>
+      <c r="AZ20" s="52">
+        <v>95</v>
+      </c>
+      <c r="BA20" s="52">
+        <v>95</v>
+      </c>
+      <c r="BB20" s="52">
+        <v>95</v>
+      </c>
+      <c r="BC20" s="52">
+        <v>95</v>
+      </c>
+      <c r="BD20" s="53">
+        <v>95</v>
+      </c>
+      <c r="BE20" s="49">
+        <f t="shared" si="12"/>
+        <v>1235</v>
+      </c>
+      <c r="BF20" s="49">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="51">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="54"/>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="54"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="54"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="51">
-        <f>SUM(AD20:AP20)</f>
-        <v>0</v>
-      </c>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="54"/>
-      <c r="AT20" s="54"/>
-      <c r="AU20" s="54"/>
-      <c r="AV20" s="54"/>
-      <c r="AW20" s="54"/>
-      <c r="AX20" s="54"/>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="54"/>
-      <c r="BA20" s="54"/>
-      <c r="BB20" s="54"/>
-      <c r="BC20" s="54"/>
-      <c r="BD20" s="55"/>
-      <c r="BE20" s="51">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF20" s="51">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BG20" s="57"/>
+        <v>4940</v>
+      </c>
+      <c r="BG20" s="55"/>
     </row>
     <row r="21" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="51">
+      <c r="A21" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="53"/>
+      <c r="AQ21" s="49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="52"/>
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="52"/>
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
+      <c r="BA21" s="52"/>
+      <c r="BB21" s="52"/>
+      <c r="BC21" s="52"/>
+      <c r="BD21" s="53"/>
+      <c r="BE21" s="49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="49">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="51">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="51">
-        <f>SUM(AD21:AP21)</f>
-        <v>0</v>
-      </c>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="35"/>
-      <c r="AX21" s="35"/>
-      <c r="AY21" s="35"/>
-      <c r="AZ21" s="35"/>
-      <c r="BA21" s="35"/>
-      <c r="BB21" s="35"/>
-      <c r="BC21" s="35"/>
-      <c r="BD21" s="35"/>
-      <c r="BE21" s="51">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF21" s="51">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG21" s="25"/>
@@ -3621,1084 +3801,1192 @@
       <c r="BI21" s="7"/>
     </row>
     <row r="22" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="51">
+      <c r="A22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="33"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="33"/>
+      <c r="AP22" s="33"/>
+      <c r="AQ22" s="49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="33"/>
+      <c r="AS22" s="33"/>
+      <c r="AT22" s="33"/>
+      <c r="AU22" s="33"/>
+      <c r="AV22" s="33"/>
+      <c r="AW22" s="33"/>
+      <c r="AX22" s="33"/>
+      <c r="AY22" s="33"/>
+      <c r="AZ22" s="33"/>
+      <c r="BA22" s="33"/>
+      <c r="BB22" s="33"/>
+      <c r="BC22" s="33"/>
+      <c r="BD22" s="33"/>
+      <c r="BE22" s="49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BF22" s="49">
         <f t="shared" si="13"/>
         <v>0</v>
-      </c>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="51">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35">
-        <v>896</v>
-      </c>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35">
-        <v>896</v>
-      </c>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35">
-        <v>896</v>
-      </c>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35">
-        <v>896</v>
-      </c>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="51">
-        <f>SUM(AE22:AP22)</f>
-        <v>3584</v>
-      </c>
-      <c r="AR22" s="35">
-        <v>896</v>
-      </c>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35">
-        <v>896</v>
-      </c>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35">
-        <v>896</v>
-      </c>
-      <c r="AW22" s="24"/>
-      <c r="AX22" s="35">
-        <v>896</v>
-      </c>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35">
-        <v>896</v>
-      </c>
-      <c r="BA22" s="35"/>
-      <c r="BB22" s="35">
-        <v>896</v>
-      </c>
-      <c r="BC22" s="24"/>
-      <c r="BD22" s="24">
-        <v>896</v>
-      </c>
-      <c r="BE22" s="51">
-        <f t="shared" si="15"/>
-        <v>6272</v>
-      </c>
-      <c r="BF22" s="51">
-        <f t="shared" si="16"/>
-        <v>9856</v>
       </c>
       <c r="BG22" s="25"/>
     </row>
     <row r="23" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="33">
+        <v>896</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33">
+        <v>896</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33">
+        <v>896</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="33">
+        <v>896</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33">
+        <v>896</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33">
+        <v>896</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24">
+        <v>896</v>
+      </c>
+      <c r="O23" s="49">
+        <f t="shared" si="9"/>
+        <v>6272</v>
+      </c>
+      <c r="P23" s="33">
+        <v>896</v>
+      </c>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33">
+        <v>896</v>
+      </c>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33">
+        <v>896</v>
+      </c>
+      <c r="U23" s="24"/>
+      <c r="V23" s="33">
+        <v>896</v>
+      </c>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33">
+        <v>896</v>
+      </c>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33">
+        <v>896</v>
+      </c>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24">
+        <v>896</v>
+      </c>
+      <c r="AC23" s="49">
+        <f t="shared" si="10"/>
+        <v>6272</v>
+      </c>
+      <c r="AD23" s="57">
+        <v>896</v>
+      </c>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33">
+        <v>896</v>
+      </c>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33">
+        <v>896</v>
+      </c>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33">
+        <v>896</v>
+      </c>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33">
+        <v>896</v>
+      </c>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33">
+        <v>896</v>
+      </c>
+      <c r="AP23" s="24">
+        <v>896</v>
+      </c>
+      <c r="AQ23" s="49">
+        <f t="shared" si="11"/>
+        <v>6272</v>
+      </c>
+      <c r="AR23" s="33">
+        <v>896</v>
+      </c>
+      <c r="AS23" s="33"/>
+      <c r="AT23" s="33">
+        <v>896</v>
+      </c>
+      <c r="AU23" s="33"/>
+      <c r="AV23" s="33">
+        <v>896</v>
+      </c>
+      <c r="AW23" s="24"/>
+      <c r="AX23" s="33">
+        <v>896</v>
+      </c>
+      <c r="AY23" s="33"/>
+      <c r="AZ23" s="33">
+        <v>896</v>
+      </c>
+      <c r="BA23" s="33"/>
+      <c r="BB23" s="33">
+        <v>896</v>
+      </c>
+      <c r="BC23" s="24"/>
+      <c r="BD23" s="24">
+        <v>896</v>
+      </c>
+      <c r="BE23" s="49">
+        <f t="shared" si="12"/>
+        <v>6272</v>
+      </c>
+      <c r="BF23" s="49">
+        <f t="shared" si="13"/>
+        <v>25088</v>
+      </c>
+      <c r="BG23" s="81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="51">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33">
+        <v>292</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33">
+        <v>292</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="24">
+        <v>292</v>
+      </c>
+      <c r="O24" s="49">
+        <f t="shared" si="9"/>
+        <v>876</v>
+      </c>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33">
+        <v>292</v>
+      </c>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33">
+        <v>292</v>
+      </c>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="24">
+        <v>292</v>
+      </c>
+      <c r="AC24" s="49">
+        <f t="shared" si="10"/>
+        <v>876</v>
+      </c>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33">
+        <v>292</v>
+      </c>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="33"/>
+      <c r="AM24" s="33">
+        <v>292</v>
+      </c>
+      <c r="AN24" s="33"/>
+      <c r="AO24" s="33"/>
+      <c r="AP24" s="24"/>
+      <c r="AQ24" s="49">
+        <f t="shared" si="11"/>
+        <v>584</v>
+      </c>
+      <c r="AR24" s="57">
+        <v>292</v>
+      </c>
+      <c r="AS24" s="33"/>
+      <c r="AT24" s="33"/>
+      <c r="AU24" s="33"/>
+      <c r="AV24" s="33">
+        <v>292</v>
+      </c>
+      <c r="AW24" s="33"/>
+      <c r="AX24" s="33"/>
+      <c r="AY24" s="33"/>
+      <c r="AZ24" s="33"/>
+      <c r="BA24" s="33">
+        <v>292</v>
+      </c>
+      <c r="BB24" s="33"/>
+      <c r="BC24" s="33"/>
+      <c r="BD24" s="24">
+        <v>292</v>
+      </c>
+      <c r="BE24" s="49">
+        <f t="shared" si="12"/>
+        <v>1168</v>
+      </c>
+      <c r="BF24" s="49">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="24">
-        <v>292</v>
-      </c>
-      <c r="AC23" s="51">
-        <f t="shared" si="14"/>
-        <v>292</v>
-      </c>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35">
-        <v>292</v>
-      </c>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35">
-        <v>292</v>
-      </c>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="51">
-        <f>SUM(AD23:AP23)</f>
-        <v>584</v>
-      </c>
-      <c r="AR23" s="59">
-        <v>292</v>
-      </c>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="35">
-        <v>292</v>
-      </c>
-      <c r="AW23" s="35"/>
-      <c r="AX23" s="35"/>
-      <c r="AY23" s="35"/>
-      <c r="AZ23" s="35"/>
-      <c r="BA23" s="35">
-        <v>292</v>
-      </c>
-      <c r="BB23" s="35"/>
-      <c r="BC23" s="35"/>
-      <c r="BD23" s="24"/>
-      <c r="BE23" s="51">
-        <f t="shared" si="15"/>
-        <v>876</v>
-      </c>
-      <c r="BF23" s="51">
-        <f t="shared" si="16"/>
-        <v>1752</v>
-      </c>
-      <c r="BG23" s="84" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:61" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="51">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="51">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35">
-        <v>292</v>
-      </c>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="24"/>
-      <c r="AQ24" s="51">
-        <f>SUM(AD24:AP24)</f>
-        <v>292</v>
-      </c>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="35"/>
-      <c r="AY24" s="35"/>
-      <c r="AZ24" s="35"/>
-      <c r="BA24" s="35"/>
-      <c r="BB24" s="35"/>
-      <c r="BC24" s="35"/>
-      <c r="BD24" s="24"/>
-      <c r="BE24" s="51">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF24" s="51">
-        <f t="shared" si="16"/>
-        <v>292</v>
+        <v>3504</v>
       </c>
       <c r="BG24" s="25"/>
     </row>
-    <row r="25" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="88">
-        <f>SUM(B18:B22)+B24</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="88">
-        <f t="shared" ref="C25:N25" si="17">SUM(C18:C22)+C24+B25</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="89">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="46">
-        <f>SUM(O18:O22)+O24</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="88">
-        <f t="shared" ref="P25:AB25" si="18">SUM(P18:P22)+P24+O26</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="88">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="89">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="46">
-        <f>SUM(AC18:AC22)+AC24</f>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="88">
-        <f t="shared" ref="AD25:AP25" si="19">SUM(AD18:AD22)+AD24+AC26</f>
-        <v>95</v>
-      </c>
-      <c r="AE25" s="88">
-        <f t="shared" si="19"/>
-        <v>170.01</v>
-      </c>
-      <c r="AF25" s="88">
-        <f t="shared" si="19"/>
-        <v>265.01</v>
-      </c>
-      <c r="AG25" s="88">
-        <f t="shared" si="19"/>
-        <v>227.54</v>
-      </c>
-      <c r="AH25" s="88">
-        <f t="shared" si="19"/>
-        <v>614.54</v>
-      </c>
-      <c r="AI25" s="88">
-        <f t="shared" si="19"/>
-        <v>1585.55</v>
-      </c>
-      <c r="AJ25" s="88">
-        <f t="shared" si="19"/>
-        <v>1680.55</v>
-      </c>
-      <c r="AK25" s="88">
-        <f t="shared" si="19"/>
-        <v>2661.55</v>
-      </c>
-      <c r="AL25" s="88">
-        <f t="shared" si="19"/>
-        <v>2756.55</v>
-      </c>
-      <c r="AM25" s="88">
-        <f t="shared" si="19"/>
-        <v>3303.4900000000002</v>
-      </c>
-      <c r="AN25" s="88">
-        <f t="shared" si="19"/>
-        <v>3388.5000000000005</v>
-      </c>
-      <c r="AO25" s="88">
-        <f t="shared" si="19"/>
-        <v>4369.5</v>
-      </c>
-      <c r="AP25" s="89">
-        <f t="shared" si="19"/>
-        <v>4464.5</v>
-      </c>
-      <c r="AQ25" s="46">
-        <f>SUM(AQ18:AQ22)+AQ24</f>
-        <v>5111</v>
-      </c>
-      <c r="AR25" s="88">
-        <f t="shared" ref="AR25:BD25" si="20">SUM(AR18:AR22)+AR24+AQ26</f>
-        <v>991</v>
-      </c>
-      <c r="AS25" s="88">
-        <f t="shared" si="20"/>
-        <v>1076.01</v>
-      </c>
-      <c r="AT25" s="88">
-        <f t="shared" si="20"/>
-        <v>2057.0100000000002</v>
-      </c>
-      <c r="AU25" s="88">
-        <f t="shared" si="20"/>
-        <v>2152.0100000000002</v>
-      </c>
-      <c r="AV25" s="88">
-        <f t="shared" si="20"/>
-        <v>3108.01</v>
-      </c>
-      <c r="AW25" s="88">
-        <f t="shared" si="20"/>
-        <v>3193.0200000000004</v>
-      </c>
-      <c r="AX25" s="88">
-        <f t="shared" si="20"/>
-        <v>4174.0200000000004</v>
-      </c>
-      <c r="AY25" s="88">
-        <f t="shared" si="20"/>
-        <v>4269.0200000000004</v>
-      </c>
-      <c r="AZ25" s="88">
-        <f t="shared" si="20"/>
-        <v>5225.0200000000004</v>
-      </c>
-      <c r="BA25" s="88">
-        <f t="shared" si="20"/>
-        <v>5320.02</v>
-      </c>
-      <c r="BB25" s="88">
-        <f t="shared" si="20"/>
-        <v>6301.02</v>
-      </c>
-      <c r="BC25" s="88">
-        <f t="shared" si="20"/>
-        <v>6386.0300000000007</v>
-      </c>
-      <c r="BD25" s="89">
-        <f t="shared" si="20"/>
-        <v>7342.0300000000007</v>
-      </c>
-      <c r="BE25" s="46">
-        <f>SUM(BE18:BE22)+BE24</f>
-        <v>7507</v>
-      </c>
-      <c r="BF25" s="46">
-        <f>SUM(BF18:BF22)+BF24</f>
-        <v>12618</v>
+    <row r="25" spans="1:61" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33">
+        <v>292</v>
+      </c>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="33"/>
+      <c r="AM25" s="33"/>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="33"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="49">
+        <f t="shared" si="11"/>
+        <v>292</v>
+      </c>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="33"/>
+      <c r="AT25" s="33"/>
+      <c r="AU25" s="33"/>
+      <c r="AV25" s="33"/>
+      <c r="AW25" s="33"/>
+      <c r="AX25" s="33"/>
+      <c r="AY25" s="33"/>
+      <c r="AZ25" s="33"/>
+      <c r="BA25" s="33"/>
+      <c r="BB25" s="33"/>
+      <c r="BC25" s="33"/>
+      <c r="BD25" s="24"/>
+      <c r="BE25" s="49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BF25" s="49">
+        <f t="shared" si="13"/>
+        <v>292</v>
       </c>
       <c r="BG25" s="25"/>
     </row>
     <row r="26" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="60"/>
-      <c r="B26" s="90">
-        <f t="shared" ref="B26:AG26" si="21">B25-B17</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="91">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="91">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="92">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="61">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="91">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="91">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="92">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="61">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="90">
-        <f t="shared" si="21"/>
-        <v>75.009999999999991</v>
-      </c>
-      <c r="AE26" s="90">
-        <f t="shared" si="21"/>
-        <v>170.01</v>
-      </c>
-      <c r="AF26" s="90">
-        <f t="shared" si="21"/>
-        <v>132.54</v>
-      </c>
-      <c r="AG26" s="91">
-        <f t="shared" si="21"/>
-        <v>227.54</v>
-      </c>
-      <c r="AH26" s="90">
-        <f t="shared" ref="AH26:BF26" si="22">AH25-AH17</f>
-        <v>594.54999999999995</v>
-      </c>
-      <c r="AI26" s="90">
-        <f t="shared" si="22"/>
-        <v>1585.55</v>
-      </c>
-      <c r="AJ26" s="90">
-        <f t="shared" si="22"/>
-        <v>1670.55</v>
-      </c>
-      <c r="AK26" s="90">
-        <f t="shared" si="22"/>
-        <v>2661.55</v>
-      </c>
-      <c r="AL26" s="91">
-        <f t="shared" si="22"/>
-        <v>2312.4900000000002</v>
-      </c>
-      <c r="AM26" s="90">
-        <f t="shared" si="22"/>
-        <v>3293.5000000000005</v>
-      </c>
-      <c r="AN26" s="90">
-        <f t="shared" si="22"/>
-        <v>3378.5000000000005</v>
-      </c>
-      <c r="AO26" s="90">
-        <f t="shared" si="22"/>
-        <v>4369.5</v>
-      </c>
-      <c r="AP26" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="61">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AR26" s="90">
-        <f t="shared" si="22"/>
-        <v>981.01</v>
-      </c>
-      <c r="AS26" s="90">
-        <f t="shared" si="22"/>
-        <v>1066.01</v>
-      </c>
-      <c r="AT26" s="90">
-        <f t="shared" si="22"/>
+      <c r="A26" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="85">
+        <f>SUM(B19:B23)+B25</f>
+        <v>991</v>
+      </c>
+      <c r="C26" s="85">
+        <f>SUM(C19:C23)+C25+B27</f>
+        <v>1076.01</v>
+      </c>
+      <c r="D26" s="85">
+        <f t="shared" ref="D26:N26" si="14">SUM(D19:D23)+D25+C27</f>
         <v>2057.0100000000002</v>
       </c>
-      <c r="AU26" s="91">
-        <f t="shared" si="22"/>
-        <v>2117.0100000000002</v>
-      </c>
-      <c r="AV26" s="90">
-        <f t="shared" si="22"/>
-        <v>3098.0200000000004</v>
-      </c>
-      <c r="AW26" s="90">
-        <f t="shared" si="22"/>
-        <v>3183.0200000000004</v>
-      </c>
-      <c r="AX26" s="90">
-        <f t="shared" si="22"/>
+      <c r="E26" s="85">
+        <f t="shared" si="14"/>
+        <v>2152.0100000000002</v>
+      </c>
+      <c r="F26" s="85">
+        <f t="shared" si="14"/>
+        <v>3108.01</v>
+      </c>
+      <c r="G26" s="85">
+        <f t="shared" si="14"/>
+        <v>3193.0200000000004</v>
+      </c>
+      <c r="H26" s="85">
+        <f t="shared" si="14"/>
         <v>4174.0200000000004</v>
       </c>
-      <c r="AY26" s="90">
-        <f t="shared" si="22"/>
-        <v>4234.0200000000004</v>
-      </c>
-      <c r="AZ26" s="91">
-        <f t="shared" si="22"/>
+      <c r="I26" s="85">
+        <f t="shared" si="14"/>
+        <v>4269.0200000000004</v>
+      </c>
+      <c r="J26" s="85">
+        <f t="shared" si="14"/>
         <v>5225.0200000000004</v>
       </c>
-      <c r="BA26" s="90">
-        <f t="shared" si="22"/>
-        <v>5310.02</v>
-      </c>
-      <c r="BB26" s="90">
-        <f t="shared" si="22"/>
-        <v>6291.0300000000007</v>
-      </c>
-      <c r="BC26" s="90">
-        <f t="shared" si="22"/>
-        <v>6351.0300000000007</v>
-      </c>
-      <c r="BD26" s="92">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BE26" s="62">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BF26" s="63">
-        <f t="shared" si="22"/>
-        <v>0</v>
+      <c r="K26" s="85">
+        <f t="shared" si="14"/>
+        <v>5320.02</v>
+      </c>
+      <c r="L26" s="85">
+        <f t="shared" si="14"/>
+        <v>6301.02</v>
+      </c>
+      <c r="M26" s="85">
+        <f t="shared" si="14"/>
+        <v>6386.0300000000007</v>
+      </c>
+      <c r="N26" s="86">
+        <f t="shared" si="14"/>
+        <v>7342.0300000000007</v>
+      </c>
+      <c r="O26" s="44">
+        <f>SUM(O19:O23)+O25</f>
+        <v>7507</v>
+      </c>
+      <c r="P26" s="85">
+        <f t="shared" ref="P26:AB26" si="15">SUM(P19:P23)+P25+O27</f>
+        <v>991</v>
+      </c>
+      <c r="Q26" s="85">
+        <f t="shared" si="15"/>
+        <v>1076.01</v>
+      </c>
+      <c r="R26" s="85">
+        <f t="shared" si="15"/>
+        <v>2057.0100000000002</v>
+      </c>
+      <c r="S26" s="85">
+        <f t="shared" si="15"/>
+        <v>2152.0100000000002</v>
+      </c>
+      <c r="T26" s="85">
+        <f t="shared" si="15"/>
+        <v>3108.01</v>
+      </c>
+      <c r="U26" s="85">
+        <f t="shared" si="15"/>
+        <v>3193.0200000000004</v>
+      </c>
+      <c r="V26" s="85">
+        <f t="shared" si="15"/>
+        <v>4174.0200000000004</v>
+      </c>
+      <c r="W26" s="85">
+        <f t="shared" si="15"/>
+        <v>4269.0200000000004</v>
+      </c>
+      <c r="X26" s="85">
+        <f t="shared" si="15"/>
+        <v>5225.0200000000004</v>
+      </c>
+      <c r="Y26" s="85">
+        <f t="shared" si="15"/>
+        <v>5320.02</v>
+      </c>
+      <c r="Z26" s="85">
+        <f t="shared" si="15"/>
+        <v>6301.02</v>
+      </c>
+      <c r="AA26" s="85">
+        <f t="shared" si="15"/>
+        <v>6386.0300000000007</v>
+      </c>
+      <c r="AB26" s="86">
+        <f t="shared" si="15"/>
+        <v>7342.0300000000007</v>
+      </c>
+      <c r="AC26" s="44">
+        <f>SUM(AC19:AC23)+AC25</f>
+        <v>7507</v>
+      </c>
+      <c r="AD26" s="85">
+        <f t="shared" ref="AD26:AP26" si="16">SUM(AD19:AD23)+AD25+AC27</f>
+        <v>991</v>
+      </c>
+      <c r="AE26" s="85">
+        <f t="shared" si="16"/>
+        <v>1076.01</v>
+      </c>
+      <c r="AF26" s="85">
+        <f t="shared" si="16"/>
+        <v>2057.0100000000002</v>
+      </c>
+      <c r="AG26" s="85">
+        <f>SUM(AG19:AG23)+AG25+AF27</f>
+        <v>2381.0100000000002</v>
+      </c>
+      <c r="AH26" s="85">
+        <f>SUM(AH19:AH23)+AH25+AG27</f>
+        <v>3214.5400000000004</v>
+      </c>
+      <c r="AI26" s="85">
+        <f t="shared" si="16"/>
+        <v>3299.5500000000006</v>
+      </c>
+      <c r="AJ26" s="85">
+        <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
+        <v>4280.5500000000011</v>
+      </c>
+      <c r="AK26" s="85">
+        <f t="shared" si="16"/>
+        <v>4375.5500000000011</v>
+      </c>
+      <c r="AL26" s="85">
+        <f t="shared" si="16"/>
+        <v>4416.5500000000011</v>
+      </c>
+      <c r="AM26" s="85">
+        <f t="shared" si="16"/>
+        <v>4077.4900000000011</v>
+      </c>
+      <c r="AN26" s="85">
+        <f t="shared" si="16"/>
+        <v>5058.4900000000016</v>
+      </c>
+      <c r="AO26" s="85">
+        <f t="shared" si="16"/>
+        <v>5143.5000000000018</v>
+      </c>
+      <c r="AP26" s="86">
+        <f t="shared" si="16"/>
+        <v>6099.5000000000018</v>
+      </c>
+      <c r="AQ26" s="44">
+        <f>SUM(AQ19:AQ23)+AQ25</f>
+        <v>7799</v>
+      </c>
+      <c r="AR26" s="85">
+        <f t="shared" ref="AR26:BD26" si="17">SUM(AR19:AR23)+AR25+AQ27</f>
+        <v>991</v>
+      </c>
+      <c r="AS26" s="85">
+        <f t="shared" si="17"/>
+        <v>1076.01</v>
+      </c>
+      <c r="AT26" s="85">
+        <f t="shared" si="17"/>
+        <v>2057.0100000000002</v>
+      </c>
+      <c r="AU26" s="85">
+        <f t="shared" si="17"/>
+        <v>2152.0100000000002</v>
+      </c>
+      <c r="AV26" s="85">
+        <f t="shared" si="17"/>
+        <v>3108.01</v>
+      </c>
+      <c r="AW26" s="85">
+        <f t="shared" si="17"/>
+        <v>3193.0200000000004</v>
+      </c>
+      <c r="AX26" s="85">
+        <f t="shared" si="17"/>
+        <v>4174.0200000000004</v>
+      </c>
+      <c r="AY26" s="85">
+        <f t="shared" si="17"/>
+        <v>4269.0200000000004</v>
+      </c>
+      <c r="AZ26" s="85">
+        <f t="shared" si="17"/>
+        <v>5225.0200000000004</v>
+      </c>
+      <c r="BA26" s="85">
+        <f t="shared" si="17"/>
+        <v>5320.02</v>
+      </c>
+      <c r="BB26" s="85">
+        <f t="shared" si="17"/>
+        <v>6301.02</v>
+      </c>
+      <c r="BC26" s="85">
+        <f t="shared" si="17"/>
+        <v>6386.0300000000007</v>
+      </c>
+      <c r="BD26" s="86">
+        <f t="shared" si="17"/>
+        <v>7342.0300000000007</v>
+      </c>
+      <c r="BE26" s="44">
+        <f>SUM(BE19:BE23)+BE25</f>
+        <v>7507</v>
+      </c>
+      <c r="BF26" s="44">
+        <f>SUM(BF19:BF23)+BF25</f>
+        <v>30320</v>
       </c>
       <c r="BG26" s="25"/>
     </row>
-    <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="BF28" s="6"/>
+    <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="58"/>
+      <c r="B27" s="87">
+        <f t="shared" ref="B27:AG27" si="18">B26-B18</f>
+        <v>981.01</v>
+      </c>
+      <c r="C27" s="87">
+        <f t="shared" si="18"/>
+        <v>1066.01</v>
+      </c>
+      <c r="D27" s="87">
+        <f t="shared" si="18"/>
+        <v>2057.0100000000002</v>
+      </c>
+      <c r="E27" s="88">
+        <f t="shared" si="18"/>
+        <v>2117.0100000000002</v>
+      </c>
+      <c r="F27" s="87">
+        <f t="shared" si="18"/>
+        <v>3098.0200000000004</v>
+      </c>
+      <c r="G27" s="87">
+        <f t="shared" si="18"/>
+        <v>3183.0200000000004</v>
+      </c>
+      <c r="H27" s="87">
+        <f t="shared" si="18"/>
+        <v>4174.0200000000004</v>
+      </c>
+      <c r="I27" s="88">
+        <f t="shared" si="18"/>
+        <v>4234.0200000000004</v>
+      </c>
+      <c r="J27" s="87">
+        <f t="shared" si="18"/>
+        <v>5225.0200000000004</v>
+      </c>
+      <c r="K27" s="87">
+        <f t="shared" si="18"/>
+        <v>5310.02</v>
+      </c>
+      <c r="L27" s="87">
+        <f t="shared" si="18"/>
+        <v>6291.0300000000007</v>
+      </c>
+      <c r="M27" s="87">
+        <f t="shared" si="18"/>
+        <v>6351.0300000000007</v>
+      </c>
+      <c r="N27" s="89">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="59">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="87">
+        <f t="shared" si="18"/>
+        <v>981.01</v>
+      </c>
+      <c r="Q27" s="87">
+        <f t="shared" si="18"/>
+        <v>1066.01</v>
+      </c>
+      <c r="R27" s="87">
+        <f t="shared" si="18"/>
+        <v>2057.0100000000002</v>
+      </c>
+      <c r="S27" s="88">
+        <f t="shared" si="18"/>
+        <v>2117.0100000000002</v>
+      </c>
+      <c r="T27" s="87">
+        <f t="shared" si="18"/>
+        <v>3098.0200000000004</v>
+      </c>
+      <c r="U27" s="87">
+        <f t="shared" si="18"/>
+        <v>3183.0200000000004</v>
+      </c>
+      <c r="V27" s="87">
+        <f t="shared" si="18"/>
+        <v>4174.0200000000004</v>
+      </c>
+      <c r="W27" s="88">
+        <f t="shared" si="18"/>
+        <v>4234.0200000000004</v>
+      </c>
+      <c r="X27" s="87">
+        <f t="shared" si="18"/>
+        <v>5225.0200000000004</v>
+      </c>
+      <c r="Y27" s="87">
+        <f t="shared" si="18"/>
+        <v>5310.02</v>
+      </c>
+      <c r="Z27" s="87">
+        <f t="shared" si="18"/>
+        <v>6291.0300000000007</v>
+      </c>
+      <c r="AA27" s="87">
+        <f t="shared" si="18"/>
+        <v>6351.0300000000007</v>
+      </c>
+      <c r="AB27" s="89">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="59">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="87">
+        <f t="shared" si="18"/>
+        <v>981.01</v>
+      </c>
+      <c r="AE27" s="87">
+        <f t="shared" si="18"/>
+        <v>1066.01</v>
+      </c>
+      <c r="AF27" s="87">
+        <f t="shared" si="18"/>
+        <v>1994.0100000000002</v>
+      </c>
+      <c r="AG27" s="88">
+        <f t="shared" si="18"/>
+        <v>2223.5400000000004</v>
+      </c>
+      <c r="AH27" s="87">
+        <f t="shared" ref="AH27:BF27" si="19">AH26-AH18</f>
+        <v>3204.5500000000006</v>
+      </c>
+      <c r="AI27" s="87">
+        <f t="shared" si="19"/>
+        <v>3289.5500000000006</v>
+      </c>
+      <c r="AJ27" s="87">
+        <f t="shared" si="19"/>
+        <v>4280.5500000000011</v>
+      </c>
+      <c r="AK27" s="87">
+        <f t="shared" si="19"/>
+        <v>3425.5500000000011</v>
+      </c>
+      <c r="AL27" s="88">
+        <f t="shared" si="19"/>
+        <v>3982.4900000000011</v>
+      </c>
+      <c r="AM27" s="87">
+        <f t="shared" si="19"/>
+        <v>4067.4900000000011</v>
+      </c>
+      <c r="AN27" s="87">
+        <f t="shared" si="19"/>
+        <v>5048.5000000000018</v>
+      </c>
+      <c r="AO27" s="87">
+        <f t="shared" si="19"/>
+        <v>5108.5000000000018</v>
+      </c>
+      <c r="AP27" s="90">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="59">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AR27" s="87">
+        <f t="shared" si="19"/>
+        <v>981.01</v>
+      </c>
+      <c r="AS27" s="87">
+        <f t="shared" si="19"/>
+        <v>1066.01</v>
+      </c>
+      <c r="AT27" s="87">
+        <f t="shared" si="19"/>
+        <v>2057.0100000000002</v>
+      </c>
+      <c r="AU27" s="88">
+        <f t="shared" si="19"/>
+        <v>2117.0100000000002</v>
+      </c>
+      <c r="AV27" s="87">
+        <f t="shared" si="19"/>
+        <v>3098.0200000000004</v>
+      </c>
+      <c r="AW27" s="87">
+        <f t="shared" si="19"/>
+        <v>3183.0200000000004</v>
+      </c>
+      <c r="AX27" s="87">
+        <f t="shared" si="19"/>
+        <v>4174.0200000000004</v>
+      </c>
+      <c r="AY27" s="87">
+        <f t="shared" si="19"/>
+        <v>4234.0200000000004</v>
+      </c>
+      <c r="AZ27" s="88">
+        <f t="shared" si="19"/>
+        <v>5225.0200000000004</v>
+      </c>
+      <c r="BA27" s="87">
+        <f t="shared" si="19"/>
+        <v>5310.02</v>
+      </c>
+      <c r="BB27" s="87">
+        <f t="shared" si="19"/>
+        <v>6291.0300000000007</v>
+      </c>
+      <c r="BC27" s="87">
+        <f t="shared" si="19"/>
+        <v>6351.0300000000007</v>
+      </c>
+      <c r="BD27" s="89">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BE27" s="60">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BF27" s="61">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
+    <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="25"/>
-      <c r="Q29" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH29" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="BF29" s="6"/>
     </row>
     <row r="30" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="68"/>
-      <c r="C30" s="69">
-        <v>111336</v>
-      </c>
-      <c r="D30" s="70">
-        <v>9675.81</v>
-      </c>
-      <c r="E30" s="71">
-        <v>-105776</v>
-      </c>
-      <c r="F30" s="72">
-        <f>C30+E30</f>
-        <v>5560</v>
-      </c>
-      <c r="G30" s="69">
-        <v>8560</v>
-      </c>
-      <c r="H30" s="69">
-        <v>1650.47</v>
+      <c r="A30" s="6"/>
+      <c r="B30" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="64" t="s">
+        <v>20</v>
       </c>
       <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="J30" s="65"/>
       <c r="K30" s="25"/>
-      <c r="BF30" s="11"/>
+      <c r="Q30" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH30" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF30" s="10"/>
     </row>
     <row r="31" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67">
+        <v>111336</v>
+      </c>
+      <c r="D31" s="68">
+        <v>9675.81</v>
+      </c>
+      <c r="E31" s="69">
+        <v>-105776</v>
+      </c>
+      <c r="F31" s="97">
+        <f>C31+E31</f>
+        <v>5560</v>
+      </c>
+      <c r="G31" s="67">
+        <v>8560</v>
+      </c>
+      <c r="H31" s="67">
+        <v>1650.47</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="25"/>
+      <c r="BF31" s="11"/>
     </row>
     <row r="32" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="13"/>
-      <c r="O32" s="13"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="73">
-        <v>2600</v>
-      </c>
-      <c r="D33" s="73">
-        <v>1600</v>
-      </c>
-      <c r="E33" s="73">
-        <v>500</v>
-      </c>
-      <c r="F33" s="73">
-        <v>1400</v>
-      </c>
-      <c r="G33" s="73">
-        <v>300</v>
-      </c>
-      <c r="H33" s="73">
-        <v>700</v>
-      </c>
-      <c r="I33" s="73">
-        <v>700</v>
-      </c>
-      <c r="J33" s="73">
-        <v>1200</v>
-      </c>
-      <c r="K33" s="73">
-        <v>1000</v>
-      </c>
-      <c r="M33" s="14"/>
-      <c r="O33" s="14"/>
+      <c r="B33" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69">
-        <v>2751.76</v>
-      </c>
-      <c r="D34" s="69">
-        <v>1676.75</v>
-      </c>
-      <c r="E34" s="69">
-        <v>529.07000000000005</v>
-      </c>
-      <c r="F34" s="69">
-        <v>1492.95</v>
-      </c>
-      <c r="G34" s="69">
-        <v>331.55</v>
-      </c>
-      <c r="H34" s="69">
-        <v>653.16</v>
-      </c>
-      <c r="I34" s="69">
-        <v>694.25</v>
-      </c>
-      <c r="J34" s="69">
-        <v>154.22999999999999</v>
-      </c>
-      <c r="K34" s="69">
-        <v>1121.55</v>
-      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="70">
+        <v>2600</v>
+      </c>
+      <c r="D34" s="70">
+        <v>1600</v>
+      </c>
+      <c r="E34" s="70">
+        <v>1400</v>
+      </c>
+      <c r="F34" s="70">
+        <v>1200</v>
+      </c>
+      <c r="G34" s="70">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="70">
+        <v>700</v>
+      </c>
+      <c r="I34" s="70">
+        <v>700</v>
+      </c>
+      <c r="J34" s="70">
+        <v>500</v>
+      </c>
+      <c r="K34" s="70">
+        <v>300</v>
+      </c>
+      <c r="M34" s="14"/>
+      <c r="O34" s="14"/>
     </row>
     <row r="35" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="74">
-        <f t="shared" ref="C35:K35" si="23">C33-C34</f>
-        <v>-151.76000000000022</v>
-      </c>
-      <c r="D35" s="74">
-        <f t="shared" si="23"/>
-        <v>-76.75</v>
-      </c>
-      <c r="E35" s="74">
-        <f t="shared" si="23"/>
-        <v>-29.07000000000005</v>
-      </c>
-      <c r="F35" s="74">
-        <f t="shared" si="23"/>
-        <v>-92.950000000000045</v>
-      </c>
-      <c r="G35" s="74">
-        <f t="shared" si="23"/>
-        <v>-31.550000000000011</v>
-      </c>
-      <c r="H35" s="75">
-        <f t="shared" si="23"/>
-        <v>46.840000000000032</v>
-      </c>
-      <c r="I35" s="75">
-        <f t="shared" si="23"/>
-        <v>5.75</v>
-      </c>
-      <c r="J35" s="75">
-        <f t="shared" si="23"/>
-        <v>1045.77</v>
-      </c>
-      <c r="K35" s="74">
-        <f t="shared" si="23"/>
-        <v>-121.54999999999995</v>
+      <c r="A35" s="6"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67">
+        <v>2751.76</v>
+      </c>
+      <c r="D35" s="67">
+        <v>1676.75</v>
+      </c>
+      <c r="E35" s="67">
+        <v>1492.95</v>
+      </c>
+      <c r="F35" s="67">
+        <v>154.22999999999999</v>
+      </c>
+      <c r="G35" s="67">
+        <v>1121.55</v>
+      </c>
+      <c r="H35" s="67">
+        <v>653.16</v>
+      </c>
+      <c r="I35" s="67">
+        <v>694.25</v>
+      </c>
+      <c r="J35" s="67">
+        <v>529.07000000000005</v>
+      </c>
+      <c r="K35" s="67">
+        <v>331.55</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="71">
+        <f t="shared" ref="C36:I36" si="20">C34-C35</f>
+        <v>-151.76000000000022</v>
+      </c>
+      <c r="D36" s="71">
+        <f t="shared" si="20"/>
+        <v>-76.75</v>
+      </c>
+      <c r="E36" s="71">
+        <f>E34-E35</f>
+        <v>-92.950000000000045</v>
+      </c>
+      <c r="F36" s="72">
+        <f>F34-F35</f>
+        <v>1045.77</v>
+      </c>
+      <c r="G36" s="71">
+        <f>G34-G35</f>
+        <v>-121.54999999999995</v>
+      </c>
+      <c r="H36" s="72">
+        <f t="shared" si="20"/>
+        <v>46.840000000000032</v>
+      </c>
+      <c r="I36" s="72">
+        <f t="shared" si="20"/>
+        <v>5.75</v>
+      </c>
+      <c r="J36" s="71">
+        <f>J34-J35</f>
+        <v>-29.07000000000005</v>
+      </c>
+      <c r="K36" s="71">
+        <f>K34-K35</f>
+        <v>-31.550000000000011</v>
+      </c>
     </row>
     <row r="37" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>32</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="25"/>
-      <c r="E37" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="76" t="s">
-        <v>36</v>
-      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
     </row>
     <row r="38" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="69">
-        <f>SUM(C34:K34)</f>
-        <v>9405.2699999999986</v>
-      </c>
-      <c r="C38" s="69">
-        <f>SUM(C30:H30)</f>
-        <v>31006.28</v>
+      <c r="B38" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>32</v>
       </c>
       <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="77">
-        <v>915</v>
-      </c>
-      <c r="G38" s="78">
-        <v>1263.1199999999999</v>
-      </c>
-      <c r="H38" s="78">
-        <v>2818</v>
-      </c>
-      <c r="I38" s="79">
-        <v>222.66</v>
+      <c r="E38" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="73" t="s">
+        <v>36</v>
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
     </row>
     <row r="39" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="67">
+        <f>SUM(C35:K35)</f>
+        <v>9405.2699999999986</v>
+      </c>
+      <c r="C39" s="67">
+        <f>SUM(C31:H31)</f>
+        <v>31006.28</v>
+      </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
+      <c r="F39" s="75">
+        <v>2818</v>
+      </c>
+      <c r="G39" s="74">
+        <v>1263.1199999999999</v>
+      </c>
+      <c r="H39" s="74">
+        <v>915</v>
+      </c>
+      <c r="I39" s="76">
+        <v>222.66</v>
+      </c>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
     <row r="40" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>50</v>
-      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="25"/>
-      <c r="I40" s="57"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="81">
-        <f>SUM(B38:C38)+SUM(F38:I38)</f>
-        <v>45630.329999999994</v>
-      </c>
-      <c r="C41" s="82">
-        <f>B41/BF3</f>
-        <v>3.8763295850242065</v>
+      <c r="B41" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
+      <c r="I41" s="55"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
     </row>
     <row r="42" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="78">
+        <f>SUM(B39:C39)+SUM(G39:I39)</f>
+        <v>42812.329999999994</v>
+      </c>
+      <c r="C42" s="79">
+        <f>B42/BF3</f>
+        <v>1.5221842457349339</v>
+      </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
@@ -4706,31 +4994,38 @@
       <c r="K42" s="25"/>
     </row>
     <row r="43" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
     </row>
     <row r="44" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I44" s="15"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+    <row r="45" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="15"/>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I47" s="15"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
-    <row r="52" s="3" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="3" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="3" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="3" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="3" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="15"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:BF24">
-    <sortCondition ref="A18:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:BF25">
+    <sortCondition ref="A19:A25"/>
   </sortState>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.48680555555555599" bottom="0.48680555555555599" header="0.196527777777778" footer="0.196527777777778"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="13_ncr:1_{55AE4EBB-BE6B-4BAD-A29E-FEEE542D2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3694E56E-8678-4F9D-AA53-4C208C23A1E5}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="13_ncr:1_{55AE4EBB-BE6B-4BAD-A29E-FEEE542D2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC3F607-CFA8-4056-9893-ED2DDA8839FA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1496,7 +1496,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
+      <selection pane="bottomRight" activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2895,7 +2895,7 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="23"/>
       <c r="AF14" s="28">
-        <v>63</v>
+        <v>28.98</v>
       </c>
       <c r="AG14" s="29">
         <v>122.47</v>
@@ -2912,7 +2912,7 @@
       <c r="AP14" s="23"/>
       <c r="AQ14" s="24">
         <f t="shared" si="6"/>
-        <v>619.53</v>
+        <v>585.51</v>
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="23"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="BF14" s="24">
         <f t="shared" si="8"/>
-        <v>619.53</v>
+        <v>585.51</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="AF18" s="34">
         <f t="shared" si="9"/>
-        <v>63</v>
+        <v>28.98</v>
       </c>
       <c r="AG18" s="34">
         <f t="shared" si="9"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="AQ18" s="35">
         <f t="shared" si="10"/>
-        <v>5779.5</v>
+        <v>5745.48</v>
       </c>
       <c r="AR18" s="34">
         <f t="shared" si="10"/>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="BF18" s="35">
         <f t="shared" si="10"/>
-        <v>17154.41</v>
+        <v>17120.39</v>
       </c>
       <c r="BH18" s="62"/>
       <c r="BI18" s="62"/>
@@ -4306,43 +4306,43 @@
       </c>
       <c r="AG26" s="52">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
-        <v>5643.04</v>
+        <v>5677.06</v>
       </c>
       <c r="AH26" s="52">
         <f>SUM(AH19:AH23)+AH25+AG27</f>
-        <v>5116.57</v>
+        <v>5150.59</v>
       </c>
       <c r="AI26" s="52">
         <f t="shared" si="18"/>
-        <v>5201.58</v>
+        <v>5235.6000000000004</v>
       </c>
       <c r="AJ26" s="52">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>6182.58</v>
+        <v>6216.6</v>
       </c>
       <c r="AK26" s="52">
         <f t="shared" si="18"/>
-        <v>6277.58</v>
+        <v>6311.6</v>
       </c>
       <c r="AL26" s="52">
         <f t="shared" si="18"/>
-        <v>6318.58</v>
+        <v>6352.6</v>
       </c>
       <c r="AM26" s="52">
         <f t="shared" si="18"/>
-        <v>4619.5200000000004</v>
+        <v>4653.5400000000009</v>
       </c>
       <c r="AN26" s="52">
         <f t="shared" si="18"/>
-        <v>5600.52</v>
+        <v>5634.5400000000009</v>
       </c>
       <c r="AO26" s="52">
         <f t="shared" si="18"/>
-        <v>5685.5300000000007</v>
+        <v>5719.5500000000011</v>
       </c>
       <c r="AP26" s="53">
         <f t="shared" si="18"/>
-        <v>6641.5300000000007</v>
+        <v>6675.5500000000011</v>
       </c>
       <c r="AQ26" s="35">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4350,55 +4350,55 @@
       </c>
       <c r="AR26" s="52">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>3010.5</v>
+        <v>3044.5200000000004</v>
       </c>
       <c r="AS26" s="52">
         <f t="shared" si="19"/>
-        <v>3095.51</v>
+        <v>3129.5300000000007</v>
       </c>
       <c r="AT26" s="52">
         <f t="shared" si="19"/>
-        <v>4076.51</v>
+        <v>4110.5300000000007</v>
       </c>
       <c r="AU26" s="52">
         <f t="shared" si="19"/>
-        <v>4171.51</v>
+        <v>4205.5300000000007</v>
       </c>
       <c r="AV26" s="52">
         <f t="shared" si="19"/>
-        <v>3767.51</v>
+        <v>3801.5300000000007</v>
       </c>
       <c r="AW26" s="52">
         <f t="shared" si="19"/>
-        <v>3852.5200000000004</v>
+        <v>3886.5400000000009</v>
       </c>
       <c r="AX26" s="52">
         <f t="shared" si="19"/>
-        <v>4833.5200000000004</v>
+        <v>4867.5400000000009</v>
       </c>
       <c r="AY26" s="52">
         <f t="shared" si="19"/>
-        <v>4928.5200000000004</v>
+        <v>4962.5400000000009</v>
       </c>
       <c r="AZ26" s="52">
         <f t="shared" si="19"/>
-        <v>5884.52</v>
+        <v>5918.5400000000009</v>
       </c>
       <c r="BA26" s="52">
         <f t="shared" si="19"/>
-        <v>4619.5200000000004</v>
+        <v>4653.5400000000009</v>
       </c>
       <c r="BB26" s="52">
         <f t="shared" si="19"/>
-        <v>5600.52</v>
+        <v>5634.5400000000009</v>
       </c>
       <c r="BC26" s="52">
         <f t="shared" si="19"/>
-        <v>5685.5300000000007</v>
+        <v>5719.5500000000011</v>
       </c>
       <c r="BD26" s="53">
         <f t="shared" si="19"/>
-        <v>6641.5300000000007</v>
+        <v>6675.5500000000011</v>
       </c>
       <c r="BE26" s="35">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4533,103 +4533,103 @@
       </c>
       <c r="AF27" s="55">
         <f t="shared" si="20"/>
-        <v>5256.04</v>
+        <v>5290.06</v>
       </c>
       <c r="AG27" s="56">
         <f t="shared" si="20"/>
-        <v>4125.57</v>
+        <v>4159.59</v>
       </c>
       <c r="AH27" s="55">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>5106.58</v>
+        <v>5140.6000000000004</v>
       </c>
       <c r="AI27" s="55">
         <f t="shared" si="21"/>
-        <v>5191.58</v>
+        <v>5225.6000000000004</v>
       </c>
       <c r="AJ27" s="55">
         <f t="shared" si="21"/>
-        <v>6182.58</v>
+        <v>6216.6</v>
       </c>
       <c r="AK27" s="55">
         <f t="shared" si="21"/>
-        <v>5327.58</v>
+        <v>5361.6</v>
       </c>
       <c r="AL27" s="56">
         <f t="shared" si="21"/>
-        <v>4524.5200000000004</v>
+        <v>4558.5400000000009</v>
       </c>
       <c r="AM27" s="55">
         <f t="shared" si="21"/>
-        <v>4609.5200000000004</v>
+        <v>4643.5400000000009</v>
       </c>
       <c r="AN27" s="55">
         <f t="shared" si="21"/>
-        <v>5590.5300000000007</v>
+        <v>5624.5500000000011</v>
       </c>
       <c r="AO27" s="55">
         <f t="shared" si="21"/>
-        <v>5650.5300000000007</v>
+        <v>5684.5500000000011</v>
       </c>
       <c r="AP27" s="59">
         <f t="shared" si="21"/>
-        <v>5281.5300000000007</v>
+        <v>5315.5500000000011</v>
       </c>
       <c r="AQ27" s="58">
         <f t="shared" si="21"/>
-        <v>2019.5</v>
+        <v>2053.5200000000004</v>
       </c>
       <c r="AR27" s="55">
         <f t="shared" si="21"/>
-        <v>3000.51</v>
+        <v>3034.5300000000007</v>
       </c>
       <c r="AS27" s="55">
         <f t="shared" si="21"/>
-        <v>3085.51</v>
+        <v>3119.5300000000007</v>
       </c>
       <c r="AT27" s="55">
         <f t="shared" si="21"/>
-        <v>4076.51</v>
+        <v>4110.5300000000007</v>
       </c>
       <c r="AU27" s="56">
         <f t="shared" si="21"/>
-        <v>2776.51</v>
+        <v>2810.5300000000007</v>
       </c>
       <c r="AV27" s="55">
         <f t="shared" si="21"/>
-        <v>3757.5200000000004</v>
+        <v>3791.5400000000009</v>
       </c>
       <c r="AW27" s="55">
         <f t="shared" si="21"/>
-        <v>3842.5200000000004</v>
+        <v>3876.5400000000009</v>
       </c>
       <c r="AX27" s="55">
         <f t="shared" si="21"/>
-        <v>4833.5200000000004</v>
+        <v>4867.5400000000009</v>
       </c>
       <c r="AY27" s="55">
         <f t="shared" si="21"/>
-        <v>4893.5200000000004</v>
+        <v>4927.5400000000009</v>
       </c>
       <c r="AZ27" s="56">
         <f t="shared" si="21"/>
-        <v>4524.5200000000004</v>
+        <v>4558.5400000000009</v>
       </c>
       <c r="BA27" s="55">
         <f t="shared" si="21"/>
-        <v>4609.5200000000004</v>
+        <v>4643.5400000000009</v>
       </c>
       <c r="BB27" s="55">
         <f t="shared" si="21"/>
-        <v>5590.5300000000007</v>
+        <v>5624.5500000000011</v>
       </c>
       <c r="BC27" s="55">
         <f t="shared" si="21"/>
-        <v>5650.5300000000007</v>
+        <v>5684.5500000000011</v>
       </c>
       <c r="BD27" s="57">
         <f t="shared" si="21"/>
-        <v>6641.5300000000007</v>
+        <v>6675.5500000000011</v>
       </c>
       <c r="BE27" s="60">
         <f t="shared" si="21"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="BF27" s="61">
         <f t="shared" si="21"/>
-        <v>13165.59</v>
+        <v>13199.61</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C44" s="89">
         <f>B44/BF27</f>
-        <v>3.46587809585442</v>
+        <v>3.4569453188389652</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="371" documentId="13_ncr:1_{55AE4EBB-BE6B-4BAD-A29E-FEEE542D2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC3F607-CFA8-4056-9893-ED2DDA8839FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FE8565-AB28-4960-9C39-BBAFFB9C1D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,6 +48,7 @@
     <author>tc={58FC39C5-4C7C-4647-AE55-1E45D447D506}</author>
     <author>tc={F52179FC-D113-4128-8AEC-F00E58C6202A}</author>
     <author>tc={06B25615-ACD3-4324-8355-FA20D083F987}</author>
+    <author>tc={719F640A-B3BA-4C1D-A8DF-ADAF84A5BA7F}</author>
     <author>tc={3AE6F7DC-4535-43DA-BFFD-7C585CC37669}</author>
     <author>tc={E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}</author>
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
@@ -119,7 +120,15 @@
     DUI</t>
       </text>
     </comment>
-    <comment ref="A13" authorId="7" shapeId="0" xr:uid="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
+    <comment ref="A12" authorId="7" shapeId="0" xr:uid="{719F640A-B3BA-4C1D-A8DF-ADAF84A5BA7F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Office 365</t>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="8" shapeId="0" xr:uid="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +136,7 @@
     Phone, Service, Fees</t>
       </text>
     </comment>
-    <comment ref="AK13" authorId="8" shapeId="0" xr:uid="{E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}">
+    <comment ref="AK13" authorId="9" shapeId="0" xr:uid="{E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,15 +144,15 @@
     Verizon</t>
       </text>
     </comment>
-    <comment ref="AF14" authorId="9" shapeId="0" xr:uid="{349F2372-D8F3-4A55-988B-DE936EBDEF80}">
+    <comment ref="AF14" authorId="10" shapeId="0" xr:uid="{349F2372-D8F3-4A55-988B-DE936EBDEF80}">
       <text>
-        <t>[Threaded comment]
+        <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Ball, Goggles</t>
+    </t>
       </text>
     </comment>
-    <comment ref="AG14" authorId="10" shapeId="0" xr:uid="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
+    <comment ref="AG14" authorId="11" shapeId="0" xr:uid="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -151,7 +160,7 @@
     Boots</t>
       </text>
     </comment>
-    <comment ref="AL14" authorId="11" shapeId="0" xr:uid="{F7780402-B8B0-44EE-9069-B18543FE466A}">
+    <comment ref="AL14" authorId="12" shapeId="0" xr:uid="{F7780402-B8B0-44EE-9069-B18543FE466A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +168,7 @@
     Rest of Wishlist</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="12" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="A15" authorId="13" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +176,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="13" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="14" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +184,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="14" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="15" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +192,7 @@
     Monthly</t>
       </text>
     </comment>
-    <comment ref="N27" authorId="15" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="N27" authorId="16" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +200,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="16" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="17" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -199,7 +208,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AP27" authorId="17" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+    <comment ref="AP27" authorId="18" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,7 +216,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="18" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="19" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -215,7 +224,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="19" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B43" authorId="20" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -425,7 +434,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -517,8 +526,14 @@
       <name val="Goudy Old Style"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,6 +594,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -960,9 +981,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1150,6 +1168,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1440,6 +1461,9 @@
   <threadedComment ref="A11" dT="2025-06-15T00:55:42.02" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{06B25615-ACD3-4324-8355-FA20D083F987}">
     <text>DUI</text>
   </threadedComment>
+  <threadedComment ref="A12" dT="2025-07-12T03:45:12.57" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{719F640A-B3BA-4C1D-A8DF-ADAF84A5BA7F}">
+    <text>Office 365</text>
+  </threadedComment>
   <threadedComment ref="A13" dT="2025-06-16T03:21:00.61" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
     <text>Phone, Service, Fees</text>
   </threadedComment>
@@ -1447,7 +1471,7 @@
     <text>Verizon</text>
   </threadedComment>
   <threadedComment ref="AF14" dT="2025-07-08T03:00:27.44" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{349F2372-D8F3-4A55-988B-DE936EBDEF80}">
-    <text>Ball, Goggles</text>
+    <text/>
   </threadedComment>
   <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
     <text>Boots</text>
@@ -1493,15 +1517,15 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG16" sqref="AG16"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="26.21875" style="10" customWidth="1"/>
     <col min="4" max="4" width="21.109375" style="10" customWidth="1"/>
@@ -1517,10 +1541,10 @@
     <col min="14" max="14" width="15.44140625" style="10" customWidth="1"/>
     <col min="15" max="15" width="14.21875" style="10" customWidth="1"/>
     <col min="16" max="16" width="14.5546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" style="10" customWidth="1"/>
     <col min="18" max="18" width="15.109375" style="10" customWidth="1"/>
     <col min="19" max="19" width="15" style="10" customWidth="1"/>
-    <col min="20" max="20" width="20" style="10" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" style="10" customWidth="1"/>
     <col min="21" max="21" width="16" style="10" customWidth="1"/>
     <col min="22" max="22" width="14.6640625" style="10" customWidth="1"/>
     <col min="23" max="23" width="14.44140625" style="10" customWidth="1"/>
@@ -1529,14 +1553,14 @@
     <col min="26" max="26" width="14.6640625" style="10" customWidth="1"/>
     <col min="27" max="27" width="14.88671875" style="10" customWidth="1"/>
     <col min="28" max="28" width="14.77734375" style="10" customWidth="1"/>
-    <col min="29" max="29" width="17.21875" style="10" customWidth="1"/>
+    <col min="29" max="29" width="17.77734375" style="10" customWidth="1"/>
     <col min="30" max="30" width="15.5546875" style="10" customWidth="1"/>
     <col min="31" max="31" width="15.6640625" style="10" customWidth="1"/>
     <col min="32" max="32" width="16.77734375" style="10" customWidth="1"/>
     <col min="33" max="33" width="22.44140625" style="10" customWidth="1"/>
-    <col min="34" max="34" width="36.33203125" style="10" customWidth="1"/>
+    <col min="34" max="34" width="30.88671875" style="10" customWidth="1"/>
     <col min="35" max="35" width="20.33203125" style="10" customWidth="1"/>
-    <col min="36" max="36" width="15.109375" style="10" customWidth="1"/>
+    <col min="36" max="36" width="17.44140625" style="10" customWidth="1"/>
     <col min="37" max="37" width="15.44140625" style="10" customWidth="1"/>
     <col min="38" max="38" width="14.33203125" style="10" customWidth="1"/>
     <col min="39" max="39" width="14.88671875" style="10" customWidth="1"/>
@@ -1557,7 +1581,7 @@
     <col min="56" max="56" width="14.44140625" style="10" customWidth="1"/>
     <col min="57" max="57" width="16.109375" style="10" customWidth="1"/>
     <col min="58" max="58" width="19.44140625" style="10" customWidth="1"/>
-    <col min="59" max="59" width="26.109375" style="10" customWidth="1"/>
+    <col min="59" max="59" width="28.109375" style="10" customWidth="1"/>
     <col min="60" max="60" width="24.33203125" style="10" customWidth="1"/>
     <col min="61" max="61" width="24.5546875" style="10" customWidth="1"/>
     <col min="62" max="16384" width="10.88671875" style="10"/>
@@ -2812,7 +2836,7 @@
       <c r="AH13" s="23"/>
       <c r="AI13" s="23"/>
       <c r="AJ13" s="23"/>
-      <c r="AK13" s="26">
+      <c r="AK13" s="89">
         <v>915</v>
       </c>
       <c r="AL13" s="23">
@@ -2821,7 +2845,7 @@
       <c r="AM13" s="5"/>
       <c r="AN13" s="23"/>
       <c r="AO13" s="23"/>
-      <c r="AP13" s="27">
+      <c r="AP13" s="29">
         <v>60</v>
       </c>
       <c r="AQ13" s="24">
@@ -2829,8 +2853,8 @@
         <v>1095</v>
       </c>
       <c r="AR13" s="5"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
       <c r="AU13" s="23">
         <v>60</v>
       </c>
@@ -2894,16 +2918,16 @@
       </c>
       <c r="AD14" s="5"/>
       <c r="AE14" s="23"/>
-      <c r="AF14" s="28">
+      <c r="AF14" s="27">
         <v>28.98</v>
       </c>
-      <c r="AG14" s="29">
+      <c r="AG14" s="28">
         <v>122.47</v>
       </c>
       <c r="AH14" s="23"/>
       <c r="AI14" s="23"/>
       <c r="AJ14" s="23"/>
-      <c r="AL14" s="29">
+      <c r="AL14" s="28">
         <v>434.06</v>
       </c>
       <c r="AM14" s="5"/>
@@ -3010,8 +3034,8 @@
         <v>3600</v>
       </c>
       <c r="AR15" s="5"/>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
       <c r="AU15" s="23">
         <v>1200</v>
       </c>
@@ -3085,14 +3109,14 @@
       <c r="AM16" s="5"/>
       <c r="AN16" s="23"/>
       <c r="AO16" s="23"/>
-      <c r="AP16" s="30"/>
+      <c r="AP16" s="29"/>
       <c r="AQ16" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR16" s="5"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
       <c r="AU16" s="23"/>
       <c r="AV16" s="23"/>
       <c r="AW16" s="23"/>
@@ -3141,7 +3165,7 @@
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="23"/>
-      <c r="R17" s="31"/>
+      <c r="R17" s="30"/>
       <c r="S17" s="23">
         <v>50</v>
       </c>
@@ -3212,577 +3236,577 @@
       </c>
     </row>
     <row r="18" spans="1:61" s="19" customFormat="1" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <f t="shared" ref="B18:AG18" si="9">SUM(B2:B17)</f>
         <v>9.99</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="33">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <f t="shared" si="9"/>
         <v>1395</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="33">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="33">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="33">
         <f t="shared" si="9"/>
         <v>1395</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="33">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="33">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="33">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="33">
         <f t="shared" si="9"/>
         <v>1360</v>
       </c>
-      <c r="O18" s="35">
+      <c r="O18" s="34">
         <f t="shared" si="9"/>
         <v>4244.97</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="33">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="33">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S18" s="33">
         <f t="shared" si="9"/>
         <v>1395</v>
       </c>
-      <c r="T18" s="34">
+      <c r="T18" s="33">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="U18" s="34">
+      <c r="U18" s="33">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="V18" s="34">
+      <c r="V18" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W18" s="34">
+      <c r="W18" s="33">
         <f t="shared" si="9"/>
         <v>1395</v>
       </c>
-      <c r="X18" s="34">
+      <c r="X18" s="33">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="34">
+      <c r="Y18" s="33">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="Z18" s="34">
+      <c r="Z18" s="33">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="AA18" s="34">
+      <c r="AA18" s="33">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="AB18" s="36">
+      <c r="AB18" s="35">
         <f t="shared" si="9"/>
         <v>1360</v>
       </c>
-      <c r="AC18" s="35">
+      <c r="AC18" s="34">
         <f t="shared" si="9"/>
         <v>4244.97</v>
       </c>
-      <c r="AD18" s="34">
+      <c r="AD18" s="33">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="AE18" s="34">
+      <c r="AE18" s="33">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="AF18" s="34">
+      <c r="AF18" s="33">
         <f t="shared" si="9"/>
         <v>28.98</v>
       </c>
-      <c r="AG18" s="34">
+      <c r="AG18" s="33">
         <f t="shared" si="9"/>
         <v>1517.47</v>
       </c>
-      <c r="AH18" s="34">
+      <c r="AH18" s="33">
         <f t="shared" ref="AH18:BF18" si="10">SUM(AH2:AH17)</f>
         <v>9.99</v>
       </c>
-      <c r="AI18" s="34">
+      <c r="AI18" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AJ18" s="34">
+      <c r="AJ18" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="34">
+      <c r="AK18" s="33">
         <f t="shared" si="10"/>
         <v>950</v>
       </c>
-      <c r="AL18" s="34">
+      <c r="AL18" s="33">
         <f t="shared" si="10"/>
         <v>1794.06</v>
       </c>
-      <c r="AM18" s="34">
+      <c r="AM18" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AN18" s="34">
+      <c r="AN18" s="33">
         <f t="shared" si="10"/>
         <v>9.99</v>
       </c>
-      <c r="AO18" s="34">
+      <c r="AO18" s="33">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="AP18" s="36">
+      <c r="AP18" s="35">
         <f t="shared" si="10"/>
         <v>1360</v>
       </c>
-      <c r="AQ18" s="35">
+      <c r="AQ18" s="34">
         <f t="shared" si="10"/>
         <v>5745.48</v>
       </c>
-      <c r="AR18" s="34">
+      <c r="AR18" s="33">
         <f t="shared" si="10"/>
         <v>9.99</v>
       </c>
-      <c r="AS18" s="34">
+      <c r="AS18" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AT18" s="34">
+      <c r="AT18" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AU18" s="34">
+      <c r="AU18" s="33">
         <f t="shared" si="10"/>
         <v>1395</v>
       </c>
-      <c r="AV18" s="34">
+      <c r="AV18" s="33">
         <f t="shared" si="10"/>
         <v>9.99</v>
       </c>
-      <c r="AW18" s="34">
+      <c r="AW18" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AX18" s="34">
+      <c r="AX18" s="33">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AY18" s="34">
+      <c r="AY18" s="33">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="AZ18" s="34">
+      <c r="AZ18" s="33">
         <f t="shared" si="10"/>
         <v>1360</v>
       </c>
-      <c r="BA18" s="34">
+      <c r="BA18" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="BB18" s="34">
+      <c r="BB18" s="33">
         <f t="shared" si="10"/>
         <v>9.99</v>
       </c>
-      <c r="BC18" s="34">
+      <c r="BC18" s="33">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="BD18" s="36">
+      <c r="BD18" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BE18" s="35">
+      <c r="BE18" s="34">
         <f t="shared" si="10"/>
         <v>2884.9700000000003</v>
       </c>
-      <c r="BF18" s="35">
+      <c r="BF18" s="34">
         <f t="shared" si="10"/>
         <v>17120.39</v>
       </c>
-      <c r="BH18" s="62"/>
-      <c r="BI18" s="62"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
     </row>
     <row r="19" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40">
         <f t="shared" ref="O19:O25" si="11">SUM(B19:N19)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="41">
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="40">
         <f t="shared" ref="AC19:AC25" si="12">SUM(P19:AB19)</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="41">
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="40">
         <f t="shared" ref="AQ19:AQ25" si="13">SUM(AD19:AP19)</f>
         <v>0</v>
       </c>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="39"/>
-      <c r="AU19" s="39"/>
-      <c r="AV19" s="39"/>
-      <c r="AW19" s="39"/>
-      <c r="AX19" s="39"/>
-      <c r="AY19" s="39"/>
-      <c r="AZ19" s="39"/>
-      <c r="BA19" s="39"/>
-      <c r="BB19" s="39"/>
-      <c r="BC19" s="39"/>
-      <c r="BD19" s="40"/>
-      <c r="BE19" s="41">
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="40">
         <f t="shared" ref="BE19:BE25" si="14">SUM(AR19:BD19)</f>
         <v>0</v>
       </c>
-      <c r="BF19" s="41">
+      <c r="BF19" s="40">
         <f t="shared" ref="BF19:BF25" si="15">O19+AC19+AQ19+BE19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="42">
-        <v>95</v>
-      </c>
-      <c r="C20" s="44">
-        <v>95</v>
-      </c>
-      <c r="D20" s="44">
-        <v>95</v>
-      </c>
-      <c r="E20" s="44">
-        <v>95</v>
-      </c>
-      <c r="F20" s="44">
-        <v>95</v>
-      </c>
-      <c r="G20" s="44">
-        <v>95</v>
-      </c>
-      <c r="H20" s="44">
-        <v>95</v>
-      </c>
-      <c r="I20" s="44">
-        <v>95</v>
-      </c>
-      <c r="J20" s="44">
-        <v>95</v>
-      </c>
-      <c r="K20" s="44">
-        <v>95</v>
-      </c>
-      <c r="L20" s="44">
-        <v>95</v>
-      </c>
-      <c r="M20" s="44">
-        <v>95</v>
-      </c>
-      <c r="N20" s="45">
-        <v>95</v>
-      </c>
-      <c r="O20" s="41">
+      <c r="B20" s="41">
+        <v>95</v>
+      </c>
+      <c r="C20" s="43">
+        <v>95</v>
+      </c>
+      <c r="D20" s="43">
+        <v>95</v>
+      </c>
+      <c r="E20" s="43">
+        <v>95</v>
+      </c>
+      <c r="F20" s="43">
+        <v>95</v>
+      </c>
+      <c r="G20" s="43">
+        <v>95</v>
+      </c>
+      <c r="H20" s="43">
+        <v>95</v>
+      </c>
+      <c r="I20" s="43">
+        <v>95</v>
+      </c>
+      <c r="J20" s="43">
+        <v>95</v>
+      </c>
+      <c r="K20" s="43">
+        <v>95</v>
+      </c>
+      <c r="L20" s="43">
+        <v>95</v>
+      </c>
+      <c r="M20" s="43">
+        <v>95</v>
+      </c>
+      <c r="N20" s="44">
+        <v>95</v>
+      </c>
+      <c r="O20" s="40">
         <f t="shared" si="11"/>
         <v>1235</v>
       </c>
-      <c r="P20" s="42">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="44">
-        <v>95</v>
-      </c>
-      <c r="R20" s="44">
-        <v>95</v>
-      </c>
-      <c r="S20" s="44">
-        <v>95</v>
-      </c>
-      <c r="T20" s="44">
-        <v>95</v>
-      </c>
-      <c r="U20" s="44">
-        <v>95</v>
-      </c>
-      <c r="V20" s="44">
-        <v>95</v>
-      </c>
-      <c r="W20" s="44">
-        <v>95</v>
-      </c>
-      <c r="X20" s="44">
-        <v>95</v>
-      </c>
-      <c r="Y20" s="44">
-        <v>95</v>
-      </c>
-      <c r="Z20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AA20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AB20" s="45">
-        <v>95</v>
-      </c>
-      <c r="AC20" s="41">
+      <c r="P20" s="41">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="43">
+        <v>95</v>
+      </c>
+      <c r="R20" s="43">
+        <v>95</v>
+      </c>
+      <c r="S20" s="43">
+        <v>95</v>
+      </c>
+      <c r="T20" s="43">
+        <v>95</v>
+      </c>
+      <c r="U20" s="43">
+        <v>95</v>
+      </c>
+      <c r="V20" s="43">
+        <v>95</v>
+      </c>
+      <c r="W20" s="43">
+        <v>95</v>
+      </c>
+      <c r="X20" s="43">
+        <v>95</v>
+      </c>
+      <c r="Y20" s="43">
+        <v>95</v>
+      </c>
+      <c r="Z20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AA20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AB20" s="44">
+        <v>95</v>
+      </c>
+      <c r="AC20" s="40">
         <f t="shared" si="12"/>
         <v>1235</v>
       </c>
-      <c r="AD20" s="42">
-        <v>95</v>
-      </c>
-      <c r="AE20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AF20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AG20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AH20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AI20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AJ20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AK20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AL20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AM20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AN20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AO20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AP20" s="45">
-        <v>95</v>
-      </c>
-      <c r="AQ20" s="41">
+      <c r="AD20" s="41">
+        <v>95</v>
+      </c>
+      <c r="AE20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AF20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AG20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AH20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AI20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AJ20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AK20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AL20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AM20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AN20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AO20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AP20" s="44">
+        <v>95</v>
+      </c>
+      <c r="AQ20" s="40">
         <f t="shared" si="13"/>
         <v>1235</v>
       </c>
-      <c r="AR20" s="46">
-        <v>95</v>
-      </c>
-      <c r="AS20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AT20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AU20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AV20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AW20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AX20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AY20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AZ20" s="44">
-        <v>95</v>
-      </c>
-      <c r="BA20" s="44">
-        <v>95</v>
-      </c>
-      <c r="BB20" s="44">
-        <v>95</v>
-      </c>
-      <c r="BC20" s="44">
-        <v>95</v>
-      </c>
-      <c r="BD20" s="45">
-        <v>95</v>
-      </c>
-      <c r="BE20" s="41">
+      <c r="AR20" s="45">
+        <v>95</v>
+      </c>
+      <c r="AS20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AT20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AU20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AV20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AW20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AX20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AY20" s="43">
+        <v>95</v>
+      </c>
+      <c r="AZ20" s="43">
+        <v>95</v>
+      </c>
+      <c r="BA20" s="43">
+        <v>95</v>
+      </c>
+      <c r="BB20" s="43">
+        <v>95</v>
+      </c>
+      <c r="BC20" s="43">
+        <v>95</v>
+      </c>
+      <c r="BD20" s="44">
+        <v>95</v>
+      </c>
+      <c r="BE20" s="40">
         <f t="shared" si="14"/>
         <v>1235</v>
       </c>
-      <c r="BF20" s="41">
+      <c r="BF20" s="40">
         <f t="shared" si="15"/>
         <v>4940</v>
       </c>
-      <c r="BG20" s="47"/>
+      <c r="BG20" s="46"/>
     </row>
     <row r="21" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="41">
+      <c r="B21" s="41"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="41">
+      <c r="P21" s="41"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44"/>
-      <c r="AL21" s="44"/>
-      <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="41">
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="44"/>
+      <c r="AQ21" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AR21" s="46"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="44"/>
-      <c r="BA21" s="44"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="44"/>
-      <c r="BD21" s="45"/>
-      <c r="BE21" s="41">
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="43"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="43"/>
+      <c r="AW21" s="43"/>
+      <c r="AX21" s="43"/>
+      <c r="AY21" s="43"/>
+      <c r="AZ21" s="43"/>
+      <c r="BA21" s="43"/>
+      <c r="BB21" s="43"/>
+      <c r="BC21" s="43"/>
+      <c r="BD21" s="44"/>
+      <c r="BE21" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BF21" s="41">
+      <c r="BF21" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BH21" s="63"/>
-      <c r="BI21" s="63"/>
+      <c r="BH21" s="62"/>
+      <c r="BI21" s="62"/>
     </row>
     <row r="22" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -3801,7 +3825,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="41">
+      <c r="O22" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3818,7 +3842,7 @@
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
-      <c r="AC22" s="41">
+      <c r="AC22" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -3835,7 +3859,7 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-      <c r="AQ22" s="41">
+      <c r="AQ22" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -3852,17 +3876,17 @@
       <c r="BB22" s="9"/>
       <c r="BC22" s="9"/>
       <c r="BD22" s="9"/>
-      <c r="BE22" s="41">
+      <c r="BE22" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BF22" s="41">
+      <c r="BF22" s="40">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="9">
@@ -3876,7 +3900,7 @@
       <c r="F23" s="9">
         <v>896</v>
       </c>
-      <c r="G23" s="50"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="9">
         <v>896</v>
       </c>
@@ -3888,11 +3912,11 @@
       <c r="L23" s="9">
         <v>896</v>
       </c>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50">
+      <c r="M23" s="49"/>
+      <c r="N23" s="49">
         <v>896</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="40">
         <f t="shared" si="11"/>
         <v>6272</v>
       </c>
@@ -3907,7 +3931,7 @@
       <c r="T23" s="9">
         <v>896</v>
       </c>
-      <c r="U23" s="50"/>
+      <c r="U23" s="49"/>
       <c r="V23" s="9">
         <v>896</v>
       </c>
@@ -3919,15 +3943,15 @@
       <c r="Z23" s="9">
         <v>896</v>
       </c>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50">
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49">
         <v>896</v>
       </c>
-      <c r="AC23" s="41">
+      <c r="AC23" s="40">
         <f t="shared" si="12"/>
         <v>6272</v>
       </c>
-      <c r="AD23" s="51">
+      <c r="AD23" s="50">
         <v>896</v>
       </c>
       <c r="AE23" s="9"/>
@@ -3950,10 +3974,10 @@
       <c r="AN23" s="9">
         <v>896</v>
       </c>
-      <c r="AP23" s="50">
+      <c r="AP23" s="49">
         <v>896</v>
       </c>
-      <c r="AQ23" s="41">
+      <c r="AQ23" s="40">
         <f t="shared" si="13"/>
         <v>6272</v>
       </c>
@@ -3968,7 +3992,7 @@
       <c r="AV23" s="9">
         <v>896</v>
       </c>
-      <c r="AW23" s="50"/>
+      <c r="AW23" s="49"/>
       <c r="AX23" s="9">
         <v>896</v>
       </c>
@@ -3980,24 +4004,24 @@
       <c r="BB23" s="9">
         <v>896</v>
       </c>
-      <c r="BC23" s="50"/>
-      <c r="BD23" s="50">
+      <c r="BC23" s="49"/>
+      <c r="BD23" s="49">
         <v>896</v>
       </c>
-      <c r="BE23" s="41">
+      <c r="BE23" s="40">
         <f t="shared" si="14"/>
         <v>6272</v>
       </c>
-      <c r="BF23" s="41">
+      <c r="BF23" s="40">
         <f t="shared" si="15"/>
         <v>25088</v>
       </c>
-      <c r="BG23" s="87" t="s">
+      <c r="BG23" s="86" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="9"/>
@@ -4016,10 +4040,10 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="50">
+      <c r="N24" s="49">
         <v>292</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="40">
         <f t="shared" si="11"/>
         <v>876</v>
       </c>
@@ -4039,14 +4063,14 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
-      <c r="AB24" s="50">
+      <c r="AB24" s="49">
         <v>292</v>
       </c>
-      <c r="AC24" s="41">
+      <c r="AC24" s="40">
         <f t="shared" si="12"/>
         <v>876</v>
       </c>
-      <c r="AD24" s="51"/>
+      <c r="AD24" s="50"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
@@ -4062,12 +4086,12 @@
       </c>
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="41">
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="40">
         <f t="shared" si="13"/>
         <v>584</v>
       </c>
-      <c r="AR24" s="51">
+      <c r="AR24" s="50">
         <v>292</v>
       </c>
       <c r="AS24" s="9"/>
@@ -4085,14 +4109,14 @@
       </c>
       <c r="BB24" s="9"/>
       <c r="BC24" s="9"/>
-      <c r="BD24" s="50">
+      <c r="BD24" s="49">
         <v>292</v>
       </c>
-      <c r="BE24" s="41">
+      <c r="BE24" s="40">
         <f t="shared" si="14"/>
         <v>1168</v>
       </c>
-      <c r="BF24" s="41">
+      <c r="BF24" s="40">
         <f t="shared" si="15"/>
         <v>3504</v>
       </c>
@@ -4101,7 +4125,7 @@
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="51"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -4113,12 +4137,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="41">
+      <c r="N25" s="49"/>
+      <c r="O25" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P25" s="51"/>
+      <c r="P25" s="50"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
@@ -4130,12 +4154,12 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="41">
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="51"/>
+      <c r="AD25" s="50"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9">
@@ -4149,12 +4173,12 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="41">
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="40">
         <f t="shared" si="13"/>
         <v>292</v>
       </c>
-      <c r="AR25" s="51"/>
+      <c r="AR25" s="50"/>
       <c r="AS25" s="9"/>
       <c r="AT25" s="9"/>
       <c r="AU25" s="9"/>
@@ -4166,781 +4190,781 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
       <c r="BC25" s="9"/>
-      <c r="BD25" s="50"/>
-      <c r="BE25" s="41">
+      <c r="BD25" s="49"/>
+      <c r="BE25" s="40">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BF25" s="41">
+      <c r="BF25" s="40">
         <f t="shared" si="15"/>
         <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="51">
         <f>SUM(B19:B23)+B25</f>
         <v>991</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="51">
         <f>SUM(C19:C23)+C25+B27</f>
         <v>1076.01</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="51">
         <f t="shared" ref="D26:N26" si="16">SUM(D19:D23)+D25+C27</f>
         <v>2057.0100000000002</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="51">
         <f t="shared" si="16"/>
         <v>2152.0100000000002</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="51">
         <f t="shared" si="16"/>
         <v>1748.0100000000002</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="51">
         <f t="shared" si="16"/>
         <v>1833.0200000000002</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="51">
         <f t="shared" si="16"/>
         <v>2814.0200000000004</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="51">
         <f t="shared" si="16"/>
         <v>2909.0200000000004</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="51">
         <f t="shared" si="16"/>
         <v>2505.0200000000004</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="51">
         <f t="shared" si="16"/>
         <v>2600.0200000000004</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="51">
         <f t="shared" si="16"/>
         <v>3581.0200000000004</v>
       </c>
-      <c r="M26" s="52">
+      <c r="M26" s="51">
         <f t="shared" si="16"/>
         <v>3666.0300000000007</v>
       </c>
-      <c r="N26" s="53">
+      <c r="N26" s="52">
         <f t="shared" si="16"/>
         <v>4622.0300000000007</v>
       </c>
-      <c r="O26" s="35">
+      <c r="O26" s="34">
         <f>SUM(O19:O23)+O25</f>
         <v>7507</v>
       </c>
-      <c r="P26" s="52">
+      <c r="P26" s="51">
         <f t="shared" ref="P26:AB26" si="17">SUM(P19:P23)+P25+O27</f>
         <v>4253.03</v>
       </c>
-      <c r="Q26" s="52">
+      <c r="Q26" s="51">
         <f t="shared" si="17"/>
         <v>4338.04</v>
       </c>
-      <c r="R26" s="52">
+      <c r="R26" s="51">
         <f t="shared" si="17"/>
         <v>5319.04</v>
       </c>
-      <c r="S26" s="52">
+      <c r="S26" s="51">
         <f t="shared" si="17"/>
         <v>5414.04</v>
       </c>
-      <c r="T26" s="52">
+      <c r="T26" s="51">
         <f t="shared" si="17"/>
         <v>5010.04</v>
       </c>
-      <c r="U26" s="52">
+      <c r="U26" s="51">
         <f t="shared" si="17"/>
         <v>5095.05</v>
       </c>
-      <c r="V26" s="52">
+      <c r="V26" s="51">
         <f t="shared" si="17"/>
         <v>6076.05</v>
       </c>
-      <c r="W26" s="52">
+      <c r="W26" s="51">
         <f t="shared" si="17"/>
         <v>6171.05</v>
       </c>
-      <c r="X26" s="52">
+      <c r="X26" s="51">
         <f t="shared" si="17"/>
         <v>5767.05</v>
       </c>
-      <c r="Y26" s="52">
+      <c r="Y26" s="51">
         <f t="shared" si="17"/>
         <v>5862.05</v>
       </c>
-      <c r="Z26" s="52">
+      <c r="Z26" s="51">
         <f t="shared" si="17"/>
         <v>6843.05</v>
       </c>
-      <c r="AA26" s="52">
+      <c r="AA26" s="51">
         <f t="shared" si="17"/>
         <v>6928.06</v>
       </c>
-      <c r="AB26" s="53">
+      <c r="AB26" s="52">
         <f t="shared" si="17"/>
         <v>7884.06</v>
       </c>
-      <c r="AC26" s="35">
+      <c r="AC26" s="34">
         <f>SUM(AC19:AC23)+AC25</f>
         <v>7507</v>
       </c>
-      <c r="AD26" s="52">
+      <c r="AD26" s="51">
         <f t="shared" ref="AD26:AP26" si="18">SUM(AD19:AD23)+AD25+AC27</f>
         <v>4253.03</v>
       </c>
-      <c r="AE26" s="52">
+      <c r="AE26" s="51">
         <f t="shared" si="18"/>
         <v>4338.04</v>
       </c>
-      <c r="AF26" s="52">
+      <c r="AF26" s="51">
         <f t="shared" si="18"/>
         <v>5319.04</v>
       </c>
-      <c r="AG26" s="52">
+      <c r="AG26" s="51">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
         <v>5677.06</v>
       </c>
-      <c r="AH26" s="52">
+      <c r="AH26" s="51">
         <f>SUM(AH19:AH23)+AH25+AG27</f>
         <v>5150.59</v>
       </c>
-      <c r="AI26" s="52">
+      <c r="AI26" s="51">
         <f t="shared" si="18"/>
         <v>5235.6000000000004</v>
       </c>
-      <c r="AJ26" s="52">
+      <c r="AJ26" s="51">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
         <v>6216.6</v>
       </c>
-      <c r="AK26" s="52">
+      <c r="AK26" s="51">
         <f t="shared" si="18"/>
         <v>6311.6</v>
       </c>
-      <c r="AL26" s="52">
+      <c r="AL26" s="51">
         <f t="shared" si="18"/>
         <v>6352.6</v>
       </c>
-      <c r="AM26" s="52">
+      <c r="AM26" s="51">
         <f t="shared" si="18"/>
         <v>4653.5400000000009</v>
       </c>
-      <c r="AN26" s="52">
+      <c r="AN26" s="51">
         <f t="shared" si="18"/>
         <v>5634.5400000000009</v>
       </c>
-      <c r="AO26" s="52">
+      <c r="AO26" s="51">
         <f t="shared" si="18"/>
         <v>5719.5500000000011</v>
       </c>
-      <c r="AP26" s="53">
+      <c r="AP26" s="52">
         <f t="shared" si="18"/>
         <v>6675.5500000000011</v>
       </c>
-      <c r="AQ26" s="35">
+      <c r="AQ26" s="34">
         <f>SUM(AQ19:AQ23)+AQ25</f>
         <v>7799</v>
       </c>
-      <c r="AR26" s="52">
+      <c r="AR26" s="51">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
         <v>3044.5200000000004</v>
       </c>
-      <c r="AS26" s="52">
+      <c r="AS26" s="51">
         <f t="shared" si="19"/>
         <v>3129.5300000000007</v>
       </c>
-      <c r="AT26" s="52">
+      <c r="AT26" s="51">
         <f t="shared" si="19"/>
         <v>4110.5300000000007</v>
       </c>
-      <c r="AU26" s="52">
+      <c r="AU26" s="51">
         <f t="shared" si="19"/>
         <v>4205.5300000000007</v>
       </c>
-      <c r="AV26" s="52">
+      <c r="AV26" s="51">
         <f t="shared" si="19"/>
         <v>3801.5300000000007</v>
       </c>
-      <c r="AW26" s="52">
+      <c r="AW26" s="51">
         <f t="shared" si="19"/>
         <v>3886.5400000000009</v>
       </c>
-      <c r="AX26" s="52">
+      <c r="AX26" s="51">
         <f t="shared" si="19"/>
         <v>4867.5400000000009</v>
       </c>
-      <c r="AY26" s="52">
+      <c r="AY26" s="51">
         <f t="shared" si="19"/>
         <v>4962.5400000000009</v>
       </c>
-      <c r="AZ26" s="52">
+      <c r="AZ26" s="51">
         <f t="shared" si="19"/>
         <v>5918.5400000000009</v>
       </c>
-      <c r="BA26" s="52">
+      <c r="BA26" s="51">
         <f t="shared" si="19"/>
         <v>4653.5400000000009</v>
       </c>
-      <c r="BB26" s="52">
+      <c r="BB26" s="51">
         <f t="shared" si="19"/>
         <v>5634.5400000000009</v>
       </c>
-      <c r="BC26" s="52">
+      <c r="BC26" s="51">
         <f t="shared" si="19"/>
         <v>5719.5500000000011</v>
       </c>
-      <c r="BD26" s="53">
+      <c r="BD26" s="52">
         <f t="shared" si="19"/>
         <v>6675.5500000000011</v>
       </c>
-      <c r="BE26" s="35">
+      <c r="BE26" s="34">
         <f>SUM(BE19:BE23)+BE25</f>
         <v>7507</v>
       </c>
-      <c r="BF26" s="35">
+      <c r="BF26" s="34">
         <f>SUM(BF19:BF23)+BF25</f>
         <v>30320</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55">
+      <c r="A27" s="53"/>
+      <c r="B27" s="54">
         <f t="shared" ref="B27:AG27" si="20">B26-B18</f>
         <v>981.01</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="54">
         <f t="shared" si="20"/>
         <v>1066.01</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="54">
         <f t="shared" si="20"/>
         <v>2057.0100000000002</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="55">
         <f t="shared" si="20"/>
         <v>757.01000000000022</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="54">
         <f t="shared" si="20"/>
         <v>1738.0200000000002</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="54">
         <f t="shared" si="20"/>
         <v>1823.0200000000002</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="54">
         <f t="shared" si="20"/>
         <v>2814.0200000000004</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="55">
         <f t="shared" si="20"/>
         <v>1514.0200000000004</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="54">
         <f t="shared" si="20"/>
         <v>2505.0200000000004</v>
       </c>
-      <c r="K27" s="55">
+      <c r="K27" s="54">
         <f t="shared" si="20"/>
         <v>2590.0200000000004</v>
       </c>
-      <c r="L27" s="55">
+      <c r="L27" s="54">
         <f t="shared" si="20"/>
         <v>3571.0300000000007</v>
       </c>
-      <c r="M27" s="55">
+      <c r="M27" s="54">
         <f t="shared" si="20"/>
         <v>3631.0300000000007</v>
       </c>
-      <c r="N27" s="57">
+      <c r="N27" s="56">
         <f t="shared" si="20"/>
         <v>3262.0300000000007</v>
       </c>
-      <c r="O27" s="58">
+      <c r="O27" s="57">
         <f t="shared" si="20"/>
         <v>3262.0299999999997</v>
       </c>
-      <c r="P27" s="55">
+      <c r="P27" s="54">
         <f t="shared" si="20"/>
         <v>4243.04</v>
       </c>
-      <c r="Q27" s="55">
+      <c r="Q27" s="54">
         <f t="shared" si="20"/>
         <v>4328.04</v>
       </c>
-      <c r="R27" s="55">
+      <c r="R27" s="54">
         <f t="shared" si="20"/>
         <v>5319.04</v>
       </c>
-      <c r="S27" s="56">
+      <c r="S27" s="55">
         <f t="shared" si="20"/>
         <v>4019.04</v>
       </c>
-      <c r="T27" s="55">
+      <c r="T27" s="54">
         <f t="shared" si="20"/>
         <v>5000.05</v>
       </c>
-      <c r="U27" s="55">
+      <c r="U27" s="54">
         <f t="shared" si="20"/>
         <v>5085.05</v>
       </c>
-      <c r="V27" s="55">
+      <c r="V27" s="54">
         <f t="shared" si="20"/>
         <v>6076.05</v>
       </c>
-      <c r="W27" s="56">
+      <c r="W27" s="55">
         <f t="shared" si="20"/>
         <v>4776.05</v>
       </c>
-      <c r="X27" s="55">
+      <c r="X27" s="54">
         <f t="shared" si="20"/>
         <v>5767.05</v>
       </c>
-      <c r="Y27" s="55">
+      <c r="Y27" s="54">
         <f t="shared" si="20"/>
         <v>5852.05</v>
       </c>
-      <c r="Z27" s="55">
+      <c r="Z27" s="54">
         <f t="shared" si="20"/>
         <v>6833.06</v>
       </c>
-      <c r="AA27" s="55">
+      <c r="AA27" s="54">
         <f t="shared" si="20"/>
         <v>6893.06</v>
       </c>
-      <c r="AB27" s="57">
+      <c r="AB27" s="56">
         <f t="shared" si="20"/>
         <v>6524.06</v>
       </c>
-      <c r="AC27" s="58">
+      <c r="AC27" s="57">
         <f t="shared" si="20"/>
         <v>3262.0299999999997</v>
       </c>
-      <c r="AD27" s="55">
+      <c r="AD27" s="54">
         <f t="shared" si="20"/>
         <v>4243.04</v>
       </c>
-      <c r="AE27" s="55">
+      <c r="AE27" s="54">
         <f t="shared" si="20"/>
         <v>4328.04</v>
       </c>
-      <c r="AF27" s="55">
+      <c r="AF27" s="54">
         <f t="shared" si="20"/>
         <v>5290.06</v>
       </c>
-      <c r="AG27" s="56">
+      <c r="AG27" s="55">
         <f t="shared" si="20"/>
         <v>4159.59</v>
       </c>
-      <c r="AH27" s="55">
+      <c r="AH27" s="54">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
         <v>5140.6000000000004</v>
       </c>
-      <c r="AI27" s="55">
+      <c r="AI27" s="54">
         <f t="shared" si="21"/>
         <v>5225.6000000000004</v>
       </c>
-      <c r="AJ27" s="55">
+      <c r="AJ27" s="54">
         <f t="shared" si="21"/>
         <v>6216.6</v>
       </c>
-      <c r="AK27" s="55">
+      <c r="AK27" s="54">
         <f t="shared" si="21"/>
         <v>5361.6</v>
       </c>
-      <c r="AL27" s="56">
+      <c r="AL27" s="55">
         <f t="shared" si="21"/>
         <v>4558.5400000000009</v>
       </c>
-      <c r="AM27" s="55">
+      <c r="AM27" s="54">
         <f t="shared" si="21"/>
         <v>4643.5400000000009</v>
       </c>
-      <c r="AN27" s="55">
+      <c r="AN27" s="54">
         <f t="shared" si="21"/>
         <v>5624.5500000000011</v>
       </c>
-      <c r="AO27" s="55">
+      <c r="AO27" s="54">
         <f t="shared" si="21"/>
         <v>5684.5500000000011</v>
       </c>
-      <c r="AP27" s="59">
+      <c r="AP27" s="58">
         <f t="shared" si="21"/>
         <v>5315.5500000000011</v>
       </c>
-      <c r="AQ27" s="58">
+      <c r="AQ27" s="57">
         <f t="shared" si="21"/>
         <v>2053.5200000000004</v>
       </c>
-      <c r="AR27" s="55">
+      <c r="AR27" s="54">
         <f t="shared" si="21"/>
         <v>3034.5300000000007</v>
       </c>
-      <c r="AS27" s="55">
+      <c r="AS27" s="54">
         <f t="shared" si="21"/>
         <v>3119.5300000000007</v>
       </c>
-      <c r="AT27" s="55">
+      <c r="AT27" s="54">
         <f t="shared" si="21"/>
         <v>4110.5300000000007</v>
       </c>
-      <c r="AU27" s="56">
+      <c r="AU27" s="55">
         <f t="shared" si="21"/>
         <v>2810.5300000000007</v>
       </c>
-      <c r="AV27" s="55">
+      <c r="AV27" s="54">
         <f t="shared" si="21"/>
         <v>3791.5400000000009</v>
       </c>
-      <c r="AW27" s="55">
+      <c r="AW27" s="54">
         <f t="shared" si="21"/>
         <v>3876.5400000000009</v>
       </c>
-      <c r="AX27" s="55">
+      <c r="AX27" s="54">
         <f t="shared" si="21"/>
         <v>4867.5400000000009</v>
       </c>
-      <c r="AY27" s="55">
+      <c r="AY27" s="54">
         <f t="shared" si="21"/>
         <v>4927.5400000000009</v>
       </c>
-      <c r="AZ27" s="56">
+      <c r="AZ27" s="55">
         <f t="shared" si="21"/>
         <v>4558.5400000000009</v>
       </c>
-      <c r="BA27" s="55">
+      <c r="BA27" s="54">
         <f t="shared" si="21"/>
         <v>4643.5400000000009</v>
       </c>
-      <c r="BB27" s="55">
+      <c r="BB27" s="54">
         <f t="shared" si="21"/>
         <v>5624.5500000000011</v>
       </c>
-      <c r="BC27" s="55">
+      <c r="BC27" s="54">
         <f t="shared" si="21"/>
         <v>5684.5500000000011</v>
       </c>
-      <c r="BD27" s="57">
+      <c r="BD27" s="56">
         <f t="shared" si="21"/>
         <v>6675.5500000000011</v>
       </c>
-      <c r="BE27" s="60">
+      <c r="BE27" s="59">
         <f t="shared" si="21"/>
         <v>4622.03</v>
       </c>
-      <c r="BF27" s="61">
+      <c r="BF27" s="60">
         <f t="shared" si="21"/>
         <v>13199.61</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H29" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="67"/>
-      <c r="BF29" s="47"/>
+      <c r="J29" s="66"/>
+      <c r="BF29" s="46"/>
     </row>
     <row r="30" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69">
+      <c r="A30" s="46"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68">
         <v>111336</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="69">
         <v>9675.81</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="70">
         <v>-105776</v>
       </c>
-      <c r="F30" s="72">
+      <c r="F30" s="71">
         <f>C30+E30</f>
         <v>5560</v>
       </c>
-      <c r="G30" s="69">
+      <c r="G30" s="68">
         <v>8560</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="68">
         <v>1650.47</v>
       </c>
-      <c r="Q30" s="73" t="s">
+      <c r="Q30" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="T30" s="73" t="s">
+      <c r="T30" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AH30" s="73" t="s">
+      <c r="AH30" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="BF30" s="74"/>
+      <c r="BF30" s="73"/>
     </row>
     <row r="31" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="68"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="5"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="BF31" s="75"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="BF31" s="74"/>
     </row>
     <row r="32" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="76"/>
-      <c r="B32" s="64" t="s">
+      <c r="A32" s="75"/>
+      <c r="B32" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="G32" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="66" t="s">
+      <c r="I32" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="66" t="s">
+      <c r="J32" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="66" t="s">
+      <c r="K32" s="65" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="77">
+      <c r="B33" s="67"/>
+      <c r="C33" s="76">
         <v>2600</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="76">
         <v>1600</v>
       </c>
-      <c r="E33" s="77">
+      <c r="E33" s="76">
         <v>1400</v>
       </c>
-      <c r="F33" s="77">
+      <c r="F33" s="76">
         <v>1200</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G33" s="76">
         <v>1000</v>
       </c>
-      <c r="H33" s="77">
+      <c r="H33" s="76">
         <v>700</v>
       </c>
-      <c r="I33" s="77">
+      <c r="I33" s="76">
         <v>700</v>
       </c>
-      <c r="J33" s="77">
+      <c r="J33" s="76">
         <v>500</v>
       </c>
-      <c r="K33" s="77">
+      <c r="K33" s="76">
         <v>300</v>
       </c>
-      <c r="M33" s="47"/>
-      <c r="O33" s="47"/>
+      <c r="M33" s="46"/>
+      <c r="O33" s="46"/>
     </row>
     <row r="34" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69">
+      <c r="A34" s="46"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68">
         <v>2751.76</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="68">
         <v>1676.75</v>
       </c>
-      <c r="E34" s="69">
+      <c r="E34" s="68">
         <v>1492.95</v>
       </c>
-      <c r="F34" s="69">
+      <c r="F34" s="68">
         <v>154.22999999999999</v>
       </c>
-      <c r="G34" s="69">
+      <c r="G34" s="68">
         <v>1121.55</v>
       </c>
-      <c r="H34" s="69">
+      <c r="H34" s="68">
         <v>653.16</v>
       </c>
-      <c r="I34" s="69">
+      <c r="I34" s="68">
         <v>694.25</v>
       </c>
-      <c r="J34" s="69">
+      <c r="J34" s="68">
         <v>529.07000000000005</v>
       </c>
-      <c r="K34" s="69">
+      <c r="K34" s="68">
         <v>331.55</v>
       </c>
-      <c r="M34" s="78"/>
-      <c r="O34" s="78"/>
+      <c r="M34" s="77"/>
+      <c r="O34" s="77"/>
     </row>
     <row r="35" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="79">
+      <c r="A35" s="46"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="78">
         <f t="shared" ref="C35:I35" si="22">C33-C34</f>
         <v>-151.76000000000022</v>
       </c>
-      <c r="D35" s="79">
+      <c r="D35" s="78">
         <f t="shared" si="22"/>
         <v>-76.75</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="78">
         <f>E33-E34</f>
         <v>-92.950000000000045</v>
       </c>
-      <c r="F35" s="80">
+      <c r="F35" s="79">
         <f>F33-F34</f>
         <v>1045.77</v>
       </c>
-      <c r="G35" s="79">
+      <c r="G35" s="78">
         <f>G33-G34</f>
         <v>-121.54999999999995</v>
       </c>
-      <c r="H35" s="80">
+      <c r="H35" s="79">
         <f t="shared" si="22"/>
         <v>46.840000000000032</v>
       </c>
-      <c r="I35" s="80">
+      <c r="I35" s="79">
         <f t="shared" si="22"/>
         <v>5.75</v>
       </c>
-      <c r="J35" s="79">
+      <c r="J35" s="78">
         <f>J33-J34</f>
         <v>-29.07000000000005</v>
       </c>
-      <c r="K35" s="79">
+      <c r="K35" s="78">
         <f>K33-K34</f>
         <v>-31.550000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47"/>
+      <c r="A36" s="46"/>
     </row>
     <row r="37" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="64" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="80" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="82">
+      <c r="C38" s="81">
         <v>2818</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="82">
         <v>1263.1199999999999</v>
       </c>
-      <c r="E38" s="83">
+      <c r="E38" s="82">
         <v>915</v>
       </c>
-      <c r="F38" s="84">
+      <c r="F38" s="83">
         <v>222.66</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="A39" s="46"/>
+      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="I40" s="47"/>
+      <c r="G40" s="46"/>
+      <c r="I40" s="46"/>
     </row>
     <row r="41" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="69">
+      <c r="B41" s="68">
         <f>SUM(C34:K34)</f>
         <v>9405.2699999999986</v>
       </c>
-      <c r="C41" s="69">
+      <c r="C41" s="68">
         <f>SUM(C30:H30)</f>
         <v>31006.28</v>
       </c>
-      <c r="D41" s="88">
+      <c r="D41" s="87">
         <f>SUM(C38:F38)</f>
         <v>5218.78</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
     </row>
     <row r="44" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="86">
+      <c r="B44" s="85">
         <f>SUM(B41:D41)</f>
         <v>45630.329999999994</v>
       </c>
-      <c r="C44" s="89">
+      <c r="C44" s="88">
         <f>B44/BF27</f>
         <v>3.4569453188389652</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:BF25">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FE8565-AB28-4960-9C39-BBAFFB9C1D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{A7FE8565-AB28-4960-9C39-BBAFFB9C1D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F7C5538-9AB5-479E-BCFE-B5C306D82CC6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2028" windowWidth="23040" windowHeight="9480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget 2025" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -526,14 +526,8 @@
       <name val="Goudy Old Style"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,18 +582,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -904,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -945,15 +927,9 @@
     <xf numFmtId="40" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -984,12 +960,6 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1137,12 +1107,6 @@
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1170,7 +1134,22 @@
     <xf numFmtId="2" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1517,10 +1496,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1906,7 +1885,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="14"/>
+      <c r="N3" s="83"/>
       <c r="O3" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1919,11 +1898,11 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="15"/>
+      <c r="X3" s="14"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="16"/>
+      <c r="AB3" s="84"/>
       <c r="AC3" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1939,7 +1918,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
-      <c r="AP3" s="14"/>
+      <c r="AP3" s="83"/>
       <c r="AQ3" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1956,7 +1935,7 @@
       <c r="BA3" s="6"/>
       <c r="BB3" s="6"/>
       <c r="BC3" s="6"/>
-      <c r="BD3" s="16"/>
+      <c r="BD3" s="84"/>
       <c r="BE3" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -1995,7 +1974,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="17"/>
+      <c r="X4" s="15"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -2072,7 +2051,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="17"/>
+      <c r="X5" s="15"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -2149,7 +2128,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="17"/>
+      <c r="X6" s="15"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -2226,7 +2205,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="17"/>
+      <c r="X7" s="15"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -2296,7 +2275,7 @@
       <c r="M8" s="6">
         <v>25</v>
       </c>
-      <c r="N8" s="18"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="8">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -2319,7 +2298,7 @@
       <c r="AA8" s="6">
         <v>25</v>
       </c>
-      <c r="AB8" s="18"/>
+      <c r="AB8" s="16"/>
       <c r="AC8" s="8">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -2342,7 +2321,7 @@
       <c r="AO8" s="6">
         <v>25</v>
       </c>
-      <c r="AP8" s="18"/>
+      <c r="AP8" s="16"/>
       <c r="AQ8" s="8">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -2365,7 +2344,7 @@
       <c r="BC8" s="6">
         <v>25</v>
       </c>
-      <c r="BD8" s="18"/>
+      <c r="BD8" s="16"/>
       <c r="BE8" s="8">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -2474,7 +2453,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:58" s="19" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" s="17" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -2603,69 +2582,69 @@
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="6"/>
       <c r="O11" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
       <c r="AP11" s="6"/>
       <c r="AQ11" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="19"/>
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="19"/>
       <c r="BD11" s="6"/>
       <c r="BE11" s="8">
         <f t="shared" si="7"/>
@@ -2677,1136 +2656,1128 @@
       </c>
     </row>
     <row r="12" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="5">
         <v>9.99</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>9.99</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21">
         <v>9.99</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24">
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22">
         <f t="shared" si="4"/>
         <v>29.97</v>
       </c>
       <c r="P12" s="5">
         <v>9.99</v>
       </c>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23">
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21">
         <v>9.99</v>
       </c>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23">
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21">
         <v>9.99</v>
       </c>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="24">
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="22">
         <f t="shared" si="5"/>
         <v>29.97</v>
       </c>
       <c r="AD12" s="5">
         <v>9.99</v>
       </c>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23">
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21">
         <v>9.99</v>
       </c>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="23">
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21">
         <v>9.99</v>
       </c>
-      <c r="AO12" s="23"/>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="24">
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="22">
         <f t="shared" si="6"/>
         <v>29.97</v>
       </c>
       <c r="AR12" s="5">
         <v>9.99</v>
       </c>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="23">
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21">
         <v>9.99</v>
       </c>
-      <c r="AW12" s="23"/>
-      <c r="AX12" s="23"/>
-      <c r="AY12" s="23"/>
-      <c r="AZ12" s="23"/>
-      <c r="BA12" s="23"/>
-      <c r="BB12" s="23">
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21">
         <v>9.99</v>
       </c>
-      <c r="BC12" s="23"/>
-      <c r="BD12" s="23"/>
-      <c r="BE12" s="24">
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21"/>
+      <c r="BE12" s="22">
         <f t="shared" si="7"/>
         <v>29.97</v>
       </c>
-      <c r="BF12" s="24">
+      <c r="BF12" s="22">
         <f t="shared" si="8"/>
         <v>119.88</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21">
         <v>60</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21">
         <v>60</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23">
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21">
         <v>60</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="22">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="P13" s="5"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23">
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21">
         <v>60</v>
       </c>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23">
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21">
         <v>60</v>
       </c>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23">
+      <c r="X13" s="23"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21">
         <v>60</v>
       </c>
-      <c r="AC13" s="24">
+      <c r="AC13" s="22">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23">
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21">
         <v>60</v>
       </c>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="89">
-        <v>915</v>
-      </c>
-      <c r="AL13" s="23">
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="21">
         <v>60</v>
       </c>
       <c r="AM13" s="5"/>
-      <c r="AN13" s="23"/>
-      <c r="AO13" s="23"/>
-      <c r="AP13" s="29">
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="25">
         <v>60</v>
       </c>
-      <c r="AQ13" s="24">
+      <c r="AQ13" s="22">
         <f t="shared" si="6"/>
-        <v>1095</v>
+        <v>180</v>
       </c>
       <c r="AR13" s="5"/>
-      <c r="AS13" s="26"/>
-      <c r="AT13" s="26"/>
-      <c r="AU13" s="23">
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="21">
         <v>60</v>
       </c>
-      <c r="AV13" s="23"/>
-      <c r="AW13" s="23"/>
-      <c r="AX13" s="23"/>
-      <c r="AY13" s="23"/>
-      <c r="AZ13" s="23">
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21">
         <v>60</v>
       </c>
-      <c r="BA13" s="23"/>
-      <c r="BB13" s="23"/>
-      <c r="BC13" s="23"/>
-      <c r="BD13" s="23"/>
-      <c r="BE13" s="24">
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
+      <c r="BE13" s="22">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="BF13" s="24">
+      <c r="BF13" s="22">
         <f t="shared" si="8"/>
-        <v>1575</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P14" s="5"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="24">
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="27">
-        <v>28.98</v>
-      </c>
-      <c r="AG14" s="28">
-        <v>122.47</v>
-      </c>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AL14" s="28">
-        <v>434.06</v>
-      </c>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AL14" s="86"/>
       <c r="AM14" s="5"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="23"/>
-      <c r="AP14" s="23"/>
-      <c r="AQ14" s="24">
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>585.51</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="5"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="23"/>
-      <c r="BB14" s="23"/>
-      <c r="BC14" s="23"/>
-      <c r="BD14" s="23"/>
-      <c r="BE14" s="24">
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BF14" s="24">
+      <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>585.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21">
         <v>1200</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21">
         <v>1200</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21">
         <v>1200</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="22">
         <f t="shared" si="4"/>
         <v>3600</v>
       </c>
       <c r="P15" s="5"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23">
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21">
         <v>1200</v>
       </c>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23">
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21">
         <v>1200</v>
       </c>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23">
+      <c r="X15" s="23"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21">
         <v>1200</v>
       </c>
-      <c r="AC15" s="24">
+      <c r="AC15" s="22">
         <f t="shared" si="5"/>
         <v>3600</v>
       </c>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23">
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21">
         <v>1200</v>
       </c>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23">
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21">
         <v>1200</v>
       </c>
       <c r="AM15" s="5"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="23"/>
-      <c r="AP15" s="23">
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21">
         <v>1200</v>
       </c>
-      <c r="AQ15" s="24">
+      <c r="AQ15" s="22">
         <f t="shared" si="6"/>
         <v>3600</v>
       </c>
       <c r="AR15" s="5"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="23">
+      <c r="AS15" s="24"/>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="21">
         <v>1200</v>
       </c>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="23"/>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="23">
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="21">
         <v>1200</v>
       </c>
-      <c r="BA15" s="23"/>
-      <c r="BB15" s="23"/>
-      <c r="BC15" s="23"/>
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21"/>
+      <c r="BC15" s="21"/>
       <c r="BD15" s="5"/>
-      <c r="BE15" s="24">
+      <c r="BE15" s="22">
         <f t="shared" si="7"/>
         <v>2400</v>
       </c>
-      <c r="BF15" s="24">
+      <c r="BF15" s="22">
         <f t="shared" si="8"/>
         <v>13200</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="5"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="24">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
       <c r="AM16" s="5"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="24">
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR16" s="5"/>
-      <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="23"/>
-      <c r="BC16" s="23"/>
+      <c r="AS16" s="24"/>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="21"/>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="21"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="21"/>
+      <c r="AZ16" s="21"/>
+      <c r="BA16" s="21"/>
+      <c r="BB16" s="21"/>
+      <c r="BC16" s="21"/>
       <c r="BD16" s="5"/>
-      <c r="BE16" s="24">
+      <c r="BE16" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BF16" s="24">
+      <c r="BF16" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:61" s="19" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:61" s="17" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21">
         <v>50</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21">
         <v>50</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23">
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21">
         <v>50</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="22">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="P17" s="5"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="23">
+      <c r="Q17" s="21"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="21">
         <v>50</v>
       </c>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23">
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21">
         <v>50</v>
       </c>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23">
+      <c r="X17" s="23"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21">
         <v>50</v>
       </c>
-      <c r="AC17" s="24">
+      <c r="AC17" s="22">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23">
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21">
         <v>50</v>
       </c>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AL17" s="23">
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21">
         <v>50</v>
       </c>
       <c r="AM17" s="5"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="23"/>
-      <c r="AP17" s="23">
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21">
         <v>50</v>
       </c>
-      <c r="AQ17" s="24">
+      <c r="AQ17" s="22">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="AR17" s="5"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="23"/>
-      <c r="AU17" s="23">
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="21">
         <v>50</v>
       </c>
-      <c r="AV17" s="23"/>
-      <c r="AW17" s="23"/>
-      <c r="AX17" s="23"/>
-      <c r="AY17" s="23"/>
-      <c r="AZ17" s="23">
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21">
         <v>50</v>
       </c>
-      <c r="BA17" s="23"/>
-      <c r="BB17" s="23"/>
-      <c r="BC17" s="23"/>
-      <c r="BD17" s="23"/>
-      <c r="BE17" s="24">
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="22">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="BF17" s="24">
+      <c r="BF17" s="22">
         <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="1:61" s="19" customFormat="1" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:61" s="17" customFormat="1" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="28">
         <f t="shared" ref="B18:AG18" si="9">SUM(B2:B17)</f>
         <v>9.99</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="29">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="29">
         <f t="shared" si="9"/>
         <v>1395</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="29">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="29">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="29">
         <f t="shared" si="9"/>
         <v>1395</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="29">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="29">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="29">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="29">
         <f t="shared" si="9"/>
         <v>1360</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="30">
         <f t="shared" si="9"/>
         <v>4244.97</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="29">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="29">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S18" s="33">
+      <c r="S18" s="29">
         <f t="shared" si="9"/>
         <v>1395</v>
       </c>
-      <c r="T18" s="33">
+      <c r="T18" s="29">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="U18" s="33">
+      <c r="U18" s="29">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="V18" s="33">
+      <c r="V18" s="29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W18" s="33">
+      <c r="W18" s="29">
         <f t="shared" si="9"/>
         <v>1395</v>
       </c>
-      <c r="X18" s="33">
+      <c r="X18" s="29">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="33">
+      <c r="Y18" s="29">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="Z18" s="33">
+      <c r="Z18" s="29">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="AA18" s="33">
+      <c r="AA18" s="29">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="AB18" s="35">
+      <c r="AB18" s="31">
         <f t="shared" si="9"/>
         <v>1360</v>
       </c>
-      <c r="AC18" s="34">
+      <c r="AC18" s="30">
         <f t="shared" si="9"/>
         <v>4244.97</v>
       </c>
-      <c r="AD18" s="33">
+      <c r="AD18" s="29">
         <f t="shared" si="9"/>
         <v>9.99</v>
       </c>
-      <c r="AE18" s="33">
+      <c r="AE18" s="29">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="AF18" s="33">
+      <c r="AF18" s="29">
         <f t="shared" si="9"/>
-        <v>28.98</v>
-      </c>
-      <c r="AG18" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="29">
         <f t="shared" si="9"/>
-        <v>1517.47</v>
-      </c>
-      <c r="AH18" s="33">
+        <v>1395</v>
+      </c>
+      <c r="AH18" s="29">
         <f t="shared" ref="AH18:BF18" si="10">SUM(AH2:AH17)</f>
         <v>9.99</v>
       </c>
-      <c r="AI18" s="33">
+      <c r="AI18" s="29">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AJ18" s="33">
+      <c r="AJ18" s="29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="33">
+      <c r="AK18" s="29">
         <f t="shared" si="10"/>
-        <v>950</v>
-      </c>
-      <c r="AL18" s="33">
+        <v>35</v>
+      </c>
+      <c r="AL18" s="29">
         <f t="shared" si="10"/>
-        <v>1794.06</v>
-      </c>
-      <c r="AM18" s="33">
+        <v>1360</v>
+      </c>
+      <c r="AM18" s="29">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AN18" s="33">
+      <c r="AN18" s="29">
         <f t="shared" si="10"/>
         <v>9.99</v>
       </c>
-      <c r="AO18" s="33">
+      <c r="AO18" s="29">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="AP18" s="35">
+      <c r="AP18" s="31">
         <f t="shared" si="10"/>
         <v>1360</v>
       </c>
-      <c r="AQ18" s="34">
+      <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>5745.48</v>
-      </c>
-      <c r="AR18" s="33">
+        <v>4244.97</v>
+      </c>
+      <c r="AR18" s="29">
         <f t="shared" si="10"/>
         <v>9.99</v>
       </c>
-      <c r="AS18" s="33">
+      <c r="AS18" s="29">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AT18" s="33">
+      <c r="AT18" s="29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AU18" s="33">
+      <c r="AU18" s="29">
         <f t="shared" si="10"/>
         <v>1395</v>
       </c>
-      <c r="AV18" s="33">
+      <c r="AV18" s="29">
         <f t="shared" si="10"/>
         <v>9.99</v>
       </c>
-      <c r="AW18" s="33">
+      <c r="AW18" s="29">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AX18" s="33">
+      <c r="AX18" s="29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AY18" s="33">
+      <c r="AY18" s="29">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="AZ18" s="33">
+      <c r="AZ18" s="29">
         <f t="shared" si="10"/>
         <v>1360</v>
       </c>
-      <c r="BA18" s="33">
+      <c r="BA18" s="29">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="BB18" s="33">
+      <c r="BB18" s="29">
         <f t="shared" si="10"/>
         <v>9.99</v>
       </c>
-      <c r="BC18" s="33">
+      <c r="BC18" s="29">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="BD18" s="35">
+      <c r="BD18" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BE18" s="34">
+      <c r="BE18" s="30">
         <f t="shared" si="10"/>
         <v>2884.9700000000003</v>
       </c>
-      <c r="BF18" s="34">
+      <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>17120.39</v>
-      </c>
-      <c r="BH18" s="61"/>
-      <c r="BI18" s="61"/>
+        <v>15619.880000000001</v>
+      </c>
+      <c r="BH18" s="57"/>
+      <c r="BI18" s="57"/>
     </row>
     <row r="19" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36">
         <f t="shared" ref="O19:O25" si="11">SUM(B19:N19)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="40">
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="36">
         <f t="shared" ref="AC19:AC25" si="12">SUM(P19:AB19)</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="40">
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="35"/>
+      <c r="AQ19" s="36">
         <f t="shared" ref="AQ19:AQ25" si="13">SUM(AD19:AP19)</f>
         <v>0</v>
       </c>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="38"/>
-      <c r="AX19" s="38"/>
-      <c r="AY19" s="38"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="38"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="39"/>
-      <c r="BE19" s="40">
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="34"/>
+      <c r="AX19" s="34"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="34"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="34"/>
+      <c r="BD19" s="35"/>
+      <c r="BE19" s="36">
         <f t="shared" ref="BE19:BE25" si="14">SUM(AR19:BD19)</f>
         <v>0</v>
       </c>
-      <c r="BF19" s="40">
+      <c r="BF19" s="36">
         <f t="shared" ref="BF19:BF25" si="15">O19+AC19+AQ19+BE19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="41">
-        <v>95</v>
-      </c>
-      <c r="C20" s="43">
-        <v>95</v>
-      </c>
-      <c r="D20" s="43">
-        <v>95</v>
-      </c>
-      <c r="E20" s="43">
-        <v>95</v>
-      </c>
-      <c r="F20" s="43">
-        <v>95</v>
-      </c>
-      <c r="G20" s="43">
-        <v>95</v>
-      </c>
-      <c r="H20" s="43">
-        <v>95</v>
-      </c>
-      <c r="I20" s="43">
-        <v>95</v>
-      </c>
-      <c r="J20" s="43">
-        <v>95</v>
-      </c>
-      <c r="K20" s="43">
-        <v>95</v>
-      </c>
-      <c r="L20" s="43">
-        <v>95</v>
-      </c>
-      <c r="M20" s="43">
-        <v>95</v>
-      </c>
-      <c r="N20" s="44">
-        <v>95</v>
-      </c>
-      <c r="O20" s="40">
+      <c r="B20" s="37">
+        <v>95</v>
+      </c>
+      <c r="C20" s="39">
+        <v>95</v>
+      </c>
+      <c r="D20" s="39">
+        <v>95</v>
+      </c>
+      <c r="E20" s="39">
+        <v>95</v>
+      </c>
+      <c r="F20" s="39">
+        <v>95</v>
+      </c>
+      <c r="G20" s="39">
+        <v>95</v>
+      </c>
+      <c r="H20" s="39">
+        <v>95</v>
+      </c>
+      <c r="I20" s="39">
+        <v>95</v>
+      </c>
+      <c r="J20" s="39">
+        <v>95</v>
+      </c>
+      <c r="K20" s="39">
+        <v>95</v>
+      </c>
+      <c r="L20" s="39">
+        <v>95</v>
+      </c>
+      <c r="M20" s="39">
+        <v>95</v>
+      </c>
+      <c r="N20" s="40">
+        <v>95</v>
+      </c>
+      <c r="O20" s="36">
         <f t="shared" si="11"/>
         <v>1235</v>
       </c>
-      <c r="P20" s="41">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="43">
-        <v>95</v>
-      </c>
-      <c r="R20" s="43">
-        <v>95</v>
-      </c>
-      <c r="S20" s="43">
-        <v>95</v>
-      </c>
-      <c r="T20" s="43">
-        <v>95</v>
-      </c>
-      <c r="U20" s="43">
-        <v>95</v>
-      </c>
-      <c r="V20" s="43">
-        <v>95</v>
-      </c>
-      <c r="W20" s="43">
-        <v>95</v>
-      </c>
-      <c r="X20" s="43">
-        <v>95</v>
-      </c>
-      <c r="Y20" s="43">
-        <v>95</v>
-      </c>
-      <c r="Z20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AA20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AB20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AC20" s="40">
+      <c r="P20" s="37">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>95</v>
+      </c>
+      <c r="R20" s="39">
+        <v>95</v>
+      </c>
+      <c r="S20" s="39">
+        <v>95</v>
+      </c>
+      <c r="T20" s="39">
+        <v>95</v>
+      </c>
+      <c r="U20" s="39">
+        <v>95</v>
+      </c>
+      <c r="V20" s="39">
+        <v>95</v>
+      </c>
+      <c r="W20" s="39">
+        <v>95</v>
+      </c>
+      <c r="X20" s="39">
+        <v>95</v>
+      </c>
+      <c r="Y20" s="39">
+        <v>95</v>
+      </c>
+      <c r="Z20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AA20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AB20" s="40">
+        <v>95</v>
+      </c>
+      <c r="AC20" s="36">
         <f t="shared" si="12"/>
         <v>1235</v>
       </c>
-      <c r="AD20" s="41">
-        <v>95</v>
-      </c>
-      <c r="AE20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AF20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AG20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AH20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AI20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AJ20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AK20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AL20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AM20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AN20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AO20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AP20" s="44">
-        <v>95</v>
-      </c>
-      <c r="AQ20" s="40">
+      <c r="AD20" s="37">
+        <v>95</v>
+      </c>
+      <c r="AE20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AF20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AG20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AH20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AI20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AJ20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AK20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AL20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AM20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AN20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AO20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AP20" s="40">
+        <v>95</v>
+      </c>
+      <c r="AQ20" s="36">
         <f t="shared" si="13"/>
         <v>1235</v>
       </c>
-      <c r="AR20" s="45">
-        <v>95</v>
-      </c>
-      <c r="AS20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AT20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AU20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AV20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AW20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AX20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AY20" s="43">
-        <v>95</v>
-      </c>
-      <c r="AZ20" s="43">
-        <v>95</v>
-      </c>
-      <c r="BA20" s="43">
-        <v>95</v>
-      </c>
-      <c r="BB20" s="43">
-        <v>95</v>
-      </c>
-      <c r="BC20" s="43">
-        <v>95</v>
-      </c>
-      <c r="BD20" s="44">
-        <v>95</v>
-      </c>
-      <c r="BE20" s="40">
+      <c r="AR20" s="41">
+        <v>95</v>
+      </c>
+      <c r="AS20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AT20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AU20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AV20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AW20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AX20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AY20" s="39">
+        <v>95</v>
+      </c>
+      <c r="AZ20" s="39">
+        <v>95</v>
+      </c>
+      <c r="BA20" s="39">
+        <v>95</v>
+      </c>
+      <c r="BB20" s="39">
+        <v>95</v>
+      </c>
+      <c r="BC20" s="39">
+        <v>95</v>
+      </c>
+      <c r="BD20" s="40">
+        <v>95</v>
+      </c>
+      <c r="BE20" s="36">
         <f t="shared" si="14"/>
         <v>1235</v>
       </c>
-      <c r="BF20" s="40">
+      <c r="BF20" s="36">
         <f t="shared" si="15"/>
         <v>4940</v>
       </c>
-      <c r="BG20" s="46"/>
+      <c r="BG20" s="42"/>
     </row>
     <row r="21" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="40">
+      <c r="B21" s="37"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="36">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="40">
+      <c r="P21" s="37"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="36">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="43"/>
-      <c r="AI21" s="43"/>
-      <c r="AJ21" s="43"/>
-      <c r="AK21" s="43"/>
-      <c r="AL21" s="43"/>
-      <c r="AM21" s="43"/>
-      <c r="AN21" s="43"/>
-      <c r="AO21" s="43"/>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="40">
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="36">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="43"/>
-      <c r="AT21" s="43"/>
-      <c r="AU21" s="43"/>
-      <c r="AV21" s="43"/>
-      <c r="AW21" s="43"/>
-      <c r="AX21" s="43"/>
-      <c r="AY21" s="43"/>
-      <c r="AZ21" s="43"/>
-      <c r="BA21" s="43"/>
-      <c r="BB21" s="43"/>
-      <c r="BC21" s="43"/>
-      <c r="BD21" s="44"/>
-      <c r="BE21" s="40">
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="40"/>
+      <c r="BE21" s="36">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BF21" s="40">
+      <c r="BF21" s="36">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BH21" s="62"/>
-      <c r="BI21" s="62"/>
+      <c r="BH21" s="58"/>
+      <c r="BI21" s="58"/>
     </row>
     <row r="22" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -3825,7 +3796,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="40">
+      <c r="O22" s="36">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3842,7 +3813,7 @@
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
-      <c r="AC22" s="40">
+      <c r="AC22" s="36">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -3859,7 +3830,7 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-      <c r="AQ22" s="40">
+      <c r="AQ22" s="36">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -3876,17 +3847,17 @@
       <c r="BB22" s="9"/>
       <c r="BC22" s="9"/>
       <c r="BD22" s="9"/>
-      <c r="BE22" s="40">
+      <c r="BE22" s="36">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BF22" s="40">
+      <c r="BF22" s="36">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="9">
@@ -3900,7 +3871,7 @@
       <c r="F23" s="9">
         <v>896</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="9">
         <v>896</v>
       </c>
@@ -3912,11 +3883,11 @@
       <c r="L23" s="9">
         <v>896</v>
       </c>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49">
+      <c r="M23" s="45"/>
+      <c r="N23" s="45">
         <v>896</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="36">
         <f t="shared" si="11"/>
         <v>6272</v>
       </c>
@@ -3931,7 +3902,7 @@
       <c r="T23" s="9">
         <v>896</v>
       </c>
-      <c r="U23" s="49"/>
+      <c r="U23" s="45"/>
       <c r="V23" s="9">
         <v>896</v>
       </c>
@@ -3943,15 +3914,15 @@
       <c r="Z23" s="9">
         <v>896</v>
       </c>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49">
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45">
         <v>896</v>
       </c>
-      <c r="AC23" s="40">
+      <c r="AC23" s="36">
         <f t="shared" si="12"/>
         <v>6272</v>
       </c>
-      <c r="AD23" s="50">
+      <c r="AD23" s="46">
         <v>896</v>
       </c>
       <c r="AE23" s="9"/>
@@ -3974,10 +3945,10 @@
       <c r="AN23" s="9">
         <v>896</v>
       </c>
-      <c r="AP23" s="49">
+      <c r="AP23" s="45">
         <v>896</v>
       </c>
-      <c r="AQ23" s="40">
+      <c r="AQ23" s="36">
         <f t="shared" si="13"/>
         <v>6272</v>
       </c>
@@ -3992,7 +3963,7 @@
       <c r="AV23" s="9">
         <v>896</v>
       </c>
-      <c r="AW23" s="49"/>
+      <c r="AW23" s="45"/>
       <c r="AX23" s="9">
         <v>896</v>
       </c>
@@ -4004,24 +3975,24 @@
       <c r="BB23" s="9">
         <v>896</v>
       </c>
-      <c r="BC23" s="49"/>
-      <c r="BD23" s="49">
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45">
         <v>896</v>
       </c>
-      <c r="BE23" s="40">
+      <c r="BE23" s="36">
         <f t="shared" si="14"/>
         <v>6272</v>
       </c>
-      <c r="BF23" s="40">
+      <c r="BF23" s="36">
         <f t="shared" si="15"/>
         <v>25088</v>
       </c>
-      <c r="BG23" s="86" t="s">
+      <c r="BG23" s="80" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="9"/>
@@ -4040,10 +4011,10 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="49">
+      <c r="N24" s="45">
         <v>292</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="36">
         <f t="shared" si="11"/>
         <v>876</v>
       </c>
@@ -4063,14 +4034,14 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
-      <c r="AB24" s="49">
+      <c r="AB24" s="45">
         <v>292</v>
       </c>
-      <c r="AC24" s="40">
+      <c r="AC24" s="36">
         <f t="shared" si="12"/>
         <v>876</v>
       </c>
-      <c r="AD24" s="50"/>
+      <c r="AD24" s="46"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
@@ -4086,12 +4057,12 @@
       </c>
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="40">
+      <c r="AP24" s="45"/>
+      <c r="AQ24" s="36">
         <f t="shared" si="13"/>
         <v>584</v>
       </c>
-      <c r="AR24" s="50">
+      <c r="AR24" s="46">
         <v>292</v>
       </c>
       <c r="AS24" s="9"/>
@@ -4109,14 +4080,14 @@
       </c>
       <c r="BB24" s="9"/>
       <c r="BC24" s="9"/>
-      <c r="BD24" s="49">
+      <c r="BD24" s="45">
         <v>292</v>
       </c>
-      <c r="BE24" s="40">
+      <c r="BE24" s="36">
         <f t="shared" si="14"/>
         <v>1168</v>
       </c>
-      <c r="BF24" s="40">
+      <c r="BF24" s="36">
         <f t="shared" si="15"/>
         <v>3504</v>
       </c>
@@ -4125,7 +4096,7 @@
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -4137,12 +4108,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="40">
+      <c r="N25" s="45"/>
+      <c r="O25" s="36">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P25" s="50"/>
+      <c r="P25" s="46"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
@@ -4154,12 +4125,12 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="40">
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="36">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="50"/>
+      <c r="AD25" s="46"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9">
@@ -4173,12 +4144,12 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="40">
+      <c r="AP25" s="45"/>
+      <c r="AQ25" s="36">
         <f t="shared" si="13"/>
         <v>292</v>
       </c>
-      <c r="AR25" s="50"/>
+      <c r="AR25" s="46"/>
       <c r="AS25" s="9"/>
       <c r="AT25" s="9"/>
       <c r="AU25" s="9"/>
@@ -4190,781 +4161,781 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
       <c r="BC25" s="9"/>
-      <c r="BD25" s="49"/>
-      <c r="BE25" s="40">
+      <c r="BD25" s="45"/>
+      <c r="BE25" s="36">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BF25" s="40">
+      <c r="BF25" s="36">
         <f t="shared" si="15"/>
         <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="47">
         <f>SUM(B19:B23)+B25</f>
         <v>991</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="47">
         <f>SUM(C19:C23)+C25+B27</f>
         <v>1076.01</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="47">
         <f t="shared" ref="D26:N26" si="16">SUM(D19:D23)+D25+C27</f>
         <v>2057.0100000000002</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="47">
         <f t="shared" si="16"/>
         <v>2152.0100000000002</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="47">
         <f t="shared" si="16"/>
         <v>1748.0100000000002</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="47">
         <f t="shared" si="16"/>
         <v>1833.0200000000002</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="47">
         <f t="shared" si="16"/>
         <v>2814.0200000000004</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="47">
         <f t="shared" si="16"/>
         <v>2909.0200000000004</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="47">
         <f t="shared" si="16"/>
         <v>2505.0200000000004</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="47">
         <f t="shared" si="16"/>
         <v>2600.0200000000004</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="47">
         <f t="shared" si="16"/>
         <v>3581.0200000000004</v>
       </c>
-      <c r="M26" s="51">
+      <c r="M26" s="47">
         <f t="shared" si="16"/>
         <v>3666.0300000000007</v>
       </c>
-      <c r="N26" s="52">
+      <c r="N26" s="48">
         <f t="shared" si="16"/>
         <v>4622.0300000000007</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="30">
         <f>SUM(O19:O23)+O25</f>
         <v>7507</v>
       </c>
-      <c r="P26" s="51">
+      <c r="P26" s="47">
         <f t="shared" ref="P26:AB26" si="17">SUM(P19:P23)+P25+O27</f>
         <v>4253.03</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="47">
         <f t="shared" si="17"/>
         <v>4338.04</v>
       </c>
-      <c r="R26" s="51">
+      <c r="R26" s="47">
         <f t="shared" si="17"/>
         <v>5319.04</v>
       </c>
-      <c r="S26" s="51">
+      <c r="S26" s="47">
         <f t="shared" si="17"/>
         <v>5414.04</v>
       </c>
-      <c r="T26" s="51">
+      <c r="T26" s="47">
         <f t="shared" si="17"/>
         <v>5010.04</v>
       </c>
-      <c r="U26" s="51">
+      <c r="U26" s="47">
         <f t="shared" si="17"/>
         <v>5095.05</v>
       </c>
-      <c r="V26" s="51">
+      <c r="V26" s="47">
         <f t="shared" si="17"/>
         <v>6076.05</v>
       </c>
-      <c r="W26" s="51">
+      <c r="W26" s="47">
         <f t="shared" si="17"/>
         <v>6171.05</v>
       </c>
-      <c r="X26" s="51">
+      <c r="X26" s="47">
         <f t="shared" si="17"/>
         <v>5767.05</v>
       </c>
-      <c r="Y26" s="51">
+      <c r="Y26" s="47">
         <f t="shared" si="17"/>
         <v>5862.05</v>
       </c>
-      <c r="Z26" s="51">
+      <c r="Z26" s="47">
         <f t="shared" si="17"/>
         <v>6843.05</v>
       </c>
-      <c r="AA26" s="51">
+      <c r="AA26" s="47">
         <f t="shared" si="17"/>
         <v>6928.06</v>
       </c>
-      <c r="AB26" s="52">
+      <c r="AB26" s="48">
         <f t="shared" si="17"/>
         <v>7884.06</v>
       </c>
-      <c r="AC26" s="34">
+      <c r="AC26" s="30">
         <f>SUM(AC19:AC23)+AC25</f>
         <v>7507</v>
       </c>
-      <c r="AD26" s="51">
+      <c r="AD26" s="47">
         <f t="shared" ref="AD26:AP26" si="18">SUM(AD19:AD23)+AD25+AC27</f>
         <v>4253.03</v>
       </c>
-      <c r="AE26" s="51">
+      <c r="AE26" s="47">
         <f t="shared" si="18"/>
         <v>4338.04</v>
       </c>
-      <c r="AF26" s="51">
+      <c r="AF26" s="47">
         <f t="shared" si="18"/>
         <v>5319.04</v>
       </c>
-      <c r="AG26" s="51">
+      <c r="AG26" s="47">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
-        <v>5677.06</v>
-      </c>
-      <c r="AH26" s="51">
+        <v>5706.04</v>
+      </c>
+      <c r="AH26" s="47">
         <f>SUM(AH19:AH23)+AH25+AG27</f>
-        <v>5150.59</v>
-      </c>
-      <c r="AI26" s="51">
+        <v>5302.04</v>
+      </c>
+      <c r="AI26" s="47">
         <f t="shared" si="18"/>
-        <v>5235.6000000000004</v>
-      </c>
-      <c r="AJ26" s="51">
+        <v>5387.05</v>
+      </c>
+      <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>6216.6</v>
-      </c>
-      <c r="AK26" s="51">
+        <v>6368.05</v>
+      </c>
+      <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>6311.6</v>
-      </c>
-      <c r="AL26" s="51">
+        <v>6463.05</v>
+      </c>
+      <c r="AL26" s="47">
         <f t="shared" si="18"/>
-        <v>6352.6</v>
-      </c>
-      <c r="AM26" s="51">
+        <v>7419.05</v>
+      </c>
+      <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>4653.5400000000009</v>
-      </c>
-      <c r="AN26" s="51">
+        <v>6154.05</v>
+      </c>
+      <c r="AN26" s="47">
         <f t="shared" si="18"/>
-        <v>5634.5400000000009</v>
-      </c>
-      <c r="AO26" s="51">
+        <v>7135.05</v>
+      </c>
+      <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>5719.5500000000011</v>
-      </c>
-      <c r="AP26" s="52">
+        <v>7220.06</v>
+      </c>
+      <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>6675.5500000000011</v>
-      </c>
-      <c r="AQ26" s="34">
+        <v>8176.06</v>
+      </c>
+      <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
         <v>7799</v>
       </c>
-      <c r="AR26" s="51">
+      <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>3044.5200000000004</v>
-      </c>
-      <c r="AS26" s="51">
+        <v>4545.03</v>
+      </c>
+      <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>3129.5300000000007</v>
-      </c>
-      <c r="AT26" s="51">
+        <v>4630.04</v>
+      </c>
+      <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>4110.5300000000007</v>
-      </c>
-      <c r="AU26" s="51">
+        <v>5611.04</v>
+      </c>
+      <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>4205.5300000000007</v>
-      </c>
-      <c r="AV26" s="51">
+        <v>5706.04</v>
+      </c>
+      <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>3801.5300000000007</v>
-      </c>
-      <c r="AW26" s="51">
+        <v>5302.04</v>
+      </c>
+      <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>3886.5400000000009</v>
-      </c>
-      <c r="AX26" s="51">
+        <v>5387.05</v>
+      </c>
+      <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>4867.5400000000009</v>
-      </c>
-      <c r="AY26" s="51">
+        <v>6368.05</v>
+      </c>
+      <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>4962.5400000000009</v>
-      </c>
-      <c r="AZ26" s="51">
+        <v>6463.05</v>
+      </c>
+      <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>5918.5400000000009</v>
-      </c>
-      <c r="BA26" s="51">
+        <v>7419.05</v>
+      </c>
+      <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>4653.5400000000009</v>
-      </c>
-      <c r="BB26" s="51">
+        <v>6154.05</v>
+      </c>
+      <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>5634.5400000000009</v>
-      </c>
-      <c r="BC26" s="51">
+        <v>7135.05</v>
+      </c>
+      <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>5719.5500000000011</v>
-      </c>
-      <c r="BD26" s="52">
+        <v>7220.06</v>
+      </c>
+      <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>6675.5500000000011</v>
-      </c>
-      <c r="BE26" s="34">
+        <v>8176.06</v>
+      </c>
+      <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
         <v>7507</v>
       </c>
-      <c r="BF26" s="34">
+      <c r="BF26" s="30">
         <f>SUM(BF19:BF23)+BF25</f>
         <v>30320</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50">
         <f t="shared" ref="B27:AG27" si="20">B26-B18</f>
         <v>981.01</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="50">
         <f t="shared" si="20"/>
         <v>1066.01</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="50">
         <f t="shared" si="20"/>
         <v>2057.0100000000002</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="51">
         <f t="shared" si="20"/>
         <v>757.01000000000022</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="50">
         <f t="shared" si="20"/>
         <v>1738.0200000000002</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="50">
         <f t="shared" si="20"/>
         <v>1823.0200000000002</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="50">
         <f t="shared" si="20"/>
         <v>2814.0200000000004</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="51">
         <f t="shared" si="20"/>
         <v>1514.0200000000004</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="50">
         <f t="shared" si="20"/>
         <v>2505.0200000000004</v>
       </c>
-      <c r="K27" s="54">
+      <c r="K27" s="50">
         <f t="shared" si="20"/>
         <v>2590.0200000000004</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="50">
         <f t="shared" si="20"/>
         <v>3571.0300000000007</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="50">
         <f t="shared" si="20"/>
         <v>3631.0300000000007</v>
       </c>
-      <c r="N27" s="56">
+      <c r="N27" s="52">
         <f t="shared" si="20"/>
         <v>3262.0300000000007</v>
       </c>
-      <c r="O27" s="57">
+      <c r="O27" s="53">
         <f t="shared" si="20"/>
         <v>3262.0299999999997</v>
       </c>
-      <c r="P27" s="54">
+      <c r="P27" s="50">
         <f t="shared" si="20"/>
         <v>4243.04</v>
       </c>
-      <c r="Q27" s="54">
+      <c r="Q27" s="50">
         <f t="shared" si="20"/>
         <v>4328.04</v>
       </c>
-      <c r="R27" s="54">
+      <c r="R27" s="50">
         <f t="shared" si="20"/>
         <v>5319.04</v>
       </c>
-      <c r="S27" s="55">
+      <c r="S27" s="51">
         <f t="shared" si="20"/>
         <v>4019.04</v>
       </c>
-      <c r="T27" s="54">
+      <c r="T27" s="50">
         <f t="shared" si="20"/>
         <v>5000.05</v>
       </c>
-      <c r="U27" s="54">
+      <c r="U27" s="50">
         <f t="shared" si="20"/>
         <v>5085.05</v>
       </c>
-      <c r="V27" s="54">
+      <c r="V27" s="50">
         <f t="shared" si="20"/>
         <v>6076.05</v>
       </c>
-      <c r="W27" s="55">
+      <c r="W27" s="51">
         <f t="shared" si="20"/>
         <v>4776.05</v>
       </c>
-      <c r="X27" s="54">
+      <c r="X27" s="50">
         <f t="shared" si="20"/>
         <v>5767.05</v>
       </c>
-      <c r="Y27" s="54">
+      <c r="Y27" s="50">
         <f t="shared" si="20"/>
         <v>5852.05</v>
       </c>
-      <c r="Z27" s="54">
+      <c r="Z27" s="50">
         <f t="shared" si="20"/>
         <v>6833.06</v>
       </c>
-      <c r="AA27" s="54">
+      <c r="AA27" s="50">
         <f t="shared" si="20"/>
         <v>6893.06</v>
       </c>
-      <c r="AB27" s="56">
+      <c r="AB27" s="52">
         <f t="shared" si="20"/>
         <v>6524.06</v>
       </c>
-      <c r="AC27" s="57">
+      <c r="AC27" s="53">
         <f t="shared" si="20"/>
         <v>3262.0299999999997</v>
       </c>
-      <c r="AD27" s="54">
+      <c r="AD27" s="50">
         <f t="shared" si="20"/>
         <v>4243.04</v>
       </c>
-      <c r="AE27" s="54">
+      <c r="AE27" s="50">
         <f t="shared" si="20"/>
         <v>4328.04</v>
       </c>
-      <c r="AF27" s="54">
+      <c r="AF27" s="50">
         <f t="shared" si="20"/>
-        <v>5290.06</v>
-      </c>
-      <c r="AG27" s="55">
+        <v>5319.04</v>
+      </c>
+      <c r="AG27" s="51">
         <f t="shared" si="20"/>
-        <v>4159.59</v>
-      </c>
-      <c r="AH27" s="54">
+        <v>4311.04</v>
+      </c>
+      <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>5140.6000000000004</v>
-      </c>
-      <c r="AI27" s="54">
+        <v>5292.05</v>
+      </c>
+      <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>5225.6000000000004</v>
-      </c>
-      <c r="AJ27" s="54">
+        <v>5377.05</v>
+      </c>
+      <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>6216.6</v>
-      </c>
-      <c r="AK27" s="54">
+        <v>6368.05</v>
+      </c>
+      <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>5361.6</v>
-      </c>
-      <c r="AL27" s="55">
+        <v>6428.05</v>
+      </c>
+      <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>4558.5400000000009</v>
-      </c>
-      <c r="AM27" s="54">
+        <v>6059.05</v>
+      </c>
+      <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>4643.5400000000009</v>
-      </c>
-      <c r="AN27" s="54">
+        <v>6144.05</v>
+      </c>
+      <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>5624.5500000000011</v>
-      </c>
-      <c r="AO27" s="54">
+        <v>7125.06</v>
+      </c>
+      <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>5684.5500000000011</v>
-      </c>
-      <c r="AP27" s="58">
+        <v>7185.06</v>
+      </c>
+      <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>5315.5500000000011</v>
-      </c>
-      <c r="AQ27" s="57">
+        <v>6816.06</v>
+      </c>
+      <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>2053.5200000000004</v>
-      </c>
-      <c r="AR27" s="54">
+        <v>3554.0299999999997</v>
+      </c>
+      <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>3034.5300000000007</v>
-      </c>
-      <c r="AS27" s="54">
+        <v>4535.04</v>
+      </c>
+      <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>3119.5300000000007</v>
-      </c>
-      <c r="AT27" s="54">
+        <v>4620.04</v>
+      </c>
+      <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>4110.5300000000007</v>
-      </c>
-      <c r="AU27" s="55">
+        <v>5611.04</v>
+      </c>
+      <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>2810.5300000000007</v>
-      </c>
-      <c r="AV27" s="54">
+        <v>4311.04</v>
+      </c>
+      <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>3791.5400000000009</v>
-      </c>
-      <c r="AW27" s="54">
+        <v>5292.05</v>
+      </c>
+      <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>3876.5400000000009</v>
-      </c>
-      <c r="AX27" s="54">
+        <v>5377.05</v>
+      </c>
+      <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>4867.5400000000009</v>
-      </c>
-      <c r="AY27" s="54">
+        <v>6368.05</v>
+      </c>
+      <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>4927.5400000000009</v>
-      </c>
-      <c r="AZ27" s="55">
+        <v>6428.05</v>
+      </c>
+      <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>4558.5400000000009</v>
-      </c>
-      <c r="BA27" s="54">
+        <v>6059.05</v>
+      </c>
+      <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>4643.5400000000009</v>
-      </c>
-      <c r="BB27" s="54">
+        <v>6144.05</v>
+      </c>
+      <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>5624.5500000000011</v>
-      </c>
-      <c r="BC27" s="54">
+        <v>7125.06</v>
+      </c>
+      <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>5684.5500000000011</v>
-      </c>
-      <c r="BD27" s="56">
+        <v>7185.06</v>
+      </c>
+      <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>6675.5500000000011</v>
-      </c>
-      <c r="BE27" s="59">
+        <v>8176.06</v>
+      </c>
+      <c r="BE27" s="55">
         <f t="shared" si="21"/>
         <v>4622.03</v>
       </c>
-      <c r="BF27" s="60">
+      <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>13199.61</v>
+        <v>14700.119999999999</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="66"/>
-      <c r="BF29" s="46"/>
+      <c r="J29" s="62"/>
+      <c r="BF29" s="42"/>
     </row>
     <row r="30" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="68">
+      <c r="A30" s="42"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64">
         <v>111336</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="65">
         <v>9675.81</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="66">
         <v>-105776</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="67">
         <f>C30+E30</f>
         <v>5560</v>
       </c>
-      <c r="G30" s="68">
+      <c r="G30" s="64">
         <v>8560</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="64">
         <v>1650.47</v>
       </c>
-      <c r="Q30" s="72" t="s">
+      <c r="Q30" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="T30" s="72" t="s">
+      <c r="T30" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="AH30" s="72" t="s">
+      <c r="AH30" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="BF30" s="73"/>
+      <c r="BF30" s="69"/>
     </row>
     <row r="31" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="67"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="5"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="BF31" s="74"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="BF31" s="70"/>
     </row>
     <row r="32" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-      <c r="B32" s="63" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="65" t="s">
+      <c r="H32" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="61" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="67"/>
-      <c r="C33" s="76">
+      <c r="B33" s="63"/>
+      <c r="C33" s="72">
         <v>2600</v>
       </c>
-      <c r="D33" s="76">
+      <c r="D33" s="72">
         <v>1600</v>
       </c>
-      <c r="E33" s="76">
+      <c r="E33" s="72">
         <v>1400</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="72">
         <v>1200</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="72">
         <v>1000</v>
       </c>
-      <c r="H33" s="76">
+      <c r="H33" s="72">
         <v>700</v>
       </c>
-      <c r="I33" s="76">
+      <c r="I33" s="72">
         <v>700</v>
       </c>
-      <c r="J33" s="76">
+      <c r="J33" s="72">
         <v>500</v>
       </c>
-      <c r="K33" s="76">
+      <c r="K33" s="72">
         <v>300</v>
       </c>
-      <c r="M33" s="46"/>
-      <c r="O33" s="46"/>
+      <c r="M33" s="42"/>
+      <c r="O33" s="42"/>
     </row>
     <row r="34" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="68">
+      <c r="A34" s="42"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="65">
         <v>2751.76</v>
       </c>
-      <c r="D34" s="68">
+      <c r="D34" s="65">
         <v>1676.75</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="65">
         <v>1492.95</v>
       </c>
-      <c r="F34" s="68">
+      <c r="F34" s="65">
         <v>154.22999999999999</v>
       </c>
-      <c r="G34" s="68">
+      <c r="G34" s="65">
         <v>1121.55</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="65">
         <v>653.16</v>
       </c>
-      <c r="I34" s="68">
+      <c r="I34" s="65">
         <v>694.25</v>
       </c>
-      <c r="J34" s="68">
+      <c r="J34" s="65">
         <v>529.07000000000005</v>
       </c>
-      <c r="K34" s="68">
+      <c r="K34" s="65">
         <v>331.55</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="O34" s="77"/>
+      <c r="M34" s="73"/>
+      <c r="O34" s="73"/>
     </row>
     <row r="35" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="78">
+      <c r="A35" s="42"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="87">
         <f t="shared" ref="C35:I35" si="22">C33-C34</f>
         <v>-151.76000000000022</v>
       </c>
-      <c r="D35" s="78">
+      <c r="D35" s="87">
         <f t="shared" si="22"/>
         <v>-76.75</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="87">
         <f>E33-E34</f>
         <v>-92.950000000000045</v>
       </c>
-      <c r="F35" s="79">
+      <c r="F35" s="88">
         <f>F33-F34</f>
         <v>1045.77</v>
       </c>
-      <c r="G35" s="78">
+      <c r="G35" s="87">
         <f>G33-G34</f>
         <v>-121.54999999999995</v>
       </c>
-      <c r="H35" s="79">
+      <c r="H35" s="88">
         <f t="shared" si="22"/>
         <v>46.840000000000032</v>
       </c>
-      <c r="I35" s="79">
+      <c r="I35" s="88">
         <f t="shared" si="22"/>
         <v>5.75</v>
       </c>
-      <c r="J35" s="78">
+      <c r="J35" s="87">
         <f>J33-J34</f>
         <v>-29.07000000000005</v>
       </c>
-      <c r="K35" s="78">
+      <c r="K35" s="87">
         <f>K33-K34</f>
         <v>-31.550000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
+      <c r="A36" s="42"/>
     </row>
     <row r="37" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="63" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="80" t="s">
+      <c r="F37" s="74" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="81">
+      <c r="C38" s="75">
         <v>2818</v>
       </c>
-      <c r="D38" s="82">
+      <c r="D38" s="76">
         <v>1263.1199999999999</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="76">
         <v>915</v>
       </c>
-      <c r="F38" s="83">
+      <c r="F38" s="77">
         <v>222.66</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="F39" s="46"/>
+      <c r="A39" s="42"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="84" t="s">
+      <c r="D40" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="46"/>
-      <c r="I40" s="46"/>
+      <c r="G40" s="42"/>
+      <c r="I40" s="42"/>
     </row>
     <row r="41" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="68">
+      <c r="B41" s="64">
         <f>SUM(C34:K34)</f>
         <v>9405.2699999999986</v>
       </c>
-      <c r="C41" s="68">
+      <c r="C41" s="64">
         <f>SUM(C30:H30)</f>
         <v>31006.28</v>
       </c>
-      <c r="D41" s="87">
+      <c r="D41" s="81">
         <f>SUM(C38:F38)</f>
         <v>5218.78</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
     </row>
     <row r="44" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="85">
+      <c r="B44" s="79">
         <f>SUM(B41:D41)</f>
         <v>45630.329999999994</v>
       </c>
-      <c r="C44" s="88">
+      <c r="C44" s="82">
         <f>B44/BF27</f>
-        <v>3.4569453188389652</v>
+        <v>3.104078742214349</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:BF25">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{A7FE8565-AB28-4960-9C39-BBAFFB9C1D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F7C5538-9AB5-479E-BCFE-B5C306D82CC6}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{A7FE8565-AB28-4960-9C39-BBAFFB9C1D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AA9DDE-B9B9-43BD-95BF-6D8BF97B1A55}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2028" windowWidth="23040" windowHeight="9480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget 2025" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1132,18 +1132,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1499,7 +1487,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1560,7 +1548,7 @@
     <col min="56" max="56" width="14.44140625" style="10" customWidth="1"/>
     <col min="57" max="57" width="16.109375" style="10" customWidth="1"/>
     <col min="58" max="58" width="19.44140625" style="10" customWidth="1"/>
-    <col min="59" max="59" width="28.109375" style="10" customWidth="1"/>
+    <col min="59" max="59" width="21.77734375" style="10" customWidth="1"/>
     <col min="60" max="60" width="24.33203125" style="10" customWidth="1"/>
     <col min="61" max="61" width="24.5546875" style="10" customWidth="1"/>
     <col min="62" max="16384" width="10.88671875" style="10"/>
@@ -1885,7 +1873,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="83"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1902,7 +1890,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="84"/>
+      <c r="AB3" s="6"/>
       <c r="AC3" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1918,7 +1906,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
-      <c r="AP3" s="83"/>
+      <c r="AP3" s="11"/>
       <c r="AQ3" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1935,7 +1923,7 @@
       <c r="BA3" s="6"/>
       <c r="BB3" s="6"/>
       <c r="BC3" s="6"/>
-      <c r="BD3" s="84"/>
+      <c r="BD3" s="6"/>
       <c r="BE3" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -2815,7 +2803,7 @@
       <c r="AH13" s="21"/>
       <c r="AI13" s="21"/>
       <c r="AJ13" s="21"/>
-      <c r="AK13" s="86"/>
+      <c r="AK13" s="21"/>
       <c r="AL13" s="21">
         <v>60</v>
       </c>
@@ -2895,12 +2883,12 @@
       </c>
       <c r="AD14" s="5"/>
       <c r="AE14" s="21"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="86"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
       <c r="AJ14" s="21"/>
-      <c r="AL14" s="86"/>
+      <c r="AL14" s="21"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="21"/>
       <c r="AO14" s="21"/>
@@ -2939,95 +2927,108 @@
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21">
-        <v>1200</v>
+        <f>E15</f>
+        <v>800</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21">
-        <v>1200</v>
+        <f>E15</f>
+        <v>800</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21">
-        <v>1200</v>
+        <f>E15</f>
+        <v>800</v>
       </c>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21">
-        <v>1200</v>
+        <f>E15</f>
+        <v>800</v>
       </c>
       <c r="X15" s="23"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21">
-        <v>1200</v>
+        <f>E15</f>
+        <v>800</v>
       </c>
       <c r="AC15" s="22">
-        <f t="shared" si="5"/>
-        <v>3600</v>
+        <f>SUM(P15:AB15)</f>
+        <v>2400</v>
       </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
       <c r="AG15" s="21">
-        <v>1200</v>
+        <f>E15</f>
+        <v>800</v>
       </c>
       <c r="AH15" s="21"/>
       <c r="AI15" s="21"/>
       <c r="AJ15" s="21"/>
       <c r="AK15" s="21"/>
       <c r="AL15" s="21">
-        <v>1200</v>
+        <f>E15</f>
+        <v>800</v>
       </c>
       <c r="AM15" s="5"/>
       <c r="AN15" s="21"/>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21">
-        <v>1200</v>
+        <f>E15</f>
+        <v>800</v>
       </c>
       <c r="AQ15" s="22">
         <f t="shared" si="6"/>
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="AR15" s="5"/>
       <c r="AS15" s="24"/>
       <c r="AT15" s="24"/>
       <c r="AU15" s="21">
-        <v>1200</v>
+        <f>E15</f>
+        <v>800</v>
       </c>
       <c r="AV15" s="21"/>
       <c r="AW15" s="21"/>
       <c r="AX15" s="21"/>
       <c r="AY15" s="21"/>
       <c r="AZ15" s="21">
-        <v>1200</v>
+        <f>E15</f>
+        <v>800</v>
       </c>
       <c r="BA15" s="21"/>
       <c r="BB15" s="21"/>
       <c r="BC15" s="21"/>
-      <c r="BD15" s="5"/>
+      <c r="BD15" s="5">
+        <f>E15</f>
+        <v>800</v>
+      </c>
       <c r="BE15" s="22">
         <f t="shared" si="7"/>
         <v>2400</v>
       </c>
       <c r="BF15" s="22">
         <f t="shared" si="8"/>
-        <v>13200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3065,7 +3066,7 @@
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
       <c r="AC16" s="22">
-        <f t="shared" si="5"/>
+        <f>SUM(P16:AB16)</f>
         <v>0</v>
       </c>
       <c r="AD16" s="5"/>
@@ -3224,7 +3225,7 @@
       </c>
       <c r="E18" s="29">
         <f t="shared" si="9"/>
-        <v>1395</v>
+        <v>995</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" si="9"/>
@@ -3240,7 +3241,7 @@
       </c>
       <c r="I18" s="29">
         <f t="shared" si="9"/>
-        <v>1395</v>
+        <v>995</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" si="9"/>
@@ -3260,11 +3261,11 @@
       </c>
       <c r="N18" s="29">
         <f t="shared" si="9"/>
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="O18" s="30">
         <f t="shared" si="9"/>
-        <v>4244.97</v>
+        <v>3044.9700000000003</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" si="9"/>
@@ -3280,7 +3281,7 @@
       </c>
       <c r="S18" s="29">
         <f t="shared" si="9"/>
-        <v>1395</v>
+        <v>995</v>
       </c>
       <c r="T18" s="29">
         <f t="shared" si="9"/>
@@ -3296,7 +3297,7 @@
       </c>
       <c r="W18" s="29">
         <f t="shared" si="9"/>
-        <v>1395</v>
+        <v>995</v>
       </c>
       <c r="X18" s="29">
         <f t="shared" si="9"/>
@@ -3316,11 +3317,11 @@
       </c>
       <c r="AB18" s="31">
         <f t="shared" si="9"/>
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="AC18" s="30">
         <f t="shared" si="9"/>
-        <v>4244.97</v>
+        <v>3044.9700000000003</v>
       </c>
       <c r="AD18" s="29">
         <f t="shared" si="9"/>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="AG18" s="29">
         <f t="shared" si="9"/>
-        <v>1395</v>
+        <v>995</v>
       </c>
       <c r="AH18" s="29">
         <f t="shared" ref="AH18:BF18" si="10">SUM(AH2:AH17)</f>
@@ -3356,7 +3357,7 @@
       </c>
       <c r="AL18" s="29">
         <f t="shared" si="10"/>
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="AM18" s="29">
         <f t="shared" si="10"/>
@@ -3372,11 +3373,11 @@
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>4244.97</v>
+        <v>3044.9700000000003</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3392,7 +3393,7 @@
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
-        <v>1395</v>
+        <v>995</v>
       </c>
       <c r="AV18" s="29">
         <f t="shared" si="10"/>
@@ -3412,7 +3413,7 @@
       </c>
       <c r="AZ18" s="29">
         <f t="shared" si="10"/>
-        <v>1360</v>
+        <v>960</v>
       </c>
       <c r="BA18" s="29">
         <f t="shared" si="10"/>
@@ -3428,7 +3429,7 @@
       </c>
       <c r="BD18" s="31">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
@@ -3436,7 +3437,7 @@
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>15619.880000000001</v>
+        <v>12019.880000000001</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -3861,131 +3862,159 @@
         <v>10</v>
       </c>
       <c r="B23" s="9">
-        <v>896</v>
+        <f>38*40*2-38*40*2*0.27</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="M23" s="45"/>
       <c r="N23" s="45">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="O23" s="36">
         <f t="shared" si="11"/>
-        <v>6272</v>
+        <v>15534.400000000001</v>
       </c>
       <c r="P23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="U23" s="45"/>
       <c r="V23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="W23" s="9"/>
       <c r="X23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AA23" s="45"/>
       <c r="AB23" s="45">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AC23" s="36">
         <f t="shared" si="12"/>
-        <v>6272</v>
+        <v>15534.400000000001</v>
       </c>
       <c r="AD23" s="46">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AP23" s="45">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AQ23" s="36">
         <f t="shared" si="13"/>
-        <v>6272</v>
+        <v>15534.400000000001</v>
       </c>
       <c r="AR23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AW23" s="45"/>
       <c r="AX23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="AY23" s="9"/>
       <c r="AZ23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="BA23" s="9"/>
       <c r="BB23" s="9">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="BC23" s="45"/>
       <c r="BD23" s="45">
-        <v>896</v>
+        <f>B23</f>
+        <v>2219.1999999999998</v>
       </c>
       <c r="BE23" s="36">
         <f t="shared" si="14"/>
-        <v>6272</v>
+        <v>15534.400000000001</v>
       </c>
       <c r="BF23" s="36">
         <f t="shared" si="15"/>
-        <v>25088</v>
+        <v>62137.600000000006</v>
       </c>
       <c r="BG23" s="80" t="s">
         <v>54</v>
@@ -4177,462 +4206,462 @@
       </c>
       <c r="B26" s="47">
         <f>SUM(B19:B23)+B25</f>
-        <v>991</v>
+        <v>2314.1999999999998</v>
       </c>
       <c r="C26" s="47">
         <f>SUM(C19:C23)+C25+B27</f>
-        <v>1076.01</v>
+        <v>2399.21</v>
       </c>
       <c r="D26" s="47">
         <f t="shared" ref="D26:N26" si="16">SUM(D19:D23)+D25+C27</f>
-        <v>2057.0100000000002</v>
+        <v>4703.41</v>
       </c>
       <c r="E26" s="47">
         <f t="shared" si="16"/>
-        <v>2152.0100000000002</v>
+        <v>4798.41</v>
       </c>
       <c r="F26" s="47">
         <f t="shared" si="16"/>
-        <v>1748.0100000000002</v>
+        <v>6117.61</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" si="16"/>
-        <v>1833.0200000000002</v>
+        <v>6202.62</v>
       </c>
       <c r="H26" s="47">
         <f t="shared" si="16"/>
-        <v>2814.0200000000004</v>
+        <v>8506.82</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="16"/>
-        <v>2909.0200000000004</v>
+        <v>8601.82</v>
       </c>
       <c r="J26" s="47">
         <f t="shared" si="16"/>
-        <v>2505.0200000000004</v>
+        <v>9921.02</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="16"/>
-        <v>2600.0200000000004</v>
+        <v>10016.02</v>
       </c>
       <c r="L26" s="47">
         <f t="shared" si="16"/>
-        <v>3581.0200000000004</v>
+        <v>12320.220000000001</v>
       </c>
       <c r="M26" s="47">
         <f t="shared" si="16"/>
-        <v>3666.0300000000007</v>
+        <v>12405.230000000001</v>
       </c>
       <c r="N26" s="48">
         <f t="shared" si="16"/>
-        <v>4622.0300000000007</v>
+        <v>14684.43</v>
       </c>
       <c r="O26" s="30">
         <f>SUM(O19:O23)+O25</f>
-        <v>7507</v>
+        <v>16769.400000000001</v>
       </c>
       <c r="P26" s="47">
         <f t="shared" ref="P26:AB26" si="17">SUM(P19:P23)+P25+O27</f>
-        <v>4253.03</v>
+        <v>16038.630000000001</v>
       </c>
       <c r="Q26" s="47">
         <f t="shared" si="17"/>
-        <v>4338.04</v>
+        <v>16123.640000000001</v>
       </c>
       <c r="R26" s="47">
         <f t="shared" si="17"/>
-        <v>5319.04</v>
+        <v>18427.84</v>
       </c>
       <c r="S26" s="47">
         <f t="shared" si="17"/>
-        <v>5414.04</v>
+        <v>18522.84</v>
       </c>
       <c r="T26" s="47">
         <f t="shared" si="17"/>
-        <v>5010.04</v>
+        <v>19842.04</v>
       </c>
       <c r="U26" s="47">
         <f t="shared" si="17"/>
-        <v>5095.05</v>
+        <v>19927.05</v>
       </c>
       <c r="V26" s="47">
         <f t="shared" si="17"/>
-        <v>6076.05</v>
+        <v>22231.25</v>
       </c>
       <c r="W26" s="47">
         <f t="shared" si="17"/>
-        <v>6171.05</v>
+        <v>22326.25</v>
       </c>
       <c r="X26" s="47">
         <f t="shared" si="17"/>
-        <v>5767.05</v>
+        <v>23645.45</v>
       </c>
       <c r="Y26" s="47">
         <f t="shared" si="17"/>
-        <v>5862.05</v>
+        <v>23740.45</v>
       </c>
       <c r="Z26" s="47">
         <f t="shared" si="17"/>
-        <v>6843.05</v>
+        <v>26044.65</v>
       </c>
       <c r="AA26" s="47">
         <f t="shared" si="17"/>
-        <v>6928.06</v>
+        <v>26129.66</v>
       </c>
       <c r="AB26" s="48">
         <f t="shared" si="17"/>
-        <v>7884.06</v>
+        <v>28408.86</v>
       </c>
       <c r="AC26" s="30">
         <f>SUM(AC19:AC23)+AC25</f>
-        <v>7507</v>
+        <v>16769.400000000001</v>
       </c>
       <c r="AD26" s="47">
         <f t="shared" ref="AD26:AP26" si="18">SUM(AD19:AD23)+AD25+AC27</f>
-        <v>4253.03</v>
+        <v>16038.630000000001</v>
       </c>
       <c r="AE26" s="47">
         <f t="shared" si="18"/>
-        <v>4338.04</v>
+        <v>16123.640000000001</v>
       </c>
       <c r="AF26" s="47">
         <f t="shared" si="18"/>
-        <v>5319.04</v>
+        <v>18427.84</v>
       </c>
       <c r="AG26" s="47">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
-        <v>5706.04</v>
+        <v>18814.84</v>
       </c>
       <c r="AH26" s="47">
         <f>SUM(AH19:AH23)+AH25+AG27</f>
-        <v>5302.04</v>
+        <v>20134.04</v>
       </c>
       <c r="AI26" s="47">
         <f t="shared" si="18"/>
-        <v>5387.05</v>
+        <v>20219.05</v>
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>6368.05</v>
+        <v>22523.25</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>6463.05</v>
+        <v>22618.25</v>
       </c>
       <c r="AL26" s="47">
         <f t="shared" si="18"/>
-        <v>7419.05</v>
+        <v>24897.45</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>6154.05</v>
+        <v>24032.45</v>
       </c>
       <c r="AN26" s="47">
         <f t="shared" si="18"/>
-        <v>7135.05</v>
+        <v>26336.65</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>7220.06</v>
+        <v>26421.66</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>8176.06</v>
+        <v>28700.86</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
-        <v>7799</v>
+        <v>17061.400000000001</v>
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>4545.03</v>
+        <v>16330.630000000001</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>4630.04</v>
+        <v>16415.64</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>5611.04</v>
+        <v>18719.84</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>5706.04</v>
+        <v>18814.84</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>5302.04</v>
+        <v>20134.04</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>5387.05</v>
+        <v>20219.05</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>6368.05</v>
+        <v>22523.25</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>6463.05</v>
+        <v>22618.25</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>7419.05</v>
+        <v>24897.45</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>6154.05</v>
+        <v>24032.45</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>7135.05</v>
+        <v>26336.65</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>7220.06</v>
+        <v>26421.66</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>8176.06</v>
+        <v>28700.86</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
-        <v>7507</v>
+        <v>16769.400000000001</v>
       </c>
       <c r="BF26" s="30">
         <f>SUM(BF19:BF23)+BF25</f>
-        <v>30320</v>
+        <v>67369.600000000006</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
       <c r="B27" s="50">
         <f t="shared" ref="B27:AG27" si="20">B26-B18</f>
-        <v>981.01</v>
+        <v>2304.21</v>
       </c>
       <c r="C27" s="50">
         <f t="shared" si="20"/>
-        <v>1066.01</v>
+        <v>2389.21</v>
       </c>
       <c r="D27" s="50">
         <f t="shared" si="20"/>
-        <v>2057.0100000000002</v>
+        <v>4703.41</v>
       </c>
       <c r="E27" s="51">
         <f t="shared" si="20"/>
-        <v>757.01000000000022</v>
+        <v>3803.41</v>
       </c>
       <c r="F27" s="50">
         <f t="shared" si="20"/>
-        <v>1738.0200000000002</v>
+        <v>6107.62</v>
       </c>
       <c r="G27" s="50">
         <f t="shared" si="20"/>
-        <v>1823.0200000000002</v>
+        <v>6192.62</v>
       </c>
       <c r="H27" s="50">
         <f t="shared" si="20"/>
-        <v>2814.0200000000004</v>
+        <v>8506.82</v>
       </c>
       <c r="I27" s="51">
         <f t="shared" si="20"/>
-        <v>1514.0200000000004</v>
+        <v>7606.82</v>
       </c>
       <c r="J27" s="50">
         <f t="shared" si="20"/>
-        <v>2505.0200000000004</v>
+        <v>9921.02</v>
       </c>
       <c r="K27" s="50">
         <f t="shared" si="20"/>
-        <v>2590.0200000000004</v>
+        <v>10006.02</v>
       </c>
       <c r="L27" s="50">
         <f t="shared" si="20"/>
-        <v>3571.0300000000007</v>
+        <v>12310.230000000001</v>
       </c>
       <c r="M27" s="50">
         <f t="shared" si="20"/>
-        <v>3631.0300000000007</v>
+        <v>12370.230000000001</v>
       </c>
       <c r="N27" s="52">
         <f t="shared" si="20"/>
-        <v>3262.0300000000007</v>
+        <v>13724.43</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="20"/>
-        <v>3262.0299999999997</v>
+        <v>13724.43</v>
       </c>
       <c r="P27" s="50">
         <f t="shared" si="20"/>
-        <v>4243.04</v>
+        <v>16028.640000000001</v>
       </c>
       <c r="Q27" s="50">
         <f t="shared" si="20"/>
-        <v>4328.04</v>
+        <v>16113.640000000001</v>
       </c>
       <c r="R27" s="50">
         <f t="shared" si="20"/>
-        <v>5319.04</v>
+        <v>18427.84</v>
       </c>
       <c r="S27" s="51">
         <f t="shared" si="20"/>
-        <v>4019.04</v>
+        <v>17527.84</v>
       </c>
       <c r="T27" s="50">
         <f t="shared" si="20"/>
-        <v>5000.05</v>
+        <v>19832.05</v>
       </c>
       <c r="U27" s="50">
         <f t="shared" si="20"/>
-        <v>5085.05</v>
+        <v>19917.05</v>
       </c>
       <c r="V27" s="50">
         <f t="shared" si="20"/>
-        <v>6076.05</v>
+        <v>22231.25</v>
       </c>
       <c r="W27" s="51">
         <f t="shared" si="20"/>
-        <v>4776.05</v>
+        <v>21331.25</v>
       </c>
       <c r="X27" s="50">
         <f t="shared" si="20"/>
-        <v>5767.05</v>
+        <v>23645.45</v>
       </c>
       <c r="Y27" s="50">
         <f t="shared" si="20"/>
-        <v>5852.05</v>
+        <v>23730.45</v>
       </c>
       <c r="Z27" s="50">
         <f t="shared" si="20"/>
-        <v>6833.06</v>
+        <v>26034.66</v>
       </c>
       <c r="AA27" s="50">
         <f t="shared" si="20"/>
-        <v>6893.06</v>
+        <v>26094.66</v>
       </c>
       <c r="AB27" s="52">
         <f t="shared" si="20"/>
-        <v>6524.06</v>
+        <v>27448.86</v>
       </c>
       <c r="AC27" s="53">
         <f t="shared" si="20"/>
-        <v>3262.0299999999997</v>
+        <v>13724.43</v>
       </c>
       <c r="AD27" s="50">
         <f t="shared" si="20"/>
-        <v>4243.04</v>
+        <v>16028.640000000001</v>
       </c>
       <c r="AE27" s="50">
         <f t="shared" si="20"/>
-        <v>4328.04</v>
+        <v>16113.640000000001</v>
       </c>
       <c r="AF27" s="50">
         <f t="shared" si="20"/>
-        <v>5319.04</v>
+        <v>18427.84</v>
       </c>
       <c r="AG27" s="51">
         <f t="shared" si="20"/>
-        <v>4311.04</v>
+        <v>17819.84</v>
       </c>
       <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>5292.05</v>
+        <v>20124.05</v>
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>5377.05</v>
+        <v>20209.05</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>6368.05</v>
+        <v>22523.25</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>6428.05</v>
+        <v>22583.25</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>6059.05</v>
+        <v>23937.45</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>6144.05</v>
+        <v>24022.45</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>7125.06</v>
+        <v>26326.66</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>7185.06</v>
+        <v>26386.66</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>6816.06</v>
+        <v>27740.86</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>3554.0299999999997</v>
+        <v>14016.43</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>4535.04</v>
+        <v>16320.640000000001</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>4620.04</v>
+        <v>16405.64</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>5611.04</v>
+        <v>18719.84</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>4311.04</v>
+        <v>17819.84</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>5292.05</v>
+        <v>20124.05</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>5377.05</v>
+        <v>20209.05</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>6368.05</v>
+        <v>22523.25</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>6428.05</v>
+        <v>22583.25</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>6059.05</v>
+        <v>23937.45</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>6144.05</v>
+        <v>24022.45</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>7125.06</v>
+        <v>26326.66</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>7185.06</v>
+        <v>26386.66</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>8176.06</v>
+        <v>27900.86</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>4622.03</v>
+        <v>13884.43</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>14700.119999999999</v>
+        <v>55349.72</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4806,39 +4835,39 @@
     <row r="35" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
       <c r="B35" s="63"/>
-      <c r="C35" s="87">
+      <c r="C35" s="83">
         <f t="shared" ref="C35:I35" si="22">C33-C34</f>
         <v>-151.76000000000022</v>
       </c>
-      <c r="D35" s="87">
+      <c r="D35" s="83">
         <f t="shared" si="22"/>
         <v>-76.75</v>
       </c>
-      <c r="E35" s="87">
+      <c r="E35" s="83">
         <f>E33-E34</f>
         <v>-92.950000000000045</v>
       </c>
-      <c r="F35" s="88">
+      <c r="F35" s="84">
         <f>F33-F34</f>
         <v>1045.77</v>
       </c>
-      <c r="G35" s="87">
+      <c r="G35" s="83">
         <f>G33-G34</f>
         <v>-121.54999999999995</v>
       </c>
-      <c r="H35" s="88">
+      <c r="H35" s="84">
         <f t="shared" si="22"/>
         <v>46.840000000000032</v>
       </c>
-      <c r="I35" s="88">
+      <c r="I35" s="84">
         <f t="shared" si="22"/>
         <v>5.75</v>
       </c>
-      <c r="J35" s="87">
+      <c r="J35" s="83">
         <f>J33-J34</f>
         <v>-29.07000000000005</v>
       </c>
-      <c r="K35" s="87">
+      <c r="K35" s="83">
         <f>K33-K34</f>
         <v>-31.550000000000011</v>
       </c>
@@ -4928,7 +4957,7 @@
       </c>
       <c r="C44" s="82">
         <f>B44/BF27</f>
-        <v>3.104078742214349</v>
+        <v>0.82440037637046748</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{A7FE8565-AB28-4960-9C39-BBAFFB9C1D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AA9DDE-B9B9-43BD-95BF-6D8BF97B1A55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E41ADAD5-F794-49EE-99A5-C8879B2F988E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2028" windowWidth="23040" windowHeight="9480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget 2025" sheetId="1" r:id="rId1"/>
@@ -1484,10 +1484,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E41ADAD5-F794-49EE-99A5-C8879B2F988E}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83764BC-0D8A-4045-9AFA-44B51D6687C2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2028" windowWidth="23040" windowHeight="9480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget 2025" sheetId="1" r:id="rId1"/>
@@ -1484,10 +1484,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR9" sqref="AR9"/>
+      <selection pane="bottomRight" activeCell="BF30" sqref="BF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2927,14 +2927,14 @@
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21">
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -2942,25 +2942,25 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="4"/>
-        <v>2400</v>
+        <v>2628</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="X15" s="23"/>
       <c r="Y15" s="21"/>
@@ -2968,18 +2968,18 @@
       <c r="AA15" s="21"/>
       <c r="AB15" s="21">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="AC15" s="22">
         <f>SUM(P15:AB15)</f>
-        <v>2400</v>
+        <v>2628</v>
       </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
       <c r="AG15" s="21">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="AH15" s="21"/>
       <c r="AI15" s="21"/>
@@ -2987,25 +2987,25 @@
       <c r="AK15" s="21"/>
       <c r="AL15" s="21">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="AM15" s="5"/>
       <c r="AN15" s="21"/>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="AQ15" s="22">
         <f t="shared" si="6"/>
-        <v>2400</v>
+        <v>2628</v>
       </c>
       <c r="AR15" s="5"/>
       <c r="AS15" s="24"/>
       <c r="AT15" s="24"/>
       <c r="AU15" s="21">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="AV15" s="21"/>
       <c r="AW15" s="21"/>
@@ -3013,22 +3013,22 @@
       <c r="AY15" s="21"/>
       <c r="AZ15" s="21">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="BA15" s="21"/>
       <c r="BB15" s="21"/>
       <c r="BC15" s="21"/>
       <c r="BD15" s="5">
         <f>E15</f>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="BE15" s="22">
         <f t="shared" si="7"/>
-        <v>2400</v>
+        <v>2628</v>
       </c>
       <c r="BF15" s="22">
         <f t="shared" si="8"/>
-        <v>9600</v>
+        <v>10512</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="E18" s="29">
         <f t="shared" si="9"/>
-        <v>995</v>
+        <v>1071</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" si="9"/>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I18" s="29">
         <f t="shared" si="9"/>
-        <v>995</v>
+        <v>1071</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" si="9"/>
@@ -3261,11 +3261,11 @@
       </c>
       <c r="N18" s="29">
         <f t="shared" si="9"/>
-        <v>960</v>
+        <v>1036</v>
       </c>
       <c r="O18" s="30">
         <f t="shared" si="9"/>
-        <v>3044.9700000000003</v>
+        <v>3272.9700000000003</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" si="9"/>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="S18" s="29">
         <f t="shared" si="9"/>
-        <v>995</v>
+        <v>1071</v>
       </c>
       <c r="T18" s="29">
         <f t="shared" si="9"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="W18" s="29">
         <f t="shared" si="9"/>
-        <v>995</v>
+        <v>1071</v>
       </c>
       <c r="X18" s="29">
         <f t="shared" si="9"/>
@@ -3317,11 +3317,11 @@
       </c>
       <c r="AB18" s="31">
         <f t="shared" si="9"/>
-        <v>960</v>
+        <v>1036</v>
       </c>
       <c r="AC18" s="30">
         <f t="shared" si="9"/>
-        <v>3044.9700000000003</v>
+        <v>3272.9700000000003</v>
       </c>
       <c r="AD18" s="29">
         <f t="shared" si="9"/>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="AG18" s="29">
         <f t="shared" si="9"/>
-        <v>995</v>
+        <v>1071</v>
       </c>
       <c r="AH18" s="29">
         <f t="shared" ref="AH18:BF18" si="10">SUM(AH2:AH17)</f>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="AL18" s="29">
         <f t="shared" si="10"/>
-        <v>960</v>
+        <v>1036</v>
       </c>
       <c r="AM18" s="29">
         <f t="shared" si="10"/>
@@ -3373,11 +3373,11 @@
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
-        <v>960</v>
+        <v>1036</v>
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3044.9700000000003</v>
+        <v>3272.9700000000003</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
-        <v>995</v>
+        <v>1071</v>
       </c>
       <c r="AV18" s="29">
         <f t="shared" si="10"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="AZ18" s="29">
         <f t="shared" si="10"/>
-        <v>960</v>
+        <v>1036</v>
       </c>
       <c r="BA18" s="29">
         <f t="shared" si="10"/>
@@ -3429,15 +3429,15 @@
       </c>
       <c r="BD18" s="31">
         <f t="shared" si="10"/>
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>2884.9700000000003</v>
+        <v>3112.9700000000003</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12019.880000000001</v>
+        <v>12931.880000000001</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -3862,159 +3862,159 @@
         <v>10</v>
       </c>
       <c r="B23" s="9">
-        <f>38*40*2-38*40*2*0.27</f>
-        <v>2219.1999999999998</v>
+        <f>15*40*2-15*40*2*0.27</f>
+        <v>876</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="M23" s="45"/>
       <c r="N23" s="45">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="O23" s="36">
         <f t="shared" si="11"/>
-        <v>15534.400000000001</v>
+        <v>6132</v>
       </c>
       <c r="P23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="U23" s="45"/>
       <c r="V23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="W23" s="9"/>
       <c r="X23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AA23" s="45"/>
       <c r="AB23" s="45">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AC23" s="36">
         <f t="shared" si="12"/>
-        <v>15534.400000000001</v>
+        <v>6132</v>
       </c>
       <c r="AD23" s="46">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AP23" s="45">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AQ23" s="36">
         <f t="shared" si="13"/>
-        <v>15534.400000000001</v>
+        <v>6132</v>
       </c>
       <c r="AR23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AW23" s="45"/>
       <c r="AX23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="AY23" s="9"/>
       <c r="AZ23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="BA23" s="9"/>
       <c r="BB23" s="9">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="BC23" s="45"/>
       <c r="BD23" s="45">
         <f>B23</f>
-        <v>2219.1999999999998</v>
+        <v>876</v>
       </c>
       <c r="BE23" s="36">
         <f t="shared" si="14"/>
-        <v>15534.400000000001</v>
+        <v>6132</v>
       </c>
       <c r="BF23" s="36">
         <f t="shared" si="15"/>
-        <v>62137.600000000006</v>
+        <v>24528</v>
       </c>
       <c r="BG23" s="80" t="s">
         <v>54</v>
@@ -4162,10 +4162,10 @@
       <c r="AD25" s="46"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
-      <c r="AG25" s="9">
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9">
         <v>292</v>
       </c>
-      <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
@@ -4206,462 +4206,462 @@
       </c>
       <c r="B26" s="47">
         <f>SUM(B19:B23)+B25</f>
-        <v>2314.1999999999998</v>
+        <v>971</v>
       </c>
       <c r="C26" s="47">
         <f>SUM(C19:C23)+C25+B27</f>
-        <v>2399.21</v>
+        <v>1056.01</v>
       </c>
       <c r="D26" s="47">
         <f t="shared" ref="D26:N26" si="16">SUM(D19:D23)+D25+C27</f>
-        <v>4703.41</v>
+        <v>2017.01</v>
       </c>
       <c r="E26" s="47">
         <f t="shared" si="16"/>
-        <v>4798.41</v>
+        <v>2112.0100000000002</v>
       </c>
       <c r="F26" s="47">
         <f t="shared" si="16"/>
-        <v>6117.61</v>
+        <v>2012.0100000000002</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" si="16"/>
-        <v>6202.62</v>
+        <v>2097.0200000000004</v>
       </c>
       <c r="H26" s="47">
         <f t="shared" si="16"/>
-        <v>8506.82</v>
+        <v>3058.0200000000004</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="16"/>
-        <v>8601.82</v>
+        <v>3153.0200000000004</v>
       </c>
       <c r="J26" s="47">
         <f t="shared" si="16"/>
-        <v>9921.02</v>
+        <v>3053.0200000000004</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="16"/>
-        <v>10016.02</v>
+        <v>3148.0200000000004</v>
       </c>
       <c r="L26" s="47">
         <f t="shared" si="16"/>
-        <v>12320.220000000001</v>
+        <v>4109.0200000000004</v>
       </c>
       <c r="M26" s="47">
         <f t="shared" si="16"/>
-        <v>12405.230000000001</v>
+        <v>4194.0300000000007</v>
       </c>
       <c r="N26" s="48">
         <f t="shared" si="16"/>
-        <v>14684.43</v>
+        <v>5130.0300000000007</v>
       </c>
       <c r="O26" s="30">
         <f>SUM(O19:O23)+O25</f>
-        <v>16769.400000000001</v>
+        <v>7367</v>
       </c>
       <c r="P26" s="47">
         <f t="shared" ref="P26:AB26" si="17">SUM(P19:P23)+P25+O27</f>
-        <v>16038.630000000001</v>
+        <v>5065.03</v>
       </c>
       <c r="Q26" s="47">
         <f t="shared" si="17"/>
-        <v>16123.640000000001</v>
+        <v>5150.04</v>
       </c>
       <c r="R26" s="47">
         <f t="shared" si="17"/>
-        <v>18427.84</v>
+        <v>6111.04</v>
       </c>
       <c r="S26" s="47">
         <f t="shared" si="17"/>
-        <v>18522.84</v>
+        <v>6206.04</v>
       </c>
       <c r="T26" s="47">
         <f t="shared" si="17"/>
-        <v>19842.04</v>
+        <v>6106.04</v>
       </c>
       <c r="U26" s="47">
         <f t="shared" si="17"/>
-        <v>19927.05</v>
+        <v>6191.05</v>
       </c>
       <c r="V26" s="47">
         <f t="shared" si="17"/>
-        <v>22231.25</v>
+        <v>7152.05</v>
       </c>
       <c r="W26" s="47">
         <f t="shared" si="17"/>
-        <v>22326.25</v>
+        <v>7247.05</v>
       </c>
       <c r="X26" s="47">
         <f t="shared" si="17"/>
-        <v>23645.45</v>
+        <v>7147.05</v>
       </c>
       <c r="Y26" s="47">
         <f t="shared" si="17"/>
-        <v>23740.45</v>
+        <v>7242.05</v>
       </c>
       <c r="Z26" s="47">
         <f t="shared" si="17"/>
-        <v>26044.65</v>
+        <v>8203.0499999999993</v>
       </c>
       <c r="AA26" s="47">
         <f t="shared" si="17"/>
-        <v>26129.66</v>
+        <v>8288.06</v>
       </c>
       <c r="AB26" s="48">
         <f t="shared" si="17"/>
-        <v>28408.86</v>
+        <v>9224.06</v>
       </c>
       <c r="AC26" s="30">
         <f>SUM(AC19:AC23)+AC25</f>
-        <v>16769.400000000001</v>
+        <v>7367</v>
       </c>
       <c r="AD26" s="47">
         <f t="shared" ref="AD26:AP26" si="18">SUM(AD19:AD23)+AD25+AC27</f>
-        <v>16038.630000000001</v>
+        <v>5065.03</v>
       </c>
       <c r="AE26" s="47">
         <f t="shared" si="18"/>
-        <v>16123.640000000001</v>
+        <v>5150.04</v>
       </c>
       <c r="AF26" s="47">
         <f t="shared" si="18"/>
-        <v>18427.84</v>
+        <v>6111.04</v>
       </c>
       <c r="AG26" s="47">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
-        <v>18814.84</v>
+        <v>6206.04</v>
       </c>
       <c r="AH26" s="47">
         <f>SUM(AH19:AH23)+AH25+AG27</f>
-        <v>20134.04</v>
+        <v>6398.04</v>
       </c>
       <c r="AI26" s="47">
         <f t="shared" si="18"/>
-        <v>20219.05</v>
+        <v>6483.05</v>
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>22523.25</v>
+        <v>7444.05</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>22618.25</v>
+        <v>7539.05</v>
       </c>
       <c r="AL26" s="47">
         <f t="shared" si="18"/>
-        <v>24897.45</v>
+        <v>8475.0499999999993</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>24032.45</v>
+        <v>7534.0499999999993</v>
       </c>
       <c r="AN26" s="47">
-        <f t="shared" si="18"/>
-        <v>26336.65</v>
+        <f>SUM(AN19:AN23)+AN25+AM27</f>
+        <v>8495.0499999999993</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>26421.66</v>
+        <v>8580.06</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>28700.86</v>
+        <v>9516.06</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
-        <v>17061.400000000001</v>
+        <v>7659</v>
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>16330.630000000001</v>
+        <v>5357.03</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>16415.64</v>
+        <v>5442.04</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>18719.84</v>
+        <v>6403.04</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>18814.84</v>
+        <v>6498.04</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>20134.04</v>
+        <v>6398.04</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>20219.05</v>
+        <v>6483.05</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>22523.25</v>
+        <v>7444.05</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>22618.25</v>
+        <v>7539.05</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>24897.45</v>
+        <v>8475.0499999999993</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>24032.45</v>
+        <v>7534.0499999999993</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>26336.65</v>
+        <v>8495.0499999999993</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>26421.66</v>
+        <v>8580.06</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>28700.86</v>
+        <v>9516.06</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
-        <v>16769.400000000001</v>
+        <v>7367</v>
       </c>
       <c r="BF26" s="30">
         <f>SUM(BF19:BF23)+BF25</f>
-        <v>67369.600000000006</v>
+        <v>29760</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
       <c r="B27" s="50">
         <f t="shared" ref="B27:AG27" si="20">B26-B18</f>
-        <v>2304.21</v>
+        <v>961.01</v>
       </c>
       <c r="C27" s="50">
         <f t="shared" si="20"/>
-        <v>2389.21</v>
+        <v>1046.01</v>
       </c>
       <c r="D27" s="50">
         <f t="shared" si="20"/>
-        <v>4703.41</v>
+        <v>2017.01</v>
       </c>
       <c r="E27" s="51">
         <f t="shared" si="20"/>
-        <v>3803.41</v>
+        <v>1041.0100000000002</v>
       </c>
       <c r="F27" s="50">
         <f t="shared" si="20"/>
-        <v>6107.62</v>
+        <v>2002.0200000000002</v>
       </c>
       <c r="G27" s="50">
         <f t="shared" si="20"/>
-        <v>6192.62</v>
+        <v>2087.0200000000004</v>
       </c>
       <c r="H27" s="50">
         <f t="shared" si="20"/>
-        <v>8506.82</v>
+        <v>3058.0200000000004</v>
       </c>
       <c r="I27" s="51">
         <f t="shared" si="20"/>
-        <v>7606.82</v>
+        <v>2082.0200000000004</v>
       </c>
       <c r="J27" s="50">
         <f t="shared" si="20"/>
-        <v>9921.02</v>
+        <v>3053.0200000000004</v>
       </c>
       <c r="K27" s="50">
         <f t="shared" si="20"/>
-        <v>10006.02</v>
+        <v>3138.0200000000004</v>
       </c>
       <c r="L27" s="50">
         <f t="shared" si="20"/>
-        <v>12310.230000000001</v>
+        <v>4099.0300000000007</v>
       </c>
       <c r="M27" s="50">
         <f t="shared" si="20"/>
-        <v>12370.230000000001</v>
+        <v>4159.0300000000007</v>
       </c>
       <c r="N27" s="52">
         <f t="shared" si="20"/>
-        <v>13724.43</v>
+        <v>4094.0300000000007</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="20"/>
-        <v>13724.43</v>
+        <v>4094.0299999999997</v>
       </c>
       <c r="P27" s="50">
         <f t="shared" si="20"/>
-        <v>16028.640000000001</v>
+        <v>5055.04</v>
       </c>
       <c r="Q27" s="50">
         <f t="shared" si="20"/>
-        <v>16113.640000000001</v>
+        <v>5140.04</v>
       </c>
       <c r="R27" s="50">
         <f t="shared" si="20"/>
-        <v>18427.84</v>
+        <v>6111.04</v>
       </c>
       <c r="S27" s="51">
         <f t="shared" si="20"/>
-        <v>17527.84</v>
+        <v>5135.04</v>
       </c>
       <c r="T27" s="50">
         <f t="shared" si="20"/>
-        <v>19832.05</v>
+        <v>6096.05</v>
       </c>
       <c r="U27" s="50">
         <f t="shared" si="20"/>
-        <v>19917.05</v>
+        <v>6181.05</v>
       </c>
       <c r="V27" s="50">
         <f t="shared" si="20"/>
-        <v>22231.25</v>
+        <v>7152.05</v>
       </c>
       <c r="W27" s="51">
         <f t="shared" si="20"/>
-        <v>21331.25</v>
+        <v>6176.05</v>
       </c>
       <c r="X27" s="50">
         <f t="shared" si="20"/>
-        <v>23645.45</v>
+        <v>7147.05</v>
       </c>
       <c r="Y27" s="50">
         <f t="shared" si="20"/>
-        <v>23730.45</v>
+        <v>7232.05</v>
       </c>
       <c r="Z27" s="50">
         <f t="shared" si="20"/>
-        <v>26034.66</v>
+        <v>8193.06</v>
       </c>
       <c r="AA27" s="50">
         <f t="shared" si="20"/>
-        <v>26094.66</v>
+        <v>8253.06</v>
       </c>
       <c r="AB27" s="52">
         <f t="shared" si="20"/>
-        <v>27448.86</v>
+        <v>8188.0599999999995</v>
       </c>
       <c r="AC27" s="53">
         <f t="shared" si="20"/>
-        <v>13724.43</v>
+        <v>4094.0299999999997</v>
       </c>
       <c r="AD27" s="50">
         <f t="shared" si="20"/>
-        <v>16028.640000000001</v>
+        <v>5055.04</v>
       </c>
       <c r="AE27" s="50">
         <f t="shared" si="20"/>
-        <v>16113.640000000001</v>
+        <v>5140.04</v>
       </c>
       <c r="AF27" s="50">
         <f t="shared" si="20"/>
-        <v>18427.84</v>
+        <v>6111.04</v>
       </c>
       <c r="AG27" s="51">
         <f t="shared" si="20"/>
-        <v>17819.84</v>
+        <v>5135.04</v>
       </c>
       <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>20124.05</v>
+        <v>6388.05</v>
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>20209.05</v>
+        <v>6473.05</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>22523.25</v>
+        <v>7444.05</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>22583.25</v>
+        <v>7504.05</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>23937.45</v>
+        <v>7439.0499999999993</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>24022.45</v>
+        <v>7524.0499999999993</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>26326.66</v>
+        <v>8485.06</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>26386.66</v>
+        <v>8545.06</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>27740.86</v>
+        <v>8480.06</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>14016.43</v>
+        <v>4386.03</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>16320.640000000001</v>
+        <v>5347.04</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>16405.64</v>
+        <v>5432.04</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>18719.84</v>
+        <v>6403.04</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>17819.84</v>
+        <v>5427.04</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>20124.05</v>
+        <v>6388.05</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>20209.05</v>
+        <v>6473.05</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>22523.25</v>
+        <v>7444.05</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>22583.25</v>
+        <v>7504.05</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>23937.45</v>
+        <v>7439.0499999999993</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>24022.45</v>
+        <v>7524.0499999999993</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>26326.66</v>
+        <v>8485.06</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>26386.66</v>
+        <v>8545.06</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>27900.86</v>
+        <v>8640.06</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>13884.43</v>
+        <v>4254.03</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>55349.72</v>
+        <v>16828.12</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="C44" s="82">
         <f>B44/BF27</f>
-        <v>0.82440037637046748</v>
+        <v>2.7115524491149334</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83764BC-0D8A-4045-9AFA-44B51D6687C2}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DED81362-958F-44C0-86F8-1B730B678082}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1138,6 +1138,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1484,22 +1487,22 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF30" sqref="BF30"/>
+      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="10" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" style="10" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" style="10" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" style="10" customWidth="1"/>
@@ -2752,95 +2755,100 @@
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21">
-        <v>60</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="X13" s="23"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="22">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="21"/>
+      <c r="AE13" s="21">
+        <v>20</v>
+      </c>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="21"/>
       <c r="AI13" s="21"/>
       <c r="AJ13" s="21"/>
       <c r="AK13" s="21"/>
       <c r="AL13" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="5"/>
       <c r="AN13" s="21"/>
       <c r="AO13" s="21"/>
       <c r="AP13" s="25">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="22">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="AR13" s="5"/>
       <c r="AS13" s="24"/>
       <c r="AT13" s="24"/>
       <c r="AU13" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="21"/>
       <c r="AW13" s="21"/>
       <c r="AX13" s="21"/>
       <c r="AY13" s="21"/>
       <c r="AZ13" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="21"/>
       <c r="BB13" s="21"/>
       <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
+      <c r="BD13" s="21">
+        <v>0</v>
+      </c>
       <c r="BE13" s="22">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="22">
         <f t="shared" si="8"/>
-        <v>660</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2889,13 +2897,15 @@
       <c r="AI14" s="21"/>
       <c r="AJ14" s="21"/>
       <c r="AL14" s="21"/>
-      <c r="AM14" s="5"/>
+      <c r="AM14" s="85">
+        <v>543</v>
+      </c>
       <c r="AN14" s="21"/>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21"/>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
@@ -2916,7 +2926,7 @@
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3225,7 +3235,7 @@
       </c>
       <c r="E18" s="29">
         <f t="shared" si="9"/>
-        <v>1071</v>
+        <v>1011</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" si="9"/>
@@ -3241,7 +3251,7 @@
       </c>
       <c r="I18" s="29">
         <f t="shared" si="9"/>
-        <v>1071</v>
+        <v>1011</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" si="9"/>
@@ -3261,11 +3271,11 @@
       </c>
       <c r="N18" s="29">
         <f t="shared" si="9"/>
-        <v>1036</v>
+        <v>976</v>
       </c>
       <c r="O18" s="30">
         <f t="shared" si="9"/>
-        <v>3272.9700000000003</v>
+        <v>3092.9700000000003</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" si="9"/>
@@ -3281,7 +3291,7 @@
       </c>
       <c r="S18" s="29">
         <f t="shared" si="9"/>
-        <v>1071</v>
+        <v>1011</v>
       </c>
       <c r="T18" s="29">
         <f t="shared" si="9"/>
@@ -3297,7 +3307,7 @@
       </c>
       <c r="W18" s="29">
         <f t="shared" si="9"/>
-        <v>1071</v>
+        <v>1011</v>
       </c>
       <c r="X18" s="29">
         <f t="shared" si="9"/>
@@ -3317,11 +3327,11 @@
       </c>
       <c r="AB18" s="31">
         <f t="shared" si="9"/>
-        <v>1036</v>
+        <v>976</v>
       </c>
       <c r="AC18" s="30">
         <f t="shared" si="9"/>
-        <v>3272.9700000000003</v>
+        <v>3092.9700000000003</v>
       </c>
       <c r="AD18" s="29">
         <f t="shared" si="9"/>
@@ -3329,7 +3339,7 @@
       </c>
       <c r="AE18" s="29">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AF18" s="29">
         <f t="shared" si="9"/>
@@ -3337,7 +3347,7 @@
       </c>
       <c r="AG18" s="29">
         <f t="shared" si="9"/>
-        <v>1071</v>
+        <v>1011</v>
       </c>
       <c r="AH18" s="29">
         <f t="shared" ref="AH18:BF18" si="10">SUM(AH2:AH17)</f>
@@ -3357,11 +3367,11 @@
       </c>
       <c r="AL18" s="29">
         <f t="shared" si="10"/>
-        <v>1036</v>
+        <v>976</v>
       </c>
       <c r="AM18" s="29">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>553</v>
       </c>
       <c r="AN18" s="29">
         <f t="shared" si="10"/>
@@ -3373,11 +3383,11 @@
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
-        <v>1036</v>
+        <v>976</v>
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3272.9700000000003</v>
+        <v>3655.9700000000003</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3393,7 +3403,7 @@
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
-        <v>1071</v>
+        <v>1011</v>
       </c>
       <c r="AV18" s="29">
         <f t="shared" si="10"/>
@@ -3413,7 +3423,7 @@
       </c>
       <c r="AZ18" s="29">
         <f t="shared" si="10"/>
-        <v>1036</v>
+        <v>976</v>
       </c>
       <c r="BA18" s="29">
         <f t="shared" si="10"/>
@@ -3433,11 +3443,11 @@
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>3112.9700000000003</v>
+        <v>2992.9700000000003</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12931.880000000001</v>
+        <v>12834.880000000001</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -4163,20 +4173,20 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
-      <c r="AH25" s="9">
-        <v>292</v>
-      </c>
+      <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
-      <c r="AL25" s="9"/>
+      <c r="AL25" s="9">
+        <v>1134</v>
+      </c>
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="45"/>
       <c r="AQ25" s="36">
         <f t="shared" si="13"/>
-        <v>292</v>
+        <v>1134</v>
       </c>
       <c r="AR25" s="46"/>
       <c r="AS25" s="9"/>
@@ -4197,7 +4207,7 @@
       </c>
       <c r="BF25" s="36">
         <f t="shared" si="15"/>
-        <v>292</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4222,39 +4232,39 @@
       </c>
       <c r="F26" s="47">
         <f t="shared" si="16"/>
-        <v>2012.0100000000002</v>
+        <v>2072.0100000000002</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" si="16"/>
-        <v>2097.0200000000004</v>
+        <v>2157.0200000000004</v>
       </c>
       <c r="H26" s="47">
         <f t="shared" si="16"/>
-        <v>3058.0200000000004</v>
+        <v>3118.0200000000004</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="16"/>
-        <v>3153.0200000000004</v>
+        <v>3213.0200000000004</v>
       </c>
       <c r="J26" s="47">
         <f t="shared" si="16"/>
-        <v>3053.0200000000004</v>
+        <v>3173.0200000000004</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="16"/>
-        <v>3148.0200000000004</v>
+        <v>3268.0200000000004</v>
       </c>
       <c r="L26" s="47">
         <f t="shared" si="16"/>
-        <v>4109.0200000000004</v>
+        <v>4229.0200000000004</v>
       </c>
       <c r="M26" s="47">
         <f t="shared" si="16"/>
-        <v>4194.0300000000007</v>
+        <v>4314.0300000000007</v>
       </c>
       <c r="N26" s="48">
         <f t="shared" si="16"/>
-        <v>5130.0300000000007</v>
+        <v>5250.0300000000007</v>
       </c>
       <c r="O26" s="30">
         <f>SUM(O19:O23)+O25</f>
@@ -4262,55 +4272,55 @@
       </c>
       <c r="P26" s="47">
         <f t="shared" ref="P26:AB26" si="17">SUM(P19:P23)+P25+O27</f>
-        <v>5065.03</v>
+        <v>5245.03</v>
       </c>
       <c r="Q26" s="47">
         <f t="shared" si="17"/>
-        <v>5150.04</v>
+        <v>5330.04</v>
       </c>
       <c r="R26" s="47">
         <f t="shared" si="17"/>
-        <v>6111.04</v>
+        <v>6291.04</v>
       </c>
       <c r="S26" s="47">
         <f t="shared" si="17"/>
-        <v>6206.04</v>
+        <v>6386.04</v>
       </c>
       <c r="T26" s="47">
         <f t="shared" si="17"/>
-        <v>6106.04</v>
+        <v>6346.04</v>
       </c>
       <c r="U26" s="47">
         <f t="shared" si="17"/>
-        <v>6191.05</v>
+        <v>6431.05</v>
       </c>
       <c r="V26" s="47">
         <f t="shared" si="17"/>
-        <v>7152.05</v>
+        <v>7392.05</v>
       </c>
       <c r="W26" s="47">
         <f t="shared" si="17"/>
-        <v>7247.05</v>
+        <v>7487.05</v>
       </c>
       <c r="X26" s="47">
         <f t="shared" si="17"/>
-        <v>7147.05</v>
+        <v>7447.05</v>
       </c>
       <c r="Y26" s="47">
         <f t="shared" si="17"/>
-        <v>7242.05</v>
+        <v>7542.05</v>
       </c>
       <c r="Z26" s="47">
         <f t="shared" si="17"/>
-        <v>8203.0499999999993</v>
+        <v>8503.0499999999993</v>
       </c>
       <c r="AA26" s="47">
         <f t="shared" si="17"/>
-        <v>8288.06</v>
+        <v>8588.06</v>
       </c>
       <c r="AB26" s="48">
         <f t="shared" si="17"/>
-        <v>9224.06</v>
+        <v>9524.06</v>
       </c>
       <c r="AC26" s="30">
         <f>SUM(AC19:AC23)+AC25</f>
@@ -4318,111 +4328,111 @@
       </c>
       <c r="AD26" s="47">
         <f t="shared" ref="AD26:AP26" si="18">SUM(AD19:AD23)+AD25+AC27</f>
-        <v>5065.03</v>
+        <v>5245.03</v>
       </c>
       <c r="AE26" s="47">
         <f t="shared" si="18"/>
-        <v>5150.04</v>
+        <v>5330.04</v>
       </c>
       <c r="AF26" s="47">
         <f t="shared" si="18"/>
-        <v>6111.04</v>
+        <v>6271.04</v>
       </c>
       <c r="AG26" s="47">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
-        <v>6206.04</v>
+        <v>6366.04</v>
       </c>
       <c r="AH26" s="47">
         <f>SUM(AH19:AH23)+AH25+AG27</f>
-        <v>6398.04</v>
+        <v>6326.04</v>
       </c>
       <c r="AI26" s="47">
         <f t="shared" si="18"/>
-        <v>6483.05</v>
+        <v>6411.05</v>
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>7444.05</v>
+        <v>7372.05</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>7539.05</v>
+        <v>7467.05</v>
       </c>
       <c r="AL26" s="47">
         <f t="shared" si="18"/>
-        <v>8475.0499999999993</v>
+        <v>9537.0499999999993</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>7534.0499999999993</v>
+        <v>8656.0499999999993</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>8495.0499999999993</v>
+        <v>9074.0499999999993</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>8580.06</v>
+        <v>9159.06</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>9516.06</v>
+        <v>10095.06</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
-        <v>7659</v>
+        <v>8501</v>
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>5357.03</v>
+        <v>5816.03</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>5442.04</v>
+        <v>5901.04</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>6403.04</v>
+        <v>6862.04</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>6498.04</v>
+        <v>6957.04</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>6398.04</v>
+        <v>6917.04</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>6483.05</v>
+        <v>7002.05</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>7444.05</v>
+        <v>7963.05</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>7539.05</v>
+        <v>8058.05</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>8475.0499999999993</v>
+        <v>8994.0499999999993</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>7534.0499999999993</v>
+        <v>8113.0499999999993</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>8495.0499999999993</v>
+        <v>9074.0499999999993</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>8580.06</v>
+        <v>9159.06</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>9516.06</v>
+        <v>10095.06</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4430,7 +4440,7 @@
       </c>
       <c r="BF26" s="30">
         <f>SUM(BF19:BF23)+BF25</f>
-        <v>29760</v>
+        <v>30602</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4449,219 +4459,219 @@
       </c>
       <c r="E27" s="51">
         <f t="shared" si="20"/>
-        <v>1041.0100000000002</v>
+        <v>1101.0100000000002</v>
       </c>
       <c r="F27" s="50">
         <f t="shared" si="20"/>
-        <v>2002.0200000000002</v>
+        <v>2062.0200000000004</v>
       </c>
       <c r="G27" s="50">
         <f t="shared" si="20"/>
-        <v>2087.0200000000004</v>
+        <v>2147.0200000000004</v>
       </c>
       <c r="H27" s="50">
         <f t="shared" si="20"/>
-        <v>3058.0200000000004</v>
+        <v>3118.0200000000004</v>
       </c>
       <c r="I27" s="51">
         <f t="shared" si="20"/>
-        <v>2082.0200000000004</v>
+        <v>2202.0200000000004</v>
       </c>
       <c r="J27" s="50">
         <f t="shared" si="20"/>
-        <v>3053.0200000000004</v>
+        <v>3173.0200000000004</v>
       </c>
       <c r="K27" s="50">
         <f t="shared" si="20"/>
-        <v>3138.0200000000004</v>
+        <v>3258.0200000000004</v>
       </c>
       <c r="L27" s="50">
         <f t="shared" si="20"/>
-        <v>4099.0300000000007</v>
+        <v>4219.0300000000007</v>
       </c>
       <c r="M27" s="50">
         <f t="shared" si="20"/>
-        <v>4159.0300000000007</v>
+        <v>4279.0300000000007</v>
       </c>
       <c r="N27" s="52">
         <f t="shared" si="20"/>
-        <v>4094.0300000000007</v>
+        <v>4274.0300000000007</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="20"/>
-        <v>4094.0299999999997</v>
+        <v>4274.03</v>
       </c>
       <c r="P27" s="50">
         <f t="shared" si="20"/>
-        <v>5055.04</v>
+        <v>5235.04</v>
       </c>
       <c r="Q27" s="50">
         <f t="shared" si="20"/>
-        <v>5140.04</v>
+        <v>5320.04</v>
       </c>
       <c r="R27" s="50">
         <f t="shared" si="20"/>
-        <v>6111.04</v>
+        <v>6291.04</v>
       </c>
       <c r="S27" s="51">
         <f t="shared" si="20"/>
-        <v>5135.04</v>
+        <v>5375.04</v>
       </c>
       <c r="T27" s="50">
         <f t="shared" si="20"/>
-        <v>6096.05</v>
+        <v>6336.05</v>
       </c>
       <c r="U27" s="50">
         <f t="shared" si="20"/>
-        <v>6181.05</v>
+        <v>6421.05</v>
       </c>
       <c r="V27" s="50">
         <f t="shared" si="20"/>
-        <v>7152.05</v>
+        <v>7392.05</v>
       </c>
       <c r="W27" s="51">
         <f t="shared" si="20"/>
-        <v>6176.05</v>
+        <v>6476.05</v>
       </c>
       <c r="X27" s="50">
         <f t="shared" si="20"/>
-        <v>7147.05</v>
+        <v>7447.05</v>
       </c>
       <c r="Y27" s="50">
         <f t="shared" si="20"/>
-        <v>7232.05</v>
+        <v>7532.05</v>
       </c>
       <c r="Z27" s="50">
         <f t="shared" si="20"/>
-        <v>8193.06</v>
+        <v>8493.06</v>
       </c>
       <c r="AA27" s="50">
         <f t="shared" si="20"/>
-        <v>8253.06</v>
+        <v>8553.06</v>
       </c>
       <c r="AB27" s="52">
         <f t="shared" si="20"/>
-        <v>8188.0599999999995</v>
+        <v>8548.06</v>
       </c>
       <c r="AC27" s="53">
         <f t="shared" si="20"/>
-        <v>4094.0299999999997</v>
+        <v>4274.03</v>
       </c>
       <c r="AD27" s="50">
         <f t="shared" si="20"/>
-        <v>5055.04</v>
+        <v>5235.04</v>
       </c>
       <c r="AE27" s="50">
         <f t="shared" si="20"/>
-        <v>5140.04</v>
+        <v>5300.04</v>
       </c>
       <c r="AF27" s="50">
         <f t="shared" si="20"/>
-        <v>6111.04</v>
+        <v>6271.04</v>
       </c>
       <c r="AG27" s="51">
         <f t="shared" si="20"/>
-        <v>5135.04</v>
+        <v>5355.04</v>
       </c>
       <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>6388.05</v>
+        <v>6316.05</v>
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>6473.05</v>
+        <v>6401.05</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>7444.05</v>
+        <v>7372.05</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>7504.05</v>
+        <v>7432.05</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>7439.0499999999993</v>
+        <v>8561.0499999999993</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>7524.0499999999993</v>
+        <v>8103.0499999999993</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>8485.06</v>
+        <v>9064.06</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>8545.06</v>
+        <v>9124.06</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>8480.06</v>
+        <v>9119.06</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>4386.03</v>
+        <v>4845.03</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>5347.04</v>
+        <v>5806.04</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>5432.04</v>
+        <v>5891.04</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>6403.04</v>
+        <v>6862.04</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>5427.04</v>
+        <v>5946.04</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>6388.05</v>
+        <v>6907.05</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>6473.05</v>
+        <v>6992.05</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>7444.05</v>
+        <v>7963.05</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>7504.05</v>
+        <v>8023.05</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>7439.0499999999993</v>
+        <v>8018.0499999999993</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>7524.0499999999993</v>
+        <v>8103.0499999999993</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>8485.06</v>
+        <v>9064.06</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>8545.06</v>
+        <v>9124.06</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>8640.06</v>
+        <v>9219.06</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>4254.03</v>
+        <v>4374.03</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>16828.12</v>
+        <v>17767.12</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4957,7 +4967,7 @@
       </c>
       <c r="C44" s="82">
         <f>B44/BF27</f>
-        <v>2.7115524491149334</v>
+        <v>2.5682457258126243</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DED81362-958F-44C0-86F8-1B730B678082}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C42D500-C930-41FC-AFD6-07700129192F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1487,10 +1487,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4708,7 +4708,7 @@
         <v>111336</v>
       </c>
       <c r="D30" s="65">
-        <v>9675.81</v>
+        <v>12485.67</v>
       </c>
       <c r="E30" s="66">
         <v>-105776</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C41" s="64">
         <f>SUM(C30:H30)</f>
-        <v>31006.28</v>
+        <v>33816.14</v>
       </c>
       <c r="D41" s="81">
         <f>SUM(C38:F38)</f>
@@ -4963,11 +4963,11 @@
     <row r="44" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="79">
         <f>SUM(B41:D41)</f>
-        <v>45630.329999999994</v>
+        <v>48440.189999999995</v>
       </c>
       <c r="C44" s="82">
         <f>B44/BF27</f>
-        <v>2.5682457258126243</v>
+        <v>2.7263951613992585</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C42D500-C930-41FC-AFD6-07700129192F}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4CD96B4-03EC-4C08-A077-2557539764BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Monthly</t>
+    Electric, Water, Parking, Mail, Amenities</t>
       </text>
     </comment>
     <comment ref="N27" authorId="16" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Type</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>Taxes Due</t>
+  </si>
+  <si>
+    <t>Utilities</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1459,7 @@
     <text>Flowers, Cards, Bike, etc.</text>
   </threadedComment>
   <threadedComment ref="A17" dT="2025-06-30T05:26:03.85" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
-    <text>Monthly</text>
+    <text>Electric, Water, Parking, Mail, Amenities</text>
   </threadedComment>
   <threadedComment ref="N27" dT="2025-07-06T00:21:20.99" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
     <text>Consolidate</text>
@@ -1487,10 +1490,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="17" spans="1:61" s="17" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="21"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4CD96B4-03EC-4C08-A077-2557539764BE}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F77BAB9-AC84-4E0B-820A-BE756754A602}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,6 +53,9 @@
     <author>tc={E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}</author>
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
     <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
+    <author>tc={075D13F8-F905-45F2-8710-CB20A9A8521D}</author>
+    <author>tc={8041B31D-F5F4-48B1-9C78-671BA10CA68B}</author>
+    <author>tc={620121F4-360E-448C-A8BB-24BEF0677135}</author>
     <author>tc={F7780402-B8B0-44EE-9069-B18543FE466A}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
     <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
@@ -160,7 +163,31 @@
     Boots</t>
       </text>
     </comment>
-    <comment ref="AL14" authorId="12" shapeId="0" xr:uid="{F7780402-B8B0-44EE-9069-B18543FE466A}">
+    <comment ref="AH14" authorId="12" shapeId="0" xr:uid="{075D13F8-F905-45F2-8710-CB20A9A8521D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Amazon List</t>
+      </text>
+    </comment>
+    <comment ref="AI14" authorId="13" shapeId="0" xr:uid="{8041B31D-F5F4-48B1-9C78-671BA10CA68B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Wallet, Shades</t>
+      </text>
+    </comment>
+    <comment ref="AJ14" authorId="14" shapeId="0" xr:uid="{620121F4-360E-448C-A8BB-24BEF0677135}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    DUI Treatment</t>
+      </text>
+    </comment>
+    <comment ref="AL14" authorId="15" shapeId="0" xr:uid="{F7780402-B8B0-44EE-9069-B18543FE466A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,7 +195,7 @@
     Rest of Wishlist</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="13" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="A15" authorId="16" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +203,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="14" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="17" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -184,7 +211,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="15" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="18" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +219,7 @@
     Electric, Water, Parking, Mail, Amenities</t>
       </text>
     </comment>
-    <comment ref="N27" authorId="16" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="N27" authorId="19" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +227,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="17" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="20" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -208,7 +235,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AP27" authorId="18" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+    <comment ref="AP27" authorId="21" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -216,7 +243,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="19" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="22" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -224,7 +251,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="20" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B43" authorId="23" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -437,7 +464,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -529,6 +556,12 @@
       <name val="Goudy Old Style"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1143,7 +1176,7 @@
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1449,6 +1482,15 @@
   <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
     <text>Boots</text>
   </threadedComment>
+  <threadedComment ref="AH14" dT="2025-07-27T19:47:07.69" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{075D13F8-F905-45F2-8710-CB20A9A8521D}">
+    <text>Amazon List</text>
+  </threadedComment>
+  <threadedComment ref="AI14" dT="2025-07-27T19:47:20.31" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{8041B31D-F5F4-48B1-9C78-671BA10CA68B}">
+    <text>Wallet, Shades</text>
+  </threadedComment>
+  <threadedComment ref="AJ14" dT="2025-07-27T19:47:29.16" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{620121F4-360E-448C-A8BB-24BEF0677135}">
+    <text>DUI Treatment</text>
+  </threadedComment>
   <threadedComment ref="AL14" dT="2025-07-08T03:00:47.71" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{F7780402-B8B0-44EE-9069-B18543FE466A}">
     <text>Rest of Wishlist</text>
   </threadedComment>
@@ -1490,10 +1532,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="AP27" sqref="AP27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2896,19 +2938,23 @@
       <c r="AE14" s="21"/>
       <c r="AF14" s="41"/>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
+      <c r="AH14" s="21">
+        <v>507.91</v>
+      </c>
+      <c r="AI14" s="21">
+        <v>327</v>
+      </c>
+      <c r="AJ14" s="21">
+        <v>320</v>
+      </c>
       <c r="AL14" s="21"/>
-      <c r="AM14" s="85">
-        <v>543</v>
-      </c>
+      <c r="AM14" s="85"/>
       <c r="AN14" s="21"/>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21"/>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>543</v>
+        <v>1154.9100000000001</v>
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
@@ -2929,7 +2975,7 @@
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>543</v>
+        <v>1154.9100000000001</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3354,15 +3400,15 @@
       </c>
       <c r="AH18" s="29">
         <f t="shared" ref="AH18:BF18" si="10">SUM(AH2:AH17)</f>
-        <v>9.99</v>
+        <v>517.9</v>
       </c>
       <c r="AI18" s="29">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="AJ18" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AK18" s="29">
         <f t="shared" si="10"/>
@@ -3374,7 +3420,7 @@
       </c>
       <c r="AM18" s="29">
         <f t="shared" si="10"/>
-        <v>553</v>
+        <v>10</v>
       </c>
       <c r="AN18" s="29">
         <f t="shared" si="10"/>
@@ -3390,7 +3436,7 @@
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3655.9700000000003</v>
+        <v>4267.88</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3450,7 +3496,7 @@
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12834.880000000001</v>
+        <v>13446.79</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -4351,35 +4397,35 @@
       </c>
       <c r="AI26" s="47">
         <f t="shared" si="18"/>
-        <v>6411.05</v>
+        <v>5903.14</v>
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>7372.05</v>
+        <v>6537.14</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>7467.05</v>
+        <v>6312.14</v>
       </c>
       <c r="AL26" s="47">
         <f t="shared" si="18"/>
-        <v>9537.0499999999993</v>
+        <v>8382.14</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>8656.0499999999993</v>
+        <v>7501.1399999999994</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>9074.0499999999993</v>
+        <v>8462.14</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>9159.06</v>
+        <v>8547.15</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>10095.06</v>
+        <v>9483.15</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4387,55 +4433,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>5816.03</v>
+        <v>5204.12</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>5901.04</v>
+        <v>5289.13</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>6862.04</v>
+        <v>6250.13</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>6957.04</v>
+        <v>6345.13</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>6917.04</v>
+        <v>6305.13</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>7002.05</v>
+        <v>6390.14</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>7963.05</v>
+        <v>7351.14</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>8058.05</v>
+        <v>7446.14</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>8994.0499999999993</v>
+        <v>8382.14</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>8113.0499999999993</v>
+        <v>7501.1399999999994</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>9074.0499999999993</v>
+        <v>8462.14</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>9159.06</v>
+        <v>8547.15</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>10095.06</v>
+        <v>9483.15</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4578,95 +4624,95 @@
       </c>
       <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>6316.05</v>
+        <v>5808.14</v>
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>6401.05</v>
+        <v>5566.14</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>7372.05</v>
+        <v>6217.14</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>7432.05</v>
+        <v>6277.14</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>8561.0499999999993</v>
+        <v>7406.1399999999994</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>8103.0499999999993</v>
+        <v>7491.1399999999994</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>9064.06</v>
+        <v>8452.15</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>9124.06</v>
+        <v>8512.15</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>9119.06</v>
+        <v>8507.15</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>4845.03</v>
+        <v>4233.12</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>5806.04</v>
+        <v>5194.13</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>5891.04</v>
+        <v>5279.13</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>6862.04</v>
+        <v>6250.13</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>5946.04</v>
+        <v>5334.13</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>6907.05</v>
+        <v>6295.14</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>6992.05</v>
+        <v>6380.14</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>7963.05</v>
+        <v>7351.14</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>8023.05</v>
+        <v>7411.14</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>8018.0499999999993</v>
+        <v>7406.1399999999994</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>8103.0499999999993</v>
+        <v>7491.1399999999994</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>9064.06</v>
+        <v>8452.15</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>9124.06</v>
+        <v>8512.15</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>9219.06</v>
+        <v>8607.15</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
@@ -4674,7 +4720,7 @@
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>17767.12</v>
+        <v>17155.21</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4970,7 +5016,7 @@
       </c>
       <c r="C44" s="82">
         <f>B44/BF27</f>
-        <v>2.7263951613992585</v>
+        <v>2.8236430798573728</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -464,7 +464,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -556,12 +556,6 @@
       <name val="Goudy Old Style"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -922,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1174,9 +1168,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1532,7 +1523,7 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AP27" sqref="AP27"/>
@@ -2948,7 +2939,7 @@
         <v>320</v>
       </c>
       <c r="AL14" s="21"/>
-      <c r="AM14" s="85"/>
+      <c r="AM14" s="5"/>
       <c r="AN14" s="21"/>
       <c r="AO14" s="21"/>
       <c r="AP14" s="21"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F77BAB9-AC84-4E0B-820A-BE756754A602}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79DDEF1A-C700-4E26-BEA6-E9F4DB770F9E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1168,6 +1168,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1523,10 +1526,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP27" sqref="AP27"/>
+      <selection pane="bottomRight" activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2929,13 +2932,13 @@
       <c r="AE14" s="21"/>
       <c r="AF14" s="41"/>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="21">
+      <c r="AH14" s="85">
         <v>507.91</v>
       </c>
-      <c r="AI14" s="21">
+      <c r="AI14" s="85">
         <v>327</v>
       </c>
-      <c r="AJ14" s="21">
+      <c r="AJ14" s="85">
         <v>320</v>
       </c>
       <c r="AL14" s="21"/>
@@ -4124,10 +4127,9 @@
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
-      <c r="AH24" s="9">
+      <c r="AI24" s="9">
         <v>292</v>
       </c>
-      <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
@@ -4213,13 +4215,12 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
+      <c r="AH25" s="9">
+        <v>1134</v>
+      </c>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
-      <c r="AL25" s="9">
-        <v>1134</v>
-      </c>
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
@@ -4382,41 +4383,41 @@
         <f>SUM(AG19:AG23)+AG25+AF27</f>
         <v>6366.04</v>
       </c>
-      <c r="AH26" s="47">
-        <f>SUM(AH19:AH23)+AH25+AG27</f>
-        <v>6326.04</v>
-      </c>
-      <c r="AI26" s="47">
+      <c r="AH26" s="47" t="e">
+        <f>SUM(AH19:AH23)+#REF!+AG27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI26" s="47" t="e">
         <f t="shared" si="18"/>
-        <v>5903.14</v>
-      </c>
-      <c r="AJ26" s="47">
+        <v>#REF!</v>
+      </c>
+      <c r="AJ26" s="47" t="e">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>6537.14</v>
-      </c>
-      <c r="AK26" s="47">
+        <v>#REF!</v>
+      </c>
+      <c r="AK26" s="47" t="e">
         <f t="shared" si="18"/>
-        <v>6312.14</v>
-      </c>
-      <c r="AL26" s="47">
+        <v>#REF!</v>
+      </c>
+      <c r="AL26" s="47" t="e">
+        <f>SUM(AL19:AL23)+AH25+AK27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AM26" s="47" t="e">
         <f t="shared" si="18"/>
-        <v>8382.14</v>
-      </c>
-      <c r="AM26" s="47">
+        <v>#REF!</v>
+      </c>
+      <c r="AN26" s="47" t="e">
+        <f>SUM(AN19:AN23)+AN25+AM27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO26" s="47" t="e">
         <f t="shared" si="18"/>
-        <v>7501.1399999999994</v>
-      </c>
-      <c r="AN26" s="47">
-        <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>8462.14</v>
-      </c>
-      <c r="AO26" s="47">
+        <v>#REF!</v>
+      </c>
+      <c r="AP26" s="48" t="e">
         <f t="shared" si="18"/>
-        <v>8547.15</v>
-      </c>
-      <c r="AP26" s="48">
-        <f t="shared" si="18"/>
-        <v>9483.15</v>
+        <v>#REF!</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4613,41 +4614,41 @@
         <f t="shared" si="20"/>
         <v>5355.04</v>
       </c>
-      <c r="AH27" s="50">
+      <c r="AH27" s="50" t="e">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>5808.14</v>
-      </c>
-      <c r="AI27" s="50">
+        <v>#REF!</v>
+      </c>
+      <c r="AI27" s="50" t="e">
         <f t="shared" si="21"/>
-        <v>5566.14</v>
-      </c>
-      <c r="AJ27" s="50">
+        <v>#REF!</v>
+      </c>
+      <c r="AJ27" s="50" t="e">
         <f t="shared" si="21"/>
-        <v>6217.14</v>
-      </c>
-      <c r="AK27" s="50">
+        <v>#REF!</v>
+      </c>
+      <c r="AK27" s="50" t="e">
         <f t="shared" si="21"/>
-        <v>6277.14</v>
-      </c>
-      <c r="AL27" s="51">
+        <v>#REF!</v>
+      </c>
+      <c r="AL27" s="51" t="e">
         <f t="shared" si="21"/>
-        <v>7406.1399999999994</v>
-      </c>
-      <c r="AM27" s="50">
+        <v>#REF!</v>
+      </c>
+      <c r="AM27" s="50" t="e">
         <f t="shared" si="21"/>
-        <v>7491.1399999999994</v>
-      </c>
-      <c r="AN27" s="50">
+        <v>#REF!</v>
+      </c>
+      <c r="AN27" s="50" t="e">
         <f t="shared" si="21"/>
-        <v>8452.15</v>
-      </c>
-      <c r="AO27" s="50">
+        <v>#REF!</v>
+      </c>
+      <c r="AO27" s="50" t="e">
         <f t="shared" si="21"/>
-        <v>8512.15</v>
-      </c>
-      <c r="AP27" s="54">
+        <v>#REF!</v>
+      </c>
+      <c r="AP27" s="54" t="e">
         <f t="shared" si="21"/>
-        <v>8507.15</v>
+        <v>#REF!</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{39ED4330-4E8E-4ECB-8F7D-898CB08B236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79DDEF1A-C700-4E26-BEA6-E9F4DB770F9E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{7E386206-EDB3-4BFC-8706-7DF335C909A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1526,10 +1526,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI24" sqref="AI24"/>
+      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4383,41 +4383,41 @@
         <f>SUM(AG19:AG23)+AG25+AF27</f>
         <v>6366.04</v>
       </c>
-      <c r="AH26" s="47" t="e">
-        <f>SUM(AH19:AH23)+#REF!+AG27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI26" s="47" t="e">
+      <c r="AH26" s="47">
+        <f>SUM(AH19:AH23)+AG25+AG27</f>
+        <v>6326.04</v>
+      </c>
+      <c r="AI26" s="47">
+        <f>SUM(AI19:AI23)+AI25+AH27</f>
+        <v>5903.14</v>
+      </c>
+      <c r="AJ26" s="47">
+        <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
+        <v>6537.14</v>
+      </c>
+      <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ26" s="47" t="e">
-        <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK26" s="47" t="e">
+        <v>6312.14</v>
+      </c>
+      <c r="AL26" s="47">
+        <f>SUM(AL19:AL23)+AH25+AK27</f>
+        <v>8382.14</v>
+      </c>
+      <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AL26" s="47" t="e">
-        <f>SUM(AL19:AL23)+AH25+AK27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM26" s="47" t="e">
+        <v>7501.1399999999994</v>
+      </c>
+      <c r="AN26" s="47">
+        <f>SUM(AN19:AN23)+AN25+AM27</f>
+        <v>8462.14</v>
+      </c>
+      <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AN26" s="47" t="e">
-        <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO26" s="47" t="e">
+        <v>8547.15</v>
+      </c>
+      <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AP26" s="48" t="e">
-        <f t="shared" si="18"/>
-        <v>#REF!</v>
+        <v>9483.15</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4614,41 +4614,41 @@
         <f t="shared" si="20"/>
         <v>5355.04</v>
       </c>
-      <c r="AH27" s="50" t="e">
+      <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI27" s="50" t="e">
+        <v>5808.14</v>
+      </c>
+      <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ27" s="50" t="e">
+        <v>5566.14</v>
+      </c>
+      <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AK27" s="50" t="e">
+        <v>6217.14</v>
+      </c>
+      <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AL27" s="51" t="e">
+        <v>6277.14</v>
+      </c>
+      <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AM27" s="50" t="e">
+        <v>7406.1399999999994</v>
+      </c>
+      <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AN27" s="50" t="e">
+        <v>7491.1399999999994</v>
+      </c>
+      <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AO27" s="50" t="e">
+        <v>8452.15</v>
+      </c>
+      <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AP27" s="54" t="e">
+        <v>8512.15</v>
+      </c>
+      <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
+        <v>8507.15</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{7E386206-EDB3-4BFC-8706-7DF335C909A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{7E386206-EDB3-4BFC-8706-7DF335C909A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DCC36BE-3C21-44DF-8AB3-3FCFEFDDE557}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1526,10 +1526,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
+      <selection pane="bottomRight" activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2936,7 +2936,7 @@
         <v>507.91</v>
       </c>
       <c r="AI14" s="85">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="AJ14" s="85">
         <v>320</v>
@@ -2948,7 +2948,7 @@
       <c r="AP14" s="21"/>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>1154.9100000000001</v>
+        <v>1127.9100000000001</v>
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>1154.9100000000001</v>
+        <v>1127.9100000000001</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="AI18" s="29">
         <f t="shared" si="10"/>
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="AJ18" s="29">
         <f t="shared" si="10"/>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>4267.88</v>
+        <v>4240.88</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>13446.79</v>
+        <v>13419.79</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -4393,31 +4393,31 @@
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>6537.14</v>
+        <v>6564.14</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>6312.14</v>
+        <v>6339.14</v>
       </c>
       <c r="AL26" s="47">
         <f>SUM(AL19:AL23)+AH25+AK27</f>
-        <v>8382.14</v>
+        <v>8409.14</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>7501.1399999999994</v>
+        <v>7528.1399999999994</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>8462.14</v>
+        <v>8489.14</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>8547.15</v>
+        <v>8574.15</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>9483.15</v>
+        <v>9510.15</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4425,55 +4425,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>5204.12</v>
+        <v>5231.12</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>5289.13</v>
+        <v>5316.13</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>6250.13</v>
+        <v>6277.13</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>6345.13</v>
+        <v>6372.13</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>6305.13</v>
+        <v>6332.13</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>6390.14</v>
+        <v>6417.14</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>7351.14</v>
+        <v>7378.14</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>7446.14</v>
+        <v>7473.14</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>8382.14</v>
+        <v>8409.14</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>7501.1399999999994</v>
+        <v>7528.1399999999994</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>8462.14</v>
+        <v>8489.14</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>8547.15</v>
+        <v>8574.15</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>9483.15</v>
+        <v>9510.15</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4620,91 +4620,91 @@
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>5566.14</v>
+        <v>5593.14</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>6217.14</v>
+        <v>6244.14</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>6277.14</v>
+        <v>6304.14</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>7406.1399999999994</v>
+        <v>7433.1399999999994</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>7491.1399999999994</v>
+        <v>7518.1399999999994</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>8452.15</v>
+        <v>8479.15</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>8512.15</v>
+        <v>8539.15</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>8507.15</v>
+        <v>8534.15</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>4233.12</v>
+        <v>4260.12</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>5194.13</v>
+        <v>5221.13</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>5279.13</v>
+        <v>5306.13</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>6250.13</v>
+        <v>6277.13</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>5334.13</v>
+        <v>5361.13</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>6295.14</v>
+        <v>6322.14</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>6380.14</v>
+        <v>6407.14</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>7351.14</v>
+        <v>7378.14</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>7411.14</v>
+        <v>7438.14</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>7406.1399999999994</v>
+        <v>7433.1399999999994</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>7491.1399999999994</v>
+        <v>7518.1399999999994</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>8452.15</v>
+        <v>8479.15</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>8512.15</v>
+        <v>8539.15</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>8607.15</v>
+        <v>8634.15</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>17155.21</v>
+        <v>17182.21</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="C44" s="82">
         <f>B44/BF27</f>
-        <v>2.8236430798573728</v>
+        <v>2.8192060276297402</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{7E386206-EDB3-4BFC-8706-7DF335C909A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DCC36BE-3C21-44DF-8AB3-3FCFEFDDE557}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{7E386206-EDB3-4BFC-8706-7DF335C909A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F083572A-8A80-42D0-8A44-53DF3132A613}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2028" windowWidth="23040" windowHeight="9480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget 2025" sheetId="1" r:id="rId1"/>
@@ -53,8 +53,6 @@
     <author>tc={E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}</author>
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
     <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
-    <author>tc={075D13F8-F905-45F2-8710-CB20A9A8521D}</author>
-    <author>tc={8041B31D-F5F4-48B1-9C78-671BA10CA68B}</author>
     <author>tc={620121F4-360E-448C-A8BB-24BEF0677135}</author>
     <author>tc={F7780402-B8B0-44EE-9069-B18543FE466A}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
@@ -163,23 +161,7 @@
     Boots</t>
       </text>
     </comment>
-    <comment ref="AH14" authorId="12" shapeId="0" xr:uid="{075D13F8-F905-45F2-8710-CB20A9A8521D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Amazon List</t>
-      </text>
-    </comment>
-    <comment ref="AI14" authorId="13" shapeId="0" xr:uid="{8041B31D-F5F4-48B1-9C78-671BA10CA68B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Wallet, Shades</t>
-      </text>
-    </comment>
-    <comment ref="AJ14" authorId="14" shapeId="0" xr:uid="{620121F4-360E-448C-A8BB-24BEF0677135}">
+    <comment ref="AJ14" authorId="12" shapeId="0" xr:uid="{620121F4-360E-448C-A8BB-24BEF0677135}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -187,7 +169,7 @@
     DUI Treatment</t>
       </text>
     </comment>
-    <comment ref="AL14" authorId="15" shapeId="0" xr:uid="{F7780402-B8B0-44EE-9069-B18543FE466A}">
+    <comment ref="AL14" authorId="13" shapeId="0" xr:uid="{F7780402-B8B0-44EE-9069-B18543FE466A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -195,7 +177,7 @@
     Rest of Wishlist</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="16" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="A15" authorId="14" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -203,7 +185,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="17" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="15" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -211,7 +193,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="18" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="16" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -219,7 +201,7 @@
     Electric, Water, Parking, Mail, Amenities</t>
       </text>
     </comment>
-    <comment ref="N27" authorId="19" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="N27" authorId="17" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -227,7 +209,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="20" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="18" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -235,7 +217,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AP27" authorId="21" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+    <comment ref="AP27" authorId="19" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -243,7 +225,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="22" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="20" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -251,7 +233,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="23" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B43" authorId="21" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -916,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1171,6 +1153,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1476,12 +1461,6 @@
   <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
     <text>Boots</text>
   </threadedComment>
-  <threadedComment ref="AH14" dT="2025-07-27T19:47:07.69" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{075D13F8-F905-45F2-8710-CB20A9A8521D}">
-    <text>Amazon List</text>
-  </threadedComment>
-  <threadedComment ref="AI14" dT="2025-07-27T19:47:20.31" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{8041B31D-F5F4-48B1-9C78-671BA10CA68B}">
-    <text>Wallet, Shades</text>
-  </threadedComment>
   <threadedComment ref="AJ14" dT="2025-07-27T19:47:29.16" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{620121F4-360E-448C-A8BB-24BEF0677135}">
     <text>DUI Treatment</text>
   </threadedComment>
@@ -1529,7 +1508,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ11" sqref="AJ11"/>
+      <selection pane="bottomRight" activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2932,12 +2911,8 @@
       <c r="AE14" s="21"/>
       <c r="AF14" s="41"/>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="85">
-        <v>507.91</v>
-      </c>
-      <c r="AI14" s="85">
-        <v>300</v>
-      </c>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
       <c r="AJ14" s="85">
         <v>320</v>
       </c>
@@ -2948,7 +2923,7 @@
       <c r="AP14" s="21"/>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>1127.9100000000001</v>
+        <v>320</v>
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
@@ -2969,7 +2944,7 @@
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>1127.9100000000001</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3394,11 +3369,11 @@
       </c>
       <c r="AH18" s="29">
         <f t="shared" ref="AH18:BF18" si="10">SUM(AH2:AH17)</f>
-        <v>517.9</v>
+        <v>9.99</v>
       </c>
       <c r="AI18" s="29">
         <f t="shared" si="10"/>
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="AJ18" s="29">
         <f t="shared" si="10"/>
@@ -3430,7 +3405,7 @@
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>4240.88</v>
+        <v>3432.9700000000003</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3490,7 +3465,7 @@
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>13419.79</v>
+        <v>12611.880000000001</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -4389,35 +4364,35 @@
       </c>
       <c r="AI26" s="47">
         <f>SUM(AI19:AI23)+AI25+AH27</f>
-        <v>5903.14</v>
+        <v>6411.05</v>
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>6564.14</v>
+        <v>7372.05</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>6339.14</v>
+        <v>7147.05</v>
       </c>
       <c r="AL26" s="47">
         <f>SUM(AL19:AL23)+AH25+AK27</f>
-        <v>8409.14</v>
+        <v>9217.0499999999993</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>7528.1399999999994</v>
+        <v>8336.0499999999993</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>8489.14</v>
+        <v>9297.0499999999993</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>8574.15</v>
+        <v>9382.06</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>9510.15</v>
+        <v>10318.06</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4425,55 +4400,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>5231.12</v>
+        <v>6039.03</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>5316.13</v>
+        <v>6124.04</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>6277.13</v>
+        <v>7085.04</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>6372.13</v>
+        <v>7180.04</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>6332.13</v>
+        <v>7140.04</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>6417.14</v>
+        <v>7225.05</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>7378.14</v>
+        <v>8186.05</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>7473.14</v>
+        <v>8281.0499999999993</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>8409.14</v>
+        <v>9217.0499999999993</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>7528.1399999999994</v>
+        <v>8336.0499999999993</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>8489.14</v>
+        <v>9297.0499999999993</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>8574.15</v>
+        <v>9382.06</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>9510.15</v>
+        <v>10318.06</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4616,95 +4591,95 @@
       </c>
       <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>5808.14</v>
+        <v>6316.05</v>
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>5593.14</v>
+        <v>6401.05</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>6244.14</v>
+        <v>7052.05</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>6304.14</v>
+        <v>7112.05</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>7433.1399999999994</v>
+        <v>8241.0499999999993</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>7518.1399999999994</v>
+        <v>8326.0499999999993</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>8479.15</v>
+        <v>9287.06</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>8539.15</v>
+        <v>9347.06</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>8534.15</v>
+        <v>9342.06</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>4260.12</v>
+        <v>5068.03</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>5221.13</v>
+        <v>6029.04</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>5306.13</v>
+        <v>6114.04</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>6277.13</v>
+        <v>7085.04</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>5361.13</v>
+        <v>6169.04</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>6322.14</v>
+        <v>7130.05</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>6407.14</v>
+        <v>7215.05</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>7378.14</v>
+        <v>8186.05</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>7438.14</v>
+        <v>8246.0499999999993</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>7433.1399999999994</v>
+        <v>8241.0499999999993</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>7518.1399999999994</v>
+        <v>8326.0499999999993</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>8479.15</v>
+        <v>9287.06</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>8539.15</v>
+        <v>9347.06</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>8634.15</v>
+        <v>9442.06</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
@@ -4712,7 +4687,7 @@
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>17182.21</v>
+        <v>17990.12</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5008,7 +4983,7 @@
       </c>
       <c r="C44" s="82">
         <f>B44/BF27</f>
-        <v>2.8192060276297402</v>
+        <v>2.6925996046718974</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="14_{7E386206-EDB3-4BFC-8706-7DF335C909A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F083572A-8A80-42D0-8A44-53DF3132A613}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{7E386206-EDB3-4BFC-8706-7DF335C909A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A8D7C71-AFC8-46A7-8638-3168031A0DCB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2028" windowWidth="23040" windowHeight="9480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget 2025" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,6 @@
     <author>tc={E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}</author>
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
     <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
-    <author>tc={620121F4-360E-448C-A8BB-24BEF0677135}</author>
     <author>tc={F7780402-B8B0-44EE-9069-B18543FE466A}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
     <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
@@ -161,15 +160,7 @@
     Boots</t>
       </text>
     </comment>
-    <comment ref="AJ14" authorId="12" shapeId="0" xr:uid="{620121F4-360E-448C-A8BB-24BEF0677135}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    DUI Treatment</t>
-      </text>
-    </comment>
-    <comment ref="AL14" authorId="13" shapeId="0" xr:uid="{F7780402-B8B0-44EE-9069-B18543FE466A}">
+    <comment ref="AL14" authorId="12" shapeId="0" xr:uid="{F7780402-B8B0-44EE-9069-B18543FE466A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -177,7 +168,7 @@
     Rest of Wishlist</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="14" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="A15" authorId="13" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -185,7 +176,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="15" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="14" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -193,7 +184,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="16" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="15" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -201,7 +192,7 @@
     Electric, Water, Parking, Mail, Amenities</t>
       </text>
     </comment>
-    <comment ref="N27" authorId="17" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="N27" authorId="16" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -209,7 +200,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="18" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="17" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -217,7 +208,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AP27" authorId="19" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+    <comment ref="AP27" authorId="18" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -225,7 +216,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="20" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="19" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -233,7 +224,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="21" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B43" authorId="20" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -898,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1150,9 +1141,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,9 +1449,6 @@
   <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
     <text>Boots</text>
   </threadedComment>
-  <threadedComment ref="AJ14" dT="2025-07-27T19:47:29.16" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{620121F4-360E-448C-A8BB-24BEF0677135}">
-    <text>DUI Treatment</text>
-  </threadedComment>
   <threadedComment ref="AL14" dT="2025-07-08T03:00:47.71" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{F7780402-B8B0-44EE-9069-B18543FE466A}">
     <text>Rest of Wishlist</text>
   </threadedComment>
@@ -1505,10 +1490,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ14" sqref="AJ14"/>
+      <selection pane="bottomRight" activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2911,11 +2896,8 @@
       <c r="AE14" s="21"/>
       <c r="AF14" s="41"/>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="85">
-        <v>320</v>
-      </c>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
       <c r="AL14" s="21"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="21"/>
@@ -2923,7 +2905,7 @@
       <c r="AP14" s="21"/>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
@@ -2944,7 +2926,7 @@
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3011,7 +2993,7 @@
       </c>
       <c r="AH15" s="21"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
+      <c r="AJ15" s="85"/>
       <c r="AK15" s="21"/>
       <c r="AL15" s="21">
         <f>E15</f>
@@ -3377,7 +3359,7 @@
       </c>
       <c r="AJ18" s="29">
         <f t="shared" si="10"/>
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="29">
         <f t="shared" si="10"/>
@@ -3405,7 +3387,7 @@
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3432.9700000000003</v>
+        <v>3112.9700000000003</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3465,7 +3447,7 @@
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12611.880000000001</v>
+        <v>12291.880000000001</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -4372,27 +4354,27 @@
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>7147.05</v>
+        <v>7467.05</v>
       </c>
       <c r="AL26" s="47">
         <f>SUM(AL19:AL23)+AH25+AK27</f>
-        <v>9217.0499999999993</v>
+        <v>9537.0499999999993</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>8336.0499999999993</v>
+        <v>8656.0499999999993</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>9297.0499999999993</v>
+        <v>9617.0499999999993</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>9382.06</v>
+        <v>9702.06</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>10318.06</v>
+        <v>10638.06</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4400,55 +4382,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>6039.03</v>
+        <v>6359.03</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>6124.04</v>
+        <v>6444.04</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>7085.04</v>
+        <v>7405.04</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>7180.04</v>
+        <v>7500.04</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>7140.04</v>
+        <v>7460.04</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>7225.05</v>
+        <v>7545.05</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>8186.05</v>
+        <v>8506.0499999999993</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>8281.0499999999993</v>
+        <v>8601.0499999999993</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>9217.0499999999993</v>
+        <v>9537.0499999999993</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>8336.0499999999993</v>
+        <v>8656.0499999999993</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>9297.0499999999993</v>
+        <v>9617.0499999999993</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>9382.06</v>
+        <v>9702.06</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>10318.06</v>
+        <v>10638.06</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4599,87 +4581,87 @@
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>7052.05</v>
+        <v>7372.05</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>7112.05</v>
+        <v>7432.05</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>8241.0499999999993</v>
+        <v>8561.0499999999993</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>8326.0499999999993</v>
+        <v>8646.0499999999993</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>9287.06</v>
+        <v>9607.06</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>9347.06</v>
+        <v>9667.06</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>9342.06</v>
+        <v>9662.06</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>5068.03</v>
+        <v>5388.03</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>6029.04</v>
+        <v>6349.04</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>6114.04</v>
+        <v>6434.04</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>7085.04</v>
+        <v>7405.04</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>6169.04</v>
+        <v>6489.04</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>7130.05</v>
+        <v>7450.05</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>7215.05</v>
+        <v>7535.05</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>8186.05</v>
+        <v>8506.0499999999993</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>8246.0499999999993</v>
+        <v>8566.0499999999993</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>8241.0499999999993</v>
+        <v>8561.0499999999993</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>8326.0499999999993</v>
+        <v>8646.0499999999993</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>9287.06</v>
+        <v>9607.06</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>9347.06</v>
+        <v>9667.06</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>9442.06</v>
+        <v>9762.06</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
@@ -4687,7 +4669,7 @@
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>17990.12</v>
+        <v>18310.12</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4983,7 +4965,7 @@
       </c>
       <c r="C44" s="82">
         <f>B44/BF27</f>
-        <v>2.6925996046718974</v>
+        <v>2.6455419188951246</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{7E386206-EDB3-4BFC-8706-7DF335C909A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A8D7C71-AFC8-46A7-8638-3168031A0DCB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FB0AB2-8F25-4616-97D7-2B439E9113C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,13 +50,12 @@
     <author>tc={06B25615-ACD3-4324-8355-FA20D083F987}</author>
     <author>tc={719F640A-B3BA-4C1D-A8DF-ADAF84A5BA7F}</author>
     <author>tc={3AE6F7DC-4535-43DA-BFFD-7C585CC37669}</author>
-    <author>tc={E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}</author>
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
     <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
-    <author>tc={F7780402-B8B0-44EE-9069-B18543FE466A}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
     <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
     <author>tc={C80F882F-58A5-4C62-98CE-F86F6971772E}</author>
+    <author>tc={A43F0397-9D84-401B-B7FF-7AAF78751520}</author>
     <author>tc={EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}</author>
     <author>tc={4B88355D-9209-4405-B7B7-6AE6D134BD4A}</author>
     <author>tc={95FD1110-5369-4C97-A741-45307BBFA4F0}</author>
@@ -136,15 +135,7 @@
     Phone, Service, Fees</t>
       </text>
     </comment>
-    <comment ref="AK13" authorId="9" shapeId="0" xr:uid="{E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verizon</t>
-      </text>
-    </comment>
-    <comment ref="AF14" authorId="10" shapeId="0" xr:uid="{349F2372-D8F3-4A55-988B-DE936EBDEF80}">
+    <comment ref="AF14" authorId="9" shapeId="0" xr:uid="{349F2372-D8F3-4A55-988B-DE936EBDEF80}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +143,7 @@
     </t>
       </text>
     </comment>
-    <comment ref="AG14" authorId="11" shapeId="0" xr:uid="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
+    <comment ref="AG14" authorId="10" shapeId="0" xr:uid="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -160,15 +151,7 @@
     Boots</t>
       </text>
     </comment>
-    <comment ref="AL14" authorId="12" shapeId="0" xr:uid="{F7780402-B8B0-44EE-9069-B18543FE466A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Rest of Wishlist</t>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="13" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="A15" authorId="11" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +159,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="14" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="12" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -184,7 +167,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="15" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="13" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +175,15 @@
     Electric, Water, Parking, Mail, Amenities</t>
       </text>
     </comment>
-    <comment ref="N27" authorId="16" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="A24" authorId="14" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Hot Food!</t>
+      </text>
+    </comment>
+    <comment ref="N27" authorId="15" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +191,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="17" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="16" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -208,7 +199,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AP27" authorId="18" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+    <comment ref="AP27" authorId="17" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -216,7 +207,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="19" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="18" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -224,7 +215,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="20" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B43" authorId="19" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -437,7 +428,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -529,6 +520,12 @@
       <name val="Goudy Old Style"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -889,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1141,9 +1138,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1440,17 +1434,11 @@
   <threadedComment ref="A13" dT="2025-06-16T03:21:00.61" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{3AE6F7DC-4535-43DA-BFFD-7C585CC37669}">
     <text>Phone, Service, Fees</text>
   </threadedComment>
-  <threadedComment ref="AK13" dT="2025-07-08T02:59:53.67" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E05B31CB-C56F-403E-A3C2-FA3DE0D7BD37}">
-    <text>Verizon</text>
-  </threadedComment>
   <threadedComment ref="AF14" dT="2025-07-08T03:00:27.44" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{349F2372-D8F3-4A55-988B-DE936EBDEF80}">
     <text/>
   </threadedComment>
   <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
     <text>Boots</text>
-  </threadedComment>
-  <threadedComment ref="AL14" dT="2025-07-08T03:00:47.71" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{F7780402-B8B0-44EE-9069-B18543FE466A}">
-    <text>Rest of Wishlist</text>
   </threadedComment>
   <threadedComment ref="A15" dT="2025-06-16T03:18:48.60" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
     <text>Downtown?</text>
@@ -1460,6 +1448,9 @@
   </threadedComment>
   <threadedComment ref="A17" dT="2025-06-30T05:26:03.85" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
     <text>Electric, Water, Parking, Mail, Amenities</text>
+  </threadedComment>
+  <threadedComment ref="A24" dT="2025-08-22T23:20:38.26" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
+    <text>Hot Food!</text>
   </threadedComment>
   <threadedComment ref="N27" dT="2025-07-06T00:21:20.99" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
     <text>Consolidate</text>
@@ -1490,10 +1481,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ9" sqref="AJ9"/>
+      <selection pane="bottomRight" activeCell="AX23" sqref="AX23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2993,7 +2984,7 @@
       </c>
       <c r="AH15" s="21"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="85"/>
+      <c r="AJ15" s="21"/>
       <c r="AK15" s="21"/>
       <c r="AL15" s="21">
         <f>E15</f>
@@ -4026,9 +4017,6 @@
         <f t="shared" si="15"/>
         <v>24528</v>
       </c>
-      <c r="BG23" s="80" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="24" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
@@ -4128,6 +4116,9 @@
       <c r="BF24" s="36">
         <f t="shared" si="15"/>
         <v>3504</v>
+      </c>
+      <c r="BG24" s="80" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:61" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4172,9 +4163,7 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
-      <c r="AH25" s="9">
-        <v>1134</v>
-      </c>
+      <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
@@ -4184,7 +4173,7 @@
       <c r="AP25" s="45"/>
       <c r="AQ25" s="36">
         <f t="shared" si="13"/>
-        <v>1134</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="46"/>
       <c r="AS25" s="9"/>
@@ -4205,7 +4194,7 @@
       </c>
       <c r="BF25" s="36">
         <f t="shared" si="15"/>
-        <v>1134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4358,79 +4347,79 @@
       </c>
       <c r="AL26" s="47">
         <f>SUM(AL19:AL23)+AH25+AK27</f>
-        <v>9537.0499999999993</v>
+        <v>8403.0499999999993</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>8656.0499999999993</v>
+        <v>7522.0499999999993</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>9617.0499999999993</v>
+        <v>8483.0499999999993</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>9702.06</v>
+        <v>8568.06</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>10638.06</v>
+        <v>9504.06</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
-        <v>8501</v>
+        <v>7367</v>
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>6359.03</v>
+        <v>5225.03</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>6444.04</v>
+        <v>5310.04</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>7405.04</v>
+        <v>6271.04</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>7500.04</v>
+        <v>6366.04</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>7460.04</v>
+        <v>6326.04</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>7545.05</v>
+        <v>6411.05</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>8506.0499999999993</v>
+        <v>7372.05</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>8601.0499999999993</v>
+        <v>7467.05</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>9537.0499999999993</v>
+        <v>8403.0499999999993</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>8656.0499999999993</v>
+        <v>7522.0499999999993</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>9617.0499999999993</v>
+        <v>8483.0499999999993</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>9702.06</v>
+        <v>8568.06</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>10638.06</v>
+        <v>9504.06</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4438,7 +4427,7 @@
       </c>
       <c r="BF26" s="30">
         <f>SUM(BF19:BF23)+BF25</f>
-        <v>30602</v>
+        <v>29468</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4589,79 +4578,79 @@
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>8561.0499999999993</v>
+        <v>7427.0499999999993</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>8646.0499999999993</v>
+        <v>7512.0499999999993</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>9607.06</v>
+        <v>8473.06</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>9667.06</v>
+        <v>8533.06</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>9662.06</v>
+        <v>8528.06</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>5388.03</v>
+        <v>4254.03</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>6349.04</v>
+        <v>5215.04</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>6434.04</v>
+        <v>5300.04</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>7405.04</v>
+        <v>6271.04</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>6489.04</v>
+        <v>5355.04</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>7450.05</v>
+        <v>6316.05</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>7535.05</v>
+        <v>6401.05</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>8506.0499999999993</v>
+        <v>7372.05</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>8566.0499999999993</v>
+        <v>7432.05</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>8561.0499999999993</v>
+        <v>7427.0499999999993</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>8646.0499999999993</v>
+        <v>7512.0499999999993</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>9607.06</v>
+        <v>8473.06</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>9667.06</v>
+        <v>8533.06</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>9762.06</v>
+        <v>8628.06</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
@@ -4669,7 +4658,7 @@
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>18310.12</v>
+        <v>17176.12</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4965,7 +4954,7 @@
       </c>
       <c r="C44" s="82">
         <f>B44/BF27</f>
-        <v>2.6455419188951246</v>
+        <v>2.8202056110460334</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FB0AB2-8F25-4616-97D7-2B439E9113C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -428,7 +428,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -519,12 +519,6 @@
       <color rgb="FFEE0000"/>
       <name val="Goudy Old Style"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1481,10 +1475,10 @@
   <dimension ref="A1:BI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX23" sqref="AX23"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FB0AB2-8F25-4616-97D7-2B439E9113C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048EFC30-6E3D-4B50-B114-D81BE623845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="19" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B64" authorId="19" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -521,7 +521,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +576,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -880,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1132,6 +1144,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1207,6 +1234,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF00FF99"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1458,13 +1489,13 @@
   <threadedComment ref="BD27" dT="2025-07-06T00:22:00.36" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
     <text>Consolidate</text>
   </threadedComment>
-  <threadedComment ref="B43" dT="2025-06-16T02:20:26.57" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+  <threadedComment ref="B64" dT="2025-06-16T02:20:26.57" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
     <text>Duration</text>
   </threadedComment>
-  <threadedComment ref="B43" dT="2025-06-16T02:20:43.63" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9981D998-8F31-4AB5-B8EE-02F0B2DDC047}" parentId="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+  <threadedComment ref="B64" dT="2025-06-16T02:20:43.63" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9981D998-8F31-4AB5-B8EE-02F0B2DDC047}" parentId="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
     <text xml:space="preserve">2.652 years @ Min Wage </text>
   </threadedComment>
-  <threadedComment ref="B43" dT="2025-06-16T02:22:16.72" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{72A254E2-297A-4006-8536-0570A9167D66}" parentId="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+  <threadedComment ref="B64" dT="2025-06-16T02:22:16.72" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{72A254E2-297A-4006-8536-0570A9167D66}" parentId="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
     <text>.78715 years @ 66K</text>
   </threadedComment>
 </ThreadedComments>
@@ -1472,13 +1503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI47"/>
+  <dimension ref="A1:BI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1516,7 +1547,7 @@
     <col min="31" max="31" width="15.6640625" style="10" customWidth="1"/>
     <col min="32" max="32" width="16.77734375" style="10" customWidth="1"/>
     <col min="33" max="33" width="22.44140625" style="10" customWidth="1"/>
-    <col min="34" max="34" width="30.88671875" style="10" customWidth="1"/>
+    <col min="34" max="34" width="29.21875" style="10" customWidth="1"/>
     <col min="35" max="35" width="20.33203125" style="10" customWidth="1"/>
     <col min="36" max="36" width="17.44140625" style="10" customWidth="1"/>
     <col min="37" max="37" width="15.44140625" style="10" customWidth="1"/>
@@ -1524,7 +1555,7 @@
     <col min="39" max="39" width="14.88671875" style="10" customWidth="1"/>
     <col min="40" max="40" width="14.6640625" style="10" customWidth="1"/>
     <col min="41" max="41" width="15.5546875" style="10" customWidth="1"/>
-    <col min="42" max="42" width="15" style="10" customWidth="1"/>
+    <col min="42" max="42" width="16.5546875" style="10" customWidth="1"/>
     <col min="43" max="43" width="14.109375" style="10" customWidth="1"/>
     <col min="44" max="44" width="16.6640625" style="10" customWidth="1"/>
     <col min="45" max="45" width="14.44140625" style="10" customWidth="1"/>
@@ -1931,74 +1962,98 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6">
+        <v>15</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="N4" s="6">
+        <v>15</v>
+      </c>
       <c r="O4" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="6"/>
+      <c r="S4" s="6">
+        <v>15</v>
+      </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="W4" s="6">
+        <v>15</v>
+      </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
+      <c r="AB4" s="6">
+        <v>15</v>
+      </c>
       <c r="AC4" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="5"/>
+      <c r="AG4" s="5">
+        <v>15</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
+      <c r="AL4" s="6">
+        <v>15</v>
+      </c>
       <c r="AM4" s="6"/>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
-      <c r="AP4" s="11"/>
+      <c r="AP4" s="11">
+        <v>15</v>
+      </c>
       <c r="AQ4" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AR4" s="7"/>
       <c r="AS4" s="12"/>
       <c r="AT4" s="12"/>
-      <c r="AU4" s="6"/>
+      <c r="AU4" s="6">
+        <v>15</v>
+      </c>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
       <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
+      <c r="AZ4" s="6">
+        <v>15</v>
+      </c>
       <c r="BA4" s="6"/>
       <c r="BB4" s="6"/>
       <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
+      <c r="BD4" s="6">
+        <v>15</v>
+      </c>
       <c r="BE4" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="BF4" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2743,48 +2798,53 @@
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="X13" s="23"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AC13" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD13" s="5"/>
       <c r="AE13" s="21">
@@ -2792,51 +2852,57 @@
       </c>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AH13" s="21"/>
       <c r="AI13" s="21"/>
       <c r="AJ13" s="21"/>
       <c r="AK13" s="21"/>
       <c r="AL13" s="21">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AM13" s="5"/>
       <c r="AN13" s="21"/>
       <c r="AO13" s="21"/>
       <c r="AP13" s="25">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AQ13" s="22">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AR13" s="5"/>
       <c r="AS13" s="24"/>
       <c r="AT13" s="24"/>
       <c r="AU13" s="21">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AV13" s="21"/>
       <c r="AW13" s="21"/>
       <c r="AX13" s="21"/>
       <c r="AY13" s="21"/>
       <c r="AZ13" s="21">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="BA13" s="21"/>
       <c r="BB13" s="21"/>
       <c r="BC13" s="21"/>
       <c r="BD13" s="21">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="BE13" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF13" s="22">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2894,7 +2960,9 @@
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
+      <c r="AT14" s="88">
+        <v>688.96</v>
+      </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
       <c r="AW14" s="21"/>
@@ -2907,11 +2975,11 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>688.96</v>
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>688.96</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2922,14 +2990,15 @@
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21">
-        <v>876</v>
+        <f>850</f>
+        <v>850</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -2937,25 +3006,25 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="4"/>
-        <v>2628</v>
+        <v>2550</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="X15" s="23"/>
       <c r="Y15" s="21"/>
@@ -2963,18 +3032,18 @@
       <c r="AA15" s="21"/>
       <c r="AB15" s="21">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="AC15" s="22">
         <f>SUM(P15:AB15)</f>
-        <v>2628</v>
+        <v>2550</v>
       </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
       <c r="AG15" s="21">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="AH15" s="21"/>
       <c r="AI15" s="21"/>
@@ -2982,25 +3051,25 @@
       <c r="AK15" s="21"/>
       <c r="AL15" s="21">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="AM15" s="5"/>
       <c r="AN15" s="21"/>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="AQ15" s="22">
         <f t="shared" si="6"/>
-        <v>2628</v>
+        <v>2550</v>
       </c>
       <c r="AR15" s="5"/>
       <c r="AS15" s="24"/>
       <c r="AT15" s="24"/>
       <c r="AU15" s="21">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="AV15" s="21"/>
       <c r="AW15" s="21"/>
@@ -3008,22 +3077,22 @@
       <c r="AY15" s="21"/>
       <c r="AZ15" s="21">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="BA15" s="21"/>
       <c r="BB15" s="21"/>
       <c r="BC15" s="21"/>
       <c r="BD15" s="5">
         <f>E15</f>
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="BE15" s="22">
         <f t="shared" si="7"/>
-        <v>2628</v>
+        <v>2550</v>
       </c>
       <c r="BF15" s="22">
         <f t="shared" si="8"/>
-        <v>10512</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3220,7 +3289,7 @@
       </c>
       <c r="E18" s="29">
         <f t="shared" si="9"/>
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" si="9"/>
@@ -3236,7 +3305,7 @@
       </c>
       <c r="I18" s="29">
         <f t="shared" si="9"/>
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="J18" s="29">
         <f t="shared" si="9"/>
@@ -3256,11 +3325,11 @@
       </c>
       <c r="N18" s="29">
         <f t="shared" si="9"/>
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="O18" s="30">
         <f t="shared" si="9"/>
-        <v>3092.9700000000003</v>
+        <v>3062.9700000000003</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" si="9"/>
@@ -3276,7 +3345,7 @@
       </c>
       <c r="S18" s="29">
         <f t="shared" si="9"/>
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="T18" s="29">
         <f t="shared" si="9"/>
@@ -3292,7 +3361,7 @@
       </c>
       <c r="W18" s="29">
         <f t="shared" si="9"/>
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="X18" s="29">
         <f t="shared" si="9"/>
@@ -3312,11 +3381,11 @@
       </c>
       <c r="AB18" s="31">
         <f t="shared" si="9"/>
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AC18" s="30">
         <f t="shared" si="9"/>
-        <v>3092.9700000000003</v>
+        <v>3062.9700000000003</v>
       </c>
       <c r="AD18" s="29">
         <f t="shared" si="9"/>
@@ -3332,7 +3401,7 @@
       </c>
       <c r="AG18" s="29">
         <f t="shared" si="9"/>
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="AH18" s="29">
         <f t="shared" ref="AH18:BF18" si="10">SUM(AH2:AH17)</f>
@@ -3352,7 +3421,7 @@
       </c>
       <c r="AL18" s="29">
         <f t="shared" si="10"/>
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AM18" s="29">
         <f t="shared" si="10"/>
@@ -3368,11 +3437,11 @@
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3112.9700000000003</v>
+        <v>3082.9700000000003</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3384,11 +3453,11 @@
       </c>
       <c r="AT18" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>688.96</v>
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="AV18" s="29">
         <f t="shared" si="10"/>
@@ -3408,7 +3477,7 @@
       </c>
       <c r="AZ18" s="29">
         <f t="shared" si="10"/>
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BA18" s="29">
         <f t="shared" si="10"/>
@@ -3424,15 +3493,15 @@
       </c>
       <c r="BD18" s="31">
         <f t="shared" si="10"/>
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>2992.9700000000003</v>
+        <v>3651.9300000000003</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12291.880000000001</v>
+        <v>12860.84</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -3625,35 +3694,35 @@
       <c r="AJ20" s="39">
         <v>95</v>
       </c>
-      <c r="AK20" s="39">
-        <v>95</v>
-      </c>
-      <c r="AL20" s="39">
-        <v>95</v>
-      </c>
-      <c r="AM20" s="39">
-        <v>95</v>
-      </c>
-      <c r="AN20" s="39">
-        <v>95</v>
-      </c>
-      <c r="AO20" s="39">
-        <v>95</v>
-      </c>
-      <c r="AP20" s="40">
+      <c r="AK20" s="89">
+        <v>95</v>
+      </c>
+      <c r="AL20" s="85">
+        <v>95</v>
+      </c>
+      <c r="AM20" s="85">
+        <v>95</v>
+      </c>
+      <c r="AN20" s="85">
+        <v>95</v>
+      </c>
+      <c r="AO20" s="85">
+        <v>95</v>
+      </c>
+      <c r="AP20" s="86">
         <v>95</v>
       </c>
       <c r="AQ20" s="36">
         <f t="shared" si="13"/>
         <v>1235</v>
       </c>
-      <c r="AR20" s="41">
-        <v>95</v>
-      </c>
-      <c r="AS20" s="39">
-        <v>95</v>
-      </c>
-      <c r="AT20" s="39">
+      <c r="AR20" s="87">
+        <v>95</v>
+      </c>
+      <c r="AS20" s="85">
+        <v>95</v>
+      </c>
+      <c r="AT20" s="85">
         <v>95</v>
       </c>
       <c r="AU20" s="39">
@@ -4137,7 +4206,9 @@
         <v>0</v>
       </c>
       <c r="P25" s="46"/>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="9">
+        <v>6568.56</v>
+      </c>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -4151,7 +4222,7 @@
       <c r="AB25" s="45"/>
       <c r="AC25" s="36">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6568.56</v>
       </c>
       <c r="AD25" s="46"/>
       <c r="AE25" s="9"/>
@@ -4188,7 +4259,7 @@
       </c>
       <c r="BF25" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6568.56</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4213,39 +4284,39 @@
       </c>
       <c r="F26" s="47">
         <f t="shared" si="16"/>
-        <v>2072.0100000000002</v>
+        <v>2082.0100000000002</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" si="16"/>
-        <v>2157.0200000000004</v>
+        <v>2167.0200000000004</v>
       </c>
       <c r="H26" s="47">
         <f t="shared" si="16"/>
-        <v>3118.0200000000004</v>
+        <v>3128.0200000000004</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="16"/>
-        <v>3213.0200000000004</v>
+        <v>3223.0200000000004</v>
       </c>
       <c r="J26" s="47">
         <f t="shared" si="16"/>
-        <v>3173.0200000000004</v>
+        <v>3193.0200000000004</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="16"/>
-        <v>3268.0200000000004</v>
+        <v>3288.0200000000004</v>
       </c>
       <c r="L26" s="47">
         <f t="shared" si="16"/>
-        <v>4229.0200000000004</v>
+        <v>4249.0200000000004</v>
       </c>
       <c r="M26" s="47">
         <f t="shared" si="16"/>
-        <v>4314.0300000000007</v>
+        <v>4334.0300000000007</v>
       </c>
       <c r="N26" s="48">
         <f t="shared" si="16"/>
-        <v>5250.0300000000007</v>
+        <v>5270.0300000000007</v>
       </c>
       <c r="O26" s="30">
         <f>SUM(O19:O23)+O25</f>
@@ -4253,111 +4324,111 @@
       </c>
       <c r="P26" s="47">
         <f t="shared" ref="P26:AB26" si="17">SUM(P19:P23)+P25+O27</f>
-        <v>5245.03</v>
+        <v>5275.03</v>
       </c>
       <c r="Q26" s="47">
         <f t="shared" si="17"/>
-        <v>5330.04</v>
+        <v>11928.6</v>
       </c>
       <c r="R26" s="47">
         <f t="shared" si="17"/>
-        <v>6291.04</v>
+        <v>12889.6</v>
       </c>
       <c r="S26" s="47">
         <f t="shared" si="17"/>
-        <v>6386.04</v>
+        <v>12984.6</v>
       </c>
       <c r="T26" s="47">
         <f t="shared" si="17"/>
-        <v>6346.04</v>
+        <v>12954.6</v>
       </c>
       <c r="U26" s="47">
         <f t="shared" si="17"/>
-        <v>6431.05</v>
+        <v>13039.61</v>
       </c>
       <c r="V26" s="47">
         <f t="shared" si="17"/>
-        <v>7392.05</v>
+        <v>14000.61</v>
       </c>
       <c r="W26" s="47">
         <f t="shared" si="17"/>
-        <v>7487.05</v>
+        <v>14095.61</v>
       </c>
       <c r="X26" s="47">
         <f t="shared" si="17"/>
-        <v>7447.05</v>
+        <v>14065.61</v>
       </c>
       <c r="Y26" s="47">
         <f t="shared" si="17"/>
-        <v>7542.05</v>
+        <v>14160.61</v>
       </c>
       <c r="Z26" s="47">
         <f t="shared" si="17"/>
-        <v>8503.0499999999993</v>
+        <v>15121.61</v>
       </c>
       <c r="AA26" s="47">
         <f t="shared" si="17"/>
-        <v>8588.06</v>
+        <v>15206.62</v>
       </c>
       <c r="AB26" s="48">
         <f t="shared" si="17"/>
-        <v>9524.06</v>
+        <v>16142.62</v>
       </c>
       <c r="AC26" s="30">
         <f>SUM(AC19:AC23)+AC25</f>
-        <v>7367</v>
+        <v>13935.560000000001</v>
       </c>
       <c r="AD26" s="47">
         <f t="shared" ref="AD26:AP26" si="18">SUM(AD19:AD23)+AD25+AC27</f>
-        <v>5245.03</v>
+        <v>11843.59</v>
       </c>
       <c r="AE26" s="47">
         <f t="shared" si="18"/>
-        <v>5330.04</v>
+        <v>11928.6</v>
       </c>
       <c r="AF26" s="47">
         <f t="shared" si="18"/>
-        <v>6271.04</v>
+        <v>12869.6</v>
       </c>
       <c r="AG26" s="47">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
-        <v>6366.04</v>
+        <v>12964.6</v>
       </c>
       <c r="AH26" s="47">
         <f>SUM(AH19:AH23)+AG25+AG27</f>
-        <v>6326.04</v>
+        <v>12934.6</v>
       </c>
       <c r="AI26" s="47">
         <f>SUM(AI19:AI23)+AI25+AH27</f>
-        <v>6411.05</v>
+        <v>13019.61</v>
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>7372.05</v>
+        <v>13980.61</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>7467.05</v>
+        <v>14075.61</v>
       </c>
       <c r="AL26" s="47">
         <f>SUM(AL19:AL23)+AH25+AK27</f>
-        <v>8403.0499999999993</v>
+        <v>15011.61</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>7522.0499999999993</v>
+        <v>14140.61</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>8483.0499999999993</v>
+        <v>15101.61</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>8568.06</v>
+        <v>15186.62</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>9504.06</v>
+        <v>16122.62</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4365,55 +4436,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>5225.03</v>
+        <v>5255.03</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>5310.04</v>
+        <v>5340.04</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>6271.04</v>
+        <v>6301.04</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>6366.04</v>
+        <v>5707.08</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>6326.04</v>
+        <v>5677.08</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>6411.05</v>
+        <v>5762.09</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>7372.05</v>
+        <v>6723.09</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>7467.05</v>
+        <v>6818.09</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>8403.0499999999993</v>
+        <v>7754.09</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>7522.0499999999993</v>
+        <v>6883.09</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>8483.0499999999993</v>
+        <v>7844.09</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>8568.06</v>
+        <v>7929.1</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>9504.06</v>
+        <v>8865.1</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4421,7 +4492,7 @@
       </c>
       <c r="BF26" s="30">
         <f>SUM(BF19:BF23)+BF25</f>
-        <v>29468</v>
+        <v>36036.559999999998</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4440,270 +4511,228 @@
       </c>
       <c r="E27" s="51">
         <f t="shared" si="20"/>
-        <v>1101.0100000000002</v>
+        <v>1111.0100000000002</v>
       </c>
       <c r="F27" s="50">
         <f t="shared" si="20"/>
-        <v>2062.0200000000004</v>
+        <v>2072.0200000000004</v>
       </c>
       <c r="G27" s="50">
         <f t="shared" si="20"/>
-        <v>2147.0200000000004</v>
+        <v>2157.0200000000004</v>
       </c>
       <c r="H27" s="50">
         <f t="shared" si="20"/>
-        <v>3118.0200000000004</v>
+        <v>3128.0200000000004</v>
       </c>
       <c r="I27" s="51">
         <f t="shared" si="20"/>
-        <v>2202.0200000000004</v>
+        <v>2222.0200000000004</v>
       </c>
       <c r="J27" s="50">
         <f t="shared" si="20"/>
-        <v>3173.0200000000004</v>
+        <v>3193.0200000000004</v>
       </c>
       <c r="K27" s="50">
         <f t="shared" si="20"/>
-        <v>3258.0200000000004</v>
+        <v>3278.0200000000004</v>
       </c>
       <c r="L27" s="50">
         <f t="shared" si="20"/>
-        <v>4219.0300000000007</v>
+        <v>4239.0300000000007</v>
       </c>
       <c r="M27" s="50">
         <f t="shared" si="20"/>
-        <v>4279.0300000000007</v>
+        <v>4299.0300000000007</v>
       </c>
       <c r="N27" s="52">
         <f t="shared" si="20"/>
-        <v>4274.0300000000007</v>
+        <v>4304.0300000000007</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="20"/>
-        <v>4274.03</v>
+        <v>4304.03</v>
       </c>
       <c r="P27" s="50">
         <f t="shared" si="20"/>
-        <v>5235.04</v>
+        <v>5265.04</v>
       </c>
       <c r="Q27" s="50">
         <f t="shared" si="20"/>
-        <v>5320.04</v>
+        <v>11918.6</v>
       </c>
       <c r="R27" s="50">
         <f t="shared" si="20"/>
-        <v>6291.04</v>
+        <v>12889.6</v>
       </c>
       <c r="S27" s="51">
         <f t="shared" si="20"/>
-        <v>5375.04</v>
+        <v>11983.6</v>
       </c>
       <c r="T27" s="50">
         <f t="shared" si="20"/>
-        <v>6336.05</v>
+        <v>12944.61</v>
       </c>
       <c r="U27" s="50">
         <f t="shared" si="20"/>
-        <v>6421.05</v>
+        <v>13029.61</v>
       </c>
       <c r="V27" s="50">
         <f t="shared" si="20"/>
-        <v>7392.05</v>
+        <v>14000.61</v>
       </c>
       <c r="W27" s="51">
         <f t="shared" si="20"/>
-        <v>6476.05</v>
+        <v>13094.61</v>
       </c>
       <c r="X27" s="50">
         <f t="shared" si="20"/>
-        <v>7447.05</v>
+        <v>14065.61</v>
       </c>
       <c r="Y27" s="50">
         <f t="shared" si="20"/>
-        <v>7532.05</v>
+        <v>14150.61</v>
       </c>
       <c r="Z27" s="50">
         <f t="shared" si="20"/>
-        <v>8493.06</v>
+        <v>15111.62</v>
       </c>
       <c r="AA27" s="50">
         <f t="shared" si="20"/>
-        <v>8553.06</v>
+        <v>15171.62</v>
       </c>
       <c r="AB27" s="52">
         <f t="shared" si="20"/>
-        <v>8548.06</v>
+        <v>15176.62</v>
       </c>
       <c r="AC27" s="53">
         <f t="shared" si="20"/>
-        <v>4274.03</v>
+        <v>10872.59</v>
       </c>
       <c r="AD27" s="50">
         <f t="shared" si="20"/>
-        <v>5235.04</v>
+        <v>11833.6</v>
       </c>
       <c r="AE27" s="50">
         <f t="shared" si="20"/>
-        <v>5300.04</v>
+        <v>11898.6</v>
       </c>
       <c r="AF27" s="50">
         <f t="shared" si="20"/>
-        <v>6271.04</v>
+        <v>12869.6</v>
       </c>
       <c r="AG27" s="51">
         <f t="shared" si="20"/>
-        <v>5355.04</v>
+        <v>11963.6</v>
       </c>
       <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>6316.05</v>
+        <v>12924.61</v>
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>6401.05</v>
+        <v>13009.61</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>7372.05</v>
+        <v>13980.61</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>7432.05</v>
+        <v>14040.61</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>7427.0499999999993</v>
+        <v>14045.61</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>7512.0499999999993</v>
+        <v>14130.61</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>8473.06</v>
+        <v>15091.62</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>8533.06</v>
+        <v>15151.62</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>8528.06</v>
+        <v>15156.62</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>4254.03</v>
+        <v>4284.03</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>5215.04</v>
+        <v>5245.04</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>5300.04</v>
+        <v>5330.04</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>6271.04</v>
+        <v>5612.08</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>5355.04</v>
+        <v>4706.08</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>6316.05</v>
+        <v>5667.09</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>6401.05</v>
+        <v>5752.09</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>7372.05</v>
+        <v>6723.09</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>7432.05</v>
+        <v>6783.09</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>7427.0499999999993</v>
+        <v>6788.09</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>7512.0499999999993</v>
+        <v>6873.09</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>8473.06</v>
+        <v>7834.1</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>8533.06</v>
+        <v>7894.1</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>8628.06</v>
+        <v>7999.1</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>4374.03</v>
+        <v>3715.0699999999997</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>17176.12</v>
+        <v>23175.719999999998</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
-      <c r="B29" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="62"/>
       <c r="BF29" s="42"/>
     </row>
     <row r="30" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64">
-        <v>111336</v>
-      </c>
-      <c r="D30" s="65">
-        <v>12485.67</v>
-      </c>
-      <c r="E30" s="66">
-        <v>-105776</v>
-      </c>
-      <c r="F30" s="67">
-        <f>C30+E30</f>
-        <v>5560</v>
-      </c>
-      <c r="G30" s="64">
-        <v>8560</v>
-      </c>
-      <c r="H30" s="64">
-        <v>1650.47</v>
-      </c>
       <c r="Q30" s="68" t="s">
         <v>58</v>
       </c>
@@ -4716,246 +4745,306 @@
       <c r="BF30" s="69"/>
     </row>
     <row r="31" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="63"/>
-      <c r="C31" s="5"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
       <c r="BF31" s="70"/>
     </row>
     <row r="32" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="71"/>
-      <c r="B32" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="61" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="33" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="63"/>
-      <c r="C33" s="72">
-        <v>2600</v>
-      </c>
-      <c r="D33" s="72">
-        <v>1600</v>
-      </c>
-      <c r="E33" s="72">
-        <v>1400</v>
-      </c>
-      <c r="F33" s="72">
-        <v>1200</v>
-      </c>
-      <c r="G33" s="72">
-        <v>1000</v>
-      </c>
-      <c r="H33" s="72">
-        <v>700</v>
-      </c>
-      <c r="I33" s="72">
-        <v>700</v>
-      </c>
-      <c r="J33" s="72">
-        <v>500</v>
-      </c>
-      <c r="K33" s="72">
-        <v>300</v>
-      </c>
       <c r="M33" s="42"/>
       <c r="O33" s="42"/>
     </row>
     <row r="34" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="65">
-        <v>2751.76</v>
-      </c>
-      <c r="D34" s="65">
-        <v>1676.75</v>
-      </c>
-      <c r="E34" s="65">
-        <v>1492.95</v>
-      </c>
-      <c r="F34" s="65">
-        <v>154.22999999999999</v>
-      </c>
-      <c r="G34" s="65">
-        <v>1121.55</v>
-      </c>
-      <c r="H34" s="65">
-        <v>653.16</v>
-      </c>
-      <c r="I34" s="65">
-        <v>694.25</v>
-      </c>
-      <c r="J34" s="65">
-        <v>529.07000000000005</v>
-      </c>
-      <c r="K34" s="65">
-        <v>331.55</v>
-      </c>
       <c r="M34" s="73"/>
       <c r="O34" s="73"/>
     </row>
     <row r="35" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="83">
-        <f t="shared" ref="C35:I35" si="22">C33-C34</f>
-        <v>-151.76000000000022</v>
-      </c>
-      <c r="D35" s="83">
-        <f t="shared" si="22"/>
-        <v>-76.75</v>
-      </c>
-      <c r="E35" s="83">
-        <f>E33-E34</f>
-        <v>-92.950000000000045</v>
-      </c>
-      <c r="F35" s="84">
-        <f>F33-F34</f>
-        <v>1045.77</v>
-      </c>
-      <c r="G35" s="83">
-        <f>G33-G34</f>
-        <v>-121.54999999999995</v>
-      </c>
-      <c r="H35" s="84">
-        <f t="shared" si="22"/>
-        <v>46.840000000000032</v>
-      </c>
-      <c r="I35" s="84">
-        <f t="shared" si="22"/>
-        <v>5.75</v>
-      </c>
-      <c r="J35" s="83">
-        <f>J33-J34</f>
-        <v>-29.07000000000005</v>
-      </c>
-      <c r="K35" s="83">
-        <f>K33-K34</f>
-        <v>-31.550000000000011</v>
-      </c>
     </row>
     <row r="36" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42"/>
     </row>
     <row r="37" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
-      <c r="B37" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="74" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="75">
-        <v>2818</v>
-      </c>
-      <c r="D38" s="76">
-        <v>1263.1199999999999</v>
-      </c>
-      <c r="E38" s="76">
-        <v>915</v>
-      </c>
-      <c r="F38" s="77">
-        <v>222.66</v>
-      </c>
     </row>
     <row r="39" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
-      <c r="F39" s="42"/>
-    </row>
-    <row r="40" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="42"/>
-      <c r="I40" s="42"/>
-    </row>
-    <row r="41" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="64">
-        <f>SUM(C34:K34)</f>
-        <v>9405.2699999999986</v>
-      </c>
-      <c r="C41" s="64">
-        <f>SUM(C30:H30)</f>
-        <v>33816.14</v>
-      </c>
-      <c r="D41" s="81">
-        <f>SUM(C38:F38)</f>
-        <v>5218.78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-    </row>
-    <row r="44" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="79">
-        <f>SUM(B41:D41)</f>
-        <v>48440.189999999995</v>
-      </c>
-      <c r="C44" s="82">
-        <f>B44/BF27</f>
-        <v>2.8202056110460334</v>
-      </c>
     </row>
     <row r="47" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
       <c r="I47" s="42"/>
+    </row>
+    <row r="50" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="62"/>
+    </row>
+    <row r="51" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="63"/>
+      <c r="C51" s="64">
+        <v>111336</v>
+      </c>
+      <c r="D51" s="65">
+        <v>12485.67</v>
+      </c>
+      <c r="E51" s="66">
+        <v>-105776</v>
+      </c>
+      <c r="F51" s="67">
+        <f>C51+E51</f>
+        <v>5560</v>
+      </c>
+      <c r="G51" s="64">
+        <v>8560</v>
+      </c>
+      <c r="H51" s="64">
+        <v>1650.47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="63"/>
+      <c r="C52" s="5"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+    </row>
+    <row r="53" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="63"/>
+      <c r="C54" s="72">
+        <v>2600</v>
+      </c>
+      <c r="D54" s="72">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="72">
+        <v>1400</v>
+      </c>
+      <c r="F54" s="72">
+        <v>1200</v>
+      </c>
+      <c r="G54" s="72">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="72">
+        <v>700</v>
+      </c>
+      <c r="I54" s="72">
+        <v>700</v>
+      </c>
+      <c r="J54" s="72">
+        <v>500</v>
+      </c>
+      <c r="K54" s="72">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="63"/>
+      <c r="C55" s="65">
+        <v>2751.76</v>
+      </c>
+      <c r="D55" s="65">
+        <v>1676.75</v>
+      </c>
+      <c r="E55" s="65">
+        <v>1492.95</v>
+      </c>
+      <c r="F55" s="65">
+        <v>154.22999999999999</v>
+      </c>
+      <c r="G55" s="65">
+        <v>1121.55</v>
+      </c>
+      <c r="H55" s="65">
+        <v>653.16</v>
+      </c>
+      <c r="I55" s="65">
+        <v>694.25</v>
+      </c>
+      <c r="J55" s="65">
+        <v>529.07000000000005</v>
+      </c>
+      <c r="K55" s="65">
+        <v>331.55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="63"/>
+      <c r="C56" s="83">
+        <f t="shared" ref="C56:I56" si="22">C54-C55</f>
+        <v>-151.76000000000022</v>
+      </c>
+      <c r="D56" s="83">
+        <f t="shared" si="22"/>
+        <v>-76.75</v>
+      </c>
+      <c r="E56" s="83">
+        <f>E54-E55</f>
+        <v>-92.950000000000045</v>
+      </c>
+      <c r="F56" s="84">
+        <f>F54-F55</f>
+        <v>1045.77</v>
+      </c>
+      <c r="G56" s="83">
+        <f>G54-G55</f>
+        <v>-121.54999999999995</v>
+      </c>
+      <c r="H56" s="84">
+        <f t="shared" si="22"/>
+        <v>46.840000000000032</v>
+      </c>
+      <c r="I56" s="84">
+        <f t="shared" si="22"/>
+        <v>5.75</v>
+      </c>
+      <c r="J56" s="83">
+        <f>J54-J55</f>
+        <v>-29.07000000000005</v>
+      </c>
+      <c r="K56" s="83">
+        <f>K54-K55</f>
+        <v>-31.550000000000011</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="75">
+        <v>2818</v>
+      </c>
+      <c r="D59" s="76">
+        <v>1263.1199999999999</v>
+      </c>
+      <c r="E59" s="76">
+        <v>915</v>
+      </c>
+      <c r="F59" s="77">
+        <v>222.66</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="42"/>
+    </row>
+    <row r="61" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="42"/>
+      <c r="I61" s="42"/>
+    </row>
+    <row r="62" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="64">
+        <f>SUM(C55:K55)</f>
+        <v>9405.2699999999986</v>
+      </c>
+      <c r="C62" s="64">
+        <f>SUM(C51:H51)</f>
+        <v>33816.14</v>
+      </c>
+      <c r="D62" s="81">
+        <f>SUM(C59:F59)</f>
+        <v>5218.78</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+    </row>
+    <row r="65" spans="2:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="79">
+        <f>SUM(B62:D62)</f>
+        <v>48440.189999999995</v>
+      </c>
+      <c r="C65" s="82">
+        <f>B65/BF27</f>
+        <v>2.0901266497869324</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:BF25">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048EFC30-6E3D-4B50-B114-D81BE623845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE681A48-563C-4C3A-8E6A-5E09F7D2D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,7 +1158,7 @@
     <xf numFmtId="4" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1506,10 +1506,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK23" sqref="AK23"/>
+      <selection pane="bottomRight" activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE681A48-563C-4C3A-8E6A-5E09F7D2D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,7 +1158,7 @@
     <xf numFmtId="4" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1506,10 +1506,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK20" sqref="AK20"/>
+      <selection pane="bottomRight" activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3588,180 +3588,232 @@
         <v>12</v>
       </c>
       <c r="B20" s="37">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="C20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="D20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="E20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="F20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="G20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="H20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="I20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="J20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="K20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="L20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="M20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="N20" s="40">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="O20" s="36">
         <f t="shared" si="11"/>
-        <v>1235</v>
+        <v>1144</v>
       </c>
       <c r="P20" s="37">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="Q20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="R20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="S20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="T20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="U20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="V20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="W20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="X20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="Y20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="Z20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AA20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AB20" s="40">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AC20" s="36">
         <f t="shared" si="12"/>
-        <v>1235</v>
+        <v>1144</v>
       </c>
       <c r="AD20" s="37">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AE20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AF20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AG20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AH20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AI20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AJ20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AK20" s="89">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AL20" s="85">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AM20" s="85">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AN20" s="85">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AO20" s="85">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AP20" s="86">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AQ20" s="36">
         <f t="shared" si="13"/>
-        <v>1235</v>
+        <v>1144</v>
       </c>
       <c r="AR20" s="87">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AS20" s="85">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AT20" s="85">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AU20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AV20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AW20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AX20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AY20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="AZ20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="BA20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="BB20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="BC20" s="39">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="BD20" s="40">
-        <v>95</v>
+        <f>88</f>
+        <v>88</v>
       </c>
       <c r="BE20" s="36">
         <f t="shared" si="14"/>
-        <v>1235</v>
+        <v>1144</v>
       </c>
       <c r="BF20" s="36">
         <f t="shared" si="15"/>
-        <v>4940</v>
+        <v>4576</v>
       </c>
       <c r="BG20" s="42"/>
     </row>
@@ -4268,462 +4320,462 @@
       </c>
       <c r="B26" s="47">
         <f>SUM(B19:B23)+B25</f>
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="C26" s="47">
         <f>SUM(C19:C23)+C25+B27</f>
-        <v>1056.01</v>
+        <v>1042.01</v>
       </c>
       <c r="D26" s="47">
         <f t="shared" ref="D26:N26" si="16">SUM(D19:D23)+D25+C27</f>
-        <v>2017.01</v>
+        <v>1996.01</v>
       </c>
       <c r="E26" s="47">
         <f t="shared" si="16"/>
-        <v>2112.0100000000002</v>
+        <v>2084.0100000000002</v>
       </c>
       <c r="F26" s="47">
         <f t="shared" si="16"/>
-        <v>2082.0100000000002</v>
+        <v>2047.0100000000002</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" si="16"/>
-        <v>2167.0200000000004</v>
+        <v>2125.0200000000004</v>
       </c>
       <c r="H26" s="47">
         <f t="shared" si="16"/>
-        <v>3128.0200000000004</v>
+        <v>3079.0200000000004</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="16"/>
-        <v>3223.0200000000004</v>
+        <v>3167.0200000000004</v>
       </c>
       <c r="J26" s="47">
         <f t="shared" si="16"/>
-        <v>3193.0200000000004</v>
+        <v>3130.0200000000004</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="16"/>
-        <v>3288.0200000000004</v>
+        <v>3218.0200000000004</v>
       </c>
       <c r="L26" s="47">
         <f t="shared" si="16"/>
-        <v>4249.0200000000004</v>
+        <v>4172.0200000000004</v>
       </c>
       <c r="M26" s="47">
         <f t="shared" si="16"/>
-        <v>4334.0300000000007</v>
+        <v>4250.0300000000007</v>
       </c>
       <c r="N26" s="48">
         <f t="shared" si="16"/>
-        <v>5270.0300000000007</v>
+        <v>5179.0300000000007</v>
       </c>
       <c r="O26" s="30">
         <f>SUM(O19:O23)+O25</f>
-        <v>7367</v>
+        <v>7276</v>
       </c>
       <c r="P26" s="47">
         <f t="shared" ref="P26:AB26" si="17">SUM(P19:P23)+P25+O27</f>
-        <v>5275.03</v>
+        <v>5177.03</v>
       </c>
       <c r="Q26" s="47">
         <f t="shared" si="17"/>
-        <v>11928.6</v>
+        <v>11823.6</v>
       </c>
       <c r="R26" s="47">
         <f t="shared" si="17"/>
-        <v>12889.6</v>
+        <v>12777.6</v>
       </c>
       <c r="S26" s="47">
         <f t="shared" si="17"/>
-        <v>12984.6</v>
+        <v>12865.6</v>
       </c>
       <c r="T26" s="47">
         <f t="shared" si="17"/>
-        <v>12954.6</v>
+        <v>12828.6</v>
       </c>
       <c r="U26" s="47">
         <f t="shared" si="17"/>
-        <v>13039.61</v>
+        <v>12906.61</v>
       </c>
       <c r="V26" s="47">
         <f t="shared" si="17"/>
-        <v>14000.61</v>
+        <v>13860.61</v>
       </c>
       <c r="W26" s="47">
         <f t="shared" si="17"/>
-        <v>14095.61</v>
+        <v>13948.61</v>
       </c>
       <c r="X26" s="47">
         <f t="shared" si="17"/>
-        <v>14065.61</v>
+        <v>13911.61</v>
       </c>
       <c r="Y26" s="47">
         <f t="shared" si="17"/>
-        <v>14160.61</v>
+        <v>13999.61</v>
       </c>
       <c r="Z26" s="47">
         <f t="shared" si="17"/>
-        <v>15121.61</v>
+        <v>14953.61</v>
       </c>
       <c r="AA26" s="47">
         <f t="shared" si="17"/>
-        <v>15206.62</v>
+        <v>15031.62</v>
       </c>
       <c r="AB26" s="48">
         <f t="shared" si="17"/>
-        <v>16142.62</v>
+        <v>15960.62</v>
       </c>
       <c r="AC26" s="30">
         <f>SUM(AC19:AC23)+AC25</f>
-        <v>13935.560000000001</v>
+        <v>13844.560000000001</v>
       </c>
       <c r="AD26" s="47">
         <f t="shared" ref="AD26:AP26" si="18">SUM(AD19:AD23)+AD25+AC27</f>
-        <v>11843.59</v>
+        <v>11745.59</v>
       </c>
       <c r="AE26" s="47">
         <f t="shared" si="18"/>
-        <v>11928.6</v>
+        <v>11823.6</v>
       </c>
       <c r="AF26" s="47">
         <f t="shared" si="18"/>
-        <v>12869.6</v>
+        <v>12757.6</v>
       </c>
       <c r="AG26" s="47">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
-        <v>12964.6</v>
+        <v>12845.6</v>
       </c>
       <c r="AH26" s="47">
         <f>SUM(AH19:AH23)+AG25+AG27</f>
-        <v>12934.6</v>
+        <v>12808.6</v>
       </c>
       <c r="AI26" s="47">
         <f>SUM(AI19:AI23)+AI25+AH27</f>
-        <v>13019.61</v>
+        <v>12886.61</v>
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>13980.61</v>
+        <v>13840.61</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>14075.61</v>
+        <v>13928.61</v>
       </c>
       <c r="AL26" s="47">
         <f>SUM(AL19:AL23)+AH25+AK27</f>
-        <v>15011.61</v>
+        <v>14857.61</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>14140.61</v>
+        <v>13979.61</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>15101.61</v>
+        <v>14933.61</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>15186.62</v>
+        <v>15011.62</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>16122.62</v>
+        <v>15940.62</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
-        <v>7367</v>
+        <v>7276</v>
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>5255.03</v>
+        <v>5157.03</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>5340.04</v>
+        <v>5235.04</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>6301.04</v>
+        <v>6189.04</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>5707.08</v>
+        <v>5588.08</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>5677.08</v>
+        <v>5551.08</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>5762.09</v>
+        <v>5629.09</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>6723.09</v>
+        <v>6583.09</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>6818.09</v>
+        <v>6671.09</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>7754.09</v>
+        <v>7600.09</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>6883.09</v>
+        <v>6722.09</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>7844.09</v>
+        <v>7676.09</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>7929.1</v>
+        <v>7754.1</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>8865.1</v>
+        <v>8683.1</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
-        <v>7367</v>
+        <v>7276</v>
       </c>
       <c r="BF26" s="30">
         <f>SUM(BF19:BF23)+BF25</f>
-        <v>36036.559999999998</v>
+        <v>35672.559999999998</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
       <c r="B27" s="50">
         <f t="shared" ref="B27:AG27" si="20">B26-B18</f>
-        <v>961.01</v>
+        <v>954.01</v>
       </c>
       <c r="C27" s="50">
         <f t="shared" si="20"/>
-        <v>1046.01</v>
+        <v>1032.01</v>
       </c>
       <c r="D27" s="50">
         <f t="shared" si="20"/>
-        <v>2017.01</v>
+        <v>1996.01</v>
       </c>
       <c r="E27" s="51">
         <f t="shared" si="20"/>
-        <v>1111.0100000000002</v>
+        <v>1083.0100000000002</v>
       </c>
       <c r="F27" s="50">
         <f t="shared" si="20"/>
-        <v>2072.0200000000004</v>
+        <v>2037.0200000000002</v>
       </c>
       <c r="G27" s="50">
         <f t="shared" si="20"/>
-        <v>2157.0200000000004</v>
+        <v>2115.0200000000004</v>
       </c>
       <c r="H27" s="50">
         <f t="shared" si="20"/>
-        <v>3128.0200000000004</v>
+        <v>3079.0200000000004</v>
       </c>
       <c r="I27" s="51">
         <f t="shared" si="20"/>
-        <v>2222.0200000000004</v>
+        <v>2166.0200000000004</v>
       </c>
       <c r="J27" s="50">
         <f t="shared" si="20"/>
-        <v>3193.0200000000004</v>
+        <v>3130.0200000000004</v>
       </c>
       <c r="K27" s="50">
         <f t="shared" si="20"/>
-        <v>3278.0200000000004</v>
+        <v>3208.0200000000004</v>
       </c>
       <c r="L27" s="50">
         <f t="shared" si="20"/>
-        <v>4239.0300000000007</v>
+        <v>4162.0300000000007</v>
       </c>
       <c r="M27" s="50">
         <f t="shared" si="20"/>
-        <v>4299.0300000000007</v>
+        <v>4215.0300000000007</v>
       </c>
       <c r="N27" s="52">
         <f t="shared" si="20"/>
-        <v>4304.0300000000007</v>
+        <v>4213.0300000000007</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="20"/>
-        <v>4304.03</v>
+        <v>4213.03</v>
       </c>
       <c r="P27" s="50">
         <f t="shared" si="20"/>
-        <v>5265.04</v>
+        <v>5167.04</v>
       </c>
       <c r="Q27" s="50">
         <f t="shared" si="20"/>
-        <v>11918.6</v>
+        <v>11813.6</v>
       </c>
       <c r="R27" s="50">
         <f t="shared" si="20"/>
-        <v>12889.6</v>
+        <v>12777.6</v>
       </c>
       <c r="S27" s="51">
         <f t="shared" si="20"/>
-        <v>11983.6</v>
+        <v>11864.6</v>
       </c>
       <c r="T27" s="50">
         <f t="shared" si="20"/>
-        <v>12944.61</v>
+        <v>12818.61</v>
       </c>
       <c r="U27" s="50">
         <f t="shared" si="20"/>
-        <v>13029.61</v>
+        <v>12896.61</v>
       </c>
       <c r="V27" s="50">
         <f t="shared" si="20"/>
-        <v>14000.61</v>
+        <v>13860.61</v>
       </c>
       <c r="W27" s="51">
         <f t="shared" si="20"/>
-        <v>13094.61</v>
+        <v>12947.61</v>
       </c>
       <c r="X27" s="50">
         <f t="shared" si="20"/>
-        <v>14065.61</v>
+        <v>13911.61</v>
       </c>
       <c r="Y27" s="50">
         <f t="shared" si="20"/>
-        <v>14150.61</v>
+        <v>13989.61</v>
       </c>
       <c r="Z27" s="50">
         <f t="shared" si="20"/>
-        <v>15111.62</v>
+        <v>14943.62</v>
       </c>
       <c r="AA27" s="50">
         <f t="shared" si="20"/>
-        <v>15171.62</v>
+        <v>14996.62</v>
       </c>
       <c r="AB27" s="52">
         <f t="shared" si="20"/>
-        <v>15176.62</v>
+        <v>14994.62</v>
       </c>
       <c r="AC27" s="53">
         <f t="shared" si="20"/>
-        <v>10872.59</v>
+        <v>10781.59</v>
       </c>
       <c r="AD27" s="50">
         <f t="shared" si="20"/>
-        <v>11833.6</v>
+        <v>11735.6</v>
       </c>
       <c r="AE27" s="50">
         <f t="shared" si="20"/>
-        <v>11898.6</v>
+        <v>11793.6</v>
       </c>
       <c r="AF27" s="50">
         <f t="shared" si="20"/>
-        <v>12869.6</v>
+        <v>12757.6</v>
       </c>
       <c r="AG27" s="51">
         <f t="shared" si="20"/>
-        <v>11963.6</v>
+        <v>11844.6</v>
       </c>
       <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>12924.61</v>
+        <v>12798.61</v>
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>13009.61</v>
+        <v>12876.61</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>13980.61</v>
+        <v>13840.61</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>14040.61</v>
+        <v>13893.61</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>14045.61</v>
+        <v>13891.61</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>14130.61</v>
+        <v>13969.61</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>15091.62</v>
+        <v>14923.62</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>15151.62</v>
+        <v>14976.62</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>15156.62</v>
+        <v>14974.62</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>4284.03</v>
+        <v>4193.03</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>5245.04</v>
+        <v>5147.04</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>5330.04</v>
+        <v>5225.04</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>5612.08</v>
+        <v>5500.08</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>4706.08</v>
+        <v>4587.08</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>5667.09</v>
+        <v>5541.09</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>5752.09</v>
+        <v>5619.09</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>6723.09</v>
+        <v>6583.09</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>6783.09</v>
+        <v>6636.09</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>6788.09</v>
+        <v>6634.09</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>6873.09</v>
+        <v>6712.09</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>7834.1</v>
+        <v>7666.1</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>7894.1</v>
+        <v>7719.1</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>7999.1</v>
+        <v>7817.1</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>3715.0699999999997</v>
+        <v>3624.0699999999997</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>23175.719999999998</v>
+        <v>22811.719999999998</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5043,7 +5095,7 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>2.0901266497869324</v>
+        <v>2.1234781945421037</v>
       </c>
     </row>
   </sheetData>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46078FBE-D9A0-4D91-A732-5AF68D3C6F90}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1156,9 +1156,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1506,10 +1503,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO22" sqref="AO22"/>
+      <selection pane="bottomRight" activeCell="AT15" sqref="AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2961,7 +2958,7 @@
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
       <c r="AT14" s="88">
-        <v>688.96</v>
+        <v>645.28</v>
       </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
@@ -2975,11 +2972,11 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="22">
         <f t="shared" si="7"/>
-        <v>688.96</v>
+        <v>645.28</v>
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>688.96</v>
+        <v>645.28</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3453,7 +3450,7 @@
       </c>
       <c r="AT18" s="29">
         <f t="shared" si="10"/>
-        <v>688.96</v>
+        <v>645.28</v>
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
@@ -3497,11 +3494,11 @@
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>3651.9300000000003</v>
+        <v>3608.25</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12860.84</v>
+        <v>12817.16</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -3727,7 +3724,7 @@
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AK20" s="89">
+      <c r="AK20" s="39">
         <f>88</f>
         <v>88</v>
       </c>
@@ -4500,43 +4497,43 @@
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>5588.08</v>
+        <v>5631.76</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>5551.08</v>
+        <v>5594.76</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>5629.09</v>
+        <v>5672.77</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>6583.09</v>
+        <v>6626.77</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>6671.09</v>
+        <v>6714.77</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>7600.09</v>
+        <v>7643.77</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>6722.09</v>
+        <v>6765.77</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>7676.09</v>
+        <v>7719.77</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>7754.1</v>
+        <v>7797.7800000000007</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>8683.1</v>
+        <v>8726.7800000000007</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4727,55 +4724,55 @@
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>5500.08</v>
+        <v>5543.76</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>4587.08</v>
+        <v>4630.76</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>5541.09</v>
+        <v>5584.77</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>5619.09</v>
+        <v>5662.77</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>6583.09</v>
+        <v>6626.77</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>6636.09</v>
+        <v>6679.77</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>6634.09</v>
+        <v>6677.77</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>6712.09</v>
+        <v>6755.77</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>7666.1</v>
+        <v>7709.7800000000007</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>7719.1</v>
+        <v>7762.7800000000007</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>7817.1</v>
+        <v>7860.7800000000007</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>3624.0699999999997</v>
+        <v>3667.75</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>22811.719999999998</v>
+        <v>22855.399999999998</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5095,7 +5092,7 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>2.1234781945421037</v>
+        <v>2.1194199182687679</v>
       </c>
     </row>
   </sheetData>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46078FBE-D9A0-4D91-A732-5AF68D3C6F90}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F80DA6-825C-448F-85FB-7B1F113D834E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,6 +52,7 @@
     <author>tc={3AE6F7DC-4535-43DA-BFFD-7C585CC37669}</author>
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
     <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
+    <author>tc={05365BFC-21CF-45B8-928D-29DF628D501E}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
     <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
     <author>tc={C80F882F-58A5-4C62-98CE-F86F6971772E}</author>
@@ -151,7 +152,15 @@
     Boots</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="11" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="AP14" authorId="11" shapeId="0" xr:uid="{05365BFC-21CF-45B8-928D-29DF628D501E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ADULT FIRST AID/CPR/AED</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="12" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +168,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="12" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="13" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +176,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="13" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="14" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +184,7 @@
     Electric, Water, Parking, Mail, Amenities</t>
       </text>
     </comment>
-    <comment ref="A24" authorId="14" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
+    <comment ref="A24" authorId="15" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +192,7 @@
     Hot Food!</t>
       </text>
     </comment>
-    <comment ref="N27" authorId="15" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="N27" authorId="16" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +200,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="16" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="17" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -199,7 +208,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AP27" authorId="17" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+    <comment ref="AP27" authorId="18" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,7 +216,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="18" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="19" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -215,7 +224,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B64" authorId="19" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B64" authorId="20" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -428,7 +437,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -519,6 +528,12 @@
       <color rgb="FFEE0000"/>
       <name val="Goudy Old Style"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1462,6 +1477,9 @@
   <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
     <text>Boots</text>
   </threadedComment>
+  <threadedComment ref="AP14" dT="2025-08-30T16:13:24.79" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{05365BFC-21CF-45B8-928D-29DF628D501E}">
+    <text>ADULT FIRST AID/CPR/AED</text>
+  </threadedComment>
   <threadedComment ref="A15" dT="2025-06-16T03:18:48.60" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
     <text>Downtown?</text>
   </threadedComment>
@@ -1503,10 +1521,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT15" sqref="AT15"/>
+      <selection pane="bottomRight" activeCell="AP15" sqref="AP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2950,15 +2968,17 @@
       <c r="AM14" s="5"/>
       <c r="AN14" s="21"/>
       <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
+      <c r="AP14" s="88">
+        <v>110</v>
+      </c>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
       <c r="AT14" s="88">
-        <v>645.28</v>
+        <v>508.92</v>
       </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
@@ -2972,11 +2992,11 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="22">
         <f t="shared" si="7"/>
-        <v>645.28</v>
+        <v>508.92</v>
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>645.28</v>
+        <v>618.92000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3434,11 +3454,11 @@
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
-        <v>966</v>
+        <v>1076</v>
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3082.9700000000003</v>
+        <v>3192.9700000000003</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3450,7 +3470,7 @@
       </c>
       <c r="AT18" s="29">
         <f t="shared" si="10"/>
-        <v>645.28</v>
+        <v>508.92</v>
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
@@ -3494,11 +3514,11 @@
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>3608.25</v>
+        <v>3471.8900000000003</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12817.16</v>
+        <v>12790.8</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -4485,55 +4505,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>5157.03</v>
+        <v>5047.03</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>5235.04</v>
+        <v>5125.04</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>6189.04</v>
+        <v>6079.04</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>5631.76</v>
+        <v>5658.12</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>5594.76</v>
+        <v>5621.12</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>5672.77</v>
+        <v>5699.13</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>6626.77</v>
+        <v>6653.13</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>6714.77</v>
+        <v>6741.13</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>7643.77</v>
+        <v>7670.13</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>6765.77</v>
+        <v>6792.13</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>7719.77</v>
+        <v>7746.13</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>7797.7800000000007</v>
+        <v>7824.14</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>8726.7800000000007</v>
+        <v>8753.14</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4708,71 +4728,71 @@
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>14974.62</v>
+        <v>14864.62</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>4193.03</v>
+        <v>4083.0299999999997</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>5147.04</v>
+        <v>5037.04</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>5225.04</v>
+        <v>5115.04</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>5543.76</v>
+        <v>5570.12</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>4630.76</v>
+        <v>4657.12</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>5584.77</v>
+        <v>5611.13</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>5662.77</v>
+        <v>5689.13</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>6626.77</v>
+        <v>6653.13</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>6679.77</v>
+        <v>6706.13</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>6677.77</v>
+        <v>6704.13</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>6755.77</v>
+        <v>6782.13</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>7709.7800000000007</v>
+        <v>7736.14</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>7762.7800000000007</v>
+        <v>7789.14</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>7860.7800000000007</v>
+        <v>7887.1399999999994</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>3667.75</v>
+        <v>3804.1099999999997</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>22855.399999999998</v>
+        <v>22881.759999999998</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5092,7 +5112,7 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>2.1194199182687679</v>
+        <v>2.1169783268419913</v>
       </c>
     </row>
   </sheetData>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -437,7 +437,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -528,12 +528,6 @@
       <color rgb="FFEE0000"/>
       <name val="Goudy Old Style"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1521,7 +1515,7 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AP15" sqref="AP15"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F80DA6-825C-448F-85FB-7B1F113D834E}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D666B588-C5B4-48DB-BE2C-FD641D152CDF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1515,10 +1515,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP15" sqref="AP15"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3599,7 +3599,6 @@
         <v>12</v>
       </c>
       <c r="B20" s="37">
-        <f>88</f>
         <v>88</v>
       </c>
       <c r="C20" s="39">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D666B588-C5B4-48DB-BE2C-FD641D152CDF}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D8A0BD7-4BE6-46B2-B30A-89359E99B131}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1515,10 +1515,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2972,7 +2972,7 @@
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
       <c r="AT14" s="88">
-        <v>508.92</v>
+        <v>354.91</v>
       </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
@@ -2986,11 +2986,11 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="22">
         <f t="shared" si="7"/>
-        <v>508.92</v>
+        <v>354.91</v>
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>618.92000000000007</v>
+        <v>464.91</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="AT18" s="29">
         <f t="shared" si="10"/>
-        <v>508.92</v>
+        <v>354.91</v>
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
@@ -3508,11 +3508,11 @@
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>3471.8900000000003</v>
+        <v>3317.88</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12790.8</v>
+        <v>12636.79</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -4510,43 +4510,43 @@
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>5658.12</v>
+        <v>5812.13</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>5621.12</v>
+        <v>5775.13</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>5699.13</v>
+        <v>5853.14</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>6653.13</v>
+        <v>6807.14</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>6741.13</v>
+        <v>6895.14</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>7670.13</v>
+        <v>7824.14</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>6792.13</v>
+        <v>6946.14</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>7746.13</v>
+        <v>7900.14</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>7824.14</v>
+        <v>7978.1500000000005</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>8753.14</v>
+        <v>8907.1500000000015</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4737,55 +4737,55 @@
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>5570.12</v>
+        <v>5724.13</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>4657.12</v>
+        <v>4811.13</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>5611.13</v>
+        <v>5765.14</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>5689.13</v>
+        <v>5843.14</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>6653.13</v>
+        <v>6807.14</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>6706.13</v>
+        <v>6860.14</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>6704.13</v>
+        <v>6858.14</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>6782.13</v>
+        <v>6936.14</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>7736.14</v>
+        <v>7890.1500000000005</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>7789.14</v>
+        <v>7943.1500000000005</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>7887.1399999999994</v>
+        <v>8041.1500000000015</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>3804.1099999999997</v>
+        <v>3958.12</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>22881.759999999998</v>
+        <v>23035.769999999997</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>2.1169783268419913</v>
+        <v>2.1028248675863668</v>
       </c>
     </row>
   </sheetData>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D8A0BD7-4BE6-46B2-B30A-89359E99B131}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FD5D149-F9C1-4901-81B7-0DA008E9F86B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2028" windowWidth="23040" windowHeight="9480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget 2025" sheetId="1" r:id="rId1"/>
@@ -1515,10 +1515,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR12" sqref="AR12"/>
+      <selection pane="bottomRight" activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FD5D149-F9C1-4901-81B7-0DA008E9F86B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE40CADC-0685-4648-9037-AFB0596B5060}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2028" windowWidth="23040" windowHeight="9480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget 2025" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Type</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Utilities</t>
+  </si>
+  <si>
+    <t>Trust Fund:</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -529,6 +532,13 @@
       <name val="Goudy Old Style"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Goudy Old Style"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -901,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1165,6 +1175,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1514,11 +1530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP14" sqref="AP14"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2960,20 +2976,18 @@
       <c r="AI14" s="21"/>
       <c r="AL14" s="21"/>
       <c r="AM14" s="5"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
+      <c r="AO14" s="88">
+        <v>354.91</v>
+      </c>
       <c r="AP14" s="88">
         <v>110</v>
       </c>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>464.91</v>
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
-      <c r="AT14" s="88">
-        <v>354.91</v>
-      </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
       <c r="AW14" s="21"/>
@@ -2986,7 +3000,7 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="22">
         <f t="shared" si="7"/>
-        <v>354.91</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
@@ -3444,7 +3458,7 @@
       </c>
       <c r="AO18" s="29">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>389.91</v>
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
@@ -3452,7 +3466,7 @@
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3192.9700000000003</v>
+        <v>3547.88</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3464,7 +3478,7 @@
       </c>
       <c r="AT18" s="29">
         <f t="shared" si="10"/>
-        <v>354.91</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
@@ -3508,7 +3522,7 @@
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>3317.88</v>
+        <v>2962.9700000000003</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
@@ -4490,7 +4504,7 @@
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>15940.62</v>
+        <v>15585.710000000001</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4498,15 +4512,15 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>5047.03</v>
+        <v>4692.12</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>5125.04</v>
+        <v>4770.13</v>
       </c>
       <c r="AT26" s="47">
         <f t="shared" si="19"/>
-        <v>6079.04</v>
+        <v>5724.13</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
@@ -4717,23 +4731,23 @@
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>14976.62</v>
+        <v>14621.710000000001</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>14864.62</v>
+        <v>14509.710000000001</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>4083.0299999999997</v>
+        <v>3728.12</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>5037.04</v>
+        <v>4682.13</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>5115.04</v>
+        <v>4760.13</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
@@ -4781,7 +4795,7 @@
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>3958.12</v>
+        <v>4313.03</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
@@ -4807,6 +4821,10 @@
       <c r="BF30" s="69"/>
     </row>
     <row r="31" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL31" s="10">
+        <f>88*4</f>
+        <v>352</v>
+      </c>
       <c r="BF31" s="70"/>
     </row>
     <row r="32" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5093,12 +5111,15 @@
       <c r="C64" s="78" t="s">
         <v>49</v>
       </c>
+      <c r="E64" s="89" t="s">
+        <v>60</v>
+      </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
       <c r="I64" s="42"/>
     </row>
-    <row r="65" spans="2:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="79">
         <f>SUM(B62:D62)</f>
         <v>48440.189999999995</v>
@@ -5106,6 +5127,10 @@
       <c r="C65" s="82">
         <f>B65/BF27</f>
         <v>2.1028248675863668</v>
+      </c>
+      <c r="E65" s="90">
+        <f>50000</f>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE40CADC-0685-4648-9037-AFB0596B5060}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ACF0DFC-C0F4-4CEE-989D-8F2616EFDF17}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,6 @@
     <author>tc={A43F0397-9D84-401B-B7FF-7AAF78751520}</author>
     <author>tc={EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}</author>
     <author>tc={4B88355D-9209-4405-B7B7-6AE6D134BD4A}</author>
-    <author>tc={95FD1110-5369-4C97-A741-45307BBFA4F0}</author>
     <author>tc={C1FE81CD-4B33-401A-B80F-F36E74842B02}</author>
     <author>tc={2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}</author>
   </authors>
@@ -208,7 +207,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AP27" authorId="18" shapeId="0" xr:uid="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
+    <comment ref="BD27" authorId="18" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -216,15 +215,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="19" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Consolidate</t>
-      </text>
-    </comment>
-    <comment ref="B64" authorId="20" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B64" authorId="19" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1508,9 +1499,6 @@
   <threadedComment ref="AB27" dT="2025-07-06T00:21:33.66" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
     <text>Consolidate</text>
   </threadedComment>
-  <threadedComment ref="AP27" dT="2025-07-06T00:21:47.31" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{95FD1110-5369-4C97-A741-45307BBFA4F0}">
-    <text>Consolidate</text>
-  </threadedComment>
   <threadedComment ref="BD27" dT="2025-07-06T00:22:00.36" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
     <text>Consolidate</text>
   </threadedComment>
@@ -1530,11 +1518,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1572,7 +1560,7 @@
     <col min="31" max="31" width="15.6640625" style="10" customWidth="1"/>
     <col min="32" max="32" width="16.77734375" style="10" customWidth="1"/>
     <col min="33" max="33" width="22.44140625" style="10" customWidth="1"/>
-    <col min="34" max="34" width="29.21875" style="10" customWidth="1"/>
+    <col min="34" max="34" width="29.6640625" style="10" customWidth="1"/>
     <col min="35" max="35" width="20.33203125" style="10" customWidth="1"/>
     <col min="36" max="36" width="17.44140625" style="10" customWidth="1"/>
     <col min="37" max="37" width="15.44140625" style="10" customWidth="1"/>
@@ -1595,7 +1583,7 @@
     <col min="56" max="56" width="14.44140625" style="10" customWidth="1"/>
     <col min="57" max="57" width="16.109375" style="10" customWidth="1"/>
     <col min="58" max="58" width="19.44140625" style="10" customWidth="1"/>
-    <col min="59" max="59" width="21.77734375" style="10" customWidth="1"/>
+    <col min="59" max="59" width="20.21875" style="10" customWidth="1"/>
     <col min="60" max="60" width="24.33203125" style="10" customWidth="1"/>
     <col min="61" max="61" width="24.5546875" style="10" customWidth="1"/>
     <col min="62" max="16384" width="10.88671875" style="10"/>
@@ -3089,7 +3077,6 @@
         <f t="shared" si="6"/>
         <v>2550</v>
       </c>
-      <c r="AR15" s="5"/>
       <c r="AS15" s="24"/>
       <c r="AT15" s="24"/>
       <c r="AU15" s="21">
@@ -3189,7 +3176,7 @@
       <c r="BC16" s="21"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="22">
-        <f t="shared" si="7"/>
+        <f>SUM(AR16:BD16)</f>
         <v>0</v>
       </c>
       <c r="BF16" s="22">

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ACF0DFC-C0F4-4CEE-989D-8F2616EFDF17}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9710D736-FB36-4A58-AFB9-DC5A0791EA45}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1172,6 +1172,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1522,7 +1528,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP17" sqref="AP17"/>
+      <selection pane="bottomRight" activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2962,20 +2968,25 @@
       <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="5"/>
-      <c r="AO14" s="88">
-        <v>354.91</v>
+      <c r="AL14" s="88">
+        <f>28.98+10+24.99+1+9.86</f>
+        <v>74.83</v>
+      </c>
+      <c r="AM14" s="91">
+        <v>47.52</v>
       </c>
       <c r="AP14" s="88">
         <v>110</v>
       </c>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>464.91</v>
+        <v>232.35</v>
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
+      <c r="AT14" s="88">
+        <v>423.92</v>
+      </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
       <c r="AW14" s="21"/>
@@ -2988,11 +2999,11 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>423.92</v>
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>464.91</v>
+        <v>656.27</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3433,11 +3444,11 @@
       </c>
       <c r="AL18" s="29">
         <f t="shared" si="10"/>
-        <v>966</v>
+        <v>1040.83</v>
       </c>
       <c r="AM18" s="29">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>57.52</v>
       </c>
       <c r="AN18" s="29">
         <f t="shared" si="10"/>
@@ -3445,7 +3456,7 @@
       </c>
       <c r="AO18" s="29">
         <f t="shared" si="10"/>
-        <v>389.91</v>
+        <v>35</v>
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
@@ -3453,7 +3464,7 @@
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3547.88</v>
+        <v>3315.32</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3465,7 +3476,7 @@
       </c>
       <c r="AT18" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>423.92</v>
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
@@ -3509,16 +3520,16 @@
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>2962.9700000000003</v>
+        <v>3386.8900000000003</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12636.79</v>
+        <v>12828.15</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
     </row>
-    <row r="19" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>53</v>
       </c>
@@ -3575,7 +3586,6 @@
       </c>
       <c r="AR19" s="37"/>
       <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
       <c r="AU19" s="34"/>
       <c r="AV19" s="34"/>
       <c r="AW19" s="34"/>
@@ -3595,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>12</v>
       </c>
@@ -3774,8 +3784,7 @@
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AT20" s="85">
-        <f>88</f>
+      <c r="AT20" s="92">
         <v>88</v>
       </c>
       <c r="AU20" s="39">
@@ -4479,19 +4488,19 @@
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>13979.61</v>
+        <v>13904.78</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>14933.61</v>
+        <v>14811.26</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>15011.62</v>
+        <v>14889.27</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>15585.710000000001</v>
+        <v>15818.27</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4499,55 +4508,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>4692.12</v>
+        <v>4924.68</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>4770.13</v>
+        <v>5002.6900000000005</v>
       </c>
       <c r="AT26" s="47">
-        <f t="shared" si="19"/>
-        <v>5724.13</v>
+        <f>SUM(AT20:AT23)+AT25+AS27</f>
+        <v>5956.6900000000005</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>5812.13</v>
+        <v>5620.77</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>5775.13</v>
+        <v>5583.77</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>5853.14</v>
+        <v>5661.7800000000007</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>6807.14</v>
+        <v>6615.7800000000007</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>6895.14</v>
+        <v>6703.7800000000007</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>7824.14</v>
+        <v>7632.7800000000007</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>6946.14</v>
+        <v>6754.7800000000007</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>7900.14</v>
+        <v>7708.7800000000007</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>7978.1500000000005</v>
+        <v>7786.7900000000009</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>8907.1500000000015</v>
+        <v>8715.7900000000009</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4706,87 +4715,87 @@
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>13891.61</v>
+        <v>13816.78</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>13969.61</v>
+        <v>13847.26</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>14923.62</v>
+        <v>14801.27</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>14621.710000000001</v>
+        <v>14854.27</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>14509.710000000001</v>
+        <v>14742.27</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>3728.12</v>
+        <v>3960.68</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>4682.13</v>
+        <v>4914.6900000000005</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>4760.13</v>
+        <v>4992.6900000000005</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>5724.13</v>
+        <v>5532.77</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>4811.13</v>
+        <v>4619.7700000000004</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>5765.14</v>
+        <v>5573.7800000000007</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>5843.14</v>
+        <v>5651.7800000000007</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>6807.14</v>
+        <v>6615.7800000000007</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>6860.14</v>
+        <v>6668.7800000000007</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>6858.14</v>
+        <v>6666.7800000000007</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>6936.14</v>
+        <v>6744.7800000000007</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>7890.1500000000005</v>
+        <v>7698.7900000000009</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>7943.1500000000005</v>
+        <v>7751.7900000000009</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>8041.1500000000015</v>
+        <v>7849.7900000000009</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>4313.03</v>
+        <v>3889.1099999999997</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>23035.769999999997</v>
+        <v>22844.409999999996</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5113,7 +5122,7 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>2.1028248675863668</v>
+        <v>2.1204395298455947</v>
       </c>
       <c r="E65" s="90">
         <f>50000</f>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9710D736-FB36-4A58-AFB9-DC5A0791EA45}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9931FF77-E7F1-4184-8CED-608EAA609503}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,11 @@
     <author>tc={3AE6F7DC-4535-43DA-BFFD-7C585CC37669}</author>
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
     <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
+    <author>tc={0C5E315B-8C79-4463-907F-B71402355D7B}</author>
+    <author>tc={742D5481-0C3A-4532-BF71-389EEE9ABB15}</author>
     <author>tc={05365BFC-21CF-45B8-928D-29DF628D501E}</author>
+    <author>tc={0A5708E7-E187-405D-8DCF-985B71811122}</author>
+    <author>tc={AAF73E9F-1BEF-41B8-8981-A497421D996D}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
     <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
     <author>tc={C80F882F-58A5-4C62-98CE-F86F6971772E}</author>
@@ -151,7 +155,23 @@
     Boots</t>
       </text>
     </comment>
-    <comment ref="AP14" authorId="11" shapeId="0" xr:uid="{05365BFC-21CF-45B8-928D-29DF628D501E}">
+    <comment ref="AL14" authorId="11" shapeId="0" xr:uid="{0C5E315B-8C79-4463-907F-B71402355D7B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mobile Service, Microsoft Subscription, Ear Buds, Shipping / Handling</t>
+      </text>
+    </comment>
+    <comment ref="AM14" authorId="12" shapeId="0" xr:uid="{742D5481-0C3A-4532-BF71-389EEE9ABB15}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Old Navy Joggers</t>
+      </text>
+    </comment>
+    <comment ref="AP14" authorId="13" shapeId="0" xr:uid="{05365BFC-21CF-45B8-928D-29DF628D501E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +179,23 @@
     ADULT FIRST AID/CPR/AED</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="12" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="AT14" authorId="14" shapeId="0" xr:uid="{0A5708E7-E187-405D-8DCF-985B71811122}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Pocket Knife, Multi-Tool, Portable Laptop Charger, Fast USB Phone Charger</t>
+      </text>
+    </comment>
+    <comment ref="AX14" authorId="15" shapeId="0" xr:uid="{AAF73E9F-1BEF-41B8-8981-A497421D996D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Nikes and Wallet</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="16" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +203,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="13" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="17" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +211,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="14" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="18" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +219,7 @@
     Electric, Water, Parking, Mail, Amenities</t>
       </text>
     </comment>
-    <comment ref="A24" authorId="15" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
+    <comment ref="A24" authorId="19" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +227,7 @@
     Hot Food!</t>
       </text>
     </comment>
-    <comment ref="N27" authorId="16" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="N27" authorId="20" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -199,7 +235,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="17" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="21" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,7 +243,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="18" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="22" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -215,7 +251,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B64" authorId="19" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B64" authorId="23" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -431,7 +467,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -530,6 +566,12 @@
       <name val="Goudy Old Style"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -902,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1178,6 +1220,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1484,8 +1529,20 @@
   <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
     <text>Boots</text>
   </threadedComment>
+  <threadedComment ref="AL14" dT="2025-09-02T18:58:38.22" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{0C5E315B-8C79-4463-907F-B71402355D7B}">
+    <text>Mobile Service, Microsoft Subscription, Ear Buds, Shipping / Handling</text>
+  </threadedComment>
+  <threadedComment ref="AM14" dT="2025-09-02T18:57:45.07" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{742D5481-0C3A-4532-BF71-389EEE9ABB15}">
+    <text>Old Navy Joggers</text>
+  </threadedComment>
   <threadedComment ref="AP14" dT="2025-08-30T16:13:24.79" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{05365BFC-21CF-45B8-928D-29DF628D501E}">
     <text>ADULT FIRST AID/CPR/AED</text>
+  </threadedComment>
+  <threadedComment ref="AT14" dT="2025-09-02T18:59:23.56" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{0A5708E7-E187-405D-8DCF-985B71811122}">
+    <text>Pocket Knife, Multi-Tool, Portable Laptop Charger, Fast USB Phone Charger</text>
+  </threadedComment>
+  <threadedComment ref="AX14" dT="2025-09-02T18:57:26.37" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{AAF73E9F-1BEF-41B8-8981-A497421D996D}">
+    <text>Nikes and Wallet</text>
   </threadedComment>
   <threadedComment ref="A15" dT="2025-06-16T03:18:48.60" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
     <text>Downtown?</text>
@@ -1525,10 +1582,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM23" sqref="AM23"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2989,8 +3046,11 @@
       </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
+      <c r="AW14" s="93"/>
+      <c r="AX14" s="88">
+        <f>220+59+29.46</f>
+        <v>308.45999999999998</v>
+      </c>
       <c r="AY14" s="21"/>
       <c r="AZ14" s="21"/>
       <c r="BA14" s="21"/>
@@ -2999,11 +3059,11 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="22">
         <f t="shared" si="7"/>
-        <v>423.92</v>
+        <v>732.38</v>
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>656.27</v>
+        <v>964.73</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3492,7 +3552,7 @@
       </c>
       <c r="AX18" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>308.45999999999998</v>
       </c>
       <c r="AY18" s="29">
         <f t="shared" si="10"/>
@@ -3520,11 +3580,11 @@
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>3386.8900000000003</v>
+        <v>3695.35</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12828.15</v>
+        <v>13136.61</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -3787,19 +3847,19 @@
       <c r="AT20" s="92">
         <v>88</v>
       </c>
-      <c r="AU20" s="39">
+      <c r="AU20" s="85">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AV20" s="39">
+      <c r="AV20" s="85">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AW20" s="39">
+      <c r="AW20" s="85">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AX20" s="39">
+      <c r="AX20" s="85">
         <f>88</f>
         <v>88</v>
       </c>
@@ -3998,159 +4058,159 @@
         <v>10</v>
       </c>
       <c r="B23" s="9">
-        <f>15*40*2-15*40*2*0.27</f>
-        <v>876</v>
+        <f>0*40*2-0*40*2*0.27</f>
+        <v>0</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="M23" s="45"/>
       <c r="N23" s="45">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="O23" s="36">
         <f t="shared" si="11"/>
-        <v>6132</v>
+        <v>0</v>
       </c>
       <c r="P23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="U23" s="45"/>
       <c r="V23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="W23" s="9"/>
       <c r="X23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="45"/>
       <c r="AB23" s="45">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="36">
         <f t="shared" si="12"/>
-        <v>6132</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="46">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="45">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="36">
         <f t="shared" si="13"/>
-        <v>6132</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="45"/>
       <c r="AX23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="9"/>
       <c r="AZ23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="9"/>
       <c r="BB23" s="9">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="45"/>
       <c r="BD23" s="45">
         <f>B23</f>
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="36">
         <f t="shared" si="14"/>
-        <v>6132</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="36">
         <f t="shared" si="15"/>
-        <v>24528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4340,462 +4400,462 @@
       </c>
       <c r="B26" s="47">
         <f>SUM(B19:B23)+B25</f>
-        <v>964</v>
+        <v>88</v>
       </c>
       <c r="C26" s="47">
         <f>SUM(C19:C23)+C25+B27</f>
-        <v>1042.01</v>
+        <v>166.01</v>
       </c>
       <c r="D26" s="47">
         <f t="shared" ref="D26:N26" si="16">SUM(D19:D23)+D25+C27</f>
-        <v>1996.01</v>
+        <v>244.01</v>
       </c>
       <c r="E26" s="47">
         <f t="shared" si="16"/>
-        <v>2084.0100000000002</v>
+        <v>332.01</v>
       </c>
       <c r="F26" s="47">
         <f t="shared" si="16"/>
-        <v>2047.0100000000002</v>
+        <v>-580.99</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" si="16"/>
-        <v>2125.0200000000004</v>
+        <v>-502.98</v>
       </c>
       <c r="H26" s="47">
         <f t="shared" si="16"/>
-        <v>3079.0200000000004</v>
+        <v>-424.98</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="16"/>
-        <v>3167.0200000000004</v>
+        <v>-336.98</v>
       </c>
       <c r="J26" s="47">
         <f t="shared" si="16"/>
-        <v>3130.0200000000004</v>
+        <v>-1249.98</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="16"/>
-        <v>3218.0200000000004</v>
+        <v>-1161.98</v>
       </c>
       <c r="L26" s="47">
         <f t="shared" si="16"/>
-        <v>4172.0200000000004</v>
+        <v>-1083.98</v>
       </c>
       <c r="M26" s="47">
         <f t="shared" si="16"/>
-        <v>4250.0300000000007</v>
+        <v>-1005.97</v>
       </c>
       <c r="N26" s="48">
         <f t="shared" si="16"/>
-        <v>5179.0300000000007</v>
+        <v>-952.97</v>
       </c>
       <c r="O26" s="30">
         <f>SUM(O19:O23)+O25</f>
-        <v>7276</v>
+        <v>1144</v>
       </c>
       <c r="P26" s="47">
         <f t="shared" ref="P26:AB26" si="17">SUM(P19:P23)+P25+O27</f>
-        <v>5177.03</v>
+        <v>-1830.9700000000003</v>
       </c>
       <c r="Q26" s="47">
         <f t="shared" si="17"/>
-        <v>11823.6</v>
+        <v>4815.6000000000004</v>
       </c>
       <c r="R26" s="47">
         <f t="shared" si="17"/>
-        <v>12777.6</v>
+        <v>4893.6000000000004</v>
       </c>
       <c r="S26" s="47">
         <f t="shared" si="17"/>
-        <v>12865.6</v>
+        <v>4981.6000000000004</v>
       </c>
       <c r="T26" s="47">
         <f t="shared" si="17"/>
-        <v>12828.6</v>
+        <v>4068.6000000000004</v>
       </c>
       <c r="U26" s="47">
         <f t="shared" si="17"/>
-        <v>12906.61</v>
+        <v>4146.6100000000006</v>
       </c>
       <c r="V26" s="47">
         <f t="shared" si="17"/>
-        <v>13860.61</v>
+        <v>4224.6100000000006</v>
       </c>
       <c r="W26" s="47">
         <f t="shared" si="17"/>
-        <v>13948.61</v>
+        <v>4312.6100000000006</v>
       </c>
       <c r="X26" s="47">
         <f t="shared" si="17"/>
-        <v>13911.61</v>
+        <v>3399.6100000000006</v>
       </c>
       <c r="Y26" s="47">
         <f t="shared" si="17"/>
-        <v>13999.61</v>
+        <v>3487.6100000000006</v>
       </c>
       <c r="Z26" s="47">
         <f t="shared" si="17"/>
-        <v>14953.61</v>
+        <v>3565.6100000000006</v>
       </c>
       <c r="AA26" s="47">
         <f t="shared" si="17"/>
-        <v>15031.62</v>
+        <v>3643.6200000000008</v>
       </c>
       <c r="AB26" s="48">
         <f t="shared" si="17"/>
-        <v>15960.62</v>
+        <v>3696.6200000000008</v>
       </c>
       <c r="AC26" s="30">
         <f>SUM(AC19:AC23)+AC25</f>
-        <v>13844.560000000001</v>
+        <v>7712.56</v>
       </c>
       <c r="AD26" s="47">
         <f t="shared" ref="AD26:AP26" si="18">SUM(AD19:AD23)+AD25+AC27</f>
-        <v>11745.59</v>
+        <v>4737.59</v>
       </c>
       <c r="AE26" s="47">
         <f t="shared" si="18"/>
-        <v>11823.6</v>
+        <v>4815.6000000000004</v>
       </c>
       <c r="AF26" s="47">
         <f t="shared" si="18"/>
-        <v>12757.6</v>
+        <v>4873.6000000000004</v>
       </c>
       <c r="AG26" s="47">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
-        <v>12845.6</v>
+        <v>4961.6000000000004</v>
       </c>
       <c r="AH26" s="47">
         <f>SUM(AH19:AH23)+AG25+AG27</f>
-        <v>12808.6</v>
+        <v>4048.6000000000004</v>
       </c>
       <c r="AI26" s="47">
         <f>SUM(AI19:AI23)+AI25+AH27</f>
-        <v>12886.61</v>
+        <v>4126.6100000000006</v>
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>13840.61</v>
+        <v>4204.6100000000006</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>13928.61</v>
+        <v>4292.6100000000006</v>
       </c>
       <c r="AL26" s="47">
         <f>SUM(AL19:AL23)+AH25+AK27</f>
-        <v>14857.61</v>
+        <v>4345.6100000000006</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>13904.78</v>
+        <v>3392.7800000000007</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>14811.26</v>
+        <v>3423.2600000000007</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>14889.27</v>
+        <v>3501.2700000000009</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>15818.27</v>
+        <v>3554.2700000000009</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
-        <v>7276</v>
+        <v>1144</v>
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>4924.68</v>
+        <v>-2083.3200000000002</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>5002.6900000000005</v>
+        <v>-2005.31</v>
       </c>
       <c r="AT26" s="47">
         <f>SUM(AT20:AT23)+AT25+AS27</f>
-        <v>5956.6900000000005</v>
+        <v>-1927.31</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>5620.77</v>
+        <v>-2263.23</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>5583.77</v>
+        <v>-3176.23</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>5661.7800000000007</v>
+        <v>-3098.22</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>6615.7800000000007</v>
+        <v>-3020.22</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>6703.7800000000007</v>
+        <v>-3240.68</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>7632.7800000000007</v>
+        <v>-3187.68</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>6754.7800000000007</v>
+        <v>-4065.6800000000003</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>7708.7800000000007</v>
+        <v>-3987.6800000000003</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>7786.7900000000009</v>
+        <v>-3909.67</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>8715.7900000000009</v>
+        <v>-3856.67</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
-        <v>7276</v>
+        <v>1144</v>
       </c>
       <c r="BF26" s="30">
         <f>SUM(BF19:BF23)+BF25</f>
-        <v>35672.559999999998</v>
+        <v>11144.560000000001</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
       <c r="B27" s="50">
         <f t="shared" ref="B27:AG27" si="20">B26-B18</f>
-        <v>954.01</v>
+        <v>78.010000000000005</v>
       </c>
       <c r="C27" s="50">
         <f t="shared" si="20"/>
-        <v>1032.01</v>
+        <v>156.01</v>
       </c>
       <c r="D27" s="50">
         <f t="shared" si="20"/>
-        <v>1996.01</v>
+        <v>244.01</v>
       </c>
       <c r="E27" s="51">
         <f t="shared" si="20"/>
-        <v>1083.0100000000002</v>
+        <v>-668.99</v>
       </c>
       <c r="F27" s="50">
         <f t="shared" si="20"/>
-        <v>2037.0200000000002</v>
+        <v>-590.98</v>
       </c>
       <c r="G27" s="50">
         <f t="shared" si="20"/>
-        <v>2115.0200000000004</v>
+        <v>-512.98</v>
       </c>
       <c r="H27" s="50">
         <f t="shared" si="20"/>
-        <v>3079.0200000000004</v>
+        <v>-424.98</v>
       </c>
       <c r="I27" s="51">
         <f t="shared" si="20"/>
-        <v>2166.0200000000004</v>
+        <v>-1337.98</v>
       </c>
       <c r="J27" s="50">
         <f t="shared" si="20"/>
-        <v>3130.0200000000004</v>
+        <v>-1249.98</v>
       </c>
       <c r="K27" s="50">
         <f t="shared" si="20"/>
-        <v>3208.0200000000004</v>
+        <v>-1171.98</v>
       </c>
       <c r="L27" s="50">
         <f t="shared" si="20"/>
-        <v>4162.0300000000007</v>
+        <v>-1093.97</v>
       </c>
       <c r="M27" s="50">
         <f t="shared" si="20"/>
-        <v>4215.0300000000007</v>
+        <v>-1040.97</v>
       </c>
       <c r="N27" s="52">
         <f t="shared" si="20"/>
-        <v>4213.0300000000007</v>
+        <v>-1918.97</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="20"/>
-        <v>4213.03</v>
+        <v>-1918.9700000000003</v>
       </c>
       <c r="P27" s="50">
         <f t="shared" si="20"/>
-        <v>5167.04</v>
+        <v>-1840.9600000000003</v>
       </c>
       <c r="Q27" s="50">
         <f t="shared" si="20"/>
-        <v>11813.6</v>
+        <v>4805.6000000000004</v>
       </c>
       <c r="R27" s="50">
         <f t="shared" si="20"/>
-        <v>12777.6</v>
+        <v>4893.6000000000004</v>
       </c>
       <c r="S27" s="51">
         <f t="shared" si="20"/>
-        <v>11864.6</v>
+        <v>3980.6000000000004</v>
       </c>
       <c r="T27" s="50">
         <f t="shared" si="20"/>
-        <v>12818.61</v>
+        <v>4058.6100000000006</v>
       </c>
       <c r="U27" s="50">
         <f t="shared" si="20"/>
-        <v>12896.61</v>
+        <v>4136.6100000000006</v>
       </c>
       <c r="V27" s="50">
         <f t="shared" si="20"/>
-        <v>13860.61</v>
+        <v>4224.6100000000006</v>
       </c>
       <c r="W27" s="51">
         <f t="shared" si="20"/>
-        <v>12947.61</v>
+        <v>3311.6100000000006</v>
       </c>
       <c r="X27" s="50">
         <f t="shared" si="20"/>
-        <v>13911.61</v>
+        <v>3399.6100000000006</v>
       </c>
       <c r="Y27" s="50">
         <f t="shared" si="20"/>
-        <v>13989.61</v>
+        <v>3477.6100000000006</v>
       </c>
       <c r="Z27" s="50">
         <f t="shared" si="20"/>
-        <v>14943.62</v>
+        <v>3555.6200000000008</v>
       </c>
       <c r="AA27" s="50">
         <f t="shared" si="20"/>
-        <v>14996.62</v>
+        <v>3608.6200000000008</v>
       </c>
       <c r="AB27" s="52">
         <f t="shared" si="20"/>
-        <v>14994.62</v>
+        <v>2730.6200000000008</v>
       </c>
       <c r="AC27" s="53">
         <f t="shared" si="20"/>
-        <v>10781.59</v>
+        <v>4649.59</v>
       </c>
       <c r="AD27" s="50">
         <f t="shared" si="20"/>
-        <v>11735.6</v>
+        <v>4727.6000000000004</v>
       </c>
       <c r="AE27" s="50">
         <f t="shared" si="20"/>
-        <v>11793.6</v>
+        <v>4785.6000000000004</v>
       </c>
       <c r="AF27" s="50">
         <f t="shared" si="20"/>
-        <v>12757.6</v>
+        <v>4873.6000000000004</v>
       </c>
       <c r="AG27" s="51">
         <f t="shared" si="20"/>
-        <v>11844.6</v>
+        <v>3960.6000000000004</v>
       </c>
       <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>12798.61</v>
+        <v>4038.6100000000006</v>
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>12876.61</v>
+        <v>4116.6100000000006</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>13840.61</v>
+        <v>4204.6100000000006</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>13893.61</v>
+        <v>4257.6100000000006</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>13816.78</v>
+        <v>3304.7800000000007</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>13847.26</v>
+        <v>3335.2600000000007</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>14801.27</v>
+        <v>3413.2700000000009</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>14854.27</v>
+        <v>3466.2700000000009</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>14742.27</v>
+        <v>2478.2700000000009</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>3960.68</v>
+        <v>-2171.3200000000002</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>4914.6900000000005</v>
+        <v>-2093.31</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>4992.6900000000005</v>
+        <v>-2015.31</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>5532.77</v>
+        <v>-2351.23</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>4619.7700000000004</v>
+        <v>-3264.23</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>5573.7800000000007</v>
+        <v>-3186.22</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>5651.7800000000007</v>
+        <v>-3108.22</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>6615.7800000000007</v>
+        <v>-3328.68</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>6668.7800000000007</v>
+        <v>-3275.68</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>6666.7800000000007</v>
+        <v>-4153.68</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>6744.7800000000007</v>
+        <v>-4075.6800000000003</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>7698.7900000000009</v>
+        <v>-3997.67</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>7751.7900000000009</v>
+        <v>-3944.67</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>7849.7900000000009</v>
+        <v>-4722.67</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>3889.1099999999997</v>
+        <v>-2551.35</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>22844.409999999996</v>
+        <v>-1992.0499999999993</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4817,10 +4877,6 @@
       <c r="BF30" s="69"/>
     </row>
     <row r="31" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AL31" s="10">
-        <f>88*4</f>
-        <v>352</v>
-      </c>
       <c r="BF31" s="70"/>
     </row>
     <row r="32" spans="1:61" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5122,7 +5178,7 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>2.1204395298455947</v>
+        <v>-24.316754097537718</v>
       </c>
       <c r="E65" s="90">
         <f>50000</f>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9931FF77-E7F1-4184-8CED-608EAA609503}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ACA3984-177D-412F-AF2C-E00BAD1E3BC2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -566,12 +566,6 @@
       <name val="Goudy Old Style"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -944,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1220,9 +1214,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1582,10 +1573,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="AY14" sqref="AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3046,7 +3037,7 @@
       </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
-      <c r="AW14" s="93"/>
+      <c r="AW14" s="21"/>
       <c r="AX14" s="88">
         <f>220+59+29.46</f>
         <v>308.45999999999998</v>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ACA3984-177D-412F-AF2C-E00BAD1E3BC2}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1359931-6F93-4F21-9081-F83D500A9885}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,6 @@
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
     <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
     <author>tc={0C5E315B-8C79-4463-907F-B71402355D7B}</author>
-    <author>tc={742D5481-0C3A-4532-BF71-389EEE9ABB15}</author>
     <author>tc={05365BFC-21CF-45B8-928D-29DF628D501E}</author>
     <author>tc={0A5708E7-E187-405D-8DCF-985B71811122}</author>
     <author>tc={AAF73E9F-1BEF-41B8-8981-A497421D996D}</author>
@@ -160,34 +159,26 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Mobile Service, Microsoft Subscription, Ear Buds, Shipping / Handling</t>
+    Microsoft Subscription, Mobile Phone Charger, Melatonin, Mobile Service</t>
       </text>
     </comment>
-    <comment ref="AM14" authorId="12" shapeId="0" xr:uid="{742D5481-0C3A-4532-BF71-389EEE9ABB15}">
+    <comment ref="AP14" authorId="12" shapeId="0" xr:uid="{05365BFC-21CF-45B8-928D-29DF628D501E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Old Navy Joggers</t>
+    ADULT FIRST AID/CPR/AED  ( 09/29/2025 )</t>
       </text>
     </comment>
-    <comment ref="AP14" authorId="13" shapeId="0" xr:uid="{05365BFC-21CF-45B8-928D-29DF628D501E}">
+    <comment ref="AT14" authorId="13" shapeId="0" xr:uid="{0A5708E7-E187-405D-8DCF-985B71811122}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    ADULT FIRST AID/CPR/AED</t>
+    Pocket Knife, Multi-Tool, Portable Laptop Charger</t>
       </text>
     </comment>
-    <comment ref="AT14" authorId="14" shapeId="0" xr:uid="{0A5708E7-E187-405D-8DCF-985B71811122}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Pocket Knife, Multi-Tool, Portable Laptop Charger, Fast USB Phone Charger</t>
-      </text>
-    </comment>
-    <comment ref="AX14" authorId="15" shapeId="0" xr:uid="{AAF73E9F-1BEF-41B8-8981-A497421D996D}">
+    <comment ref="AX14" authorId="14" shapeId="0" xr:uid="{AAF73E9F-1BEF-41B8-8981-A497421D996D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -195,7 +186,7 @@
     Nikes and Wallet</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="16" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="A15" authorId="15" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -203,7 +194,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="17" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="16" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -211,7 +202,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="18" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="17" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -219,7 +210,7 @@
     Electric, Water, Parking, Mail, Amenities</t>
       </text>
     </comment>
-    <comment ref="A24" authorId="19" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
+    <comment ref="A24" authorId="18" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -227,7 +218,7 @@
     Hot Food!</t>
       </text>
     </comment>
-    <comment ref="N27" authorId="20" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="N27" authorId="19" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -235,7 +226,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="21" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="20" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -243,7 +234,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="22" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="21" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -251,7 +242,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B64" authorId="23" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B64" authorId="22" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -938,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1208,9 +1199,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1521,16 +1509,13 @@
     <text>Boots</text>
   </threadedComment>
   <threadedComment ref="AL14" dT="2025-09-02T18:58:38.22" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{0C5E315B-8C79-4463-907F-B71402355D7B}">
-    <text>Mobile Service, Microsoft Subscription, Ear Buds, Shipping / Handling</text>
-  </threadedComment>
-  <threadedComment ref="AM14" dT="2025-09-02T18:57:45.07" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{742D5481-0C3A-4532-BF71-389EEE9ABB15}">
-    <text>Old Navy Joggers</text>
+    <text>Microsoft Subscription, Mobile Phone Charger, Melatonin, Mobile Service</text>
   </threadedComment>
   <threadedComment ref="AP14" dT="2025-08-30T16:13:24.79" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{05365BFC-21CF-45B8-928D-29DF628D501E}">
-    <text>ADULT FIRST AID/CPR/AED</text>
+    <text>ADULT FIRST AID/CPR/AED  ( 09/29/2025 )</text>
   </threadedComment>
   <threadedComment ref="AT14" dT="2025-09-02T18:59:23.56" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{0A5708E7-E187-405D-8DCF-985B71811122}">
-    <text>Pocket Knife, Multi-Tool, Portable Laptop Charger, Fast USB Phone Charger</text>
+    <text>Pocket Knife, Multi-Tool, Portable Laptop Charger</text>
   </threadedComment>
   <threadedComment ref="AX14" dT="2025-09-02T18:57:26.37" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{AAF73E9F-1BEF-41B8-8981-A497421D996D}">
     <text>Nikes and Wallet</text>
@@ -1573,10 +1558,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY14" sqref="AY14"/>
+      <selection pane="bottomRight" activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2419,10 +2404,10 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="6"/>
-      <c r="AO8" s="6">
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="45">
         <v>25</v>
       </c>
-      <c r="AP8" s="16"/>
       <c r="AQ8" s="8">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -2445,14 +2430,16 @@
       <c r="BC8" s="6">
         <v>25</v>
       </c>
-      <c r="BD8" s="16"/>
+      <c r="BD8" s="45">
+        <v>50</v>
+      </c>
       <c r="BE8" s="8">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="BF8" s="8">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3017,23 +3004,21 @@
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
       <c r="AL14" s="88">
-        <f>28.98+10+24.99+1+9.86</f>
-        <v>74.83</v>
-      </c>
-      <c r="AM14" s="91">
-        <v>47.52</v>
-      </c>
+        <f>33.68+9.99+4+1</f>
+        <v>48.67</v>
+      </c>
+      <c r="AM14" s="5"/>
       <c r="AP14" s="88">
         <v>110</v>
       </c>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>232.35</v>
+        <v>158.67000000000002</v>
       </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="21"/>
       <c r="AT14" s="88">
-        <v>423.92</v>
+        <v>399.93</v>
       </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
@@ -3050,11 +3035,11 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="22">
         <f t="shared" si="7"/>
-        <v>732.38</v>
+        <v>708.39</v>
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>964.73</v>
+        <v>867.06</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3495,11 +3480,11 @@
       </c>
       <c r="AL18" s="29">
         <f t="shared" si="10"/>
-        <v>1040.83</v>
+        <v>1014.67</v>
       </c>
       <c r="AM18" s="29">
         <f t="shared" si="10"/>
-        <v>57.52</v>
+        <v>10</v>
       </c>
       <c r="AN18" s="29">
         <f t="shared" si="10"/>
@@ -3507,15 +3492,15 @@
       </c>
       <c r="AO18" s="29">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
-        <v>1076</v>
+        <v>1101</v>
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3315.32</v>
+        <v>3241.6400000000003</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3527,7 +3512,7 @@
       </c>
       <c r="AT18" s="29">
         <f t="shared" si="10"/>
-        <v>423.92</v>
+        <v>399.93</v>
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
@@ -3567,15 +3552,15 @@
       </c>
       <c r="BD18" s="31">
         <f t="shared" si="10"/>
-        <v>866</v>
+        <v>916</v>
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>3695.35</v>
+        <v>3721.36</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>13136.61</v>
+        <v>13088.94</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -3835,7 +3820,7 @@
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AT20" s="92">
+      <c r="AT20" s="91">
         <v>88</v>
       </c>
       <c r="AU20" s="85">
@@ -4539,19 +4524,19 @@
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>3392.7800000000007</v>
+        <v>3418.9400000000005</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>3423.2600000000007</v>
+        <v>3496.9400000000005</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>3501.2700000000009</v>
+        <v>3574.9500000000007</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>3554.2700000000009</v>
+        <v>3652.9500000000007</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4559,55 +4544,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>-2083.3200000000002</v>
+        <v>-2009.6400000000003</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>-2005.31</v>
+        <v>-1931.6300000000003</v>
       </c>
       <c r="AT26" s="47">
         <f>SUM(AT20:AT23)+AT25+AS27</f>
-        <v>-1927.31</v>
+        <v>-1853.6300000000003</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>-2263.23</v>
+        <v>-2165.5600000000004</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>-3176.23</v>
+        <v>-3078.5600000000004</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>-3098.22</v>
+        <v>-3000.55</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>-3020.22</v>
+        <v>-2922.55</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>-3240.68</v>
+        <v>-3143.01</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>-3187.68</v>
+        <v>-3090.01</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>-4065.6800000000003</v>
+        <v>-3968.01</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>-3987.6800000000003</v>
+        <v>-3890.01</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>-3909.67</v>
+        <v>-3812</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>-3856.67</v>
+        <v>-3759</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4766,87 +4751,87 @@
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>3304.7800000000007</v>
+        <v>3330.9400000000005</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>3335.2600000000007</v>
+        <v>3408.9400000000005</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>3413.2700000000009</v>
+        <v>3486.9500000000007</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>3466.2700000000009</v>
+        <v>3564.9500000000007</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>2478.2700000000009</v>
+        <v>2551.9500000000007</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>-2171.3200000000002</v>
+        <v>-2097.6400000000003</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>-2093.31</v>
+        <v>-2019.6300000000003</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>-2015.31</v>
+        <v>-1941.6300000000003</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>-2351.23</v>
+        <v>-2253.5600000000004</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>-3264.23</v>
+        <v>-3166.5600000000004</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>-3186.22</v>
+        <v>-3088.55</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>-3108.22</v>
+        <v>-3010.55</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>-3328.68</v>
+        <v>-3231.01</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>-3275.68</v>
+        <v>-3178.01</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>-4153.68</v>
+        <v>-4056.01</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>-4075.6800000000003</v>
+        <v>-3978.01</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>-3997.67</v>
+        <v>-3900</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>-3944.67</v>
+        <v>-3847</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>-4722.67</v>
+        <v>-4675</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>-2551.35</v>
+        <v>-2577.36</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>-1992.0499999999993</v>
+        <v>-1944.3799999999992</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5169,7 +5154,7 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>-24.316754097537718</v>
+        <v>-24.912923399746969</v>
       </c>
       <c r="E65" s="90">
         <f>50000</f>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{DE95CB3E-6CC3-4D69-AC26-B69DD622F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1359931-6F93-4F21-9081-F83D500A9885}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA5EA3C-8641-4750-BA3A-3A273D468663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,9 @@
     <author>tc={3AE6F7DC-4535-43DA-BFFD-7C585CC37669}</author>
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
     <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
-    <author>tc={0C5E315B-8C79-4463-907F-B71402355D7B}</author>
+    <author>tc={2E282B56-B732-49B3-A712-06F15483E74C}</author>
     <author>tc={05365BFC-21CF-45B8-928D-29DF628D501E}</author>
-    <author>tc={0A5708E7-E187-405D-8DCF-985B71811122}</author>
+    <author>tc={9C30FECF-B55E-4967-8731-F1F3A62B7816}</author>
     <author>tc={AAF73E9F-1BEF-41B8-8981-A497421D996D}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
     <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
@@ -154,12 +154,12 @@
     Boots</t>
       </text>
     </comment>
-    <comment ref="AL14" authorId="11" shapeId="0" xr:uid="{0C5E315B-8C79-4463-907F-B71402355D7B}">
+    <comment ref="AO14" authorId="11" shapeId="0" xr:uid="{2E282B56-B732-49B3-A712-06F15483E74C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Microsoft Subscription, Mobile Phone Charger, Melatonin, Mobile Service</t>
+    Mobile Phone Charger, Portable Laptop Charger, Multi-Tool, Binoculars</t>
       </text>
     </comment>
     <comment ref="AP14" authorId="12" shapeId="0" xr:uid="{05365BFC-21CF-45B8-928D-29DF628D501E}">
@@ -170,12 +170,12 @@
     ADULT FIRST AID/CPR/AED  ( 09/29/2025 )</t>
       </text>
     </comment>
-    <comment ref="AT14" authorId="13" shapeId="0" xr:uid="{0A5708E7-E187-405D-8DCF-985B71811122}">
+    <comment ref="AT14" authorId="13" shapeId="0" xr:uid="{9C30FECF-B55E-4967-8731-F1F3A62B7816}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Pocket Knife, Multi-Tool, Portable Laptop Charger</t>
+    Pocket Knife</t>
       </text>
     </comment>
     <comment ref="AX14" authorId="14" shapeId="0" xr:uid="{AAF73E9F-1BEF-41B8-8981-A497421D996D}">
@@ -183,7 +183,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Nikes and Wallet</t>
+    Nikes, and Wallet</t>
       </text>
     </comment>
     <comment ref="A15" authorId="15" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
@@ -458,7 +458,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -557,6 +557,12 @@
       <name val="Goudy Old Style"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -929,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1202,6 +1208,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1508,17 +1523,17 @@
   <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
     <text>Boots</text>
   </threadedComment>
-  <threadedComment ref="AL14" dT="2025-09-02T18:58:38.22" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{0C5E315B-8C79-4463-907F-B71402355D7B}">
-    <text>Microsoft Subscription, Mobile Phone Charger, Melatonin, Mobile Service</text>
+  <threadedComment ref="AO14" dT="2025-09-08T23:43:30.28" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{2E282B56-B732-49B3-A712-06F15483E74C}">
+    <text>Mobile Phone Charger, Portable Laptop Charger, Multi-Tool, Binoculars</text>
   </threadedComment>
   <threadedComment ref="AP14" dT="2025-08-30T16:13:24.79" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{05365BFC-21CF-45B8-928D-29DF628D501E}">
     <text>ADULT FIRST AID/CPR/AED  ( 09/29/2025 )</text>
   </threadedComment>
-  <threadedComment ref="AT14" dT="2025-09-02T18:59:23.56" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{0A5708E7-E187-405D-8DCF-985B71811122}">
-    <text>Pocket Knife, Multi-Tool, Portable Laptop Charger</text>
+  <threadedComment ref="AT14" dT="2025-09-08T23:55:32.34" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9C30FECF-B55E-4967-8731-F1F3A62B7816}">
+    <text>Pocket Knife</text>
   </threadedComment>
   <threadedComment ref="AX14" dT="2025-09-02T18:57:26.37" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{AAF73E9F-1BEF-41B8-8981-A497421D996D}">
-    <text>Nikes and Wallet</text>
+    <text>Nikes, and Wallet</text>
   </threadedComment>
   <threadedComment ref="A15" dT="2025-06-16T03:18:48.60" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
     <text>Downtown?</text>
@@ -1558,10 +1573,10 @@
   <dimension ref="A1:BI65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM14" sqref="AM14"/>
+      <selection pane="bottomRight" activeCell="AP15" sqref="AP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2748,13 +2763,13 @@
         <v>44</v>
       </c>
       <c r="B12" s="5">
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21">
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -2762,86 +2777,86 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21">
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22">
         <f t="shared" si="4"/>
-        <v>29.97</v>
+        <v>32.58</v>
       </c>
       <c r="P12" s="5">
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21">
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
+      <c r="X12" s="21">
+        <v>10.86</v>
+      </c>
       <c r="Y12" s="21"/>
-      <c r="Z12" s="21">
-        <v>9.99</v>
-      </c>
+      <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
       <c r="AC12" s="22">
         <f t="shared" si="5"/>
-        <v>29.97</v>
+        <v>32.58</v>
       </c>
       <c r="AD12" s="5">
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="AE12" s="21"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
       <c r="AH12" s="21">
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="AI12" s="21"/>
       <c r="AJ12" s="21"/>
       <c r="AK12" s="21"/>
       <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21">
-        <v>9.99</v>
-      </c>
+      <c r="AM12" s="21">
+        <v>10.86</v>
+      </c>
+      <c r="AN12" s="21"/>
       <c r="AO12" s="21"/>
       <c r="AP12" s="21"/>
       <c r="AQ12" s="22">
         <f t="shared" si="6"/>
-        <v>29.97</v>
+        <v>32.58</v>
       </c>
       <c r="AR12" s="5">
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="AS12" s="21"/>
       <c r="AT12" s="21"/>
       <c r="AU12" s="21"/>
       <c r="AV12" s="21">
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="AW12" s="21"/>
       <c r="AX12" s="21"/>
       <c r="AY12" s="21"/>
       <c r="AZ12" s="21"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21">
-        <v>9.99</v>
-      </c>
+      <c r="BA12" s="21">
+        <v>10.8</v>
+      </c>
+      <c r="BB12" s="21"/>
       <c r="BC12" s="21"/>
       <c r="BD12" s="21"/>
       <c r="BE12" s="22">
         <f t="shared" si="7"/>
-        <v>29.97</v>
+        <v>32.519999999999996</v>
       </c>
       <c r="BF12" s="22">
         <f t="shared" si="8"/>
-        <v>119.88</v>
+        <v>130.26</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2901,9 +2916,7 @@
         <v>3</v>
       </c>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="21">
-        <v>20</v>
-      </c>
+      <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21">
         <f>1</f>
@@ -2926,7 +2939,7 @@
       </c>
       <c r="AQ13" s="22">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AR13" s="5"/>
       <c r="AS13" s="24"/>
@@ -2956,7 +2969,7 @@
       </c>
       <c r="BF13" s="22">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3003,22 +3016,20 @@
       <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
-      <c r="AL14" s="88">
-        <f>33.68+9.99+4+1</f>
-        <v>48.67</v>
-      </c>
-      <c r="AM14" s="5"/>
+      <c r="AM14" s="92"/>
+      <c r="AO14" s="94">
+        <v>223.92</v>
+      </c>
       <c r="AP14" s="88">
         <v>110</v>
       </c>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>158.67000000000002</v>
+        <v>333.91999999999996</v>
       </c>
       <c r="AR14" s="5"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="88">
-        <v>399.93</v>
+      <c r="AT14" s="94">
+        <v>270</v>
       </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
@@ -3035,11 +3046,11 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="22">
         <f t="shared" si="7"/>
-        <v>708.39</v>
+        <v>578.46</v>
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>867.06</v>
+        <v>912.38</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3336,7 +3347,7 @@
       </c>
       <c r="B18" s="28">
         <f t="shared" ref="B18:AG18" si="9">SUM(B2:B17)</f>
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="C18" s="29">
         <f t="shared" si="9"/>
@@ -3352,7 +3363,7 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" si="9"/>
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="9"/>
@@ -3376,7 +3387,7 @@
       </c>
       <c r="L18" s="29">
         <f t="shared" si="9"/>
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="M18" s="29">
         <f t="shared" si="9"/>
@@ -3388,11 +3399,11 @@
       </c>
       <c r="O18" s="30">
         <f t="shared" si="9"/>
-        <v>3062.9700000000003</v>
+        <v>3065.58</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" si="9"/>
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="Q18" s="29">
         <f t="shared" si="9"/>
@@ -3408,7 +3419,7 @@
       </c>
       <c r="T18" s="29">
         <f t="shared" si="9"/>
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="U18" s="29">
         <f t="shared" si="9"/>
@@ -3424,7 +3435,7 @@
       </c>
       <c r="X18" s="29">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10.86</v>
       </c>
       <c r="Y18" s="29">
         <f t="shared" si="9"/>
@@ -3432,7 +3443,7 @@
       </c>
       <c r="Z18" s="29">
         <f t="shared" si="9"/>
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="29">
         <f t="shared" si="9"/>
@@ -3444,15 +3455,15 @@
       </c>
       <c r="AC18" s="30">
         <f t="shared" si="9"/>
-        <v>3062.9700000000003</v>
+        <v>3065.58</v>
       </c>
       <c r="AD18" s="29">
         <f t="shared" si="9"/>
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="AE18" s="29">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AF18" s="29">
         <f t="shared" si="9"/>
@@ -3464,7 +3475,7 @@
       </c>
       <c r="AH18" s="29">
         <f t="shared" ref="AH18:BF18" si="10">SUM(AH2:AH17)</f>
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="AI18" s="29">
         <f t="shared" si="10"/>
@@ -3480,19 +3491,19 @@
       </c>
       <c r="AL18" s="29">
         <f t="shared" si="10"/>
-        <v>1014.67</v>
+        <v>966</v>
       </c>
       <c r="AM18" s="29">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>20.86</v>
       </c>
       <c r="AN18" s="29">
         <f t="shared" si="10"/>
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="29">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>233.92</v>
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
@@ -3500,11 +3511,11 @@
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3241.6400000000003</v>
+        <v>3399.5</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="AS18" s="29">
         <f t="shared" si="10"/>
@@ -3512,7 +3523,7 @@
       </c>
       <c r="AT18" s="29">
         <f t="shared" si="10"/>
-        <v>399.93</v>
+        <v>270</v>
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
@@ -3520,7 +3531,7 @@
       </c>
       <c r="AV18" s="29">
         <f t="shared" si="10"/>
-        <v>9.99</v>
+        <v>10.86</v>
       </c>
       <c r="AW18" s="29">
         <f t="shared" si="10"/>
@@ -3540,11 +3551,11 @@
       </c>
       <c r="BA18" s="29">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>20.8</v>
       </c>
       <c r="BB18" s="29">
         <f t="shared" si="10"/>
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="29">
         <f t="shared" si="10"/>
@@ -3556,11 +3567,11 @@
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>3721.36</v>
+        <v>3593.98</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>13088.94</v>
+        <v>13124.64</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -3788,7 +3799,7 @@
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AL20" s="85">
+      <c r="AL20" s="93">
         <f>88</f>
         <v>88</v>
       </c>
@@ -4380,51 +4391,51 @@
       </c>
       <c r="C26" s="47">
         <f>SUM(C19:C23)+C25+B27</f>
-        <v>166.01</v>
+        <v>165.14</v>
       </c>
       <c r="D26" s="47">
         <f t="shared" ref="D26:N26" si="16">SUM(D19:D23)+D25+C27</f>
-        <v>244.01</v>
+        <v>243.14</v>
       </c>
       <c r="E26" s="47">
         <f t="shared" si="16"/>
-        <v>332.01</v>
+        <v>331.14</v>
       </c>
       <c r="F26" s="47">
         <f t="shared" si="16"/>
-        <v>-580.99</v>
+        <v>-581.86</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" si="16"/>
-        <v>-502.98</v>
+        <v>-504.72</v>
       </c>
       <c r="H26" s="47">
         <f t="shared" si="16"/>
-        <v>-424.98</v>
+        <v>-426.72</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="16"/>
-        <v>-336.98</v>
+        <v>-338.72</v>
       </c>
       <c r="J26" s="47">
         <f t="shared" si="16"/>
-        <v>-1249.98</v>
+        <v>-1251.72</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="16"/>
-        <v>-1161.98</v>
+        <v>-1163.72</v>
       </c>
       <c r="L26" s="47">
         <f t="shared" si="16"/>
-        <v>-1083.98</v>
+        <v>-1085.72</v>
       </c>
       <c r="M26" s="47">
         <f t="shared" si="16"/>
-        <v>-1005.97</v>
+        <v>-1008.5799999999999</v>
       </c>
       <c r="N26" s="48">
         <f t="shared" si="16"/>
-        <v>-952.97</v>
+        <v>-955.57999999999993</v>
       </c>
       <c r="O26" s="30">
         <f>SUM(O19:O23)+O25</f>
@@ -4432,55 +4443,55 @@
       </c>
       <c r="P26" s="47">
         <f t="shared" ref="P26:AB26" si="17">SUM(P19:P23)+P25+O27</f>
-        <v>-1830.9700000000003</v>
+        <v>-1833.58</v>
       </c>
       <c r="Q26" s="47">
         <f t="shared" si="17"/>
-        <v>4815.6000000000004</v>
+        <v>4812.1200000000008</v>
       </c>
       <c r="R26" s="47">
         <f t="shared" si="17"/>
-        <v>4893.6000000000004</v>
+        <v>4890.1200000000008</v>
       </c>
       <c r="S26" s="47">
         <f t="shared" si="17"/>
-        <v>4981.6000000000004</v>
+        <v>4978.1200000000008</v>
       </c>
       <c r="T26" s="47">
         <f t="shared" si="17"/>
-        <v>4068.6000000000004</v>
+        <v>4065.1200000000008</v>
       </c>
       <c r="U26" s="47">
         <f t="shared" si="17"/>
-        <v>4146.6100000000006</v>
+        <v>4142.26</v>
       </c>
       <c r="V26" s="47">
         <f t="shared" si="17"/>
-        <v>4224.6100000000006</v>
+        <v>4220.26</v>
       </c>
       <c r="W26" s="47">
         <f t="shared" si="17"/>
-        <v>4312.6100000000006</v>
+        <v>4308.26</v>
       </c>
       <c r="X26" s="47">
         <f t="shared" si="17"/>
-        <v>3399.6100000000006</v>
+        <v>3395.26</v>
       </c>
       <c r="Y26" s="47">
         <f t="shared" si="17"/>
-        <v>3487.6100000000006</v>
+        <v>3472.4</v>
       </c>
       <c r="Z26" s="47">
         <f t="shared" si="17"/>
-        <v>3565.6100000000006</v>
+        <v>3550.4</v>
       </c>
       <c r="AA26" s="47">
         <f t="shared" si="17"/>
-        <v>3643.6200000000008</v>
+        <v>3638.4</v>
       </c>
       <c r="AB26" s="48">
         <f t="shared" si="17"/>
-        <v>3696.6200000000008</v>
+        <v>3691.4</v>
       </c>
       <c r="AC26" s="30">
         <f>SUM(AC19:AC23)+AC25</f>
@@ -4488,55 +4499,55 @@
       </c>
       <c r="AD26" s="47">
         <f t="shared" ref="AD26:AP26" si="18">SUM(AD19:AD23)+AD25+AC27</f>
-        <v>4737.59</v>
+        <v>4734.9800000000005</v>
       </c>
       <c r="AE26" s="47">
         <f t="shared" si="18"/>
-        <v>4815.6000000000004</v>
+        <v>4812.1200000000008</v>
       </c>
       <c r="AF26" s="47">
         <f t="shared" si="18"/>
-        <v>4873.6000000000004</v>
+        <v>4890.1200000000008</v>
       </c>
       <c r="AG26" s="47">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
-        <v>4961.6000000000004</v>
+        <v>4978.1200000000008</v>
       </c>
       <c r="AH26" s="47">
         <f>SUM(AH19:AH23)+AG25+AG27</f>
-        <v>4048.6000000000004</v>
+        <v>4065.1200000000008</v>
       </c>
       <c r="AI26" s="47">
         <f>SUM(AI19:AI23)+AI25+AH27</f>
-        <v>4126.6100000000006</v>
+        <v>4142.26</v>
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>4204.6100000000006</v>
+        <v>4220.26</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>4292.6100000000006</v>
+        <v>4308.26</v>
       </c>
       <c r="AL26" s="47">
         <f>SUM(AL19:AL23)+AH25+AK27</f>
-        <v>4345.6100000000006</v>
+        <v>4361.26</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>3418.9400000000005</v>
+        <v>3483.26</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>3496.9400000000005</v>
+        <v>3550.4</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>3574.9500000000007</v>
+        <v>3638.4</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>3652.9500000000007</v>
+        <v>3492.48</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4544,55 +4555,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>-2009.6400000000003</v>
+        <v>-2167.5</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>-1931.6300000000003</v>
+        <v>-2090.36</v>
       </c>
       <c r="AT26" s="47">
         <f>SUM(AT20:AT23)+AT25+AS27</f>
-        <v>-1853.6300000000003</v>
+        <v>-2012.3600000000001</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>-2165.5600000000004</v>
+        <v>-2194.36</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>-3078.5600000000004</v>
+        <v>-3107.36</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>-3000.55</v>
+        <v>-3030.2200000000003</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>-2922.55</v>
+        <v>-2952.2200000000003</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>-3143.01</v>
+        <v>-3172.6800000000003</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>-3090.01</v>
+        <v>-3119.6800000000003</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>-3968.01</v>
+        <v>-3997.6800000000003</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>-3890.01</v>
+        <v>-3930.4800000000005</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>-3812</v>
+        <v>-3842.4800000000005</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>-3759</v>
+        <v>-3789.4800000000005</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4607,231 +4618,231 @@
       <c r="A27" s="49"/>
       <c r="B27" s="50">
         <f t="shared" ref="B27:AG27" si="20">B26-B18</f>
-        <v>78.010000000000005</v>
+        <v>77.14</v>
       </c>
       <c r="C27" s="50">
         <f t="shared" si="20"/>
-        <v>156.01</v>
+        <v>155.13999999999999</v>
       </c>
       <c r="D27" s="50">
         <f t="shared" si="20"/>
-        <v>244.01</v>
+        <v>243.14</v>
       </c>
       <c r="E27" s="51">
         <f t="shared" si="20"/>
-        <v>-668.99</v>
+        <v>-669.86</v>
       </c>
       <c r="F27" s="50">
         <f t="shared" si="20"/>
-        <v>-590.98</v>
+        <v>-592.72</v>
       </c>
       <c r="G27" s="50">
         <f t="shared" si="20"/>
-        <v>-512.98</v>
+        <v>-514.72</v>
       </c>
       <c r="H27" s="50">
         <f t="shared" si="20"/>
-        <v>-424.98</v>
+        <v>-426.72</v>
       </c>
       <c r="I27" s="51">
         <f t="shared" si="20"/>
-        <v>-1337.98</v>
+        <v>-1339.72</v>
       </c>
       <c r="J27" s="50">
         <f t="shared" si="20"/>
-        <v>-1249.98</v>
+        <v>-1251.72</v>
       </c>
       <c r="K27" s="50">
         <f t="shared" si="20"/>
-        <v>-1171.98</v>
+        <v>-1173.72</v>
       </c>
       <c r="L27" s="50">
         <f t="shared" si="20"/>
-        <v>-1093.97</v>
+        <v>-1096.58</v>
       </c>
       <c r="M27" s="50">
         <f t="shared" si="20"/>
-        <v>-1040.97</v>
+        <v>-1043.58</v>
       </c>
       <c r="N27" s="52">
         <f t="shared" si="20"/>
-        <v>-1918.97</v>
+        <v>-1921.58</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="20"/>
-        <v>-1918.9700000000003</v>
+        <v>-1921.58</v>
       </c>
       <c r="P27" s="50">
         <f t="shared" si="20"/>
-        <v>-1840.9600000000003</v>
+        <v>-1844.4399999999998</v>
       </c>
       <c r="Q27" s="50">
         <f t="shared" si="20"/>
-        <v>4805.6000000000004</v>
+        <v>4802.1200000000008</v>
       </c>
       <c r="R27" s="50">
         <f t="shared" si="20"/>
-        <v>4893.6000000000004</v>
+        <v>4890.1200000000008</v>
       </c>
       <c r="S27" s="51">
         <f t="shared" si="20"/>
-        <v>3980.6000000000004</v>
+        <v>3977.1200000000008</v>
       </c>
       <c r="T27" s="50">
         <f t="shared" si="20"/>
-        <v>4058.6100000000006</v>
+        <v>4054.2600000000007</v>
       </c>
       <c r="U27" s="50">
         <f t="shared" si="20"/>
-        <v>4136.6100000000006</v>
+        <v>4132.26</v>
       </c>
       <c r="V27" s="50">
         <f t="shared" si="20"/>
-        <v>4224.6100000000006</v>
+        <v>4220.26</v>
       </c>
       <c r="W27" s="51">
         <f t="shared" si="20"/>
-        <v>3311.6100000000006</v>
+        <v>3307.26</v>
       </c>
       <c r="X27" s="50">
         <f t="shared" si="20"/>
-        <v>3399.6100000000006</v>
+        <v>3384.4</v>
       </c>
       <c r="Y27" s="50">
         <f t="shared" si="20"/>
-        <v>3477.6100000000006</v>
+        <v>3462.4</v>
       </c>
       <c r="Z27" s="50">
         <f t="shared" si="20"/>
-        <v>3555.6200000000008</v>
+        <v>3550.4</v>
       </c>
       <c r="AA27" s="50">
         <f t="shared" si="20"/>
-        <v>3608.6200000000008</v>
+        <v>3603.4</v>
       </c>
       <c r="AB27" s="52">
         <f t="shared" si="20"/>
-        <v>2730.6200000000008</v>
+        <v>2725.4</v>
       </c>
       <c r="AC27" s="53">
         <f t="shared" si="20"/>
-        <v>4649.59</v>
+        <v>4646.9800000000005</v>
       </c>
       <c r="AD27" s="50">
         <f t="shared" si="20"/>
-        <v>4727.6000000000004</v>
+        <v>4724.1200000000008</v>
       </c>
       <c r="AE27" s="50">
         <f t="shared" si="20"/>
-        <v>4785.6000000000004</v>
+        <v>4802.1200000000008</v>
       </c>
       <c r="AF27" s="50">
         <f t="shared" si="20"/>
-        <v>4873.6000000000004</v>
+        <v>4890.1200000000008</v>
       </c>
       <c r="AG27" s="51">
         <f t="shared" si="20"/>
-        <v>3960.6000000000004</v>
+        <v>3977.1200000000008</v>
       </c>
       <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>4038.6100000000006</v>
+        <v>4054.2600000000007</v>
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>4116.6100000000006</v>
+        <v>4132.26</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>4204.6100000000006</v>
+        <v>4220.26</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>4257.6100000000006</v>
+        <v>4273.26</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>3330.9400000000005</v>
+        <v>3395.26</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>3408.9400000000005</v>
+        <v>3462.4</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>3486.9500000000007</v>
+        <v>3550.4</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>3564.9500000000007</v>
+        <v>3404.48</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>2551.9500000000007</v>
+        <v>2391.48</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>-2097.6400000000003</v>
+        <v>-2255.5</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>-2019.6300000000003</v>
+        <v>-2178.36</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>-1941.6300000000003</v>
+        <v>-2100.36</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>-2253.5600000000004</v>
+        <v>-2282.36</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>-3166.5600000000004</v>
+        <v>-3195.36</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>-3088.55</v>
+        <v>-3118.2200000000003</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>-3010.55</v>
+        <v>-3040.2200000000003</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>-3231.01</v>
+        <v>-3260.6800000000003</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>-3178.01</v>
+        <v>-3207.6800000000003</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>-4056.01</v>
+        <v>-4085.6800000000003</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>-3978.01</v>
+        <v>-4018.4800000000005</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>-3900</v>
+        <v>-3930.4800000000005</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>-3847</v>
+        <v>-3877.4800000000005</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>-4675</v>
+        <v>-4705.4800000000005</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>-2577.36</v>
+        <v>-2449.98</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>-1944.3799999999992</v>
+        <v>-1980.0799999999981</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5154,7 +5165,7 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>-24.912923399746969</v>
+        <v>-24.46375398973781</v>
       </c>
       <c r="E65" s="90">
         <f>50000</f>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\GitHub\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA5EA3C-8641-4750-BA3A-3A273D468663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BAA5EA3C-8641-4750-BA3A-3A273D468663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8FA8929-C57C-44A9-AF46-AE484CB563D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,7 +458,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -557,14 +557,8 @@
       <name val="Goudy Old Style"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,12 +615,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -935,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1189,16 +1177,7 @@
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1207,16 +1186,19 @@
     <xf numFmtId="170" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1576,7 +1558,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP15" sqref="AP15"/>
+      <selection pane="bottomRight" activeCell="AT12" sqref="AT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3016,11 +2998,11 @@
       <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
-      <c r="AM14" s="92"/>
-      <c r="AO14" s="94">
+      <c r="AM14" s="21"/>
+      <c r="AO14" s="88">
         <v>223.92</v>
       </c>
-      <c r="AP14" s="88">
+      <c r="AP14" s="85">
         <v>110</v>
       </c>
       <c r="AQ14" s="22">
@@ -3028,13 +3010,13 @@
         <v>333.91999999999996</v>
       </c>
       <c r="AR14" s="5"/>
-      <c r="AT14" s="94">
+      <c r="AT14" s="88">
         <v>270</v>
       </c>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
       <c r="AW14" s="21"/>
-      <c r="AX14" s="88">
+      <c r="AX14" s="85">
         <f>220+59+29.46</f>
         <v>308.45999999999998</v>
       </c>
@@ -3799,23 +3781,23 @@
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AL20" s="93">
+      <c r="AL20" s="39">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AM20" s="85">
+      <c r="AM20" s="89">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AN20" s="85">
+      <c r="AN20" s="89">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AO20" s="85">
+      <c r="AO20" s="89">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AP20" s="86">
+      <c r="AP20" s="90">
         <f>88</f>
         <v>88</v>
       </c>
@@ -3823,30 +3805,30 @@
         <f t="shared" si="13"/>
         <v>1144</v>
       </c>
-      <c r="AR20" s="87">
+      <c r="AR20" s="91">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AS20" s="85">
+      <c r="AS20" s="89">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AT20" s="91">
-        <v>88</v>
-      </c>
-      <c r="AU20" s="85">
+      <c r="AT20" s="92">
+        <v>88</v>
+      </c>
+      <c r="AU20" s="89">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AV20" s="85">
+      <c r="AV20" s="89">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AW20" s="85">
+      <c r="AW20" s="89">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AX20" s="85">
+      <c r="AX20" s="89">
         <f>88</f>
         <v>88</v>
       </c>
@@ -5150,7 +5132,7 @@
       <c r="C64" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="89" t="s">
+      <c r="E64" s="86" t="s">
         <v>60</v>
       </c>
       <c r="F64" s="42"/>
@@ -5167,7 +5149,7 @@
         <f>B65/BF27</f>
         <v>-24.46375398973781</v>
       </c>
-      <c r="E65" s="90">
+      <c r="E65" s="87">
         <f>50000</f>
         <v>50000</v>
       </c>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BAA5EA3C-8641-4750-BA3A-3A273D468663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8FA8929-C57C-44A9-AF46-AE484CB563D4}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{BAA5EA3C-8641-4750-BA3A-3A273D468663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9F9D87A-EEF5-452A-83D1-EF535DC2B596}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget 2025" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,7 @@
     <author>tc={3AE6F7DC-4535-43DA-BFFD-7C585CC37669}</author>
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
     <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
-    <author>tc={2E282B56-B732-49B3-A712-06F15483E74C}</author>
     <author>tc={05365BFC-21CF-45B8-928D-29DF628D501E}</author>
-    <author>tc={9C30FECF-B55E-4967-8731-F1F3A62B7816}</author>
-    <author>tc={AAF73E9F-1BEF-41B8-8981-A497421D996D}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
     <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
     <author>tc={C80F882F-58A5-4C62-98CE-F86F6971772E}</author>
@@ -154,15 +151,7 @@
     Boots</t>
       </text>
     </comment>
-    <comment ref="AO14" authorId="11" shapeId="0" xr:uid="{2E282B56-B732-49B3-A712-06F15483E74C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mobile Phone Charger, Portable Laptop Charger, Multi-Tool, Binoculars</t>
-      </text>
-    </comment>
-    <comment ref="AP14" authorId="12" shapeId="0" xr:uid="{05365BFC-21CF-45B8-928D-29DF628D501E}">
+    <comment ref="AP14" authorId="11" shapeId="0" xr:uid="{05365BFC-21CF-45B8-928D-29DF628D501E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -170,23 +159,7 @@
     ADULT FIRST AID/CPR/AED  ( 09/29/2025 )</t>
       </text>
     </comment>
-    <comment ref="AT14" authorId="13" shapeId="0" xr:uid="{9C30FECF-B55E-4967-8731-F1F3A62B7816}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Pocket Knife</t>
-      </text>
-    </comment>
-    <comment ref="AX14" authorId="14" shapeId="0" xr:uid="{AAF73E9F-1BEF-41B8-8981-A497421D996D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Nikes, and Wallet</t>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="15" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="A15" authorId="12" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -194,7 +167,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="16" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="13" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -202,7 +175,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="17" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="14" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -210,7 +183,7 @@
     Electric, Water, Parking, Mail, Amenities</t>
       </text>
     </comment>
-    <comment ref="A24" authorId="18" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
+    <comment ref="A24" authorId="15" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -218,7 +191,7 @@
     Hot Food!</t>
       </text>
     </comment>
-    <comment ref="N27" authorId="19" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="N27" authorId="16" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -226,7 +199,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="20" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="17" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -234,7 +207,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="21" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="18" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -242,7 +215,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B64" authorId="22" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B64" authorId="19" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -923,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1186,19 +1159,10 @@
     <xf numFmtId="170" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1505,17 +1469,8 @@
   <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
     <text>Boots</text>
   </threadedComment>
-  <threadedComment ref="AO14" dT="2025-09-08T23:43:30.28" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{2E282B56-B732-49B3-A712-06F15483E74C}">
-    <text>Mobile Phone Charger, Portable Laptop Charger, Multi-Tool, Binoculars</text>
-  </threadedComment>
   <threadedComment ref="AP14" dT="2025-08-30T16:13:24.79" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{05365BFC-21CF-45B8-928D-29DF628D501E}">
     <text>ADULT FIRST AID/CPR/AED  ( 09/29/2025 )</text>
-  </threadedComment>
-  <threadedComment ref="AT14" dT="2025-09-08T23:55:32.34" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{9C30FECF-B55E-4967-8731-F1F3A62B7816}">
-    <text>Pocket Knife</text>
-  </threadedComment>
-  <threadedComment ref="AX14" dT="2025-09-02T18:57:26.37" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{AAF73E9F-1BEF-41B8-8981-A497421D996D}">
-    <text>Nikes, and Wallet</text>
   </threadedComment>
   <threadedComment ref="A15" dT="2025-06-16T03:18:48.60" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
     <text>Downtown?</text>
@@ -2999,27 +2954,20 @@
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
       <c r="AM14" s="21"/>
-      <c r="AO14" s="88">
-        <v>223.92</v>
-      </c>
+      <c r="AO14" s="88"/>
       <c r="AP14" s="85">
         <v>110</v>
       </c>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>333.91999999999996</v>
+        <v>110</v>
       </c>
       <c r="AR14" s="5"/>
-      <c r="AT14" s="88">
-        <v>270</v>
-      </c>
+      <c r="AT14" s="88"/>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
       <c r="AW14" s="21"/>
-      <c r="AX14" s="85">
-        <f>220+59+29.46</f>
-        <v>308.45999999999998</v>
-      </c>
+      <c r="AX14" s="89"/>
       <c r="AY14" s="21"/>
       <c r="AZ14" s="21"/>
       <c r="BA14" s="21"/>
@@ -3028,11 +2976,11 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="22">
         <f t="shared" si="7"/>
-        <v>578.46</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>912.38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3485,7 +3433,7 @@
       </c>
       <c r="AO18" s="29">
         <f t="shared" si="10"/>
-        <v>233.92</v>
+        <v>10</v>
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
@@ -3493,7 +3441,7 @@
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3399.5</v>
+        <v>3175.58</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3505,7 +3453,7 @@
       </c>
       <c r="AT18" s="29">
         <f t="shared" si="10"/>
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="29">
         <f t="shared" si="10"/>
@@ -3521,7 +3469,7 @@
       </c>
       <c r="AX18" s="29">
         <f t="shared" si="10"/>
-        <v>308.45999999999998</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="29">
         <f t="shared" si="10"/>
@@ -3549,11 +3497,11 @@
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="10"/>
-        <v>3593.98</v>
+        <v>3015.52</v>
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>13124.64</v>
+        <v>12322.26</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -3785,19 +3733,19 @@
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AM20" s="89">
+      <c r="AM20" s="39">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AN20" s="89">
+      <c r="AN20" s="39">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AO20" s="89">
+      <c r="AO20" s="39">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AP20" s="90">
+      <c r="AP20" s="40">
         <f>88</f>
         <v>88</v>
       </c>
@@ -3805,30 +3753,30 @@
         <f t="shared" si="13"/>
         <v>1144</v>
       </c>
-      <c r="AR20" s="91">
+      <c r="AR20" s="41">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AS20" s="89">
+      <c r="AS20" s="39">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AT20" s="92">
-        <v>88</v>
-      </c>
-      <c r="AU20" s="89">
+      <c r="AT20" s="34">
+        <v>88</v>
+      </c>
+      <c r="AU20" s="39">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AV20" s="89">
+      <c r="AV20" s="39">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AW20" s="89">
+      <c r="AW20" s="39">
         <f>88</f>
         <v>88</v>
       </c>
-      <c r="AX20" s="89">
+      <c r="AX20" s="39">
         <f>88</f>
         <v>88</v>
       </c>
@@ -4529,7 +4477,7 @@
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>3492.48</v>
+        <v>3716.4</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
@@ -4537,55 +4485,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>-2167.5</v>
+        <v>-1943.58</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>-2090.36</v>
+        <v>-1866.4399999999998</v>
       </c>
       <c r="AT26" s="47">
         <f>SUM(AT20:AT23)+AT25+AS27</f>
-        <v>-2012.3600000000001</v>
+        <v>-1788.4399999999998</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>-2194.36</v>
+        <v>-1700.4399999999998</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>-3107.36</v>
+        <v>-2613.4399999999996</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>-3030.2200000000003</v>
+        <v>-2536.2999999999997</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>-2952.2200000000003</v>
+        <v>-2458.2999999999997</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>-3172.6800000000003</v>
+        <v>-2370.2999999999997</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>-3119.6800000000003</v>
+        <v>-2317.2999999999997</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>-3997.6800000000003</v>
+        <v>-3195.2999999999997</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>-3930.4800000000005</v>
+        <v>-3128.1</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>-3842.4800000000005</v>
+        <v>-3040.1</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>-3789.4800000000005</v>
+        <v>-2987.1</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4756,75 +4704,75 @@
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>3404.48</v>
+        <v>3628.4</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>2391.48</v>
+        <v>2615.4</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>-2255.5</v>
+        <v>-2031.58</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>-2178.36</v>
+        <v>-1954.4399999999998</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>-2100.36</v>
+        <v>-1876.4399999999998</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>-2282.36</v>
+        <v>-1788.4399999999998</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>-3195.36</v>
+        <v>-2701.4399999999996</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>-3118.2200000000003</v>
+        <v>-2624.2999999999997</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>-3040.2200000000003</v>
+        <v>-2546.2999999999997</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>-3260.6800000000003</v>
+        <v>-2458.2999999999997</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>-3207.6800000000003</v>
+        <v>-2405.2999999999997</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>-4085.6800000000003</v>
+        <v>-3283.2999999999997</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>-4018.4800000000005</v>
+        <v>-3216.1</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>-3930.4800000000005</v>
+        <v>-3128.1</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>-3877.4800000000005</v>
+        <v>-3075.1</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>-4705.4800000000005</v>
+        <v>-3903.1</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>-2449.98</v>
+        <v>-1871.52</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>-1980.0799999999981</v>
+        <v>-1177.6999999999989</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5147,7 +5095,7 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>-24.46375398973781</v>
+        <v>-41.13117941750874</v>
       </c>
       <c r="E65" s="87">
         <f>50000</f>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{BAA5EA3C-8641-4750-BA3A-3A273D468663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9F9D87A-EEF5-452A-83D1-EF535DC2B596}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BAA5EA3C-8641-4750-BA3A-3A273D468663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A9440A-6DB9-447A-8289-A1D47248E27A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget 2025" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,6 @@
     <author>tc={3AE6F7DC-4535-43DA-BFFD-7C585CC37669}</author>
     <author>tc={349F2372-D8F3-4A55-988B-DE936EBDEF80}</author>
     <author>tc={E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}</author>
-    <author>tc={05365BFC-21CF-45B8-928D-29DF628D501E}</author>
     <author>tc={A7C03510-1D80-4101-A4FD-97408BDF8224}</author>
     <author>tc={1EC39C63-C61E-447C-8BDF-2D4956740EAF}</author>
     <author>tc={C80F882F-58A5-4C62-98CE-F86F6971772E}</author>
@@ -151,15 +150,7 @@
     Boots</t>
       </text>
     </comment>
-    <comment ref="AP14" authorId="11" shapeId="0" xr:uid="{05365BFC-21CF-45B8-928D-29DF628D501E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ADULT FIRST AID/CPR/AED  ( 09/29/2025 )</t>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="12" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
+    <comment ref="A15" authorId="11" shapeId="0" xr:uid="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +158,7 @@
     Downtown?</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="13" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
+    <comment ref="A16" authorId="12" shapeId="0" xr:uid="{1EC39C63-C61E-447C-8BDF-2D4956740EAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +166,7 @@
     Flowers, Cards, Bike, etc.</t>
       </text>
     </comment>
-    <comment ref="A17" authorId="14" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
+    <comment ref="A17" authorId="13" shapeId="0" xr:uid="{C80F882F-58A5-4C62-98CE-F86F6971772E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +174,7 @@
     Electric, Water, Parking, Mail, Amenities</t>
       </text>
     </comment>
-    <comment ref="A24" authorId="15" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
+    <comment ref="A24" authorId="14" shapeId="0" xr:uid="{A43F0397-9D84-401B-B7FF-7AAF78751520}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +182,7 @@
     Hot Food!</t>
       </text>
     </comment>
-    <comment ref="N27" authorId="16" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
+    <comment ref="N27" authorId="15" shapeId="0" xr:uid="{EE9A3F2A-B615-4507-B7B9-350EE2DC8EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -199,7 +190,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="17" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
+    <comment ref="AB27" authorId="16" shapeId="0" xr:uid="{4B88355D-9209-4405-B7B7-6AE6D134BD4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,7 +198,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="BD27" authorId="18" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
+    <comment ref="BD27" authorId="17" shapeId="0" xr:uid="{C1FE81CD-4B33-401A-B80F-F36E74842B02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -215,7 +206,7 @@
     Consolidate</t>
       </text>
     </comment>
-    <comment ref="B64" authorId="19" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
+    <comment ref="B64" authorId="18" shapeId="0" xr:uid="{2A7D9693-81E7-4CB8-A73A-DBB49446FB5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -531,7 +522,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,12 +577,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -896,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1150,16 +1135,10 @@
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,9 +1448,6 @@
   <threadedComment ref="AG14" dT="2025-07-08T03:00:36.87" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{E90C7D6D-0AA1-42B6-A687-DA4DCA8BBE63}">
     <text>Boots</text>
   </threadedComment>
-  <threadedComment ref="AP14" dT="2025-08-30T16:13:24.79" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{05365BFC-21CF-45B8-928D-29DF628D501E}">
-    <text>ADULT FIRST AID/CPR/AED  ( 09/29/2025 )</text>
-  </threadedComment>
   <threadedComment ref="A15" dT="2025-06-16T03:18:48.60" personId="{C25DA08F-AFEC-4D2E-9818-A5ECD8C603A9}" id="{A7C03510-1D80-4101-A4FD-97408BDF8224}">
     <text>Downtown?</text>
   </threadedComment>
@@ -1513,7 +1489,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT12" sqref="AT12"/>
+      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2954,20 +2930,16 @@
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
       <c r="AM14" s="21"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="85">
-        <v>110</v>
-      </c>
+      <c r="AP14" s="87"/>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="5"/>
-      <c r="AT14" s="88"/>
       <c r="AU14" s="21"/>
       <c r="AV14" s="21"/>
       <c r="AW14" s="21"/>
-      <c r="AX14" s="89"/>
+      <c r="AX14" s="21"/>
       <c r="AY14" s="21"/>
       <c r="AZ14" s="21"/>
       <c r="BA14" s="21"/>
@@ -2980,7 +2952,7 @@
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="8"/>
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3437,11 +3409,11 @@
       </c>
       <c r="AP18" s="31">
         <f t="shared" si="10"/>
-        <v>1101</v>
+        <v>991</v>
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="10"/>
-        <v>3175.58</v>
+        <v>3065.58</v>
       </c>
       <c r="AR18" s="29">
         <f t="shared" si="10"/>
@@ -3501,7 +3473,7 @@
       </c>
       <c r="BF18" s="30">
         <f t="shared" si="10"/>
-        <v>12322.26</v>
+        <v>12212.26</v>
       </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
@@ -4485,55 +4457,55 @@
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>-1943.58</v>
+        <v>-1833.58</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>-1866.4399999999998</v>
+        <v>-1756.4399999999998</v>
       </c>
       <c r="AT26" s="47">
         <f>SUM(AT20:AT23)+AT25+AS27</f>
-        <v>-1788.4399999999998</v>
+        <v>-1678.4399999999998</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>-1700.4399999999998</v>
+        <v>-1590.4399999999998</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>-2613.4399999999996</v>
+        <v>-2503.4399999999996</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>-2536.2999999999997</v>
+        <v>-2426.2999999999997</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>-2458.2999999999997</v>
+        <v>-2348.2999999999997</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>-2370.2999999999997</v>
+        <v>-2260.2999999999997</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>-2317.2999999999997</v>
+        <v>-2207.2999999999997</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>-3195.2999999999997</v>
+        <v>-3085.2999999999997</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>-3128.1</v>
+        <v>-3018.1</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>-3040.1</v>
+        <v>-2930.1</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>-2987.1</v>
+        <v>-2877.1</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
@@ -4708,63 +4680,63 @@
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>2615.4</v>
+        <v>2725.4</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>-2031.58</v>
+        <v>-1921.58</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>-1954.4399999999998</v>
+        <v>-1844.4399999999998</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>-1876.4399999999998</v>
+        <v>-1766.4399999999998</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>-1788.4399999999998</v>
+        <v>-1678.4399999999998</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>-2701.4399999999996</v>
+        <v>-2591.4399999999996</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>-2624.2999999999997</v>
+        <v>-2514.2999999999997</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>-2546.2999999999997</v>
+        <v>-2436.2999999999997</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>-2458.2999999999997</v>
+        <v>-2348.2999999999997</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>-2405.2999999999997</v>
+        <v>-2295.2999999999997</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>-3283.2999999999997</v>
+        <v>-3173.2999999999997</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>-3216.1</v>
+        <v>-3106.1</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>-3128.1</v>
+        <v>-3018.1</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>-3075.1</v>
+        <v>-2965.1</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>-3903.1</v>
+        <v>-3793.1</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
@@ -4772,7 +4744,7 @@
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>-1177.6999999999989</v>
+        <v>-1067.6999999999989</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5080,7 +5052,7 @@
       <c r="C64" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="86" t="s">
+      <c r="E64" s="85" t="s">
         <v>60</v>
       </c>
       <c r="F64" s="42"/>
@@ -5095,9 +5067,9 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>-41.13117941750874</v>
-      </c>
-      <c r="E65" s="87">
+        <v>-45.368727170553569</v>
+      </c>
+      <c r="E65" s="86">
         <f>50000</f>
         <v>50000</v>
       </c>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BAA5EA3C-8641-4750-BA3A-3A273D468663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A9440A-6DB9-447A-8289-A1D47248E27A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{BAA5EA3C-8641-4750-BA3A-3A273D468663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4DC24EF-32DD-4B98-861B-49C07870D52B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1139,9 +1139,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1485,11 +1482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
+      <selection pane="bottomRight" activeCell="AR20" sqref="AR20:BD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2930,7 +2927,7 @@
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
       <c r="AM14" s="21"/>
-      <c r="AP14" s="87"/>
+      <c r="AP14" s="21"/>
       <c r="AQ14" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3558,231 +3555,77 @@
       <c r="A20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="37">
-        <v>88</v>
-      </c>
-      <c r="C20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="D20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="E20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="F20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="G20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="H20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="I20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="J20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="K20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="L20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="M20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="N20" s="40">
-        <f>88</f>
-        <v>88</v>
-      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="36">
         <f t="shared" si="11"/>
-        <v>1144</v>
-      </c>
-      <c r="P20" s="37">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="Q20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="R20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="S20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="T20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="U20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="V20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="W20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="X20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="Y20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="Z20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AA20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AB20" s="40">
-        <f>88</f>
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="40"/>
       <c r="AC20" s="36">
         <f t="shared" si="12"/>
-        <v>1144</v>
-      </c>
-      <c r="AD20" s="37">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AE20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AF20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AG20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AH20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AI20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AJ20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AK20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AL20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AM20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AN20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AO20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AP20" s="40">
-        <f>88</f>
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="40"/>
       <c r="AQ20" s="36">
         <f t="shared" si="13"/>
-        <v>1144</v>
-      </c>
-      <c r="AR20" s="41">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AS20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AT20" s="34">
-        <v>88</v>
-      </c>
-      <c r="AU20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AV20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AW20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AX20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AY20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="AZ20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="BA20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="BB20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="BC20" s="39">
-        <f>88</f>
-        <v>88</v>
-      </c>
-      <c r="BD20" s="40">
-        <f>88</f>
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="39"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="40"/>
       <c r="BE20" s="36">
         <f t="shared" si="14"/>
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="36">
         <f t="shared" si="15"/>
-        <v>4576</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="42"/>
     </row>
@@ -4289,462 +4132,462 @@
       </c>
       <c r="B26" s="47">
         <f>SUM(B19:B23)+B25</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C26" s="47">
         <f>SUM(C19:C23)+C25+B27</f>
-        <v>165.14</v>
+        <v>-10.86</v>
       </c>
       <c r="D26" s="47">
         <f t="shared" ref="D26:N26" si="16">SUM(D19:D23)+D25+C27</f>
-        <v>243.14</v>
+        <v>-20.86</v>
       </c>
       <c r="E26" s="47">
         <f t="shared" si="16"/>
-        <v>331.14</v>
+        <v>-20.86</v>
       </c>
       <c r="F26" s="47">
         <f t="shared" si="16"/>
-        <v>-581.86</v>
+        <v>-1021.86</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" si="16"/>
-        <v>-504.72</v>
+        <v>-1032.72</v>
       </c>
       <c r="H26" s="47">
         <f t="shared" si="16"/>
-        <v>-426.72</v>
+        <v>-1042.72</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="16"/>
-        <v>-338.72</v>
+        <v>-1042.72</v>
       </c>
       <c r="J26" s="47">
         <f t="shared" si="16"/>
-        <v>-1251.72</v>
+        <v>-2043.72</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="16"/>
-        <v>-1163.72</v>
+        <v>-2043.72</v>
       </c>
       <c r="L26" s="47">
         <f t="shared" si="16"/>
-        <v>-1085.72</v>
+        <v>-2053.7200000000003</v>
       </c>
       <c r="M26" s="47">
         <f t="shared" si="16"/>
-        <v>-1008.5799999999999</v>
+        <v>-2064.5800000000004</v>
       </c>
       <c r="N26" s="48">
         <f t="shared" si="16"/>
-        <v>-955.57999999999993</v>
+        <v>-2099.5800000000004</v>
       </c>
       <c r="O26" s="30">
         <f>SUM(O19:O23)+O25</f>
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="P26" s="47">
         <f t="shared" ref="P26:AB26" si="17">SUM(P19:P23)+P25+O27</f>
-        <v>-1833.58</v>
+        <v>-3065.58</v>
       </c>
       <c r="Q26" s="47">
         <f t="shared" si="17"/>
-        <v>4812.1200000000008</v>
+        <v>3492.1200000000003</v>
       </c>
       <c r="R26" s="47">
         <f t="shared" si="17"/>
-        <v>4890.1200000000008</v>
+        <v>3482.1200000000003</v>
       </c>
       <c r="S26" s="47">
         <f t="shared" si="17"/>
-        <v>4978.1200000000008</v>
+        <v>3482.1200000000003</v>
       </c>
       <c r="T26" s="47">
         <f t="shared" si="17"/>
-        <v>4065.1200000000008</v>
+        <v>2481.1200000000003</v>
       </c>
       <c r="U26" s="47">
         <f t="shared" si="17"/>
-        <v>4142.26</v>
+        <v>2470.2600000000002</v>
       </c>
       <c r="V26" s="47">
         <f t="shared" si="17"/>
-        <v>4220.26</v>
+        <v>2460.2600000000002</v>
       </c>
       <c r="W26" s="47">
         <f t="shared" si="17"/>
-        <v>4308.26</v>
+        <v>2460.2600000000002</v>
       </c>
       <c r="X26" s="47">
         <f t="shared" si="17"/>
-        <v>3395.26</v>
+        <v>1459.2600000000002</v>
       </c>
       <c r="Y26" s="47">
         <f t="shared" si="17"/>
-        <v>3472.4</v>
+        <v>1448.4000000000003</v>
       </c>
       <c r="Z26" s="47">
         <f t="shared" si="17"/>
-        <v>3550.4</v>
+        <v>1438.4000000000003</v>
       </c>
       <c r="AA26" s="47">
         <f t="shared" si="17"/>
-        <v>3638.4</v>
+        <v>1438.4000000000003</v>
       </c>
       <c r="AB26" s="48">
         <f t="shared" si="17"/>
-        <v>3691.4</v>
+        <v>1403.4000000000003</v>
       </c>
       <c r="AC26" s="30">
         <f>SUM(AC19:AC23)+AC25</f>
-        <v>7712.56</v>
+        <v>6568.56</v>
       </c>
       <c r="AD26" s="47">
         <f t="shared" ref="AD26:AP26" si="18">SUM(AD19:AD23)+AD25+AC27</f>
-        <v>4734.9800000000005</v>
+        <v>3502.9800000000005</v>
       </c>
       <c r="AE26" s="47">
         <f t="shared" si="18"/>
-        <v>4812.1200000000008</v>
+        <v>3492.1200000000003</v>
       </c>
       <c r="AF26" s="47">
         <f t="shared" si="18"/>
-        <v>4890.1200000000008</v>
+        <v>3482.1200000000003</v>
       </c>
       <c r="AG26" s="47">
         <f>SUM(AG19:AG23)+AG25+AF27</f>
-        <v>4978.1200000000008</v>
+        <v>3482.1200000000003</v>
       </c>
       <c r="AH26" s="47">
         <f>SUM(AH19:AH23)+AG25+AG27</f>
-        <v>4065.1200000000008</v>
+        <v>2481.1200000000003</v>
       </c>
       <c r="AI26" s="47">
         <f>SUM(AI19:AI23)+AI25+AH27</f>
-        <v>4142.26</v>
+        <v>2470.2600000000002</v>
       </c>
       <c r="AJ26" s="47">
         <f>SUM(AJ19:AJ23)+AJ25+AI27</f>
-        <v>4220.26</v>
+        <v>2460.2600000000002</v>
       </c>
       <c r="AK26" s="47">
         <f t="shared" si="18"/>
-        <v>4308.26</v>
+        <v>2460.2600000000002</v>
       </c>
       <c r="AL26" s="47">
         <f>SUM(AL19:AL23)+AH25+AK27</f>
-        <v>4361.26</v>
+        <v>2425.2600000000002</v>
       </c>
       <c r="AM26" s="47">
         <f t="shared" si="18"/>
-        <v>3483.26</v>
+        <v>1459.2600000000002</v>
       </c>
       <c r="AN26" s="47">
         <f>SUM(AN19:AN23)+AN25+AM27</f>
-        <v>3550.4</v>
+        <v>1438.4000000000003</v>
       </c>
       <c r="AO26" s="47">
         <f t="shared" si="18"/>
-        <v>3638.4</v>
+        <v>1438.4000000000003</v>
       </c>
       <c r="AP26" s="48">
         <f t="shared" si="18"/>
-        <v>3716.4</v>
+        <v>1428.4000000000003</v>
       </c>
       <c r="AQ26" s="30">
         <f>SUM(AQ19:AQ23)+AQ25</f>
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="47">
         <f t="shared" ref="AR26:BD26" si="19">SUM(AR19:AR23)+AR25+AQ27</f>
-        <v>-1833.58</v>
+        <v>-3065.58</v>
       </c>
       <c r="AS26" s="47">
         <f t="shared" si="19"/>
-        <v>-1756.4399999999998</v>
+        <v>-3076.44</v>
       </c>
       <c r="AT26" s="47">
         <f>SUM(AT20:AT23)+AT25+AS27</f>
-        <v>-1678.4399999999998</v>
+        <v>-3086.44</v>
       </c>
       <c r="AU26" s="47">
         <f t="shared" si="19"/>
-        <v>-1590.4399999999998</v>
+        <v>-3086.44</v>
       </c>
       <c r="AV26" s="47">
         <f t="shared" si="19"/>
-        <v>-2503.4399999999996</v>
+        <v>-4087.44</v>
       </c>
       <c r="AW26" s="47">
         <f t="shared" si="19"/>
-        <v>-2426.2999999999997</v>
+        <v>-4098.3</v>
       </c>
       <c r="AX26" s="47">
         <f t="shared" si="19"/>
-        <v>-2348.2999999999997</v>
+        <v>-4108.3</v>
       </c>
       <c r="AY26" s="47">
         <f t="shared" si="19"/>
-        <v>-2260.2999999999997</v>
+        <v>-4108.3</v>
       </c>
       <c r="AZ26" s="47">
         <f t="shared" si="19"/>
-        <v>-2207.2999999999997</v>
+        <v>-4143.3</v>
       </c>
       <c r="BA26" s="47">
         <f t="shared" si="19"/>
-        <v>-3085.2999999999997</v>
+        <v>-5109.3</v>
       </c>
       <c r="BB26" s="47">
         <f t="shared" si="19"/>
-        <v>-3018.1</v>
+        <v>-5130.1000000000004</v>
       </c>
       <c r="BC26" s="47">
         <f t="shared" si="19"/>
-        <v>-2930.1</v>
+        <v>-5130.1000000000004</v>
       </c>
       <c r="BD26" s="48">
         <f t="shared" si="19"/>
-        <v>-2877.1</v>
+        <v>-5165.1000000000004</v>
       </c>
       <c r="BE26" s="30">
         <f>SUM(BE19:BE23)+BE25</f>
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="30">
         <f>SUM(BF19:BF23)+BF25</f>
-        <v>11144.560000000001</v>
+        <v>6568.56</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
       <c r="B27" s="50">
         <f t="shared" ref="B27:AG27" si="20">B26-B18</f>
-        <v>77.14</v>
+        <v>-10.86</v>
       </c>
       <c r="C27" s="50">
         <f t="shared" si="20"/>
-        <v>155.13999999999999</v>
+        <v>-20.86</v>
       </c>
       <c r="D27" s="50">
         <f t="shared" si="20"/>
-        <v>243.14</v>
+        <v>-20.86</v>
       </c>
       <c r="E27" s="51">
         <f t="shared" si="20"/>
-        <v>-669.86</v>
+        <v>-1021.86</v>
       </c>
       <c r="F27" s="50">
         <f t="shared" si="20"/>
-        <v>-592.72</v>
+        <v>-1032.72</v>
       </c>
       <c r="G27" s="50">
         <f t="shared" si="20"/>
-        <v>-514.72</v>
+        <v>-1042.72</v>
       </c>
       <c r="H27" s="50">
         <f t="shared" si="20"/>
-        <v>-426.72</v>
+        <v>-1042.72</v>
       </c>
       <c r="I27" s="51">
         <f t="shared" si="20"/>
-        <v>-1339.72</v>
+        <v>-2043.72</v>
       </c>
       <c r="J27" s="50">
         <f t="shared" si="20"/>
-        <v>-1251.72</v>
+        <v>-2043.72</v>
       </c>
       <c r="K27" s="50">
         <f t="shared" si="20"/>
-        <v>-1173.72</v>
+        <v>-2053.7200000000003</v>
       </c>
       <c r="L27" s="50">
         <f t="shared" si="20"/>
-        <v>-1096.58</v>
+        <v>-2064.5800000000004</v>
       </c>
       <c r="M27" s="50">
         <f t="shared" si="20"/>
-        <v>-1043.58</v>
+        <v>-2099.5800000000004</v>
       </c>
       <c r="N27" s="52">
         <f t="shared" si="20"/>
-        <v>-1921.58</v>
+        <v>-3065.5800000000004</v>
       </c>
       <c r="O27" s="53">
         <f t="shared" si="20"/>
-        <v>-1921.58</v>
+        <v>-3065.58</v>
       </c>
       <c r="P27" s="50">
         <f t="shared" si="20"/>
-        <v>-1844.4399999999998</v>
+        <v>-3076.44</v>
       </c>
       <c r="Q27" s="50">
         <f t="shared" si="20"/>
-        <v>4802.1200000000008</v>
+        <v>3482.1200000000003</v>
       </c>
       <c r="R27" s="50">
         <f t="shared" si="20"/>
-        <v>4890.1200000000008</v>
+        <v>3482.1200000000003</v>
       </c>
       <c r="S27" s="51">
         <f t="shared" si="20"/>
-        <v>3977.1200000000008</v>
+        <v>2481.1200000000003</v>
       </c>
       <c r="T27" s="50">
         <f t="shared" si="20"/>
-        <v>4054.2600000000007</v>
+        <v>2470.2600000000002</v>
       </c>
       <c r="U27" s="50">
         <f t="shared" si="20"/>
-        <v>4132.26</v>
+        <v>2460.2600000000002</v>
       </c>
       <c r="V27" s="50">
         <f t="shared" si="20"/>
-        <v>4220.26</v>
+        <v>2460.2600000000002</v>
       </c>
       <c r="W27" s="51">
         <f t="shared" si="20"/>
-        <v>3307.26</v>
+        <v>1459.2600000000002</v>
       </c>
       <c r="X27" s="50">
         <f t="shared" si="20"/>
-        <v>3384.4</v>
+        <v>1448.4000000000003</v>
       </c>
       <c r="Y27" s="50">
         <f t="shared" si="20"/>
-        <v>3462.4</v>
+        <v>1438.4000000000003</v>
       </c>
       <c r="Z27" s="50">
         <f t="shared" si="20"/>
-        <v>3550.4</v>
+        <v>1438.4000000000003</v>
       </c>
       <c r="AA27" s="50">
         <f t="shared" si="20"/>
-        <v>3603.4</v>
+        <v>1403.4000000000003</v>
       </c>
       <c r="AB27" s="52">
         <f t="shared" si="20"/>
-        <v>2725.4</v>
+        <v>437.40000000000032</v>
       </c>
       <c r="AC27" s="53">
         <f t="shared" si="20"/>
-        <v>4646.9800000000005</v>
+        <v>3502.9800000000005</v>
       </c>
       <c r="AD27" s="50">
         <f t="shared" si="20"/>
-        <v>4724.1200000000008</v>
+        <v>3492.1200000000003</v>
       </c>
       <c r="AE27" s="50">
         <f t="shared" si="20"/>
-        <v>4802.1200000000008</v>
+        <v>3482.1200000000003</v>
       </c>
       <c r="AF27" s="50">
         <f t="shared" si="20"/>
-        <v>4890.1200000000008</v>
+        <v>3482.1200000000003</v>
       </c>
       <c r="AG27" s="51">
         <f t="shared" si="20"/>
-        <v>3977.1200000000008</v>
+        <v>2481.1200000000003</v>
       </c>
       <c r="AH27" s="50">
         <f t="shared" ref="AH27:BF27" si="21">AH26-AH18</f>
-        <v>4054.2600000000007</v>
+        <v>2470.2600000000002</v>
       </c>
       <c r="AI27" s="50">
         <f t="shared" si="21"/>
-        <v>4132.26</v>
+        <v>2460.2600000000002</v>
       </c>
       <c r="AJ27" s="50">
         <f t="shared" si="21"/>
-        <v>4220.26</v>
+        <v>2460.2600000000002</v>
       </c>
       <c r="AK27" s="50">
         <f t="shared" si="21"/>
-        <v>4273.26</v>
+        <v>2425.2600000000002</v>
       </c>
       <c r="AL27" s="51">
         <f t="shared" si="21"/>
-        <v>3395.26</v>
+        <v>1459.2600000000002</v>
       </c>
       <c r="AM27" s="50">
         <f t="shared" si="21"/>
-        <v>3462.4</v>
+        <v>1438.4000000000003</v>
       </c>
       <c r="AN27" s="50">
         <f t="shared" si="21"/>
-        <v>3550.4</v>
+        <v>1438.4000000000003</v>
       </c>
       <c r="AO27" s="50">
         <f t="shared" si="21"/>
-        <v>3628.4</v>
+        <v>1428.4000000000003</v>
       </c>
       <c r="AP27" s="54">
         <f t="shared" si="21"/>
-        <v>2725.4</v>
+        <v>437.40000000000032</v>
       </c>
       <c r="AQ27" s="53">
         <f t="shared" si="21"/>
-        <v>-1921.58</v>
+        <v>-3065.58</v>
       </c>
       <c r="AR27" s="50">
         <f t="shared" si="21"/>
-        <v>-1844.4399999999998</v>
+        <v>-3076.44</v>
       </c>
       <c r="AS27" s="50">
         <f t="shared" si="21"/>
-        <v>-1766.4399999999998</v>
+        <v>-3086.44</v>
       </c>
       <c r="AT27" s="50">
         <f t="shared" si="21"/>
-        <v>-1678.4399999999998</v>
+        <v>-3086.44</v>
       </c>
       <c r="AU27" s="51">
         <f t="shared" si="21"/>
-        <v>-2591.4399999999996</v>
+        <v>-4087.44</v>
       </c>
       <c r="AV27" s="50">
         <f t="shared" si="21"/>
-        <v>-2514.2999999999997</v>
+        <v>-4098.3</v>
       </c>
       <c r="AW27" s="50">
         <f t="shared" si="21"/>
-        <v>-2436.2999999999997</v>
+        <v>-4108.3</v>
       </c>
       <c r="AX27" s="50">
         <f t="shared" si="21"/>
-        <v>-2348.2999999999997</v>
+        <v>-4108.3</v>
       </c>
       <c r="AY27" s="50">
         <f t="shared" si="21"/>
-        <v>-2295.2999999999997</v>
+        <v>-4143.3</v>
       </c>
       <c r="AZ27" s="51">
         <f t="shared" si="21"/>
-        <v>-3173.2999999999997</v>
+        <v>-5109.3</v>
       </c>
       <c r="BA27" s="50">
         <f t="shared" si="21"/>
-        <v>-3106.1</v>
+        <v>-5130.1000000000004</v>
       </c>
       <c r="BB27" s="50">
         <f t="shared" si="21"/>
-        <v>-3018.1</v>
+        <v>-5130.1000000000004</v>
       </c>
       <c r="BC27" s="50">
         <f t="shared" si="21"/>
-        <v>-2965.1</v>
+        <v>-5165.1000000000004</v>
       </c>
       <c r="BD27" s="52">
         <f t="shared" si="21"/>
-        <v>-3793.1</v>
+        <v>-6081.1</v>
       </c>
       <c r="BE27" s="55">
         <f t="shared" si="21"/>
-        <v>-1871.52</v>
+        <v>-3015.52</v>
       </c>
       <c r="BF27" s="56">
         <f t="shared" si="21"/>
-        <v>-1067.6999999999989</v>
+        <v>-5643.7</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5067,7 +4910,7 @@
       </c>
       <c r="C65" s="82">
         <f>B65/BF27</f>
-        <v>-45.368727170553569</v>
+        <v>-8.5830554423516485</v>
       </c>
       <c r="E65" s="86">
         <f>50000</f>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmgar\OneDrive\Documents\Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B52F6-D3F9-4E1D-AEC0-F03D92A2C5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0891F437-F297-4DF1-A7B1-C53A9B1BB699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Type</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Non-Contributable</t>
+  </si>
+  <si>
+    <t>Taxes Due</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,19 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -885,12 +876,9 @@
     <xf numFmtId="16" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="17" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="17" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -908,11 +896,12 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,10 +1216,10 @@
   <dimension ref="A1:BI58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1251,7 +1240,7 @@
     <col min="14" max="14" width="14.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.21875" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" style="1" customWidth="1"/>
     <col min="18" max="18" width="15.109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="1" customWidth="1"/>
     <col min="20" max="20" width="15.109375" style="1" customWidth="1"/>
@@ -1268,7 +1257,7 @@
     <col min="31" max="31" width="15.6640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="16.77734375" style="1" customWidth="1"/>
     <col min="33" max="33" width="22.44140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="36.109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="34.88671875" style="1" customWidth="1"/>
     <col min="35" max="35" width="20.33203125" style="1" customWidth="1"/>
     <col min="36" max="36" width="15.109375" style="1" customWidth="1"/>
     <col min="37" max="37" width="15.44140625" style="1" customWidth="1"/>
@@ -1291,7 +1280,7 @@
     <col min="56" max="56" width="14.44140625" style="1" customWidth="1"/>
     <col min="57" max="57" width="16.109375" style="1" customWidth="1"/>
     <col min="58" max="58" width="19.44140625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="23.88671875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="25.6640625" style="1" customWidth="1"/>
     <col min="60" max="60" width="24.33203125" style="1" customWidth="1"/>
     <col min="61" max="61" width="24.5546875" style="1" customWidth="1"/>
     <col min="62" max="16384" width="10.88671875" style="1"/>
@@ -1564,13 +1553,13 @@
       </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="91">
+      <c r="AF2" s="85">
         <v>122.47</v>
       </c>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
-      <c r="AK2" s="92">
+      <c r="AK2" s="86">
         <v>434.06</v>
       </c>
       <c r="AL2" s="6"/>
@@ -1729,12 +1718,10 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
-      <c r="AP4" s="89">
-        <v>845.5</v>
-      </c>
+      <c r="AP4" s="87"/>
       <c r="AQ4" s="8">
         <f t="shared" si="6"/>
-        <v>845.5</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="7"/>
       <c r="AS4" s="56"/>
@@ -1748,16 +1735,14 @@
       <c r="BA4" s="6"/>
       <c r="BB4" s="6"/>
       <c r="BC4" s="6"/>
-      <c r="BD4" s="90">
-        <v>1070.03</v>
-      </c>
+      <c r="BD4" s="88"/>
       <c r="BE4" s="8">
         <f>SUM(AR4:BD4)</f>
-        <v>1070.03</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="8">
         <f t="shared" si="8"/>
-        <v>1915.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -2068,128 +2053,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>17.98</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6">
+        <v>17.98</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6">
+        <v>17.98</v>
+      </c>
       <c r="O9" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>53.94</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="S9" s="6">
+        <v>17.98</v>
+      </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
+      <c r="W9" s="6">
+        <v>17.98</v>
+      </c>
       <c r="X9" s="25"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
+      <c r="AB9" s="6">
+        <v>17.98</v>
+      </c>
       <c r="AC9" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>53.94</v>
       </c>
       <c r="AD9" s="7"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
+      <c r="AG9" s="6">
+        <v>17.98</v>
+      </c>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
+      <c r="AL9" s="6">
+        <v>17.98</v>
+      </c>
       <c r="AM9" s="6"/>
       <c r="AN9" s="6"/>
       <c r="AO9" s="6"/>
       <c r="AP9" s="54">
-        <v>25</v>
+        <v>17.98</v>
       </c>
       <c r="AQ9" s="8">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>53.94</v>
       </c>
       <c r="AR9" s="7"/>
       <c r="AS9" s="56"/>
       <c r="AT9" s="56"/>
       <c r="AU9" s="6">
-        <v>25</v>
+        <v>17.98</v>
       </c>
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6"/>
       <c r="AY9" s="6">
-        <v>25</v>
+        <v>17.98</v>
       </c>
       <c r="AZ9" s="6"/>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6"/>
       <c r="BC9" s="6">
-        <v>25</v>
-      </c>
-      <c r="BD9" s="79"/>
+        <v>17.98</v>
+      </c>
+      <c r="BD9" s="76"/>
       <c r="BE9" s="8">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>53.94</v>
       </c>
       <c r="BF9" s="8">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>215.76</v>
       </c>
     </row>
-    <row r="10" spans="1:58" s="17" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="6"/>
       <c r="O10" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="6"/>
       <c r="AC10" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(P13:AB13)</f>
+        <v>32.58</v>
       </c>
       <c r="AD10" s="9"/>
       <c r="AE10" s="10"/>
@@ -2209,8 +2187,8 @@
         <v>0</v>
       </c>
       <c r="AR10" s="9"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
       <c r="AW10" s="10"/>
@@ -2227,10 +2205,10 @@
       </c>
       <c r="BF10" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>32.58</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>47</v>
       </c>
@@ -2259,7 +2237,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="85"/>
+      <c r="X11" s="82"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
@@ -2268,72 +2246,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="5">
-        <v>10</v>
-      </c>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11">
-        <v>10</v>
-      </c>
       <c r="AQ11" s="12">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="11">
-        <v>10</v>
-      </c>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11">
-        <v>10</v>
-      </c>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11">
-        <v>10</v>
-      </c>
-      <c r="BD11" s="11"/>
+        <f>SUM(AD13:AP13)</f>
+        <v>32.58</v>
+      </c>
       <c r="BE11" s="12">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f>SUM(AR13:BD13)</f>
+        <v>32.58</v>
       </c>
       <c r="BF11" s="12">
         <f t="shared" si="8"/>
-        <v>130</v>
+        <v>65.16</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>48</v>
       </c>
@@ -2362,13 +2288,13 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-      <c r="X12" s="85"/>
+      <c r="X12" s="82"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="12">
-        <f t="shared" si="5"/>
+        <f>SUM(P12:AB12)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="5"/>
@@ -2385,7 +2311,7 @@
       <c r="AO12" s="11"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="12">
-        <f t="shared" si="6"/>
+        <f>SUM(AD12:AP12)</f>
         <v>0</v>
       </c>
       <c r="AR12" s="5"/>
@@ -2402,7 +2328,7 @@
       <c r="BC12" s="11"/>
       <c r="BD12" s="11"/>
       <c r="BE12" s="12">
-        <f t="shared" si="7"/>
+        <f>SUM(AR12:BD12)</f>
         <v>0</v>
       </c>
       <c r="BF12" s="12">
@@ -2410,96 +2336,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="E13" s="10">
+        <v>10.86</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
+        <v>10.86</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="6">
+        <v>10.86</v>
+      </c>
       <c r="O13" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
+        <f>SUM(B13:N13)</f>
+        <v>32.58</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10">
+        <v>10.86</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10">
+        <v>10.86</v>
+      </c>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="6">
+        <v>10.86</v>
+      </c>
       <c r="AC13" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>9.99</v>
-      </c>
+        <f>SUM(P13:AB13)</f>
+        <v>32.58</v>
+      </c>
+      <c r="AD13" s="5"/>
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="AG13" s="11">
+        <v>10.86</v>
+      </c>
+      <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
       <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="5">
-        <v>9.99</v>
-      </c>
+      <c r="AL13" s="11">
+        <v>10.86</v>
+      </c>
+      <c r="AM13" s="5"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
+      <c r="AP13" s="11">
+        <v>10.86</v>
+      </c>
       <c r="AQ13" s="12">
-        <f t="shared" si="6"/>
-        <v>29.97</v>
-      </c>
-      <c r="AR13" s="5">
-        <v>9.99</v>
-      </c>
+        <f>SUM(AD13:AP13)</f>
+        <v>32.58</v>
+      </c>
+      <c r="AR13" s="5"/>
       <c r="AS13" s="11"/>
       <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="AU13" s="11">
+        <v>10.86</v>
+      </c>
+      <c r="AV13" s="11"/>
       <c r="AW13" s="11"/>
       <c r="AX13" s="11"/>
       <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
+      <c r="AZ13" s="11">
+        <v>10.86</v>
+      </c>
       <c r="BA13" s="11"/>
-      <c r="BB13" s="11">
-        <v>9.99</v>
-      </c>
-      <c r="BC13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11">
+        <v>10.86</v>
+      </c>
       <c r="BD13" s="11"/>
       <c r="BE13" s="12">
-        <f t="shared" si="7"/>
-        <v>29.97</v>
+        <f>SUM(AR13:BD13)</f>
+        <v>32.58</v>
       </c>
       <c r="BF13" s="12">
         <f t="shared" si="8"/>
-        <v>59.94</v>
+        <v>130.32</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>42</v>
       </c>
@@ -2528,7 +2466,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-      <c r="X14" s="85"/>
+      <c r="X14" s="82"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
@@ -2583,74 +2521,98 @@
       <c r="B15" s="5"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11">
+        <v>700</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11">
+        <v>700</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="N15" s="11">
+        <v>700</v>
+      </c>
       <c r="O15" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="S15" s="11">
+        <v>700</v>
+      </c>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="85"/>
+      <c r="W15" s="11">
+        <v>700</v>
+      </c>
+      <c r="X15" s="82"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
+      <c r="AB15" s="11">
+        <v>700</v>
+      </c>
       <c r="AC15" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
+      <c r="AG15" s="11">
+        <v>700</v>
+      </c>
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
+      <c r="AL15" s="11">
+        <v>700</v>
+      </c>
       <c r="AM15" s="5"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
-      <c r="AP15" s="55"/>
+      <c r="AP15" s="55">
+        <v>700</v>
+      </c>
       <c r="AQ15" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="AR15" s="5"/>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
-      <c r="AU15" s="11"/>
+      <c r="AU15" s="11">
+        <v>700</v>
+      </c>
       <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
       <c r="AX15" s="11"/>
       <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
+      <c r="AZ15" s="11">
+        <v>700</v>
+      </c>
       <c r="BA15" s="11"/>
       <c r="BB15" s="11"/>
       <c r="BC15" s="11"/>
-      <c r="BD15" s="5"/>
+      <c r="BD15" s="5">
+        <v>700</v>
+      </c>
       <c r="BE15" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="BF15" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2682,7 +2644,7 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="85"/>
+      <c r="X16" s="82"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -2748,7 +2710,7 @@
       </c>
       <c r="E17" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>728.84</v>
       </c>
       <c r="F17" s="32">
         <f t="shared" si="9"/>
@@ -2764,7 +2726,7 @@
       </c>
       <c r="I17" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>728.84</v>
       </c>
       <c r="J17" s="32">
         <f t="shared" si="9"/>
@@ -2784,11 +2746,11 @@
       </c>
       <c r="N17" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>728.84</v>
       </c>
       <c r="O17" s="16">
         <f>SUM(O2:O16)</f>
-        <v>0</v>
+        <v>2186.52</v>
       </c>
       <c r="P17" s="32">
         <f>SUM(P2:P16)</f>
@@ -2804,7 +2766,7 @@
       </c>
       <c r="S17" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>728.84</v>
       </c>
       <c r="T17" s="32">
         <f t="shared" si="10"/>
@@ -2820,7 +2782,7 @@
       </c>
       <c r="W17" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>728.84</v>
       </c>
       <c r="X17" s="32">
         <f t="shared" si="10"/>
@@ -2840,15 +2802,15 @@
       </c>
       <c r="AB17" s="33">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>728.84</v>
       </c>
       <c r="AC17" s="16">
         <f>SUM(AC2:AC16)</f>
-        <v>0</v>
+        <v>2219.1</v>
       </c>
       <c r="AD17" s="32">
         <f>SUM(AD2:AD16)</f>
-        <v>19.990000000000002</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="32">
         <f t="shared" ref="AE17:AP17" si="11">SUM(AE2:AE16)</f>
@@ -2856,15 +2818,15 @@
       </c>
       <c r="AF17" s="32">
         <f t="shared" si="11"/>
-        <v>132.47</v>
+        <v>122.47</v>
       </c>
       <c r="AG17" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>728.84</v>
       </c>
       <c r="AH17" s="32">
         <f t="shared" si="11"/>
-        <v>19.990000000000002</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="32">
         <f t="shared" si="11"/>
@@ -2872,7 +2834,7 @@
       </c>
       <c r="AJ17" s="32">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="32">
         <f>SUM(AK2:AK16)</f>
@@ -2880,15 +2842,15 @@
       </c>
       <c r="AL17" s="32">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>728.84</v>
       </c>
       <c r="AM17" s="32">
         <f t="shared" si="11"/>
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="32">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="32">
         <f t="shared" si="11"/>
@@ -2896,19 +2858,19 @@
       </c>
       <c r="AP17" s="33">
         <f t="shared" si="11"/>
-        <v>880.5</v>
+        <v>728.84</v>
       </c>
       <c r="AQ17" s="16">
         <f>SUM(AQ2:AQ16)</f>
-        <v>1527</v>
+        <v>2775.63</v>
       </c>
       <c r="AR17" s="32">
         <f>SUM(AR2:AR16)</f>
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="32">
         <f t="shared" ref="AS17:BD17" si="12">SUM(AS2:AS16)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="32">
         <f t="shared" si="12"/>
@@ -2916,15 +2878,15 @@
       </c>
       <c r="AU17" s="32">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>728.84</v>
       </c>
       <c r="AV17" s="32">
         <f t="shared" si="12"/>
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="32">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="32">
         <f t="shared" si="12"/>
@@ -2932,39 +2894,39 @@
       </c>
       <c r="AY17" s="32">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>17.98</v>
       </c>
       <c r="AZ17" s="32">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>710.86</v>
       </c>
       <c r="BA17" s="32">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="32">
         <f t="shared" si="12"/>
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="32">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>28.84</v>
       </c>
       <c r="BD17" s="33">
         <f t="shared" si="12"/>
-        <v>1070.03</v>
+        <v>700</v>
       </c>
       <c r="BE17" s="16">
         <f>SUM(BE2:BE16)</f>
-        <v>1235</v>
+        <v>2219.1</v>
       </c>
       <c r="BF17" s="16">
         <f>SUM(BF2:BF16)</f>
-        <v>2762</v>
+        <v>9400.35</v>
       </c>
     </row>
     <row r="18" spans="1:61" s="17" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="77" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="18"/>
@@ -2980,7 +2942,7 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="87">
+      <c r="O18" s="84">
         <f t="shared" ref="O18:O23" si="13">SUM(B18:N18)</f>
         <v>0</v>
       </c>
@@ -2997,7 +2959,7 @@
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="87">
+      <c r="AC18" s="84">
         <f t="shared" ref="AC18:AC23" si="14">SUM(P18:AB18)</f>
         <v>0</v>
       </c>
@@ -3040,7 +3002,7 @@
       <c r="AP18" s="20">
         <v>95</v>
       </c>
-      <c r="AQ18" s="87">
+      <c r="AQ18" s="84">
         <f>SUM(AD18:AP18)</f>
         <v>1235</v>
       </c>
@@ -3083,11 +3045,11 @@
       <c r="BD18" s="20">
         <v>95</v>
       </c>
-      <c r="BE18" s="87">
+      <c r="BE18" s="84">
         <f t="shared" ref="BE18:BE23" si="15">SUM(AR18:BD18)</f>
         <v>1235</v>
       </c>
-      <c r="BF18" s="87">
+      <c r="BF18" s="84">
         <f t="shared" ref="BF18:BF23" si="16">O18+AC18+AQ18+BE18</f>
         <v>2470</v>
       </c>
@@ -3111,7 +3073,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="87">
+      <c r="O19" s="84">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -3128,7 +3090,7 @@
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="24"/>
-      <c r="AC19" s="87">
+      <c r="AC19" s="84">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -3145,7 +3107,7 @@
       <c r="AN19" s="23"/>
       <c r="AO19" s="23"/>
       <c r="AP19" s="24"/>
-      <c r="AQ19" s="87">
+      <c r="AQ19" s="84">
         <f>SUM(AD19:AP19)</f>
         <v>0</v>
       </c>
@@ -3162,11 +3124,11 @@
       <c r="BB19" s="23"/>
       <c r="BC19" s="23"/>
       <c r="BD19" s="24"/>
-      <c r="BE19" s="87">
+      <c r="BE19" s="84">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BF19" s="87">
+      <c r="BF19" s="84">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3188,7 +3150,7 @@
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
-      <c r="O20" s="87">
+      <c r="O20" s="84">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -3205,7 +3167,7 @@
       <c r="Z20" s="27"/>
       <c r="AA20" s="27"/>
       <c r="AB20" s="27"/>
-      <c r="AC20" s="87">
+      <c r="AC20" s="84">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -3222,7 +3184,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="27"/>
       <c r="AP20" s="27"/>
-      <c r="AQ20" s="87">
+      <c r="AQ20" s="84">
         <f>SUM(AD20:AP20)</f>
         <v>0</v>
       </c>
@@ -3239,11 +3201,11 @@
       <c r="BB20" s="27"/>
       <c r="BC20" s="27"/>
       <c r="BD20" s="27"/>
-      <c r="BE20" s="87">
+      <c r="BE20" s="84">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BF20" s="87">
+      <c r="BF20" s="84">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3253,77 +3215,233 @@
       <c r="A21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="87">
+      <c r="B21" s="28">
+        <f>24*(1-0.27)*15</f>
+        <v>262.8</v>
+      </c>
+      <c r="C21" s="28">
+        <f>B21</f>
+        <v>262.8</v>
+      </c>
+      <c r="D21" s="28">
+        <f t="shared" ref="D21:N21" si="17">C21</f>
+        <v>262.8</v>
+      </c>
+      <c r="E21" s="28">
+        <f t="shared" si="17"/>
+        <v>262.8</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" si="17"/>
+        <v>262.8</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" si="17"/>
+        <v>262.8</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="17"/>
+        <v>262.8</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" si="17"/>
+        <v>262.8</v>
+      </c>
+      <c r="J21" s="28">
+        <f t="shared" si="17"/>
+        <v>262.8</v>
+      </c>
+      <c r="K21" s="28">
+        <f t="shared" si="17"/>
+        <v>262.8</v>
+      </c>
+      <c r="L21" s="28">
+        <f t="shared" si="17"/>
+        <v>262.8</v>
+      </c>
+      <c r="M21" s="28">
+        <f t="shared" si="17"/>
+        <v>262.8</v>
+      </c>
+      <c r="N21" s="28">
+        <f t="shared" si="17"/>
+        <v>262.8</v>
+      </c>
+      <c r="O21" s="84">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="87">
+        <v>3416.400000000001</v>
+      </c>
+      <c r="P21" s="28">
+        <f>B21</f>
+        <v>262.8</v>
+      </c>
+      <c r="Q21" s="28">
+        <f t="shared" ref="Q21:AB21" si="18">C21</f>
+        <v>262.8</v>
+      </c>
+      <c r="R21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="S21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="T21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="U21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="V21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="W21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="X21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="Y21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="Z21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="AA21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="AB21" s="28">
+        <f t="shared" si="18"/>
+        <v>262.8</v>
+      </c>
+      <c r="AC21" s="84">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="27"/>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="87">
+        <v>3416.400000000001</v>
+      </c>
+      <c r="AD21" s="28">
+        <f t="shared" ref="AD21:AP21" si="19">P21</f>
+        <v>262.8</v>
+      </c>
+      <c r="AE21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AF21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AG21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AH21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AI21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AJ21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AK21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AL21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AM21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AN21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AO21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AP21" s="28">
+        <f t="shared" si="19"/>
+        <v>262.8</v>
+      </c>
+      <c r="AQ21" s="84">
         <f>SUM(AE21:AP21)</f>
-        <v>0</v>
-      </c>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="27"/>
-      <c r="AT21" s="27"/>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="27"/>
-      <c r="AW21" s="27"/>
-      <c r="AX21" s="27"/>
-      <c r="AY21" s="27"/>
-      <c r="AZ21" s="27"/>
-      <c r="BA21" s="27"/>
-      <c r="BB21" s="27"/>
-      <c r="BC21" s="27"/>
-      <c r="BD21" s="29"/>
-      <c r="BE21" s="87">
+        <v>3153.6000000000008</v>
+      </c>
+      <c r="AR21" s="28">
+        <f>B21</f>
+        <v>262.8</v>
+      </c>
+      <c r="AS21" s="28">
+        <f t="shared" ref="AS21:BD21" si="20">C21</f>
+        <v>262.8</v>
+      </c>
+      <c r="AT21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="AU21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="AV21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="AW21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="AX21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="AY21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="AZ21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="BA21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="BB21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="BC21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="BD21" s="28">
+        <f t="shared" si="20"/>
+        <v>262.8</v>
+      </c>
+      <c r="BE21" s="84">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BF21" s="87">
+        <v>3416.400000000001</v>
+      </c>
+      <c r="BF21" s="84">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>13402.800000000005</v>
       </c>
       <c r="BH21" s="46"/>
       <c r="BI21" s="46"/>
@@ -3335,40 +3453,50 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="E22" s="27">
+        <v>298</v>
+      </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="I22" s="27">
+        <v>298</v>
+      </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="87">
+      <c r="N22" s="29">
+        <v>298</v>
+      </c>
+      <c r="O22" s="84">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
+      <c r="T22" s="27">
+        <v>298</v>
+      </c>
       <c r="U22" s="27"/>
       <c r="V22" s="27"/>
       <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
+      <c r="X22" s="27">
+        <v>298</v>
+      </c>
       <c r="Y22" s="27"/>
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
-      <c r="AB22" s="29">
-        <v>292</v>
-      </c>
-      <c r="AC22" s="87">
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="84">
         <f t="shared" si="14"/>
-        <v>292</v>
-      </c>
-      <c r="AD22" s="28"/>
+        <v>596</v>
+      </c>
+      <c r="AD22" s="28">
+        <v>298</v>
+      </c>
       <c r="AE22" s="27"/>
       <c r="AF22" s="27"/>
       <c r="AG22" s="27"/>
@@ -3385,9 +3513,9 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="27"/>
       <c r="AP22" s="29"/>
-      <c r="AQ22" s="87">
+      <c r="AQ22" s="84">
         <f>SUM(AD22:AP22)</f>
-        <v>584</v>
+        <v>882</v>
       </c>
       <c r="AR22" s="28">
         <v>292</v>
@@ -3407,16 +3535,18 @@
       </c>
       <c r="BB22" s="27"/>
       <c r="BC22" s="27"/>
-      <c r="BD22" s="29"/>
-      <c r="BE22" s="87">
+      <c r="BD22" s="29">
+        <v>298</v>
+      </c>
+      <c r="BE22" s="84">
         <f t="shared" si="15"/>
-        <v>876</v>
-      </c>
-      <c r="BF22" s="87">
+        <v>1174</v>
+      </c>
+      <c r="BF22" s="84">
         <f t="shared" si="16"/>
-        <v>1752</v>
-      </c>
-      <c r="BG22" s="88" t="s">
+        <v>3546</v>
+      </c>
+      <c r="BG22" s="67" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3437,7 +3567,7 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="29"/>
-      <c r="O23" s="87">
+      <c r="O23" s="84">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -3454,7 +3584,7 @@
       <c r="Z23" s="27"/>
       <c r="AA23" s="27"/>
       <c r="AB23" s="29"/>
-      <c r="AC23" s="87">
+      <c r="AC23" s="84">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -3473,7 +3603,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="27"/>
       <c r="AP23" s="29"/>
-      <c r="AQ23" s="87">
+      <c r="AQ23" s="84">
         <f>SUM(AD23:AP23)</f>
         <v>292</v>
       </c>
@@ -3490,11 +3620,11 @@
       <c r="BB23" s="27"/>
       <c r="BC23" s="27"/>
       <c r="BD23" s="29"/>
-      <c r="BE23" s="87">
+      <c r="BE23" s="84">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BF23" s="87">
+      <c r="BF23" s="84">
         <f t="shared" si="16"/>
         <v>292</v>
       </c>
@@ -3505,462 +3635,462 @@
       </c>
       <c r="B24" s="32">
         <f>SUM(B18:B21)+B23</f>
-        <v>0</v>
+        <v>262.8</v>
       </c>
       <c r="C24" s="32">
         <f>SUM(C18:C21)+C23+B24</f>
-        <v>0</v>
+        <v>525.6</v>
       </c>
       <c r="D24" s="63">
-        <f t="shared" ref="D24:N24" si="17">SUM(D18:D21)+D23+C24</f>
-        <v>0</v>
+        <f t="shared" ref="D24:N24" si="21">SUM(D18:D21)+D23+C24</f>
+        <v>788.40000000000009</v>
       </c>
       <c r="E24" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1051.2</v>
       </c>
       <c r="F24" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1314</v>
       </c>
       <c r="G24" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1576.8</v>
       </c>
       <c r="H24" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1839.6</v>
       </c>
       <c r="I24" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2102.4</v>
       </c>
       <c r="J24" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2365.2000000000003</v>
       </c>
       <c r="K24" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2628.0000000000005</v>
       </c>
       <c r="L24" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2890.8000000000006</v>
       </c>
       <c r="M24" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>3153.6000000000008</v>
       </c>
       <c r="N24" s="33">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>3416.400000000001</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O18:O21)+O23</f>
-        <v>0</v>
+        <v>3416.400000000001</v>
       </c>
       <c r="P24" s="32">
         <f>SUM(P18:P21)+P23+O25</f>
-        <v>0</v>
+        <v>1492.680000000001</v>
       </c>
       <c r="Q24" s="32">
-        <f t="shared" ref="Q24:AB24" si="18">SUM(Q18:Q21)+Q23+P25</f>
-        <v>0</v>
+        <f t="shared" ref="Q24:AB24" si="22">SUM(Q18:Q21)+Q23+P25</f>
+        <v>1755.4800000000009</v>
       </c>
       <c r="R24" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2018.2800000000009</v>
       </c>
       <c r="S24" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2281.0800000000008</v>
       </c>
       <c r="T24" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1815.0400000000006</v>
       </c>
       <c r="U24" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2077.8400000000006</v>
       </c>
       <c r="V24" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2340.6400000000008</v>
       </c>
       <c r="W24" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2603.440000000001</v>
       </c>
       <c r="X24" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2137.400000000001</v>
       </c>
       <c r="Y24" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2400.2000000000012</v>
       </c>
       <c r="Z24" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2663.0000000000014</v>
       </c>
       <c r="AA24" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2925.8000000000015</v>
       </c>
       <c r="AB24" s="33">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>3188.6000000000017</v>
       </c>
       <c r="AC24" s="16">
         <f>SUM(AC18:AC21)+AC23</f>
-        <v>0</v>
+        <v>3416.400000000001</v>
       </c>
       <c r="AD24" s="32">
         <f>SUM(AD18:AD21)+AD23+AC25</f>
-        <v>95</v>
+        <v>1555.100000000001</v>
       </c>
       <c r="AE24" s="32">
         <f>SUM(AE18:AE21)+AE23+AD25</f>
-        <v>170.01</v>
+        <v>1912.900000000001</v>
       </c>
       <c r="AF24" s="32">
-        <f t="shared" ref="AF24:AP24" si="19">SUM(AF18:AF21)+AF23+AE25</f>
-        <v>265.01</v>
+        <f t="shared" ref="AF24:AP24" si="23">SUM(AF18:AF21)+AF23+AE25</f>
+        <v>2270.7000000000012</v>
       </c>
       <c r="AG24" s="32">
-        <f t="shared" si="19"/>
-        <v>227.54</v>
+        <f t="shared" si="23"/>
+        <v>2506.0300000000016</v>
       </c>
       <c r="AH24" s="32">
-        <f t="shared" si="19"/>
-        <v>614.54</v>
+        <f t="shared" si="23"/>
+        <v>2426.9900000000016</v>
       </c>
       <c r="AI24" s="32">
-        <f t="shared" si="19"/>
-        <v>689.55</v>
+        <f t="shared" si="23"/>
+        <v>2784.7900000000018</v>
       </c>
       <c r="AJ24" s="32">
-        <f t="shared" si="19"/>
-        <v>784.55</v>
+        <f t="shared" si="23"/>
+        <v>3142.590000000002</v>
       </c>
       <c r="AK24" s="32">
-        <f t="shared" si="19"/>
-        <v>869.55</v>
+        <f t="shared" si="23"/>
+        <v>3500.3900000000021</v>
       </c>
       <c r="AL24" s="32">
-        <f t="shared" si="19"/>
-        <v>530.49</v>
+        <f t="shared" si="23"/>
+        <v>3424.1300000000024</v>
       </c>
       <c r="AM24" s="32">
-        <f t="shared" si="19"/>
-        <v>615.49</v>
+        <f t="shared" si="23"/>
+        <v>3053.0900000000024</v>
       </c>
       <c r="AN24" s="32">
-        <f t="shared" si="19"/>
-        <v>700.5</v>
+        <f t="shared" si="23"/>
+        <v>3410.8900000000026</v>
       </c>
       <c r="AO24" s="32">
-        <f t="shared" si="19"/>
-        <v>785.5</v>
+        <f t="shared" si="23"/>
+        <v>3768.6900000000028</v>
       </c>
       <c r="AP24" s="33">
-        <f t="shared" si="19"/>
-        <v>880.5</v>
+        <f t="shared" si="23"/>
+        <v>4126.4900000000025</v>
       </c>
       <c r="AQ24" s="16">
         <f>SUM(AQ18:AQ21)+AQ23</f>
-        <v>1527</v>
+        <v>4680.6000000000004</v>
       </c>
       <c r="AR24" s="32">
         <f>SUM(AR18:AR21)+AR23+AQ25</f>
-        <v>95</v>
+        <v>2262.7700000000004</v>
       </c>
       <c r="AS24" s="32">
-        <f t="shared" ref="AS24:BD24" si="20">SUM(AS18:AS21)+AS23+AR25</f>
-        <v>180.01</v>
+        <f t="shared" ref="AS24:BD24" si="24">SUM(AS18:AS21)+AS23+AR25</f>
+        <v>2620.5700000000006</v>
       </c>
       <c r="AT24" s="32">
-        <f t="shared" si="20"/>
-        <v>265.01</v>
+        <f t="shared" si="24"/>
+        <v>2978.3700000000008</v>
       </c>
       <c r="AU24" s="32">
-        <f t="shared" si="20"/>
-        <v>360.01</v>
+        <f t="shared" si="24"/>
+        <v>3336.170000000001</v>
       </c>
       <c r="AV24" s="32">
-        <f t="shared" si="20"/>
-        <v>420.01</v>
+        <f t="shared" si="24"/>
+        <v>2965.130000000001</v>
       </c>
       <c r="AW24" s="32">
-        <f t="shared" si="20"/>
-        <v>505.02</v>
+        <f t="shared" si="24"/>
+        <v>3322.9300000000012</v>
       </c>
       <c r="AX24" s="32">
-        <f t="shared" si="20"/>
-        <v>590.02</v>
+        <f t="shared" si="24"/>
+        <v>3680.7300000000014</v>
       </c>
       <c r="AY24" s="32">
-        <f t="shared" si="20"/>
-        <v>685.02</v>
+        <f t="shared" si="24"/>
+        <v>4038.5300000000016</v>
       </c>
       <c r="AZ24" s="32">
-        <f t="shared" si="20"/>
-        <v>745.02</v>
+        <f t="shared" si="24"/>
+        <v>4378.3500000000013</v>
       </c>
       <c r="BA24" s="32">
-        <f t="shared" si="20"/>
-        <v>840.02</v>
+        <f t="shared" si="24"/>
+        <v>4025.2900000000013</v>
       </c>
       <c r="BB24" s="32">
-        <f t="shared" si="20"/>
-        <v>925.02</v>
+        <f t="shared" si="24"/>
+        <v>4383.0900000000011</v>
       </c>
       <c r="BC24" s="32">
-        <f t="shared" si="20"/>
-        <v>1010.03</v>
+        <f t="shared" si="24"/>
+        <v>4740.8900000000012</v>
       </c>
       <c r="BD24" s="33">
-        <f t="shared" si="20"/>
-        <v>1070.03</v>
+        <f t="shared" si="24"/>
+        <v>5069.8500000000013</v>
       </c>
       <c r="BE24" s="16">
         <f>SUM(BE18:BE21)+BE23</f>
-        <v>1235</v>
+        <v>4651.4000000000015</v>
       </c>
       <c r="BF24" s="16">
         <f>SUM(BF18:BF21)+BF23</f>
-        <v>2762</v>
+        <v>16164.800000000005</v>
       </c>
     </row>
     <row r="25" spans="1:61" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="32">
         <f>B24-B17</f>
-        <v>0</v>
+        <v>262.8</v>
       </c>
       <c r="C25" s="32">
         <f>C24-C17</f>
-        <v>0</v>
+        <v>525.6</v>
       </c>
       <c r="D25" s="32">
-        <f t="shared" ref="D25:O25" si="21">D24-D17</f>
-        <v>0</v>
+        <f t="shared" ref="D25:O25" si="25">D24-D17</f>
+        <v>788.40000000000009</v>
       </c>
       <c r="E25" s="60">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>322.36</v>
       </c>
       <c r="F25" s="32">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1314</v>
       </c>
       <c r="G25" s="32">
         <f>G24-G17</f>
-        <v>0</v>
+        <v>1576.8</v>
       </c>
       <c r="H25" s="32">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1839.6</v>
       </c>
       <c r="I25" s="60">
         <f>I24-I17</f>
-        <v>0</v>
+        <v>1373.56</v>
       </c>
       <c r="J25" s="32">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>2365.2000000000003</v>
       </c>
       <c r="K25" s="32">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>2628.0000000000005</v>
       </c>
       <c r="L25" s="32">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>2890.8000000000006</v>
       </c>
       <c r="M25" s="32">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>3153.6000000000008</v>
+      </c>
+      <c r="N25" s="65">
+        <f t="shared" si="25"/>
+        <v>2687.5600000000009</v>
       </c>
       <c r="O25" s="34">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1229.880000000001</v>
       </c>
       <c r="P25" s="32">
         <f>P24-P17</f>
-        <v>0</v>
+        <v>1492.680000000001</v>
       </c>
       <c r="Q25" s="32">
-        <f t="shared" ref="Q25:AC25" si="22">Q24-Q17</f>
-        <v>0</v>
+        <f t="shared" ref="Q25:AC25" si="26">Q24-Q17</f>
+        <v>1755.4800000000009</v>
       </c>
       <c r="R25" s="32">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2018.2800000000009</v>
       </c>
       <c r="S25" s="60">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1552.2400000000007</v>
       </c>
       <c r="T25" s="32">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1815.0400000000006</v>
       </c>
       <c r="U25" s="32">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2077.8400000000006</v>
       </c>
       <c r="V25" s="32">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2340.6400000000008</v>
       </c>
       <c r="W25" s="60">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1874.6000000000008</v>
       </c>
       <c r="X25" s="32">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2137.400000000001</v>
       </c>
       <c r="Y25" s="32">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2400.2000000000012</v>
       </c>
       <c r="Z25" s="32">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2663.0000000000014</v>
       </c>
       <c r="AA25" s="32">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="66">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2925.8000000000015</v>
+      </c>
+      <c r="AB25" s="65">
+        <f t="shared" si="26"/>
+        <v>2459.7600000000016</v>
       </c>
       <c r="AC25" s="34">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1197.3000000000011</v>
       </c>
       <c r="AD25" s="32">
         <f>AD24-AD17</f>
-        <v>75.009999999999991</v>
+        <v>1555.100000000001</v>
       </c>
       <c r="AE25" s="32">
-        <f t="shared" ref="AE25:AQ25" si="23">AE24-AE17</f>
-        <v>170.01</v>
+        <f t="shared" ref="AE25:AQ25" si="27">AE24-AE17</f>
+        <v>1912.900000000001</v>
       </c>
       <c r="AF25" s="32">
-        <f t="shared" si="23"/>
-        <v>132.54</v>
+        <f t="shared" si="27"/>
+        <v>2148.2300000000014</v>
       </c>
       <c r="AG25" s="60">
-        <f t="shared" si="23"/>
-        <v>227.54</v>
+        <f t="shared" si="27"/>
+        <v>1777.1900000000014</v>
       </c>
       <c r="AH25" s="32">
-        <f t="shared" si="23"/>
-        <v>594.54999999999995</v>
+        <f t="shared" si="27"/>
+        <v>2426.9900000000016</v>
       </c>
       <c r="AI25" s="32">
-        <f t="shared" si="23"/>
-        <v>689.55</v>
+        <f t="shared" si="27"/>
+        <v>2784.7900000000018</v>
       </c>
       <c r="AJ25" s="32">
-        <f t="shared" si="23"/>
-        <v>774.55</v>
+        <f t="shared" si="27"/>
+        <v>3142.590000000002</v>
       </c>
       <c r="AK25" s="32">
-        <f t="shared" si="23"/>
-        <v>435.48999999999995</v>
+        <f t="shared" si="27"/>
+        <v>3066.3300000000022</v>
       </c>
       <c r="AL25" s="60">
-        <f t="shared" si="23"/>
-        <v>520.49</v>
+        <f t="shared" si="27"/>
+        <v>2695.2900000000022</v>
       </c>
       <c r="AM25" s="32">
-        <f t="shared" si="23"/>
-        <v>605.5</v>
+        <f t="shared" si="27"/>
+        <v>3053.0900000000024</v>
       </c>
       <c r="AN25" s="32">
-        <f t="shared" si="23"/>
-        <v>690.5</v>
+        <f t="shared" si="27"/>
+        <v>3410.8900000000026</v>
       </c>
       <c r="AO25" s="32">
         <f>AO24-AO17</f>
-        <v>785.5</v>
-      </c>
-      <c r="AP25" s="67">
+        <v>3768.6900000000028</v>
+      </c>
+      <c r="AP25" s="66">
         <f>AP24-AP17</f>
-        <v>0</v>
+        <v>3397.6500000000024</v>
       </c>
       <c r="AQ25" s="34">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1904.9700000000003</v>
       </c>
       <c r="AR25" s="32">
         <f>AR24-AR17</f>
-        <v>85.01</v>
+        <v>2262.7700000000004</v>
       </c>
       <c r="AS25" s="32">
-        <f t="shared" ref="AS25:BF25" si="24">AS24-AS17</f>
-        <v>170.01</v>
+        <f t="shared" ref="AS25:BF25" si="28">AS24-AS17</f>
+        <v>2620.5700000000006</v>
       </c>
       <c r="AT25" s="32">
-        <f t="shared" si="24"/>
-        <v>265.01</v>
+        <f t="shared" si="28"/>
+        <v>2978.3700000000008</v>
       </c>
       <c r="AU25" s="60">
-        <f t="shared" si="24"/>
-        <v>325.01</v>
+        <f t="shared" si="28"/>
+        <v>2607.3300000000008</v>
       </c>
       <c r="AV25" s="32">
-        <f t="shared" si="24"/>
-        <v>410.02</v>
+        <f t="shared" si="28"/>
+        <v>2965.130000000001</v>
       </c>
       <c r="AW25" s="32">
-        <f t="shared" si="24"/>
-        <v>495.02</v>
+        <f t="shared" si="28"/>
+        <v>3322.9300000000012</v>
       </c>
       <c r="AX25" s="32">
-        <f t="shared" si="24"/>
-        <v>590.02</v>
+        <f t="shared" si="28"/>
+        <v>3680.7300000000014</v>
       </c>
       <c r="AY25" s="32">
-        <f t="shared" si="24"/>
-        <v>650.02</v>
+        <f t="shared" si="28"/>
+        <v>4020.5500000000015</v>
       </c>
       <c r="AZ25" s="60">
-        <f t="shared" si="24"/>
-        <v>745.02</v>
+        <f t="shared" si="28"/>
+        <v>3667.4900000000011</v>
       </c>
       <c r="BA25" s="32">
-        <f t="shared" si="24"/>
-        <v>830.02</v>
+        <f t="shared" si="28"/>
+        <v>4025.2900000000013</v>
       </c>
       <c r="BB25" s="32">
-        <f t="shared" si="24"/>
-        <v>915.03</v>
+        <f t="shared" si="28"/>
+        <v>4383.0900000000011</v>
       </c>
       <c r="BC25" s="32">
-        <f t="shared" si="24"/>
-        <v>975.03</v>
-      </c>
-      <c r="BD25" s="66">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>4712.0500000000011</v>
+      </c>
+      <c r="BD25" s="65">
+        <f t="shared" si="28"/>
+        <v>4369.8500000000013</v>
       </c>
       <c r="BE25" s="61">
         <f>BE24-BE17</f>
-        <v>0</v>
+        <v>2432.3000000000015</v>
       </c>
       <c r="BF25" s="62">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>6764.4500000000044</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -3999,33 +4129,37 @@
         <v>20</v>
       </c>
       <c r="J28" s="44"/>
-      <c r="AH28" s="70" t="s">
+      <c r="Q28" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH28" s="67" t="s">
         <v>41</v>
       </c>
       <c r="BF28" s="45"/>
     </row>
     <row r="29" spans="1:61" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="47"/>
-      <c r="C29" s="73">
+      <c r="C29" s="70">
         <v>111336</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="71">
         <v>9675.81</v>
       </c>
       <c r="E29" s="58">
-        <v>-105776</v>
-      </c>
-      <c r="F29" s="68">
-        <f>C29+E29</f>
-        <v>5560</v>
-      </c>
-      <c r="G29" s="73">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="90">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="70">
         <v>8560</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="70">
         <v>1650.47</v>
       </c>
-      <c r="BF29" s="86"/>
+      <c r="BF29" s="83"/>
     </row>
     <row r="30" spans="1:61" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
@@ -4068,8 +4202,8 @@
       <c r="K31" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="71"/>
-      <c r="O31" s="71"/>
+      <c r="M31" s="68"/>
+      <c r="O31" s="68"/>
     </row>
     <row r="32" spans="1:61" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
@@ -4101,77 +4235,77 @@
       <c r="K32" s="57">
         <v>1000</v>
       </c>
-      <c r="M32" s="72"/>
-      <c r="O32" s="72"/>
+      <c r="M32" s="69"/>
+      <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="47"/>
-      <c r="C33" s="73">
+      <c r="C33" s="70">
         <v>2751.76</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" s="70">
         <v>1676.75</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="70">
         <v>529.07000000000005</v>
       </c>
-      <c r="F33" s="73">
+      <c r="F33" s="70">
         <v>1492.95</v>
       </c>
-      <c r="G33" s="73">
+      <c r="G33" s="70">
         <v>331.55</v>
       </c>
-      <c r="H33" s="73">
+      <c r="H33" s="70">
         <v>653.16</v>
       </c>
-      <c r="I33" s="73">
+      <c r="I33" s="70">
         <v>694.25</v>
       </c>
-      <c r="J33" s="73">
+      <c r="J33" s="70">
         <v>154.22999999999999</v>
       </c>
-      <c r="K33" s="73">
+      <c r="K33" s="70">
         <v>1121.55</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="47"/>
-      <c r="C34" s="75">
-        <f t="shared" ref="C34:K34" si="25">C32-C33</f>
+      <c r="C34" s="72">
+        <f t="shared" ref="C34:K34" si="29">C32-C33</f>
         <v>-151.76000000000022</v>
       </c>
-      <c r="D34" s="75">
-        <f t="shared" si="25"/>
+      <c r="D34" s="72">
+        <f t="shared" si="29"/>
         <v>-76.75</v>
       </c>
-      <c r="E34" s="75">
-        <f t="shared" si="25"/>
+      <c r="E34" s="72">
+        <f t="shared" si="29"/>
         <v>-29.07000000000005</v>
       </c>
-      <c r="F34" s="75">
-        <f t="shared" si="25"/>
+      <c r="F34" s="72">
+        <f t="shared" si="29"/>
         <v>-92.950000000000045</v>
       </c>
-      <c r="G34" s="75">
-        <f t="shared" si="25"/>
+      <c r="G34" s="72">
+        <f t="shared" si="29"/>
         <v>-31.550000000000011</v>
       </c>
-      <c r="H34" s="76">
-        <f t="shared" si="25"/>
+      <c r="H34" s="73">
+        <f t="shared" si="29"/>
         <v>46.840000000000032</v>
       </c>
-      <c r="I34" s="76">
-        <f t="shared" si="25"/>
+      <c r="I34" s="73">
+        <f t="shared" si="29"/>
         <v>5.75</v>
       </c>
-      <c r="J34" s="76">
-        <f t="shared" si="25"/>
+      <c r="J34" s="73">
+        <f t="shared" si="29"/>
         <v>1045.77</v>
       </c>
-      <c r="K34" s="75">
-        <f t="shared" si="25"/>
+      <c r="K34" s="72">
+        <f t="shared" si="29"/>
         <v>-121.54999999999995</v>
       </c>
     </row>
@@ -4203,24 +4337,24 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
-      <c r="B37" s="73">
+      <c r="B37" s="70">
         <f>SUM(C33:K33)</f>
         <v>9405.2699999999986</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="70">
         <f>SUM(C29:H29)</f>
-        <v>31006.28</v>
-      </c>
-      <c r="F37" s="69">
+        <v>131222.28</v>
+      </c>
+      <c r="F37" s="89">
         <v>915</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="74">
         <v>1263.1199999999999</v>
       </c>
-      <c r="H37" s="77">
+      <c r="H37" s="74">
         <v>2818</v>
       </c>
-      <c r="I37" s="78">
+      <c r="I37" s="75">
         <v>222.66</v>
       </c>
     </row>
@@ -4231,7 +4365,7 @@
       <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="81" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="37"/>
@@ -4239,13 +4373,13 @@
       <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="81">
+      <c r="B40" s="78">
         <f>SUM(B37:C37)+SUM(F37:I37)</f>
-        <v>45630.329999999994</v>
-      </c>
-      <c r="C40" s="83">
-        <f>B40/BF4</f>
-        <v>23.821255736010396</v>
+        <v>145846.32999999999</v>
+      </c>
+      <c r="C40" s="80">
+        <f>B40/BF25</f>
+        <v>21.56070781807832</v>
       </c>
       <c r="I40" s="50"/>
     </row>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0891F437-F297-4DF1-A7B1-C53A9B1BB699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{0891F437-F297-4DF1-A7B1-C53A9B1BB699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47DFA1C-952C-4337-BCDA-CA829CAB3D1D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,18 +506,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -802,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -896,12 +884,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,10 +1200,10 @@
   <dimension ref="A1:BI58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1240,7 +1224,7 @@
     <col min="14" max="14" width="14.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.21875" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.88671875" style="1" customWidth="1"/>
     <col min="18" max="18" width="15.109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="1" customWidth="1"/>
     <col min="20" max="20" width="15.109375" style="1" customWidth="1"/>
@@ -1553,15 +1537,11 @@
       </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="85">
-        <v>122.47</v>
-      </c>
+      <c r="AF2" s="86"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
-      <c r="AK2" s="86">
-        <v>434.06</v>
-      </c>
+      <c r="AK2" s="86"/>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
@@ -1569,7 +1549,7 @@
       <c r="AP2" s="6"/>
       <c r="AQ2" s="8">
         <f t="shared" ref="AQ2:AQ16" si="6">SUM(AD2:AP2)</f>
-        <v>556.53</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="7"/>
       <c r="AS2" s="6"/>
@@ -1590,7 +1570,7 @@
       </c>
       <c r="BF2" s="8">
         <f t="shared" ref="BF2:BF16" si="8">O2+AC2+AQ2+BE2</f>
-        <v>556.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -1718,7 +1698,7 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
-      <c r="AP4" s="87"/>
+      <c r="AP4" s="54"/>
       <c r="AQ4" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1735,7 +1715,7 @@
       <c r="BA4" s="6"/>
       <c r="BB4" s="6"/>
       <c r="BC4" s="6"/>
-      <c r="BD4" s="88"/>
+      <c r="BD4" s="6"/>
       <c r="BE4" s="8">
         <f>SUM(AR4:BD4)</f>
         <v>0</v>
@@ -2818,7 +2798,7 @@
       </c>
       <c r="AF17" s="32">
         <f t="shared" si="11"/>
-        <v>122.47</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="32">
         <f t="shared" si="11"/>
@@ -2838,7 +2818,7 @@
       </c>
       <c r="AK17" s="32">
         <f>SUM(AK2:AK16)</f>
-        <v>434.06</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="32">
         <f t="shared" si="11"/>
@@ -2862,7 +2842,7 @@
       </c>
       <c r="AQ17" s="16">
         <f>SUM(AQ2:AQ16)</f>
-        <v>2775.63</v>
+        <v>2219.1</v>
       </c>
       <c r="AR17" s="32">
         <f>SUM(AR2:AR16)</f>
@@ -2922,7 +2902,7 @@
       </c>
       <c r="BF17" s="16">
         <f>SUM(BF2:BF16)</f>
-        <v>9400.35</v>
+        <v>8843.82</v>
       </c>
     </row>
     <row r="18" spans="1:61" s="17" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3216,232 +3196,232 @@
         <v>10</v>
       </c>
       <c r="B21" s="28">
-        <f>24*(1-0.27)*15</f>
-        <v>262.8</v>
+        <f>40*(1-0.27)*20</f>
+        <v>584</v>
       </c>
       <c r="C21" s="28">
         <f>B21</f>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="D21" s="28">
         <f t="shared" ref="D21:N21" si="17">C21</f>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="17"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" si="17"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" si="17"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="H21" s="28">
         <f t="shared" si="17"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="I21" s="28">
         <f t="shared" si="17"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="J21" s="28">
         <f t="shared" si="17"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="K21" s="28">
         <f t="shared" si="17"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="L21" s="28">
         <f t="shared" si="17"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="M21" s="28">
         <f t="shared" si="17"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="N21" s="28">
         <f t="shared" si="17"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="O21" s="84">
         <f t="shared" si="13"/>
-        <v>3416.400000000001</v>
+        <v>7592</v>
       </c>
       <c r="P21" s="28">
         <f>B21</f>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="Q21" s="28">
         <f t="shared" ref="Q21:AB21" si="18">C21</f>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="R21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="S21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="T21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="U21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="V21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="W21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="X21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="Y21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="Z21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AA21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AB21" s="28">
         <f t="shared" si="18"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AC21" s="84">
         <f t="shared" si="14"/>
-        <v>3416.400000000001</v>
+        <v>7592</v>
       </c>
       <c r="AD21" s="28">
         <f t="shared" ref="AD21:AP21" si="19">P21</f>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AE21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AF21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AG21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AH21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AI21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AJ21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AK21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AL21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AM21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AN21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AO21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AP21" s="28">
         <f t="shared" si="19"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AQ21" s="84">
         <f>SUM(AE21:AP21)</f>
-        <v>3153.6000000000008</v>
+        <v>7008</v>
       </c>
       <c r="AR21" s="28">
         <f>B21</f>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AS21" s="28">
         <f t="shared" ref="AS21:BD21" si="20">C21</f>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AT21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AU21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AV21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AW21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AX21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AY21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="AZ21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="BA21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="BB21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="BC21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="BD21" s="28">
         <f t="shared" si="20"/>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="BE21" s="84">
         <f t="shared" si="15"/>
-        <v>3416.400000000001</v>
+        <v>7592</v>
       </c>
       <c r="BF21" s="84">
         <f t="shared" si="16"/>
-        <v>13402.800000000005</v>
+        <v>29784</v>
       </c>
       <c r="BH21" s="46"/>
       <c r="BI21" s="46"/>
@@ -3635,462 +3615,462 @@
       </c>
       <c r="B24" s="32">
         <f>SUM(B18:B21)+B23</f>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="C24" s="32">
         <f>SUM(C18:C21)+C23+B24</f>
-        <v>525.6</v>
+        <v>1168</v>
       </c>
       <c r="D24" s="63">
         <f t="shared" ref="D24:N24" si="21">SUM(D18:D21)+D23+C24</f>
-        <v>788.40000000000009</v>
+        <v>1752</v>
       </c>
       <c r="E24" s="32">
         <f t="shared" si="21"/>
-        <v>1051.2</v>
+        <v>2336</v>
       </c>
       <c r="F24" s="32">
         <f t="shared" si="21"/>
-        <v>1314</v>
+        <v>2920</v>
       </c>
       <c r="G24" s="32">
         <f t="shared" si="21"/>
-        <v>1576.8</v>
+        <v>3504</v>
       </c>
       <c r="H24" s="32">
         <f t="shared" si="21"/>
-        <v>1839.6</v>
+        <v>4088</v>
       </c>
       <c r="I24" s="32">
         <f t="shared" si="21"/>
-        <v>2102.4</v>
+        <v>4672</v>
       </c>
       <c r="J24" s="32">
         <f t="shared" si="21"/>
-        <v>2365.2000000000003</v>
+        <v>5256</v>
       </c>
       <c r="K24" s="32">
         <f t="shared" si="21"/>
-        <v>2628.0000000000005</v>
+        <v>5840</v>
       </c>
       <c r="L24" s="32">
         <f t="shared" si="21"/>
-        <v>2890.8000000000006</v>
+        <v>6424</v>
       </c>
       <c r="M24" s="32">
         <f t="shared" si="21"/>
-        <v>3153.6000000000008</v>
+        <v>7008</v>
       </c>
       <c r="N24" s="33">
         <f t="shared" si="21"/>
-        <v>3416.400000000001</v>
+        <v>7592</v>
       </c>
       <c r="O24" s="16">
         <f>SUM(O18:O21)+O23</f>
-        <v>3416.400000000001</v>
+        <v>7592</v>
       </c>
       <c r="P24" s="32">
         <f>SUM(P18:P21)+P23+O25</f>
-        <v>1492.680000000001</v>
+        <v>5989.48</v>
       </c>
       <c r="Q24" s="32">
         <f t="shared" ref="Q24:AB24" si="22">SUM(Q18:Q21)+Q23+P25</f>
-        <v>1755.4800000000009</v>
+        <v>6573.48</v>
       </c>
       <c r="R24" s="32">
         <f t="shared" si="22"/>
-        <v>2018.2800000000009</v>
+        <v>7157.48</v>
       </c>
       <c r="S24" s="32">
         <f t="shared" si="22"/>
-        <v>2281.0800000000008</v>
+        <v>7741.48</v>
       </c>
       <c r="T24" s="32">
         <f t="shared" si="22"/>
-        <v>1815.0400000000006</v>
+        <v>7596.6399999999994</v>
       </c>
       <c r="U24" s="32">
         <f t="shared" si="22"/>
-        <v>2077.8400000000006</v>
+        <v>8180.6399999999994</v>
       </c>
       <c r="V24" s="32">
         <f t="shared" si="22"/>
-        <v>2340.6400000000008</v>
+        <v>8764.64</v>
       </c>
       <c r="W24" s="32">
         <f t="shared" si="22"/>
-        <v>2603.440000000001</v>
+        <v>9348.64</v>
       </c>
       <c r="X24" s="32">
         <f t="shared" si="22"/>
-        <v>2137.400000000001</v>
+        <v>9203.7999999999993</v>
       </c>
       <c r="Y24" s="32">
         <f t="shared" si="22"/>
-        <v>2400.2000000000012</v>
+        <v>9787.7999999999993</v>
       </c>
       <c r="Z24" s="32">
         <f t="shared" si="22"/>
-        <v>2663.0000000000014</v>
+        <v>10371.799999999999</v>
       </c>
       <c r="AA24" s="32">
         <f t="shared" si="22"/>
-        <v>2925.8000000000015</v>
+        <v>10955.8</v>
       </c>
       <c r="AB24" s="33">
         <f t="shared" si="22"/>
-        <v>3188.6000000000017</v>
+        <v>11539.8</v>
       </c>
       <c r="AC24" s="16">
         <f>SUM(AC18:AC21)+AC23</f>
-        <v>3416.400000000001</v>
+        <v>7592</v>
       </c>
       <c r="AD24" s="32">
         <f>SUM(AD18:AD21)+AD23+AC25</f>
-        <v>1555.100000000001</v>
+        <v>6051.9</v>
       </c>
       <c r="AE24" s="32">
         <f>SUM(AE18:AE21)+AE23+AD25</f>
-        <v>1912.900000000001</v>
+        <v>6730.9</v>
       </c>
       <c r="AF24" s="32">
         <f t="shared" ref="AF24:AP24" si="23">SUM(AF18:AF21)+AF23+AE25</f>
-        <v>2270.7000000000012</v>
+        <v>7409.9</v>
       </c>
       <c r="AG24" s="32">
         <f t="shared" si="23"/>
-        <v>2506.0300000000016</v>
+        <v>8088.9</v>
       </c>
       <c r="AH24" s="32">
         <f t="shared" si="23"/>
-        <v>2426.9900000000016</v>
+        <v>8331.06</v>
       </c>
       <c r="AI24" s="32">
         <f t="shared" si="23"/>
-        <v>2784.7900000000018</v>
+        <v>9010.06</v>
       </c>
       <c r="AJ24" s="32">
         <f t="shared" si="23"/>
-        <v>3142.590000000002</v>
+        <v>9689.06</v>
       </c>
       <c r="AK24" s="32">
         <f t="shared" si="23"/>
-        <v>3500.3900000000021</v>
+        <v>10368.06</v>
       </c>
       <c r="AL24" s="32">
         <f t="shared" si="23"/>
-        <v>3424.1300000000024</v>
+        <v>11047.06</v>
       </c>
       <c r="AM24" s="32">
         <f t="shared" si="23"/>
-        <v>3053.0900000000024</v>
+        <v>10997.22</v>
       </c>
       <c r="AN24" s="32">
         <f t="shared" si="23"/>
-        <v>3410.8900000000026</v>
+        <v>11676.22</v>
       </c>
       <c r="AO24" s="32">
         <f t="shared" si="23"/>
-        <v>3768.6900000000028</v>
+        <v>12355.22</v>
       </c>
       <c r="AP24" s="33">
         <f t="shared" si="23"/>
-        <v>4126.4900000000025</v>
+        <v>13034.22</v>
       </c>
       <c r="AQ24" s="16">
         <f>SUM(AQ18:AQ21)+AQ23</f>
-        <v>4680.6000000000004</v>
+        <v>8535</v>
       </c>
       <c r="AR24" s="32">
         <f>SUM(AR18:AR21)+AR23+AQ25</f>
-        <v>2262.7700000000004</v>
+        <v>6994.9</v>
       </c>
       <c r="AS24" s="32">
         <f t="shared" ref="AS24:BD24" si="24">SUM(AS18:AS21)+AS23+AR25</f>
-        <v>2620.5700000000006</v>
+        <v>7673.9</v>
       </c>
       <c r="AT24" s="32">
         <f t="shared" si="24"/>
-        <v>2978.3700000000008</v>
+        <v>8352.9</v>
       </c>
       <c r="AU24" s="32">
         <f t="shared" si="24"/>
-        <v>3336.170000000001</v>
+        <v>9031.9</v>
       </c>
       <c r="AV24" s="32">
         <f t="shared" si="24"/>
-        <v>2965.130000000001</v>
+        <v>8982.06</v>
       </c>
       <c r="AW24" s="32">
         <f t="shared" si="24"/>
-        <v>3322.9300000000012</v>
+        <v>9661.06</v>
       </c>
       <c r="AX24" s="32">
         <f t="shared" si="24"/>
-        <v>3680.7300000000014</v>
+        <v>10340.06</v>
       </c>
       <c r="AY24" s="32">
         <f t="shared" si="24"/>
-        <v>4038.5300000000016</v>
+        <v>11019.06</v>
       </c>
       <c r="AZ24" s="32">
         <f t="shared" si="24"/>
-        <v>4378.3500000000013</v>
+        <v>11680.08</v>
       </c>
       <c r="BA24" s="32">
         <f t="shared" si="24"/>
-        <v>4025.2900000000013</v>
+        <v>11648.22</v>
       </c>
       <c r="BB24" s="32">
         <f t="shared" si="24"/>
-        <v>4383.0900000000011</v>
+        <v>12327.22</v>
       </c>
       <c r="BC24" s="32">
         <f t="shared" si="24"/>
-        <v>4740.8900000000012</v>
+        <v>13006.22</v>
       </c>
       <c r="BD24" s="33">
         <f t="shared" si="24"/>
-        <v>5069.8500000000013</v>
+        <v>13656.38</v>
       </c>
       <c r="BE24" s="16">
         <f>SUM(BE18:BE21)+BE23</f>
-        <v>4651.4000000000015</v>
+        <v>8827</v>
       </c>
       <c r="BF24" s="16">
         <f>SUM(BF18:BF21)+BF23</f>
-        <v>16164.800000000005</v>
+        <v>32546</v>
       </c>
     </row>
     <row r="25" spans="1:61" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="32">
         <f>B24-B17</f>
-        <v>262.8</v>
+        <v>584</v>
       </c>
       <c r="C25" s="32">
         <f>C24-C17</f>
-        <v>525.6</v>
+        <v>1168</v>
       </c>
       <c r="D25" s="32">
         <f t="shared" ref="D25:O25" si="25">D24-D17</f>
-        <v>788.40000000000009</v>
+        <v>1752</v>
       </c>
       <c r="E25" s="60">
         <f t="shared" si="25"/>
-        <v>322.36</v>
+        <v>1607.1599999999999</v>
       </c>
       <c r="F25" s="32">
         <f t="shared" si="25"/>
-        <v>1314</v>
+        <v>2920</v>
       </c>
       <c r="G25" s="32">
         <f>G24-G17</f>
-        <v>1576.8</v>
+        <v>3504</v>
       </c>
       <c r="H25" s="32">
         <f t="shared" si="25"/>
-        <v>1839.6</v>
+        <v>4088</v>
       </c>
       <c r="I25" s="60">
         <f>I24-I17</f>
-        <v>1373.56</v>
+        <v>3943.16</v>
       </c>
       <c r="J25" s="32">
         <f t="shared" si="25"/>
-        <v>2365.2000000000003</v>
+        <v>5256</v>
       </c>
       <c r="K25" s="32">
         <f t="shared" si="25"/>
-        <v>2628.0000000000005</v>
+        <v>5840</v>
       </c>
       <c r="L25" s="32">
         <f t="shared" si="25"/>
-        <v>2890.8000000000006</v>
+        <v>6424</v>
       </c>
       <c r="M25" s="32">
         <f t="shared" si="25"/>
-        <v>3153.6000000000008</v>
+        <v>7008</v>
       </c>
       <c r="N25" s="65">
         <f t="shared" si="25"/>
-        <v>2687.5600000000009</v>
+        <v>6863.16</v>
       </c>
       <c r="O25" s="34">
         <f t="shared" si="25"/>
-        <v>1229.880000000001</v>
+        <v>5405.48</v>
       </c>
       <c r="P25" s="32">
         <f>P24-P17</f>
-        <v>1492.680000000001</v>
+        <v>5989.48</v>
       </c>
       <c r="Q25" s="32">
         <f t="shared" ref="Q25:AC25" si="26">Q24-Q17</f>
-        <v>1755.4800000000009</v>
+        <v>6573.48</v>
       </c>
       <c r="R25" s="32">
         <f t="shared" si="26"/>
-        <v>2018.2800000000009</v>
+        <v>7157.48</v>
       </c>
       <c r="S25" s="60">
         <f t="shared" si="26"/>
-        <v>1552.2400000000007</v>
+        <v>7012.6399999999994</v>
       </c>
       <c r="T25" s="32">
         <f t="shared" si="26"/>
-        <v>1815.0400000000006</v>
+        <v>7596.6399999999994</v>
       </c>
       <c r="U25" s="32">
         <f t="shared" si="26"/>
-        <v>2077.8400000000006</v>
+        <v>8180.6399999999994</v>
       </c>
       <c r="V25" s="32">
         <f t="shared" si="26"/>
-        <v>2340.6400000000008</v>
+        <v>8764.64</v>
       </c>
       <c r="W25" s="60">
         <f t="shared" si="26"/>
-        <v>1874.6000000000008</v>
+        <v>8619.7999999999993</v>
       </c>
       <c r="X25" s="32">
         <f t="shared" si="26"/>
-        <v>2137.400000000001</v>
+        <v>9203.7999999999993</v>
       </c>
       <c r="Y25" s="32">
         <f t="shared" si="26"/>
-        <v>2400.2000000000012</v>
+        <v>9787.7999999999993</v>
       </c>
       <c r="Z25" s="32">
         <f t="shared" si="26"/>
-        <v>2663.0000000000014</v>
+        <v>10371.799999999999</v>
       </c>
       <c r="AA25" s="32">
         <f t="shared" si="26"/>
-        <v>2925.8000000000015</v>
+        <v>10955.8</v>
       </c>
       <c r="AB25" s="65">
         <f t="shared" si="26"/>
-        <v>2459.7600000000016</v>
+        <v>10810.96</v>
       </c>
       <c r="AC25" s="34">
         <f t="shared" si="26"/>
-        <v>1197.3000000000011</v>
+        <v>5372.9</v>
       </c>
       <c r="AD25" s="32">
         <f>AD24-AD17</f>
-        <v>1555.100000000001</v>
+        <v>6051.9</v>
       </c>
       <c r="AE25" s="32">
         <f t="shared" ref="AE25:AQ25" si="27">AE24-AE17</f>
-        <v>1912.900000000001</v>
+        <v>6730.9</v>
       </c>
       <c r="AF25" s="32">
         <f t="shared" si="27"/>
-        <v>2148.2300000000014</v>
+        <v>7409.9</v>
       </c>
       <c r="AG25" s="60">
         <f t="shared" si="27"/>
-        <v>1777.1900000000014</v>
+        <v>7360.0599999999995</v>
       </c>
       <c r="AH25" s="32">
         <f t="shared" si="27"/>
-        <v>2426.9900000000016</v>
+        <v>8331.06</v>
       </c>
       <c r="AI25" s="32">
         <f t="shared" si="27"/>
-        <v>2784.7900000000018</v>
+        <v>9010.06</v>
       </c>
       <c r="AJ25" s="32">
         <f t="shared" si="27"/>
-        <v>3142.590000000002</v>
+        <v>9689.06</v>
       </c>
       <c r="AK25" s="32">
         <f t="shared" si="27"/>
-        <v>3066.3300000000022</v>
+        <v>10368.06</v>
       </c>
       <c r="AL25" s="60">
         <f t="shared" si="27"/>
-        <v>2695.2900000000022</v>
+        <v>10318.219999999999</v>
       </c>
       <c r="AM25" s="32">
         <f t="shared" si="27"/>
-        <v>3053.0900000000024</v>
+        <v>10997.22</v>
       </c>
       <c r="AN25" s="32">
         <f t="shared" si="27"/>
-        <v>3410.8900000000026</v>
+        <v>11676.22</v>
       </c>
       <c r="AO25" s="32">
         <f>AO24-AO17</f>
-        <v>3768.6900000000028</v>
+        <v>12355.22</v>
       </c>
       <c r="AP25" s="66">
         <f>AP24-AP17</f>
-        <v>3397.6500000000024</v>
+        <v>12305.38</v>
       </c>
       <c r="AQ25" s="34">
         <f t="shared" si="27"/>
-        <v>1904.9700000000003</v>
+        <v>6315.9</v>
       </c>
       <c r="AR25" s="32">
         <f>AR24-AR17</f>
-        <v>2262.7700000000004</v>
+        <v>6994.9</v>
       </c>
       <c r="AS25" s="32">
         <f t="shared" ref="AS25:BF25" si="28">AS24-AS17</f>
-        <v>2620.5700000000006</v>
+        <v>7673.9</v>
       </c>
       <c r="AT25" s="32">
         <f t="shared" si="28"/>
-        <v>2978.3700000000008</v>
+        <v>8352.9</v>
       </c>
       <c r="AU25" s="60">
         <f t="shared" si="28"/>
-        <v>2607.3300000000008</v>
+        <v>8303.06</v>
       </c>
       <c r="AV25" s="32">
         <f t="shared" si="28"/>
-        <v>2965.130000000001</v>
+        <v>8982.06</v>
       </c>
       <c r="AW25" s="32">
         <f t="shared" si="28"/>
-        <v>3322.9300000000012</v>
+        <v>9661.06</v>
       </c>
       <c r="AX25" s="32">
         <f t="shared" si="28"/>
-        <v>3680.7300000000014</v>
+        <v>10340.06</v>
       </c>
       <c r="AY25" s="32">
         <f t="shared" si="28"/>
-        <v>4020.5500000000015</v>
+        <v>11001.08</v>
       </c>
       <c r="AZ25" s="60">
         <f t="shared" si="28"/>
-        <v>3667.4900000000011</v>
+        <v>10969.22</v>
       </c>
       <c r="BA25" s="32">
         <f t="shared" si="28"/>
-        <v>4025.2900000000013</v>
+        <v>11648.22</v>
       </c>
       <c r="BB25" s="32">
         <f t="shared" si="28"/>
-        <v>4383.0900000000011</v>
+        <v>12327.22</v>
       </c>
       <c r="BC25" s="32">
         <f t="shared" si="28"/>
-        <v>4712.0500000000011</v>
+        <v>12977.38</v>
       </c>
       <c r="BD25" s="65">
         <f t="shared" si="28"/>
-        <v>4369.8500000000013</v>
+        <v>12956.38</v>
       </c>
       <c r="BE25" s="61">
         <f>BE24-BE17</f>
-        <v>2432.3000000000015</v>
+        <v>6607.9</v>
       </c>
       <c r="BF25" s="62">
         <f t="shared" si="28"/>
-        <v>6764.4500000000044</v>
+        <v>23702.18</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4149,7 +4129,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F29" s="90">
+      <c r="F29" s="85">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4345,7 +4325,7 @@
         <f>SUM(C29:H29)</f>
         <v>131222.28</v>
       </c>
-      <c r="F37" s="89">
+      <c r="F37" s="74">
         <v>915</v>
       </c>
       <c r="G37" s="74">
@@ -4379,7 +4359,7 @@
       </c>
       <c r="C40" s="80">
         <f>B40/BF25</f>
-        <v>21.56070781807832</v>
+        <v>6.1532875878927582</v>
       </c>
       <c r="I40" s="50"/>
     </row>

--- a/Budget 2025.xlsx
+++ b/Budget 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fdae5e8c0883409/Documents/GitHub/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{0891F437-F297-4DF1-A7B1-C53A9B1BB699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47DFA1C-952C-4337-BCDA-CA829CAB3D1D}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{0891F437-F297-4DF1-A7B1-C53A9B1BB699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{273414EA-19F5-4740-A630-9C0182D2CDF5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -884,8 +884,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,11 +1197,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1537,11 +1535,11 @@
       </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="86"/>
+      <c r="AF2" s="6"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
-      <c r="AK2" s="86"/>
+      <c r="AK2" s="6"/>
       <c r="AL2" s="6"/>
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
@@ -2421,77 +2419,101 @@
       <c r="A14" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
+      <c r="T14" s="11">
+        <v>1</v>
+      </c>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-      <c r="X14" s="82"/>
+      <c r="X14" s="82">
+        <v>1</v>
+      </c>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>1</v>
+      </c>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
+      <c r="AH14" s="11">
+        <v>1</v>
+      </c>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="11"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
-      <c r="AM14" s="5"/>
+      <c r="AM14" s="5">
+        <v>1</v>
+      </c>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="13"/>
       <c r="AQ14" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AR14" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>1</v>
+      </c>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
       <c r="AU14" s="11"/>
-      <c r="AV14" s="11"/>
+      <c r="AV14" s="11">
+        <v>1</v>
+      </c>
       <c r="AW14" s="11"/>
       <c r="AX14" s="11"/>
       <c r="AY14" s="11"/>
       <c r="AZ14" s="11"/>
-      <c r="BA14" s="11"/>
+      <c r="BA14" s="11">
+        <v>1</v>
+      </c>
       <c r="BB14" s="11"/>
       <c r="BC14" s="11"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF14" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2678,7 +2700,7 @@
       </c>
       <c r="B17" s="15">
         <f>SUM(B2:B16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="32">
         <f>SUM(C2:C16)</f>
@@ -2694,7 +2716,7 @@
       </c>
       <c r="F17" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="32">
         <f t="shared" si="9"/>
@@ -2710,7 +2732,7 @@
       </c>
       <c r="J17" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="32">
         <f t="shared" si="9"/>
@@ -2730,11 +2752,11 @@
       </c>
       <c r="O17" s="16">
         <f>SUM(O2:O16)</f>
-        <v>2186.52</v>
+        <v>2189.52</v>
       </c>
       <c r="P17" s="32">
         <f>SUM(P2:P16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="32">
         <f t="shared" ref="Q17:AB17" si="10">SUM(Q2:Q16)</f>
@@ -2750,7 +2772,7 @@
       </c>
       <c r="T17" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="32">
         <f t="shared" si="10"/>
@@ -2766,7 +2788,7 @@
       </c>
       <c r="X17" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="32">
         <f t="shared" si="10"/>
@@ -2786,11 +2808,11 @@
       </c>
       <c r="AC17" s="16">
         <f>SUM(AC2:AC16)</f>
-        <v>2219.1</v>
+        <v>2222.1</v>
       </c>
       <c r="AD17" s="32">
         <f>SUM(AD2:AD16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="32">
         <f t="shared" ref="AE17:AP17" si="11">SUM(AE2:AE16)</f>
@@ -2806,7 +2828,7 @@
       </c>
       <c r="AH17" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="32">
         <f t="shared" si="11"/>
@@ -2826,7 +2848,7 @@
       </c>
       <c r="AM17" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" s="32">
         <f t="shared" si="11"/>
@@ -2842,11 +2864,11 @@
       </c>
       <c r="AQ17" s="16">
         <f>SUM(AQ2:AQ16)</f>
-        <v>2219.1</v>
+        <v>2222.1</v>
       </c>
       <c r="AR17" s="32">
         <f>SUM(AR2:AR16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS17" s="32">
         <f t="shared" ref="AS17:BD17" si="12">SUM(AS2:AS16)</f>
@@ -2862,7 +2884,7 @@
       </c>
       <c r="AV17" s="32">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="32">
         <f t="shared" si="12"/>
@@ -2882,7 +2904,7 @@
       </c>
       <c r="BA17" s="32">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="32">
         <f t="shared" si="12"/>
@@ -2898,11 +2920,11 @@
       </c>
       <c r="BE17" s="16">
         <f>SUM(BE2:BE16)</f>
-        <v>2219.1</v>
+        <v>2222.1</v>
       </c>
       <c r="BF17" s="16">
         <f>SUM(BF2:BF16)</f>
-        <v>8843.82</v>
+        <v>8855.82</v>
       </c>
     </row>
     <row r="18" spans="1:61" s="17" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3671,55 +3693,55 @@
       </c>
       <c r="P24" s="32">
         <f>SUM(P18:P21)+P23+O25</f>
-        <v>5989.48</v>
+        <v>5986.48</v>
       </c>
       <c r="Q24" s="32">
         <f t="shared" ref="Q24:AB24" si="22">SUM(Q18:Q21)+Q23+P25</f>
-        <v>6573.48</v>
+        <v>6569.48</v>
       </c>
       <c r="R24" s="32">
         <f t="shared" si="22"/>
-        <v>7157.48</v>
+        <v>7153.48</v>
       </c>
       <c r="S24" s="32">
         <f t="shared" si="22"/>
-        <v>7741.48</v>
+        <v>7737.48</v>
       </c>
       <c r="T24" s="32">
         <f t="shared" si="22"/>
-        <v>7596.6399999999994</v>
+        <v>7592.6399999999994</v>
       </c>
       <c r="U24" s="32">
         <f t="shared" si="22"/>
-        <v>8180.6399999999994</v>
+        <v>8175.6399999999994</v>
       </c>
       <c r="V24" s="32">
         <f t="shared" si="22"/>
-        <v>8764.64</v>
+        <v>8759.64</v>
       </c>
       <c r="W24" s="32">
         <f t="shared" si="22"/>
-        <v>9348.64</v>
+        <v>9343.64</v>
       </c>
       <c r="X24" s="32">
         <f t="shared" si="22"/>
-        <v>9203.7999999999993</v>
+        <v>9198.7999999999993</v>
       </c>
       <c r="Y24" s="32">
         <f t="shared" si="22"/>
-        <v>9787.7999999999993</v>
+        <v>9781.7999999999993</v>
       </c>
       <c r="Z24" s="32">
         <f t="shared" si="22"/>
-        <v>10371.799999999999</v>
+        <v>10365.799999999999</v>
       </c>
       <c r="AA24" s="32">
         <f t="shared" si="22"/>
-        <v>10955.8</v>
+        <v>10949.8</v>
       </c>
       <c r="AB24" s="33">
         <f t="shared" si="22"/>
-        <v>11539.8</v>
+        <v>11533.8</v>
       </c>
       <c r="AC24" s="16">
         <f>SUM(AC18:AC21)+AC23</f>
@@ -3727,55 +3749,55 @@
       </c>
       <c r="AD24" s="32">
         <f>SUM(AD18:AD21)+AD23+AC25</f>
-        <v>6051.9</v>
+        <v>6048.9</v>
       </c>
       <c r="AE24" s="32">
         <f>SUM(AE18:AE21)+AE23+AD25</f>
-        <v>6730.9</v>
+        <v>6726.9</v>
       </c>
       <c r="AF24" s="32">
         <f t="shared" ref="AF24:AP24" si="23">SUM(AF18:AF21)+AF23+AE25</f>
-        <v>7409.9</v>
+        <v>7405.9</v>
       </c>
       <c r="AG24" s="32">
         <f t="shared" si="23"/>
-        <v>8088.9</v>
+        <v>8084.9</v>
       </c>
       <c r="AH24" s="32">
         <f t="shared" si="23"/>
-        <v>8331.06</v>
+        <v>8327.06</v>
       </c>
       <c r="AI24" s="32">
         <f t="shared" si="23"/>
-        <v>9010.06</v>
+        <v>9005.06</v>
       </c>
       <c r="AJ24" s="32">
         <f t="shared" si="23"/>
-        <v>9689.06</v>
+        <v>9684.06</v>
       </c>
       <c r="AK24" s="32">
         <f t="shared" si="23"/>
-        <v>10368.06</v>
+        <v>10363.06</v>
       </c>
       <c r="AL24" s="32">
         <f t="shared" si="23"/>
-        <v>11047.06</v>
+        <v>11042.06</v>
       </c>
       <c r="AM24" s="32">
         <f t="shared" si="23"/>
-        <v>10997.22</v>
+        <v>10992.22</v>
       </c>
       <c r="AN24" s="32">
         <f t="shared" si="23"/>
-        <v>11676.22</v>
+        <v>11670.22</v>
       </c>
       <c r="AO24" s="32">
         <f t="shared" si="23"/>
-        <v>12355.22</v>
+        <v>12349.22</v>
       </c>
       <c r="AP24" s="33">
         <f t="shared" si="23"/>
-        <v>13034.22</v>
+        <v>13028.22</v>
       </c>
       <c r="AQ24" s="16">
         <f>SUM(AQ18:AQ21)+AQ23</f>
@@ -3783,55 +3805,55 @@
       </c>
       <c r="AR24" s="32">
         <f>SUM(AR18:AR21)+AR23+AQ25</f>
-        <v>6994.9</v>
+        <v>6991.9</v>
       </c>
       <c r="AS24" s="32">
         <f t="shared" ref="AS24:BD24" si="24">SUM(AS18:AS21)+AS23+AR25</f>
-        <v>7673.9</v>
+        <v>7669.9</v>
       </c>
       <c r="AT24" s="32">
         <f t="shared" si="24"/>
-        <v>8352.9</v>
+        <v>8348.9</v>
       </c>
       <c r="AU24" s="32">
         <f t="shared" si="24"/>
-        <v>9031.9</v>
+        <v>9027.9</v>
       </c>
       <c r="AV24" s="32">
         <f t="shared" si="24"/>
-        <v>8982.06</v>
+        <v>8978.06</v>
       </c>
       <c r="AW24" s="32">
         <f t="shared" si="24"/>
-        <v>9661.06</v>
+        <v>9656.06</v>
       </c>
       <c r="AX24" s="32">
         <f t="shared" si="24"/>
-        <v>10340.06</v>
+        <v>10335.06</v>
       </c>
       <c r="AY24" s="32">
         <f t="shared" si="24"/>
-        <v>11019.06</v>
+        <v>11014.06</v>
       </c>
       <c r="AZ24" s="32">
         <f t="shared" si="24"/>
-        <v>11680.08</v>
+        <v>11675.08</v>
       </c>
       <c r="BA24" s="32">
         <f t="shared" si="24"/>
-        <v>11648.22</v>
+        <v>11643.22</v>
       </c>
       <c r="BB24" s="32">
         <f t="shared" si="24"/>
-        <v>12327.22</v>
+        <v>12321.22</v>
       </c>
       <c r="BC24" s="32">
         <f t="shared" si="24"/>
-        <v>13006.22</v>
+        <v>13000.22</v>
       </c>
       <c r="BD24" s="33">
         <f t="shared" si="24"/>
-        <v>13656.38</v>
+        <v>13650.38</v>
       </c>
       <c r="BE24" s="16">
         <f>SUM(BE18:BE21)+BE23</f>
@@ -3846,7 +3868,7 @@
       <c r="A25" s="31"/>
       <c r="B25" s="32">
         <f>B24-B17</f>
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C25" s="32">
         <f>C24-C17</f>
@@ -3862,7 +3884,7 @@
       </c>
       <c r="F25" s="32">
         <f t="shared" si="25"/>
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="G25" s="32">
         <f>G24-G17</f>
@@ -3878,7 +3900,7 @@
       </c>
       <c r="J25" s="32">
         <f t="shared" si="25"/>
-        <v>5256</v>
+        <v>5255</v>
       </c>
       <c r="K25" s="32">
         <f t="shared" si="25"/>
@@ -3898,179 +3920,179 @@
       </c>
       <c r="O25" s="34">
         <f t="shared" si="25"/>
-        <v>5405.48</v>
+        <v>5402.48</v>
       </c>
       <c r="P25" s="32">
         <f>P24-P17</f>
-        <v>5989.48</v>
+        <v>5985.48</v>
       </c>
       <c r="Q25" s="32">
         <f t="shared" ref="Q25:AC25" si="26">Q24-Q17</f>
-        <v>6573.48</v>
+        <v>6569.48</v>
       </c>
       <c r="R25" s="32">
         <f t="shared" si="26"/>
-        <v>7157.48</v>
+        <v>7153.48</v>
       </c>
       <c r="S25" s="60">
         <f t="shared" si="26"/>
-        <v>7012.6399999999994</v>
+        <v>7008.6399999999994</v>
       </c>
       <c r="T25" s="32">
         <f t="shared" si="26"/>
-        <v>7596.6399999999994</v>
+        <v>7591.6399999999994</v>
       </c>
       <c r="U25" s="32">
         <f t="shared" si="26"/>
-        <v>8180.6399999999994</v>
+        <v>8175.6399999999994</v>
       </c>
       <c r="V25" s="32">
         <f t="shared" si="26"/>
-        <v>8764.64</v>
+        <v>8759.64</v>
       </c>
       <c r="W25" s="60">
         <f t="shared" si="26"/>
-        <v>8619.7999999999993</v>
+        <v>8614.7999999999993</v>
       </c>
       <c r="X25" s="32">
         <f t="shared" si="26"/>
-        <v>9203.7999999999993</v>
+        <v>9197.7999999999993</v>
       </c>
       <c r="Y25" s="32">
         <f t="shared" si="26"/>
-        <v>9787.7999999999993</v>
+        <v>9781.7999999999993</v>
       </c>
       <c r="Z25" s="32">
         <f t="shared" si="26"/>
-        <v>10371.799999999999</v>
+        <v>10365.799999999999</v>
       </c>
       <c r="AA25" s="32">
         <f t="shared" si="26"/>
-        <v>10955.8</v>
+        <v>10949.8</v>
       </c>
       <c r="AB25" s="65">
         <f t="shared" si="26"/>
-        <v>10810.96</v>
+        <v>10804.96</v>
       </c>
       <c r="AC25" s="34">
         <f t="shared" si="26"/>
-        <v>5372.9</v>
+        <v>5369.9</v>
       </c>
       <c r="AD25" s="32">
         <f>AD24-AD17</f>
-        <v>6051.9</v>
+        <v>6047.9</v>
       </c>
       <c r="AE25" s="32">
         <f t="shared" ref="AE25:AQ25" si="27">AE24-AE17</f>
-        <v>6730.9</v>
+        <v>6726.9</v>
       </c>
       <c r="AF25" s="32">
         <f t="shared" si="27"/>
-        <v>7409.9</v>
+        <v>7405.9</v>
       </c>
       <c r="AG25" s="60">
         <f t="shared" si="27"/>
-        <v>7360.0599999999995</v>
+        <v>7356.0599999999995</v>
       </c>
       <c r="AH25" s="32">
         <f t="shared" si="27"/>
-        <v>8331.06</v>
+        <v>8326.06</v>
       </c>
       <c r="AI25" s="32">
         <f t="shared" si="27"/>
-        <v>9010.06</v>
+        <v>9005.06</v>
       </c>
       <c r="AJ25" s="32">
         <f t="shared" si="27"/>
-        <v>9689.06</v>
+        <v>9684.06</v>
       </c>
       <c r="AK25" s="32">
         <f t="shared" si="27"/>
-        <v>10368.06</v>
+        <v>10363.06</v>
       </c>
       <c r="AL25" s="60">
         <f t="shared" si="27"/>
-        <v>10318.219999999999</v>
+        <v>10313.219999999999</v>
       </c>
       <c r="AM25" s="32">
         <f t="shared" si="27"/>
-        <v>10997.22</v>
+        <v>10991.22</v>
       </c>
       <c r="AN25" s="32">
         <f t="shared" si="27"/>
-        <v>11676.22</v>
+        <v>11670.22</v>
       </c>
       <c r="AO25" s="32">
         <f>AO24-AO17</f>
-        <v>12355.22</v>
+        <v>12349.22</v>
       </c>
       <c r="AP25" s="66">
         <f>AP24-AP17</f>
-        <v>12305.38</v>
+        <v>12299.38</v>
       </c>
       <c r="AQ25" s="34">
         <f t="shared" si="27"/>
-        <v>6315.9</v>
+        <v>6312.9</v>
       </c>
       <c r="AR25" s="32">
         <f>AR24-AR17</f>
-        <v>6994.9</v>
+        <v>6990.9</v>
       </c>
       <c r="AS25" s="32">
         <f t="shared" ref="AS25:BF25" si="28">AS24-AS17</f>
-        <v>7673.9</v>
+        <v>7669.9</v>
       </c>
       <c r="AT25" s="32">
         <f t="shared" si="28"/>
-        <v>8352.9</v>
+        <v>8348.9</v>
       </c>
       <c r="AU25" s="60">
         <f t="shared" si="28"/>
-        <v>8303.06</v>
+        <v>8299.06</v>
       </c>
       <c r="AV25" s="32">
         <f t="shared" si="28"/>
-        <v>8982.06</v>
+        <v>8977.06</v>
       </c>
       <c r="AW25" s="32">
         <f t="shared" si="28"/>
-        <v>9661.06</v>
+        <v>9656.06</v>
       </c>
       <c r="AX25" s="32">
         <f t="shared" si="28"/>
-        <v>10340.06</v>
+        <v>10335.06</v>
       </c>
       <c r="AY25" s="32">
         <f t="shared" si="28"/>
-        <v>11001.08</v>
+        <v>10996.08</v>
       </c>
       <c r="AZ25" s="60">
         <f t="shared" si="28"/>
-        <v>10969.22</v>
+        <v>10964.22</v>
       </c>
       <c r="BA25" s="32">
         <f t="shared" si="28"/>
-        <v>11648.22</v>
+        <v>11642.22</v>
       </c>
       <c r="BB25" s="32">
         <f t="shared" si="28"/>
-        <v>12327.22</v>
+        <v>12321.22</v>
       </c>
       <c r="BC25" s="32">
         <f t="shared" si="28"/>
-        <v>12977.38</v>
+        <v>12971.38</v>
       </c>
       <c r="BD25" s="65">
         <f t="shared" si="28"/>
-        <v>12956.38</v>
+        <v>12950.38</v>
       </c>
       <c r="BE25" s="61">
         <f>BE24-BE17</f>
-        <v>6607.9</v>
+        <v>6604.9</v>
       </c>
       <c r="BF25" s="62">
         <f t="shared" si="28"/>
-        <v>23702.18</v>
+        <v>23690.18</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4129,7 +4151,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F29" s="85">
+      <c r="F29" s="78">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4359,7 +4381,7 @@
       </c>
       <c r="C40" s="80">
         <f>B40/BF25</f>
-        <v>6.1532875878927582</v>
+        <v>6.1564044680116394</v>
       </c>
       <c r="I40" s="50"/>
     </row>
